--- a/数电.xlsx
+++ b/数电.xlsx
@@ -4,19 +4,22 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="20490" windowHeight="7860" activeTab="2"/>
+    <workbookView windowWidth="28125" windowHeight="12540" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="第9章" sheetId="1" r:id="rId1"/>
     <sheet name="第10章" sheetId="2" r:id="rId2"/>
-    <sheet name="书签" sheetId="3" r:id="rId3"/>
+    <sheet name="第11章" sheetId="4" r:id="rId3"/>
+    <sheet name="书签" sheetId="3" r:id="rId4"/>
+    <sheet name="第12章" sheetId="5" r:id="rId5"/>
+    <sheet name="第13章" sheetId="6" r:id="rId6"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="179" uniqueCount="137">
   <si>
     <t>模电和数电</t>
   </si>
@@ -154,6 +157,276 @@
   </si>
   <si>
     <t>第10章：数制，编码与逻辑代数</t>
+  </si>
+  <si>
+    <t>计算机用的二进制，编码指的是用二进制数表示各种数和符号的过程。逻辑代数是分析电路的数学工具，分析和设计数字电路也用逻辑门。</t>
+  </si>
+  <si>
+    <t>10.1数制</t>
+  </si>
+  <si>
+    <t>10.1.1十进制数</t>
+  </si>
+  <si>
+    <t>10.1.2二进制数</t>
+  </si>
+  <si>
+    <t>10.1.3十六进制数</t>
+  </si>
+  <si>
+    <t>10.1.4数制转换</t>
+  </si>
+  <si>
+    <t>10.2编码</t>
+  </si>
+  <si>
+    <t>数字电路只能处理二进制信息，但实际上经常遇到其他信息，字母文字符号这种，所以必须转成二进制</t>
+  </si>
+  <si>
+    <t>用二进制数表示各个数字或符号的过程称为编码，编码由编码电路来实现的</t>
+  </si>
+  <si>
+    <t>编码电路由很多种，这里只介绍二-十进制编码，简称BCD码，</t>
+  </si>
+  <si>
+    <t>10.2.1 8421BCD码，2421BCD码，5421BCD码</t>
+  </si>
+  <si>
+    <t>⑴8421BCD码</t>
+  </si>
+  <si>
+    <t>⑵2421BCD码</t>
+  </si>
+  <si>
+    <t>⑶5421BCD</t>
+  </si>
+  <si>
+    <t>10.2.2余3码</t>
+  </si>
+  <si>
+    <t>8421BCD码+3得来的</t>
+  </si>
+  <si>
+    <t>10.2.3格雷码</t>
+  </si>
+  <si>
+    <t>在数字电路中容易出错，但是格雷码在递增和递减只有1位变换，常用于高分辨率的设备中</t>
+  </si>
+  <si>
+    <t>10.2.4奇偶校验码</t>
+  </si>
+  <si>
+    <t>10.3逻辑代数</t>
+  </si>
+  <si>
+    <t>逻辑代数又称开关代数，又称布尔代数，逻辑代数是按照一定的逻辑规律进行运算的代数，这是研究数字电路的数学工具</t>
+  </si>
+  <si>
+    <t>10.3.1逻辑代数的常量和变量</t>
+  </si>
+  <si>
+    <t>逻辑代数'0''1'表示的是两种对立的逻辑状态，而不是数的大小</t>
+  </si>
+  <si>
+    <t>10.3.2逻辑代数的基本运算规律</t>
+  </si>
+  <si>
+    <t>逻辑代数运算也有一定的规律，主要又基本运算定律，常用的恒等式</t>
+  </si>
+  <si>
+    <t>⑴逻辑代数的基本运算定律</t>
+  </si>
+  <si>
+    <t>⑵常用的恒等式</t>
+  </si>
+  <si>
+    <t>10.3.3逻辑表达式的简化</t>
+  </si>
+  <si>
+    <t>⑴逻辑表达式化简的意义</t>
+  </si>
+  <si>
+    <t>利用逻辑表达式可以分析设计数字电路，同一逻辑往往可以有几种不同的表达式，</t>
+  </si>
+  <si>
+    <t>10.3.4逻辑表达式，逻辑电路，真值表，相互转化</t>
+  </si>
+  <si>
+    <t>任何一个逻辑电路的输入输出都可以用逻辑表达式表示出来，任何一个逻辑表达式总可以设计出一个电路对其进行计算</t>
+  </si>
+  <si>
+    <t>逻辑表达式可以用真值表穷举出所有的情况</t>
+  </si>
+  <si>
+    <t>⑴逻辑表达式和逻辑电路的相互转化</t>
+  </si>
+  <si>
+    <t>⑵逻辑表达式和真值表相互转化</t>
+  </si>
+  <si>
+    <t>10.3.5逻辑代数在逻辑电路中的应用</t>
+  </si>
+  <si>
+    <t>第11章：组合逻辑电路</t>
+  </si>
+  <si>
+    <t>组合逻辑电路又称为组合电路，它任何时刻的输出只由输入决定，而与电路以前的状态无关，电路没有记忆功能</t>
+  </si>
+  <si>
+    <t>常见的组合逻辑电路有编码器，译码器，加法器，数值比较器，数据选择器，奇偶校验器</t>
+  </si>
+  <si>
+    <t>11.1组合逻辑电路的分析与设计</t>
+  </si>
+  <si>
+    <t>11.1.1组合逻辑电路的分析</t>
+  </si>
+  <si>
+    <t>11.1.2组合逻辑电路的设计</t>
+  </si>
+  <si>
+    <t>11.2编码器</t>
+  </si>
+  <si>
+    <t>在数字电路中，将输入信号转成一组二进制代码的过程称为编码，编码器指的是能实现编码功能的电路</t>
+  </si>
+  <si>
+    <t>比如说键盘，当按下某个按键时，给编码器产生一个信号，编码器把信号转成一串二进制数，送入计算机，</t>
+  </si>
+  <si>
+    <t>不同按键产生不同的二进制信号，计算机根据不同的信号就能识别哪个按键了，</t>
+  </si>
+  <si>
+    <t>编码器主要分为普通编码器，优先编码器</t>
+  </si>
+  <si>
+    <t>11.2.1普通编码器</t>
+  </si>
+  <si>
+    <t>任何时候只能产生一个信号，同时有多个信号就错乱了</t>
+  </si>
+  <si>
+    <t>11.2.2优先编码器</t>
+  </si>
+  <si>
+    <t>优先级编码器允许同时输入多个信号，但是对输入信号优先级最高的一个进行编码，</t>
+  </si>
+  <si>
+    <t>⑴8线-3线优先编码器芯片</t>
+  </si>
+  <si>
+    <t>比如74LS148译码芯片，能把8路信号转成3路的数字信号，</t>
+  </si>
+  <si>
+    <t>⑵8线-3线优先编码器</t>
+  </si>
+  <si>
+    <t>⑶16线-4线优先编码器</t>
+  </si>
+  <si>
+    <t>由两个74LS148芯片组成的16线-4线优先编码器</t>
+  </si>
+  <si>
+    <t>E0是输出始能，E1是输入始能</t>
+  </si>
+  <si>
+    <t>11.3译码器</t>
+  </si>
+  <si>
+    <t>是编码器的逆过程，把二进制转成特定输出信号的过程，完成译码工作的是译码器</t>
+  </si>
+  <si>
+    <t>11.3.1二进制译码器</t>
+  </si>
+  <si>
+    <t>⑴二进制译码器的工作原理</t>
+  </si>
+  <si>
+    <t>⑵2线-8线译码芯片</t>
+  </si>
+  <si>
+    <t>74LS138，著名的三八译码器</t>
+  </si>
+  <si>
+    <t>⑶4线-16线译码器</t>
+  </si>
+  <si>
+    <t>11.3.2二-十进制译码器</t>
+  </si>
+  <si>
+    <t>11.4数码管</t>
+  </si>
+  <si>
+    <t>11.5加法器</t>
+  </si>
+  <si>
+    <t>加法器分全加器和半加器</t>
+  </si>
+  <si>
+    <t>11.5.1半加器</t>
+  </si>
+  <si>
+    <t>实现两个一位二进制数相加，可以用一个异或门和一个与门实现</t>
+  </si>
+  <si>
+    <t>11.5.2全加器</t>
+  </si>
+  <si>
+    <t>带进位的加法运算，将两个数相加，再加上地位送来的进位</t>
+  </si>
+  <si>
+    <t>11.5.3多为加法器</t>
+  </si>
+  <si>
+    <t>⑴结构和原理</t>
+  </si>
+  <si>
+    <t>能实现A1A2A3A4+B1B2B3B4，结果是C4S4S3S2S1</t>
+  </si>
+  <si>
+    <t>⑵常用多位加法器芯片</t>
+  </si>
+  <si>
+    <t>11.6数值比较器</t>
+  </si>
+  <si>
+    <t>分两种，等值比较器，数值比较器</t>
+  </si>
+  <si>
+    <t>11.6.1等值比较器</t>
+  </si>
+  <si>
+    <t>检验数据是否相等</t>
+  </si>
+  <si>
+    <t>⑴1位等值比较器</t>
+  </si>
+  <si>
+    <t>⑵多位等值比较器</t>
+  </si>
+  <si>
+    <t>11.6.2数值比较器</t>
+  </si>
+  <si>
+    <t>数值比较器不仅能比较数的值，还能比较出大小</t>
+  </si>
+  <si>
+    <t>⑴1位数值比较器</t>
+  </si>
+  <si>
+    <t>⑵多位数值比较器</t>
+  </si>
+  <si>
+    <t>11.7数据选择器</t>
+  </si>
+  <si>
+    <t>11.7.1结构与原理</t>
+  </si>
+  <si>
+    <t>11.7.2数据选择器的结构和原理</t>
+  </si>
+  <si>
+    <t>11.8奇偶校验器</t>
   </si>
   <si>
     <t>https://e.dangdang.com/pc/reader/index.html?id=1901087681</t>
@@ -164,22 +437,15 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="23">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -200,9 +466,9 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -214,7 +480,37 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -222,7 +518,22 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -237,60 +548,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -313,7 +578,7 @@
     </font>
     <font>
       <b/>
-      <sz val="13"/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -322,7 +587,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -336,8 +601,16 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -352,7 +625,145 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -364,109 +775,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -484,55 +799,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -549,33 +822,7 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
+      <bottom style="medium">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -600,7 +847,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -622,9 +869,26 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -643,6 +907,15 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -651,10 +924,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -663,34 +936,37 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -699,97 +975,94 @@
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="22" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="27" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="27" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="29" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -924,20 +1197,151 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>73660</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>93980</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="图片 1"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1485900" y="3886200"/>
+          <a:ext cx="1931035" cy="1122680"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>330200</xdr:colOff>
+      <xdr:row>50</xdr:row>
+      <xdr:rowOff>121920</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="图片 2"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1114425" y="7829550"/>
+          <a:ext cx="2187575" cy="979170"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>53</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>347980</xdr:colOff>
+      <xdr:row>57</xdr:row>
+      <xdr:rowOff>88265</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="6" name="图片 5"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1485900" y="9201150"/>
+          <a:ext cx="2205355" cy="774065"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>1</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>133350</xdr:colOff>
-      <xdr:row>33</xdr:row>
-      <xdr:rowOff>104775</xdr:rowOff>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>54</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="图片 2"/>
+        <xdr:cNvPr id="2" name="图片 1"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -951,7 +1355,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="171450"/>
-          <a:ext cx="8362950" cy="5591175"/>
+          <a:ext cx="14439900" cy="9201150"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1256,8 +1660,8 @@
   <sheetPr/>
   <dimension ref="A1:AE86"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="130" zoomScaleNormal="130" topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="A1" sqref="$A1:$XFD2"/>
+    <sheetView showGridLines="0" zoomScale="130" zoomScaleNormal="130" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="F26" sqref="F26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="4.875" defaultRowHeight="13.5"/>
@@ -1266,8 +1670,8 @@
   </cols>
   <sheetData>
     <row r="1" s="1" customFormat="1" ht="22.5" spans="9:31">
-      <c r="I1" s="4"/>
-      <c r="J1" s="4" t="s">
+      <c r="I1" s="3"/>
+      <c r="J1" s="3" t="s">
         <v>0</v>
       </c>
       <c r="V1" s="2"/>
@@ -1301,7 +1705,7 @@
       <c r="Z2" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="AA2" s="5" t="s">
+      <c r="AA2" s="4" t="s">
         <v>10</v>
       </c>
     </row>
@@ -1309,8 +1713,8 @@
       <c r="A3" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="I3" s="4"/>
-      <c r="J3" s="4"/>
+      <c r="I3" s="3"/>
+      <c r="J3" s="3"/>
     </row>
     <row r="4" s="1" customFormat="1" spans="2:31">
       <c r="B4" s="1" t="s">
@@ -1325,7 +1729,7 @@
         <v>13</v>
       </c>
       <c r="X5" s="2"/>
-      <c r="AA5" s="5"/>
+      <c r="AA5" s="4"/>
     </row>
     <row r="6" s="1" customFormat="1" spans="3:3">
       <c r="C6" s="1" t="s">
@@ -1354,10 +1758,10 @@
       <c r="E14" s="2"/>
     </row>
     <row r="16" s="1" customFormat="1" spans="3:3">
-      <c r="C16" s="3"/>
+      <c r="C16" s="5"/>
     </row>
     <row r="17" s="1" customFormat="1" spans="3:3">
-      <c r="C17" s="3"/>
+      <c r="C17" s="5"/>
     </row>
     <row r="18" s="1" customFormat="1" spans="4:4">
       <c r="D18" s="1" t="s">
@@ -1370,7 +1774,7 @@
       </c>
     </row>
     <row r="20" s="1" customFormat="1" spans="3:4">
-      <c r="C20" s="3"/>
+      <c r="C20" s="5"/>
       <c r="D20" s="1" t="s">
         <v>20</v>
       </c>
@@ -1386,7 +1790,7 @@
       </c>
     </row>
     <row r="23" s="1" customFormat="1" spans="3:4">
-      <c r="C23" s="3"/>
+      <c r="C23" s="5"/>
       <c r="D23" s="2" t="s">
         <v>23</v>
       </c>
@@ -2354,8 +2758,6 @@
       <c r="Y53" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="Z53" s="1"/>
-      <c r="AA53" s="1"/>
       <c r="AB53"/>
       <c r="AC53"/>
       <c r="AD53"/>
@@ -2392,11 +2794,9 @@
       <c r="X54" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="Y54" s="5" t="s">
+      <c r="Y54" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="Z54" s="1"/>
-      <c r="AA54" s="1"/>
       <c r="AB54"/>
       <c r="AC54"/>
       <c r="AD54"/>
@@ -3407,7 +3807,7 @@
   <dimension ref="A1:AE86"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J12" sqref="J12"/>
+      <selection activeCell="O25" sqref="$A1:$XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="4.875" defaultRowHeight="13.5"/>
@@ -3416,8 +3816,8 @@
   </cols>
   <sheetData>
     <row r="1" s="1" customFormat="1" ht="22.5" spans="9:31">
-      <c r="I1" s="4"/>
-      <c r="J1" s="4" t="s">
+      <c r="I1" s="3"/>
+      <c r="J1" s="3" t="s">
         <v>0</v>
       </c>
       <c r="V1" s="2"/>
@@ -3438,10 +3838,7 @@
       </c>
       <c r="AE1" s="2"/>
     </row>
-    <row r="2" s="1" customFormat="1" spans="1:27">
-      <c r="A2" s="1" t="s">
-        <v>45</v>
-      </c>
+    <row r="2" spans="23:27">
       <c r="W2" s="1" t="s">
         <v>6</v>
       </c>
@@ -3454,88 +3851,144 @@
       <c r="Z2" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="AA2" s="5" t="s">
+      <c r="AA2" s="4" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="4" s="1" customFormat="1" spans="22:31">
-      <c r="V4" s="2"/>
-      <c r="X4" s="2"/>
-      <c r="AE4" s="2"/>
-    </row>
-    <row r="5" s="1" customFormat="1" spans="24:27">
+    <row r="3" s="1" customFormat="1" spans="1:1">
+      <c r="A3" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="4" spans="2:2">
+      <c r="B4" s="1" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="5" s="1" customFormat="1" spans="2:31">
+      <c r="B5" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="V5" s="2"/>
       <c r="X5" s="2"/>
-      <c r="AA5" s="5"/>
-    </row>
-    <row r="13" s="1" customFormat="1" spans="5:5">
-      <c r="E13" s="2"/>
-    </row>
-    <row r="14" s="1" customFormat="1" spans="5:5">
+      <c r="AE5" s="2"/>
+    </row>
+    <row r="6" s="1" customFormat="1" spans="3:27">
+      <c r="C6" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="X6" s="2"/>
+      <c r="AA6" s="4"/>
+    </row>
+    <row r="7" spans="3:3">
+      <c r="C7" s="1" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="8" spans="3:3">
+      <c r="C8" s="1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="9" spans="3:3">
+      <c r="C9" s="1" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="10" spans="2:2">
+      <c r="B10" s="1" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="11" spans="3:3">
+      <c r="C11" s="1" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="12" spans="3:3">
+      <c r="C12" s="1" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="13" spans="3:3">
+      <c r="C13" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="14" s="1" customFormat="1" spans="3:5">
+      <c r="C14" s="1" t="s">
+        <v>56</v>
+      </c>
       <c r="E14" s="2"/>
     </row>
-    <row r="16" s="1" customFormat="1" spans="3:3">
-      <c r="C16" s="3"/>
-    </row>
-    <row r="17" s="1" customFormat="1" spans="3:3">
-      <c r="C17" s="3"/>
-    </row>
-    <row r="20" s="1" customFormat="1" spans="3:3">
-      <c r="C20" s="3"/>
-    </row>
-    <row r="22" s="1" customFormat="1" spans="4:4">
-      <c r="D22" s="2"/>
-    </row>
-    <row r="23" s="1" customFormat="1" spans="3:4">
-      <c r="C23" s="3"/>
-      <c r="D23" s="2"/>
-    </row>
-    <row r="24" s="1" customFormat="1" spans="2:30">
-      <c r="B24"/>
-      <c r="C24"/>
-      <c r="D24"/>
-      <c r="E24"/>
-      <c r="F24"/>
-      <c r="G24"/>
-      <c r="H24"/>
-      <c r="I24"/>
-      <c r="J24"/>
-      <c r="K24"/>
-      <c r="L24"/>
-      <c r="M24"/>
-      <c r="N24"/>
-      <c r="O24"/>
-      <c r="P24"/>
-      <c r="Q24"/>
-      <c r="R24"/>
-      <c r="S24"/>
-      <c r="T24"/>
-      <c r="U24"/>
-      <c r="V24"/>
-      <c r="W24"/>
-      <c r="X24"/>
-      <c r="Y24"/>
-      <c r="Z24"/>
-      <c r="AA24"/>
-      <c r="AB24"/>
-      <c r="AC24"/>
-      <c r="AD24"/>
-    </row>
-    <row r="25" s="1" customFormat="1" spans="2:30">
-      <c r="B25"/>
-      <c r="C25"/>
-      <c r="D25"/>
-      <c r="E25"/>
-      <c r="F25"/>
-      <c r="G25"/>
-      <c r="H25"/>
-      <c r="I25"/>
-      <c r="J25"/>
-      <c r="K25"/>
-      <c r="L25"/>
-      <c r="M25"/>
-      <c r="N25"/>
-      <c r="O25"/>
-      <c r="P25"/>
+    <row r="15" s="1" customFormat="1" spans="4:5">
+      <c r="D15" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="E15" s="2"/>
+    </row>
+    <row r="16" spans="4:4">
+      <c r="D16" s="1" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="17" s="1" customFormat="1" spans="4:4">
+      <c r="D17" s="1" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="18" s="1" customFormat="1" spans="3:3">
+      <c r="C18" s="1" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="19" spans="4:4">
+      <c r="D19" s="1" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="20" spans="3:3">
+      <c r="C20" s="1" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="21" s="1" customFormat="1" spans="4:4">
+      <c r="D21" s="1" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="22" spans="3:3">
+      <c r="C22" s="1" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="23" s="1" customFormat="1" spans="2:2">
+      <c r="B23" s="1" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="24" s="1" customFormat="1" spans="3:3">
+      <c r="C24" s="1" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="25" s="1" customFormat="1" spans="3:30">
+      <c r="C25" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="D25" s="1"/>
+      <c r="E25" s="1"/>
+      <c r="F25" s="1"/>
+      <c r="G25" s="1"/>
+      <c r="H25" s="1"/>
+      <c r="I25" s="1"/>
+      <c r="J25" s="1"/>
+      <c r="K25" s="1"/>
+      <c r="L25" s="1"/>
+      <c r="M25" s="1"/>
+      <c r="N25" s="1"/>
+      <c r="O25" s="1"/>
+      <c r="P25" s="1"/>
       <c r="Q25"/>
       <c r="R25"/>
       <c r="S25"/>
@@ -3551,22 +4004,22 @@
       <c r="AC25"/>
       <c r="AD25"/>
     </row>
-    <row r="26" s="1" customFormat="1" spans="2:30">
-      <c r="B26"/>
-      <c r="C26"/>
-      <c r="D26"/>
-      <c r="E26"/>
-      <c r="F26"/>
-      <c r="G26"/>
-      <c r="H26"/>
-      <c r="I26"/>
-      <c r="J26"/>
-      <c r="K26"/>
-      <c r="L26"/>
-      <c r="M26"/>
-      <c r="N26"/>
-      <c r="O26"/>
-      <c r="P26"/>
+    <row r="26" s="1" customFormat="1" spans="4:30">
+      <c r="D26" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="E26" s="1"/>
+      <c r="F26" s="1"/>
+      <c r="G26" s="1"/>
+      <c r="H26" s="1"/>
+      <c r="I26" s="1"/>
+      <c r="J26" s="1"/>
+      <c r="K26" s="1"/>
+      <c r="L26" s="1"/>
+      <c r="M26" s="1"/>
+      <c r="N26" s="1"/>
+      <c r="O26" s="1"/>
+      <c r="P26" s="1"/>
       <c r="Q26"/>
       <c r="R26"/>
       <c r="S26"/>
@@ -3582,22 +4035,23 @@
       <c r="AC26"/>
       <c r="AD26"/>
     </row>
-    <row r="27" s="1" customFormat="1" spans="2:30">
-      <c r="B27"/>
-      <c r="C27"/>
-      <c r="D27"/>
-      <c r="E27"/>
-      <c r="F27"/>
-      <c r="G27"/>
-      <c r="H27"/>
-      <c r="I27"/>
-      <c r="J27"/>
-      <c r="K27"/>
-      <c r="L27"/>
-      <c r="M27"/>
-      <c r="N27"/>
-      <c r="O27"/>
-      <c r="P27"/>
+    <row r="27" s="1" customFormat="1" spans="3:30">
+      <c r="C27" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="D27" s="1"/>
+      <c r="E27" s="1"/>
+      <c r="F27" s="1"/>
+      <c r="G27" s="1"/>
+      <c r="H27" s="1"/>
+      <c r="I27" s="1"/>
+      <c r="J27" s="1"/>
+      <c r="K27" s="1"/>
+      <c r="L27" s="1"/>
+      <c r="M27" s="1"/>
+      <c r="N27" s="1"/>
+      <c r="O27" s="1"/>
+      <c r="P27" s="1"/>
       <c r="Q27"/>
       <c r="R27"/>
       <c r="S27"/>
@@ -3613,7 +4067,19 @@
       <c r="AC27"/>
       <c r="AD27"/>
     </row>
-    <row r="28" s="1" customFormat="1" spans="12:30">
+    <row r="28" s="1" customFormat="1" spans="2:30">
+      <c r="B28"/>
+      <c r="C28"/>
+      <c r="D28" t="s">
+        <v>70</v>
+      </c>
+      <c r="E28"/>
+      <c r="F28"/>
+      <c r="G28"/>
+      <c r="H28"/>
+      <c r="I28"/>
+      <c r="J28"/>
+      <c r="K28"/>
       <c r="L28"/>
       <c r="M28"/>
       <c r="N28"/>
@@ -3634,17 +4100,10 @@
       <c r="AC28"/>
       <c r="AD28"/>
     </row>
-    <row r="29" s="1" customFormat="1" spans="2:30">
-      <c r="B29"/>
-      <c r="C29"/>
-      <c r="D29"/>
-      <c r="E29"/>
-      <c r="F29"/>
-      <c r="G29"/>
-      <c r="H29"/>
-      <c r="I29"/>
-      <c r="J29"/>
-      <c r="K29"/>
+    <row r="29" s="1" customFormat="1" spans="4:30">
+      <c r="D29" s="1" t="s">
+        <v>71</v>
+      </c>
       <c r="L29"/>
       <c r="M29"/>
       <c r="N29"/>
@@ -3668,7 +4127,9 @@
     <row r="30" s="1" customFormat="1" spans="2:30">
       <c r="B30"/>
       <c r="C30"/>
-      <c r="D30"/>
+      <c r="D30" s="1" t="s">
+        <v>72</v>
+      </c>
       <c r="E30"/>
       <c r="F30"/>
       <c r="G30"/>
@@ -3698,7 +4159,9 @@
     </row>
     <row r="31" s="1" customFormat="1" spans="2:30">
       <c r="B31"/>
-      <c r="C31"/>
+      <c r="C31" t="s">
+        <v>73</v>
+      </c>
       <c r="D31"/>
       <c r="E31"/>
       <c r="F31"/>
@@ -3730,7 +4193,9 @@
     <row r="32" s="1" customFormat="1" spans="2:30">
       <c r="B32"/>
       <c r="C32"/>
-      <c r="D32"/>
+      <c r="D32" s="1" t="s">
+        <v>74</v>
+      </c>
       <c r="E32"/>
       <c r="F32"/>
       <c r="G32"/>
@@ -3762,7 +4227,9 @@
       <c r="B33"/>
       <c r="C33"/>
       <c r="D33"/>
-      <c r="E33"/>
+      <c r="E33" t="s">
+        <v>75</v>
+      </c>
       <c r="F33"/>
       <c r="G33"/>
       <c r="H33"/>
@@ -3791,7 +4258,9 @@
     </row>
     <row r="34" s="1" customFormat="1" spans="2:30">
       <c r="B34"/>
-      <c r="C34"/>
+      <c r="C34" t="s">
+        <v>76</v>
+      </c>
       <c r="D34"/>
       <c r="E34"/>
       <c r="F34"/>
@@ -3823,7 +4292,9 @@
     <row r="35" s="1" customFormat="1" spans="2:30">
       <c r="B35"/>
       <c r="C35"/>
-      <c r="D35"/>
+      <c r="D35" t="s">
+        <v>77</v>
+      </c>
       <c r="E35"/>
       <c r="F35"/>
       <c r="G35"/>
@@ -3854,7 +4325,9 @@
     <row r="36" s="1" customFormat="1" spans="2:30">
       <c r="B36"/>
       <c r="C36"/>
-      <c r="D36"/>
+      <c r="D36" t="s">
+        <v>78</v>
+      </c>
       <c r="E36"/>
       <c r="F36"/>
       <c r="G36"/>
@@ -3885,7 +4358,9 @@
     <row r="37" s="1" customFormat="1" spans="2:30">
       <c r="B37"/>
       <c r="C37"/>
-      <c r="D37" s="1"/>
+      <c r="D37" s="1" t="s">
+        <v>79</v>
+      </c>
       <c r="E37"/>
       <c r="F37"/>
       <c r="G37"/>
@@ -3916,7 +4391,9 @@
     <row r="38" s="1" customFormat="1" spans="2:30">
       <c r="B38"/>
       <c r="C38"/>
-      <c r="D38" s="1"/>
+      <c r="D38" s="1" t="s">
+        <v>80</v>
+      </c>
       <c r="E38"/>
       <c r="F38"/>
       <c r="G38"/>
@@ -3946,8 +4423,9 @@
     </row>
     <row r="39" s="1" customFormat="1" spans="2:30">
       <c r="B39"/>
-      <c r="C39"/>
-      <c r="D39" s="1"/>
+      <c r="C39" t="s">
+        <v>81</v>
+      </c>
       <c r="E39"/>
       <c r="F39"/>
       <c r="G39"/>
@@ -4392,11 +4870,7 @@
       <c r="R53"/>
       <c r="S53"/>
       <c r="T53"/>
-      <c r="U53" s="1"/>
       <c r="V53" s="2"/>
-      <c r="W53" s="1"/>
-      <c r="X53" s="1"/>
-      <c r="Y53" s="1"/>
       <c r="AB53"/>
       <c r="AC53"/>
       <c r="AD53"/>
@@ -4421,11 +4895,8 @@
       <c r="R54"/>
       <c r="S54"/>
       <c r="T54"/>
-      <c r="U54" s="1"/>
       <c r="V54" s="2"/>
-      <c r="W54" s="1"/>
-      <c r="X54" s="1"/>
-      <c r="Y54" s="5"/>
+      <c r="Y54" s="4"/>
       <c r="AB54"/>
       <c r="AC54"/>
       <c r="AD54"/>
@@ -5431,17 +5902,2107 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
+  <dimension ref="A1:AE86"/>
+  <sheetViews>
+    <sheetView zoomScale="160" zoomScaleNormal="160" topLeftCell="A62" workbookViewId="0">
+      <selection activeCell="E78" sqref="E78"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="4.875" defaultRowHeight="13.5"/>
+  <cols>
+    <col min="1" max="16384" width="4.875" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" s="1" customFormat="1" ht="22.5" spans="9:31">
+      <c r="I1" s="3"/>
+      <c r="J1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="V1" s="2"/>
+      <c r="W1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="X1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="Y1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="Z1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="AA1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="AE1" s="2"/>
+    </row>
+    <row r="2" s="1" customFormat="1" spans="23:27">
+      <c r="W2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="X2" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="Y2" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="Z2" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="AA2" s="4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" s="1" customFormat="1" spans="1:1">
+      <c r="A3" s="1" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="4" s="1" customFormat="1" spans="2:2">
+      <c r="B4" s="1" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="5" s="1" customFormat="1" spans="2:31">
+      <c r="B5" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="V5" s="2"/>
+      <c r="X5" s="2"/>
+      <c r="AE5" s="2"/>
+    </row>
+    <row r="6" s="1" customFormat="1" spans="2:27">
+      <c r="B6" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="C6" s="1"/>
+      <c r="X6" s="2"/>
+      <c r="AA6" s="4"/>
+    </row>
+    <row r="7" s="1" customFormat="1" spans="3:3">
+      <c r="C7" s="1" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="8" s="1" customFormat="1" spans="3:3">
+      <c r="C8" s="1" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="9" s="1" customFormat="1" spans="2:2">
+      <c r="B9" s="1" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="10" s="1" customFormat="1" spans="3:3">
+      <c r="C10" s="1" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="11" s="1" customFormat="1" spans="3:3">
+      <c r="C11" s="1" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="12" s="1" customFormat="1" spans="3:3">
+      <c r="C12" s="1" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="13" s="1" customFormat="1" spans="3:3">
+      <c r="C13" s="1" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="14" s="1" customFormat="1" spans="3:5">
+      <c r="C14" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="E14" s="2"/>
+    </row>
+    <row r="15" s="1" customFormat="1" spans="4:5">
+      <c r="D15" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="E15" s="2"/>
+    </row>
+    <row r="16" s="1" customFormat="1" spans="3:3">
+      <c r="C16" s="1" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="17" s="1" customFormat="1" spans="4:4">
+      <c r="D17" s="1" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="18" s="1" customFormat="1" spans="4:4">
+      <c r="D18" s="1" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="19" s="1" customFormat="1" spans="5:5">
+      <c r="E19" s="1" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="20" s="1" customFormat="1" spans="4:4">
+      <c r="D20" s="1" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="21" s="1" customFormat="1" spans="4:4">
+      <c r="D21" s="1" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="22" s="1" customFormat="1" spans="5:5">
+      <c r="E22" s="1" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="25" s="1" customFormat="1" spans="17:30">
+      <c r="Q25"/>
+      <c r="R25"/>
+      <c r="S25"/>
+      <c r="T25"/>
+      <c r="U25"/>
+      <c r="V25"/>
+      <c r="W25"/>
+      <c r="X25"/>
+      <c r="Y25"/>
+      <c r="Z25"/>
+      <c r="AA25"/>
+      <c r="AB25"/>
+      <c r="AC25"/>
+      <c r="AD25"/>
+    </row>
+    <row r="26" s="1" customFormat="1" spans="17:30">
+      <c r="Q26"/>
+      <c r="R26"/>
+      <c r="S26"/>
+      <c r="T26"/>
+      <c r="U26"/>
+      <c r="V26"/>
+      <c r="W26"/>
+      <c r="X26"/>
+      <c r="Y26"/>
+      <c r="Z26"/>
+      <c r="AA26"/>
+      <c r="AB26"/>
+      <c r="AC26"/>
+      <c r="AD26"/>
+    </row>
+    <row r="27" s="1" customFormat="1" spans="17:30">
+      <c r="Q27"/>
+      <c r="R27"/>
+      <c r="S27"/>
+      <c r="T27"/>
+      <c r="U27"/>
+      <c r="V27"/>
+      <c r="W27"/>
+      <c r="X27"/>
+      <c r="Y27"/>
+      <c r="Z27"/>
+      <c r="AA27"/>
+      <c r="AB27"/>
+      <c r="AC27"/>
+      <c r="AD27"/>
+    </row>
+    <row r="28" s="1" customFormat="1" spans="2:30">
+      <c r="B28"/>
+      <c r="C28"/>
+      <c r="D28"/>
+      <c r="E28"/>
+      <c r="F28"/>
+      <c r="G28"/>
+      <c r="H28"/>
+      <c r="I28"/>
+      <c r="J28"/>
+      <c r="K28"/>
+      <c r="L28"/>
+      <c r="M28"/>
+      <c r="N28"/>
+      <c r="O28"/>
+      <c r="P28"/>
+      <c r="Q28"/>
+      <c r="R28"/>
+      <c r="S28"/>
+      <c r="T28"/>
+      <c r="U28"/>
+      <c r="V28"/>
+      <c r="W28"/>
+      <c r="X28"/>
+      <c r="Y28"/>
+      <c r="Z28"/>
+      <c r="AA28"/>
+      <c r="AB28"/>
+      <c r="AC28"/>
+      <c r="AD28"/>
+    </row>
+    <row r="29" s="1" customFormat="1" spans="12:30">
+      <c r="L29"/>
+      <c r="M29"/>
+      <c r="N29"/>
+      <c r="O29"/>
+      <c r="P29"/>
+      <c r="Q29"/>
+      <c r="R29"/>
+      <c r="S29"/>
+      <c r="T29"/>
+      <c r="U29"/>
+      <c r="V29"/>
+      <c r="W29"/>
+      <c r="X29"/>
+      <c r="Y29"/>
+      <c r="Z29"/>
+      <c r="AA29"/>
+      <c r="AB29"/>
+      <c r="AC29"/>
+      <c r="AD29"/>
+    </row>
+    <row r="30" s="1" customFormat="1" spans="2:30">
+      <c r="B30"/>
+      <c r="C30"/>
+      <c r="D30" s="1"/>
+      <c r="E30" t="s">
+        <v>102</v>
+      </c>
+      <c r="F30"/>
+      <c r="G30"/>
+      <c r="H30"/>
+      <c r="I30"/>
+      <c r="J30"/>
+      <c r="K30"/>
+      <c r="L30"/>
+      <c r="M30"/>
+      <c r="N30"/>
+      <c r="O30"/>
+      <c r="P30"/>
+      <c r="Q30"/>
+      <c r="R30"/>
+      <c r="S30"/>
+      <c r="T30"/>
+      <c r="U30"/>
+      <c r="V30"/>
+      <c r="W30"/>
+      <c r="X30"/>
+      <c r="Y30"/>
+      <c r="Z30"/>
+      <c r="AA30"/>
+      <c r="AB30"/>
+      <c r="AC30"/>
+      <c r="AD30"/>
+    </row>
+    <row r="31" s="1" customFormat="1" spans="2:30">
+      <c r="B31" t="s">
+        <v>103</v>
+      </c>
+      <c r="C31"/>
+      <c r="D31"/>
+      <c r="E31"/>
+      <c r="F31"/>
+      <c r="G31"/>
+      <c r="H31"/>
+      <c r="I31"/>
+      <c r="J31"/>
+      <c r="K31"/>
+      <c r="L31"/>
+      <c r="M31"/>
+      <c r="N31"/>
+      <c r="O31"/>
+      <c r="P31"/>
+      <c r="Q31"/>
+      <c r="R31"/>
+      <c r="S31"/>
+      <c r="T31"/>
+      <c r="U31"/>
+      <c r="V31"/>
+      <c r="W31"/>
+      <c r="X31"/>
+      <c r="Y31"/>
+      <c r="Z31"/>
+      <c r="AA31"/>
+      <c r="AB31"/>
+      <c r="AC31"/>
+      <c r="AD31"/>
+    </row>
+    <row r="32" s="1" customFormat="1" spans="2:30">
+      <c r="B32"/>
+      <c r="C32" t="s">
+        <v>104</v>
+      </c>
+      <c r="D32" s="1"/>
+      <c r="E32"/>
+      <c r="F32"/>
+      <c r="G32"/>
+      <c r="H32"/>
+      <c r="I32"/>
+      <c r="J32"/>
+      <c r="K32"/>
+      <c r="L32"/>
+      <c r="M32"/>
+      <c r="N32"/>
+      <c r="O32"/>
+      <c r="P32"/>
+      <c r="Q32"/>
+      <c r="R32"/>
+      <c r="S32"/>
+      <c r="T32"/>
+      <c r="U32"/>
+      <c r="V32"/>
+      <c r="W32"/>
+      <c r="X32"/>
+      <c r="Y32"/>
+      <c r="Z32"/>
+      <c r="AA32"/>
+      <c r="AB32"/>
+      <c r="AC32"/>
+      <c r="AD32"/>
+    </row>
+    <row r="33" s="1" customFormat="1" spans="2:30">
+      <c r="B33"/>
+      <c r="C33" t="s">
+        <v>105</v>
+      </c>
+      <c r="D33"/>
+      <c r="E33"/>
+      <c r="F33"/>
+      <c r="G33"/>
+      <c r="H33"/>
+      <c r="I33"/>
+      <c r="J33"/>
+      <c r="K33"/>
+      <c r="L33"/>
+      <c r="M33"/>
+      <c r="N33"/>
+      <c r="O33"/>
+      <c r="P33"/>
+      <c r="Q33"/>
+      <c r="R33"/>
+      <c r="S33"/>
+      <c r="T33"/>
+      <c r="U33"/>
+      <c r="V33"/>
+      <c r="W33"/>
+      <c r="X33"/>
+      <c r="Y33"/>
+      <c r="Z33"/>
+      <c r="AA33"/>
+      <c r="AB33"/>
+      <c r="AC33"/>
+      <c r="AD33"/>
+    </row>
+    <row r="34" s="1" customFormat="1" spans="2:30">
+      <c r="B34"/>
+      <c r="C34"/>
+      <c r="D34" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="E34"/>
+      <c r="F34"/>
+      <c r="G34"/>
+      <c r="H34"/>
+      <c r="I34"/>
+      <c r="J34"/>
+      <c r="K34"/>
+      <c r="L34"/>
+      <c r="M34"/>
+      <c r="N34"/>
+      <c r="O34"/>
+      <c r="P34"/>
+      <c r="Q34"/>
+      <c r="R34"/>
+      <c r="S34"/>
+      <c r="T34"/>
+      <c r="U34"/>
+      <c r="V34"/>
+      <c r="W34"/>
+      <c r="X34"/>
+      <c r="Y34"/>
+      <c r="Z34"/>
+      <c r="AA34"/>
+      <c r="AB34"/>
+      <c r="AC34"/>
+      <c r="AD34"/>
+    </row>
+    <row r="35" s="1" customFormat="1" spans="2:30">
+      <c r="B35"/>
+      <c r="C35"/>
+      <c r="D35" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="E35"/>
+      <c r="F35"/>
+      <c r="G35"/>
+      <c r="H35"/>
+      <c r="I35"/>
+      <c r="J35"/>
+      <c r="K35"/>
+      <c r="L35"/>
+      <c r="M35"/>
+      <c r="N35"/>
+      <c r="O35"/>
+      <c r="P35"/>
+      <c r="Q35"/>
+      <c r="R35"/>
+      <c r="S35"/>
+      <c r="T35"/>
+      <c r="U35"/>
+      <c r="V35"/>
+      <c r="W35"/>
+      <c r="X35"/>
+      <c r="Y35"/>
+      <c r="Z35"/>
+      <c r="AA35"/>
+      <c r="AB35"/>
+      <c r="AC35"/>
+      <c r="AD35"/>
+    </row>
+    <row r="36" s="1" customFormat="1" spans="2:30">
+      <c r="B36"/>
+      <c r="C36"/>
+      <c r="D36"/>
+      <c r="E36" t="s">
+        <v>108</v>
+      </c>
+      <c r="F36"/>
+      <c r="G36"/>
+      <c r="H36"/>
+      <c r="I36"/>
+      <c r="J36"/>
+      <c r="K36"/>
+      <c r="L36"/>
+      <c r="M36"/>
+      <c r="N36"/>
+      <c r="O36"/>
+      <c r="P36"/>
+      <c r="Q36"/>
+      <c r="R36"/>
+      <c r="S36"/>
+      <c r="T36"/>
+      <c r="U36"/>
+      <c r="V36"/>
+      <c r="W36"/>
+      <c r="X36"/>
+      <c r="Y36"/>
+      <c r="Z36"/>
+      <c r="AA36"/>
+      <c r="AB36"/>
+      <c r="AC36"/>
+      <c r="AD36"/>
+    </row>
+    <row r="37" s="1" customFormat="1" spans="2:30">
+      <c r="B37"/>
+      <c r="C37"/>
+      <c r="D37" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="E37"/>
+      <c r="F37"/>
+      <c r="G37"/>
+      <c r="H37"/>
+      <c r="I37"/>
+      <c r="J37"/>
+      <c r="K37"/>
+      <c r="L37"/>
+      <c r="M37"/>
+      <c r="N37"/>
+      <c r="O37"/>
+      <c r="P37"/>
+      <c r="Q37"/>
+      <c r="Y37"/>
+      <c r="Z37"/>
+      <c r="AA37"/>
+      <c r="AB37"/>
+      <c r="AC37"/>
+      <c r="AD37"/>
+    </row>
+    <row r="38" s="1" customFormat="1" spans="2:30">
+      <c r="B38"/>
+      <c r="C38" t="s">
+        <v>110</v>
+      </c>
+      <c r="D38" s="1"/>
+      <c r="E38"/>
+      <c r="F38"/>
+      <c r="G38"/>
+      <c r="H38"/>
+      <c r="I38"/>
+      <c r="J38"/>
+      <c r="K38"/>
+      <c r="L38"/>
+      <c r="M38"/>
+      <c r="N38"/>
+      <c r="O38"/>
+      <c r="P38"/>
+      <c r="Q38"/>
+      <c r="Y38"/>
+      <c r="Z38"/>
+      <c r="AA38"/>
+      <c r="AB38"/>
+      <c r="AC38"/>
+      <c r="AD38"/>
+    </row>
+    <row r="39" s="1" customFormat="1" spans="2:30">
+      <c r="B39" t="s">
+        <v>111</v>
+      </c>
+      <c r="C39"/>
+      <c r="E39"/>
+      <c r="F39"/>
+      <c r="G39"/>
+      <c r="H39"/>
+      <c r="I39"/>
+      <c r="J39"/>
+      <c r="K39"/>
+      <c r="L39"/>
+      <c r="M39"/>
+      <c r="N39"/>
+      <c r="O39"/>
+      <c r="P39"/>
+      <c r="Q39"/>
+      <c r="R39"/>
+      <c r="S39"/>
+      <c r="T39"/>
+      <c r="U39"/>
+      <c r="V39"/>
+      <c r="W39"/>
+      <c r="X39"/>
+      <c r="Y39"/>
+      <c r="Z39"/>
+      <c r="AA39"/>
+      <c r="AB39"/>
+      <c r="AC39"/>
+      <c r="AD39"/>
+    </row>
+    <row r="40" s="1" customFormat="1" spans="2:30">
+      <c r="B40" t="s">
+        <v>112</v>
+      </c>
+      <c r="C40"/>
+      <c r="G40"/>
+      <c r="H40"/>
+      <c r="I40"/>
+      <c r="J40"/>
+      <c r="K40"/>
+      <c r="L40"/>
+      <c r="M40"/>
+      <c r="N40"/>
+      <c r="O40"/>
+      <c r="P40"/>
+      <c r="Q40"/>
+      <c r="R40"/>
+      <c r="S40"/>
+      <c r="T40"/>
+      <c r="U40"/>
+      <c r="V40"/>
+      <c r="W40"/>
+      <c r="X40"/>
+      <c r="Y40"/>
+      <c r="Z40"/>
+      <c r="AA40"/>
+      <c r="AB40"/>
+      <c r="AC40"/>
+      <c r="AD40"/>
+    </row>
+    <row r="41" s="1" customFormat="1" spans="2:30">
+      <c r="B41"/>
+      <c r="C41" t="s">
+        <v>113</v>
+      </c>
+      <c r="G41"/>
+      <c r="H41"/>
+      <c r="I41"/>
+      <c r="J41"/>
+      <c r="K41"/>
+      <c r="L41"/>
+      <c r="M41"/>
+      <c r="N41"/>
+      <c r="O41"/>
+      <c r="P41"/>
+      <c r="Q41"/>
+      <c r="R41"/>
+      <c r="S41"/>
+      <c r="T41"/>
+      <c r="U41"/>
+      <c r="V41"/>
+      <c r="W41"/>
+      <c r="X41"/>
+      <c r="Y41"/>
+      <c r="Z41"/>
+      <c r="AA41"/>
+      <c r="AB41"/>
+      <c r="AC41"/>
+      <c r="AD41"/>
+    </row>
+    <row r="42" s="1" customFormat="1" spans="2:30">
+      <c r="B42"/>
+      <c r="C42" t="s">
+        <v>114</v>
+      </c>
+      <c r="D42" s="2"/>
+      <c r="E42"/>
+      <c r="F42"/>
+      <c r="G42"/>
+      <c r="H42"/>
+      <c r="I42"/>
+      <c r="J42"/>
+      <c r="K42"/>
+      <c r="L42"/>
+      <c r="M42"/>
+      <c r="N42"/>
+      <c r="O42"/>
+      <c r="P42"/>
+      <c r="Q42"/>
+      <c r="R42"/>
+      <c r="S42"/>
+      <c r="T42"/>
+      <c r="U42"/>
+      <c r="V42"/>
+      <c r="W42"/>
+      <c r="X42"/>
+      <c r="Y42"/>
+      <c r="Z42"/>
+      <c r="AA42"/>
+      <c r="AB42"/>
+      <c r="AC42"/>
+      <c r="AD42"/>
+    </row>
+    <row r="43" s="1" customFormat="1" spans="2:30">
+      <c r="B43"/>
+      <c r="C43"/>
+      <c r="D43" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="E43"/>
+      <c r="F43"/>
+      <c r="G43"/>
+      <c r="H43"/>
+      <c r="I43"/>
+      <c r="J43"/>
+      <c r="K43"/>
+      <c r="L43"/>
+      <c r="M43"/>
+      <c r="N43"/>
+      <c r="O43"/>
+      <c r="P43"/>
+      <c r="Q43"/>
+      <c r="R43"/>
+      <c r="S43"/>
+      <c r="T43"/>
+      <c r="U43"/>
+      <c r="V43"/>
+      <c r="W43"/>
+      <c r="X43"/>
+      <c r="Y43"/>
+      <c r="Z43"/>
+      <c r="AA43"/>
+      <c r="AB43"/>
+      <c r="AC43"/>
+      <c r="AD43"/>
+    </row>
+    <row r="44" s="1" customFormat="1" spans="2:30">
+      <c r="B44"/>
+      <c r="C44" t="s">
+        <v>116</v>
+      </c>
+      <c r="D44"/>
+      <c r="E44"/>
+      <c r="F44"/>
+      <c r="G44"/>
+      <c r="H44"/>
+      <c r="I44"/>
+      <c r="J44"/>
+      <c r="K44"/>
+      <c r="L44"/>
+      <c r="M44"/>
+      <c r="N44"/>
+      <c r="O44"/>
+      <c r="P44"/>
+      <c r="Q44"/>
+      <c r="R44"/>
+      <c r="S44"/>
+      <c r="T44"/>
+      <c r="U44"/>
+      <c r="V44"/>
+      <c r="W44"/>
+      <c r="X44"/>
+      <c r="Y44"/>
+      <c r="Z44"/>
+      <c r="AA44"/>
+      <c r="AB44"/>
+      <c r="AC44"/>
+      <c r="AD44"/>
+    </row>
+    <row r="45" s="1" customFormat="1" spans="2:30">
+      <c r="B45"/>
+      <c r="C45"/>
+      <c r="D45" t="s">
+        <v>117</v>
+      </c>
+      <c r="E45"/>
+      <c r="F45"/>
+      <c r="G45"/>
+      <c r="H45"/>
+      <c r="I45"/>
+      <c r="J45"/>
+      <c r="K45"/>
+      <c r="L45"/>
+      <c r="M45"/>
+      <c r="N45"/>
+      <c r="O45"/>
+      <c r="P45"/>
+      <c r="Q45"/>
+      <c r="R45"/>
+      <c r="S45"/>
+      <c r="T45"/>
+      <c r="U45"/>
+      <c r="V45"/>
+      <c r="W45"/>
+      <c r="X45"/>
+      <c r="Y45"/>
+      <c r="Z45"/>
+      <c r="AA45"/>
+      <c r="AB45"/>
+      <c r="AC45"/>
+      <c r="AD45"/>
+    </row>
+    <row r="46" s="1" customFormat="1" spans="2:30">
+      <c r="B46"/>
+      <c r="C46"/>
+      <c r="D46"/>
+      <c r="E46"/>
+      <c r="F46"/>
+      <c r="G46"/>
+      <c r="H46"/>
+      <c r="I46"/>
+      <c r="J46"/>
+      <c r="K46"/>
+      <c r="L46"/>
+      <c r="M46"/>
+      <c r="N46"/>
+      <c r="O46"/>
+      <c r="P46"/>
+      <c r="Q46"/>
+      <c r="R46"/>
+      <c r="S46"/>
+      <c r="T46"/>
+      <c r="U46"/>
+      <c r="V46"/>
+      <c r="W46"/>
+      <c r="X46"/>
+      <c r="Y46"/>
+      <c r="Z46"/>
+      <c r="AA46"/>
+      <c r="AB46"/>
+      <c r="AC46"/>
+      <c r="AD46"/>
+    </row>
+    <row r="47" s="1" customFormat="1" spans="2:30">
+      <c r="B47"/>
+      <c r="C47"/>
+      <c r="D47"/>
+      <c r="E47"/>
+      <c r="F47"/>
+      <c r="G47"/>
+      <c r="H47"/>
+      <c r="I47"/>
+      <c r="J47"/>
+      <c r="K47"/>
+      <c r="L47"/>
+      <c r="M47"/>
+      <c r="N47"/>
+      <c r="O47"/>
+      <c r="P47"/>
+      <c r="Q47"/>
+      <c r="R47"/>
+      <c r="S47"/>
+      <c r="T47"/>
+      <c r="U47"/>
+      <c r="V47"/>
+      <c r="W47"/>
+      <c r="X47"/>
+      <c r="Y47"/>
+      <c r="Z47"/>
+      <c r="AA47"/>
+      <c r="AB47"/>
+      <c r="AC47"/>
+      <c r="AD47"/>
+    </row>
+    <row r="48" s="1" customFormat="1" spans="2:30">
+      <c r="B48"/>
+      <c r="C48"/>
+      <c r="D48"/>
+      <c r="E48"/>
+      <c r="F48"/>
+      <c r="G48"/>
+      <c r="H48"/>
+      <c r="I48"/>
+      <c r="J48"/>
+      <c r="K48"/>
+      <c r="L48"/>
+      <c r="M48"/>
+      <c r="N48"/>
+      <c r="O48"/>
+      <c r="P48"/>
+      <c r="Q48"/>
+      <c r="R48"/>
+      <c r="S48"/>
+      <c r="T48"/>
+      <c r="U48"/>
+      <c r="V48"/>
+      <c r="W48"/>
+      <c r="X48"/>
+      <c r="Y48"/>
+      <c r="Z48"/>
+      <c r="AA48"/>
+      <c r="AB48"/>
+      <c r="AC48"/>
+      <c r="AD48"/>
+    </row>
+    <row r="49" s="1" customFormat="1" spans="2:30">
+      <c r="B49"/>
+      <c r="C49"/>
+      <c r="D49"/>
+      <c r="E49"/>
+      <c r="F49"/>
+      <c r="G49"/>
+      <c r="H49"/>
+      <c r="I49"/>
+      <c r="J49"/>
+      <c r="K49"/>
+      <c r="L49"/>
+      <c r="M49"/>
+      <c r="N49"/>
+      <c r="O49"/>
+      <c r="P49"/>
+      <c r="Q49"/>
+      <c r="R49"/>
+      <c r="S49"/>
+      <c r="T49"/>
+      <c r="U49"/>
+      <c r="V49"/>
+      <c r="W49"/>
+      <c r="X49"/>
+      <c r="Y49"/>
+      <c r="Z49"/>
+      <c r="AA49"/>
+      <c r="AB49"/>
+      <c r="AC49"/>
+      <c r="AD49"/>
+    </row>
+    <row r="50" s="1" customFormat="1" spans="2:30">
+      <c r="B50"/>
+      <c r="C50"/>
+      <c r="D50"/>
+      <c r="E50"/>
+      <c r="F50"/>
+      <c r="G50"/>
+      <c r="H50"/>
+      <c r="I50"/>
+      <c r="J50"/>
+      <c r="K50"/>
+      <c r="L50"/>
+      <c r="M50"/>
+      <c r="N50"/>
+      <c r="O50"/>
+      <c r="P50"/>
+      <c r="Q50"/>
+      <c r="R50"/>
+      <c r="S50"/>
+      <c r="T50"/>
+      <c r="U50"/>
+      <c r="V50"/>
+      <c r="W50"/>
+      <c r="X50"/>
+      <c r="Y50"/>
+      <c r="Z50"/>
+      <c r="AA50"/>
+      <c r="AB50"/>
+      <c r="AC50"/>
+      <c r="AD50"/>
+    </row>
+    <row r="51" s="1" customFormat="1" spans="2:30">
+      <c r="B51"/>
+      <c r="C51"/>
+      <c r="D51"/>
+      <c r="E51"/>
+      <c r="F51"/>
+      <c r="G51"/>
+      <c r="H51"/>
+      <c r="I51"/>
+      <c r="J51"/>
+      <c r="K51"/>
+      <c r="L51"/>
+      <c r="M51"/>
+      <c r="N51"/>
+      <c r="O51"/>
+      <c r="P51"/>
+      <c r="Q51"/>
+      <c r="R51"/>
+      <c r="S51"/>
+      <c r="T51"/>
+      <c r="U51"/>
+      <c r="V51"/>
+      <c r="W51"/>
+      <c r="X51"/>
+      <c r="Y51"/>
+      <c r="Z51"/>
+      <c r="AA51"/>
+      <c r="AB51"/>
+      <c r="AC51"/>
+      <c r="AD51"/>
+    </row>
+    <row r="52" s="1" customFormat="1" spans="2:30">
+      <c r="B52"/>
+      <c r="C52" t="s">
+        <v>118</v>
+      </c>
+      <c r="D52"/>
+      <c r="E52"/>
+      <c r="F52"/>
+      <c r="G52"/>
+      <c r="H52"/>
+      <c r="I52"/>
+      <c r="J52"/>
+      <c r="K52"/>
+      <c r="L52"/>
+      <c r="M52"/>
+      <c r="N52"/>
+      <c r="O52"/>
+      <c r="P52"/>
+      <c r="Q52"/>
+      <c r="R52"/>
+      <c r="S52"/>
+      <c r="T52"/>
+      <c r="U52"/>
+      <c r="V52"/>
+      <c r="W52"/>
+      <c r="X52"/>
+      <c r="Y52"/>
+      <c r="Z52"/>
+      <c r="AA52"/>
+      <c r="AB52"/>
+      <c r="AC52"/>
+      <c r="AD52"/>
+    </row>
+    <row r="53" s="1" customFormat="1" spans="2:30">
+      <c r="B53"/>
+      <c r="C53"/>
+      <c r="D53" t="s">
+        <v>119</v>
+      </c>
+      <c r="E53"/>
+      <c r="F53"/>
+      <c r="G53"/>
+      <c r="H53"/>
+      <c r="I53"/>
+      <c r="J53"/>
+      <c r="K53"/>
+      <c r="L53"/>
+      <c r="M53"/>
+      <c r="N53"/>
+      <c r="O53"/>
+      <c r="P53"/>
+      <c r="Q53"/>
+      <c r="R53"/>
+      <c r="S53"/>
+      <c r="T53"/>
+      <c r="V53" s="2"/>
+      <c r="AB53"/>
+      <c r="AC53"/>
+      <c r="AD53"/>
+    </row>
+    <row r="54" s="1" customFormat="1" spans="2:30">
+      <c r="B54"/>
+      <c r="C54"/>
+      <c r="D54"/>
+      <c r="E54"/>
+      <c r="F54"/>
+      <c r="G54"/>
+      <c r="H54"/>
+      <c r="I54"/>
+      <c r="J54"/>
+      <c r="K54"/>
+      <c r="L54"/>
+      <c r="M54"/>
+      <c r="N54"/>
+      <c r="O54"/>
+      <c r="P54"/>
+      <c r="Q54"/>
+      <c r="R54"/>
+      <c r="S54"/>
+      <c r="T54"/>
+      <c r="V54" s="2"/>
+      <c r="Y54" s="4"/>
+      <c r="AB54"/>
+      <c r="AC54"/>
+      <c r="AD54"/>
+    </row>
+    <row r="55" s="1" customFormat="1" spans="2:30">
+      <c r="B55"/>
+      <c r="C55"/>
+      <c r="D55"/>
+      <c r="E55"/>
+      <c r="F55"/>
+      <c r="G55"/>
+      <c r="H55"/>
+      <c r="I55"/>
+      <c r="J55"/>
+      <c r="K55"/>
+      <c r="L55"/>
+      <c r="M55"/>
+      <c r="N55"/>
+      <c r="O55"/>
+      <c r="P55"/>
+      <c r="Q55"/>
+      <c r="R55"/>
+      <c r="S55"/>
+      <c r="T55"/>
+      <c r="U55"/>
+      <c r="V55"/>
+      <c r="W55"/>
+      <c r="X55"/>
+      <c r="Y55"/>
+      <c r="Z55"/>
+      <c r="AA55"/>
+      <c r="AB55"/>
+      <c r="AC55"/>
+      <c r="AD55"/>
+    </row>
+    <row r="56" s="1" customFormat="1" spans="2:30">
+      <c r="B56"/>
+      <c r="C56"/>
+      <c r="D56"/>
+      <c r="E56"/>
+      <c r="F56"/>
+      <c r="G56"/>
+      <c r="H56"/>
+      <c r="I56"/>
+      <c r="J56"/>
+      <c r="K56"/>
+      <c r="L56"/>
+      <c r="M56"/>
+      <c r="N56"/>
+      <c r="O56"/>
+      <c r="P56"/>
+      <c r="Q56"/>
+      <c r="R56"/>
+      <c r="S56"/>
+      <c r="T56"/>
+      <c r="U56"/>
+      <c r="V56"/>
+      <c r="W56"/>
+      <c r="X56"/>
+      <c r="Y56"/>
+      <c r="Z56"/>
+      <c r="AA56"/>
+      <c r="AB56"/>
+      <c r="AC56"/>
+      <c r="AD56"/>
+    </row>
+    <row r="57" s="1" customFormat="1" spans="2:30">
+      <c r="B57"/>
+      <c r="C57"/>
+      <c r="D57"/>
+      <c r="E57"/>
+      <c r="F57"/>
+      <c r="G57"/>
+      <c r="H57"/>
+      <c r="I57"/>
+      <c r="J57"/>
+      <c r="K57"/>
+      <c r="L57"/>
+      <c r="M57"/>
+      <c r="N57"/>
+      <c r="O57"/>
+      <c r="P57"/>
+      <c r="Q57"/>
+      <c r="R57"/>
+      <c r="S57"/>
+      <c r="T57"/>
+      <c r="U57"/>
+      <c r="V57"/>
+      <c r="W57"/>
+      <c r="X57"/>
+      <c r="Y57"/>
+      <c r="Z57"/>
+      <c r="AA57"/>
+      <c r="AB57"/>
+      <c r="AC57"/>
+      <c r="AD57"/>
+    </row>
+    <row r="58" s="1" customFormat="1" spans="2:30">
+      <c r="B58"/>
+      <c r="C58"/>
+      <c r="E58"/>
+      <c r="F58"/>
+      <c r="G58"/>
+      <c r="H58"/>
+      <c r="I58"/>
+      <c r="J58"/>
+      <c r="K58"/>
+      <c r="L58"/>
+      <c r="M58"/>
+      <c r="N58"/>
+      <c r="O58"/>
+      <c r="P58"/>
+      <c r="Q58"/>
+      <c r="R58"/>
+      <c r="S58"/>
+      <c r="T58"/>
+      <c r="U58"/>
+      <c r="V58"/>
+      <c r="W58"/>
+      <c r="X58"/>
+      <c r="Y58"/>
+      <c r="Z58"/>
+      <c r="AA58"/>
+      <c r="AB58"/>
+      <c r="AC58"/>
+      <c r="AD58"/>
+    </row>
+    <row r="59" s="1" customFormat="1" spans="2:30">
+      <c r="B59"/>
+      <c r="C59"/>
+      <c r="E59" t="s">
+        <v>120</v>
+      </c>
+      <c r="F59"/>
+      <c r="G59"/>
+      <c r="H59"/>
+      <c r="I59"/>
+      <c r="J59"/>
+      <c r="K59"/>
+      <c r="L59"/>
+      <c r="M59"/>
+      <c r="N59"/>
+      <c r="O59"/>
+      <c r="P59"/>
+      <c r="Q59"/>
+      <c r="R59"/>
+      <c r="S59"/>
+      <c r="T59"/>
+      <c r="U59"/>
+      <c r="V59"/>
+      <c r="W59"/>
+      <c r="X59"/>
+      <c r="Y59"/>
+      <c r="Z59"/>
+      <c r="AA59"/>
+      <c r="AB59"/>
+      <c r="AC59"/>
+      <c r="AD59"/>
+    </row>
+    <row r="60" s="1" customFormat="1" spans="2:30">
+      <c r="B60"/>
+      <c r="C60"/>
+      <c r="D60" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="E60"/>
+      <c r="F60"/>
+      <c r="G60"/>
+      <c r="H60"/>
+      <c r="I60"/>
+      <c r="J60"/>
+      <c r="K60"/>
+      <c r="L60"/>
+      <c r="M60"/>
+      <c r="N60"/>
+      <c r="O60"/>
+      <c r="P60"/>
+      <c r="Q60"/>
+      <c r="R60"/>
+      <c r="S60"/>
+      <c r="T60"/>
+      <c r="U60"/>
+      <c r="V60"/>
+      <c r="W60"/>
+      <c r="X60"/>
+      <c r="Y60"/>
+      <c r="Z60"/>
+      <c r="AA60"/>
+      <c r="AB60"/>
+      <c r="AC60"/>
+      <c r="AD60"/>
+    </row>
+    <row r="61" s="1" customFormat="1" spans="2:30">
+      <c r="B61" t="s">
+        <v>122</v>
+      </c>
+      <c r="C61"/>
+      <c r="D61"/>
+      <c r="E61"/>
+      <c r="F61"/>
+      <c r="G61"/>
+      <c r="H61"/>
+      <c r="I61"/>
+      <c r="J61"/>
+      <c r="K61"/>
+      <c r="L61"/>
+      <c r="M61"/>
+      <c r="N61"/>
+      <c r="O61"/>
+      <c r="P61"/>
+      <c r="Q61"/>
+      <c r="R61"/>
+      <c r="S61"/>
+      <c r="T61"/>
+      <c r="U61"/>
+      <c r="V61"/>
+      <c r="W61"/>
+      <c r="X61"/>
+      <c r="Y61"/>
+      <c r="Z61"/>
+      <c r="AA61"/>
+      <c r="AB61"/>
+      <c r="AC61"/>
+      <c r="AD61"/>
+    </row>
+    <row r="62" s="1" customFormat="1" spans="2:30">
+      <c r="B62"/>
+      <c r="C62" t="s">
+        <v>123</v>
+      </c>
+      <c r="D62"/>
+      <c r="E62"/>
+      <c r="F62"/>
+      <c r="G62"/>
+      <c r="H62"/>
+      <c r="I62"/>
+      <c r="J62"/>
+      <c r="K62"/>
+      <c r="L62"/>
+      <c r="M62"/>
+      <c r="N62"/>
+      <c r="O62"/>
+      <c r="P62"/>
+      <c r="Q62"/>
+      <c r="R62"/>
+      <c r="S62"/>
+      <c r="T62"/>
+      <c r="U62"/>
+      <c r="V62"/>
+      <c r="W62"/>
+      <c r="X62"/>
+      <c r="Y62"/>
+      <c r="Z62"/>
+      <c r="AA62"/>
+      <c r="AB62"/>
+      <c r="AC62"/>
+      <c r="AD62"/>
+    </row>
+    <row r="63" s="1" customFormat="1" spans="2:30">
+      <c r="B63"/>
+      <c r="C63" t="s">
+        <v>124</v>
+      </c>
+      <c r="D63"/>
+      <c r="E63"/>
+      <c r="F63"/>
+      <c r="G63"/>
+      <c r="H63"/>
+      <c r="I63"/>
+      <c r="J63"/>
+      <c r="K63"/>
+      <c r="L63"/>
+      <c r="M63"/>
+      <c r="N63"/>
+      <c r="O63"/>
+      <c r="P63"/>
+      <c r="Q63"/>
+      <c r="R63"/>
+      <c r="S63"/>
+      <c r="T63"/>
+      <c r="U63"/>
+      <c r="V63"/>
+      <c r="W63"/>
+      <c r="X63"/>
+      <c r="Y63"/>
+      <c r="Z63"/>
+      <c r="AA63"/>
+      <c r="AB63"/>
+      <c r="AC63"/>
+      <c r="AD63"/>
+    </row>
+    <row r="64" s="1" customFormat="1" spans="2:30">
+      <c r="B64"/>
+      <c r="C64"/>
+      <c r="D64" t="s">
+        <v>125</v>
+      </c>
+      <c r="E64"/>
+      <c r="F64"/>
+      <c r="G64"/>
+      <c r="H64"/>
+      <c r="I64"/>
+      <c r="J64"/>
+      <c r="K64"/>
+      <c r="L64"/>
+      <c r="M64"/>
+      <c r="N64"/>
+      <c r="O64"/>
+      <c r="P64"/>
+      <c r="Q64"/>
+      <c r="R64"/>
+      <c r="S64"/>
+      <c r="T64"/>
+      <c r="U64"/>
+      <c r="V64"/>
+      <c r="W64"/>
+      <c r="X64"/>
+      <c r="Y64"/>
+      <c r="Z64"/>
+      <c r="AA64"/>
+      <c r="AB64"/>
+      <c r="AC64"/>
+      <c r="AD64"/>
+    </row>
+    <row r="65" s="1" customFormat="1" spans="2:30">
+      <c r="B65"/>
+      <c r="C65"/>
+      <c r="D65" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="E65"/>
+      <c r="F65"/>
+      <c r="G65"/>
+      <c r="H65"/>
+      <c r="I65"/>
+      <c r="J65"/>
+      <c r="K65"/>
+      <c r="L65"/>
+      <c r="M65"/>
+      <c r="N65"/>
+      <c r="O65"/>
+      <c r="P65"/>
+      <c r="Q65"/>
+      <c r="R65"/>
+      <c r="S65"/>
+      <c r="T65"/>
+      <c r="U65"/>
+      <c r="V65"/>
+      <c r="W65"/>
+      <c r="X65"/>
+      <c r="Y65"/>
+      <c r="Z65"/>
+      <c r="AA65"/>
+      <c r="AB65"/>
+      <c r="AC65"/>
+      <c r="AD65"/>
+    </row>
+    <row r="66" s="1" customFormat="1" spans="2:30">
+      <c r="B66"/>
+      <c r="C66"/>
+      <c r="D66" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="E66"/>
+      <c r="F66"/>
+      <c r="G66"/>
+      <c r="H66"/>
+      <c r="I66"/>
+      <c r="J66"/>
+      <c r="K66"/>
+      <c r="L66"/>
+      <c r="M66"/>
+      <c r="N66"/>
+      <c r="O66"/>
+      <c r="P66"/>
+      <c r="Q66"/>
+      <c r="R66"/>
+      <c r="S66"/>
+      <c r="T66"/>
+      <c r="U66"/>
+      <c r="V66"/>
+      <c r="W66"/>
+      <c r="X66"/>
+      <c r="Y66"/>
+      <c r="Z66"/>
+      <c r="AA66"/>
+      <c r="AB66"/>
+      <c r="AC66"/>
+      <c r="AD66"/>
+    </row>
+    <row r="67" s="1" customFormat="1" spans="2:30">
+      <c r="B67"/>
+      <c r="C67" t="s">
+        <v>128</v>
+      </c>
+      <c r="D67"/>
+      <c r="E67"/>
+      <c r="F67"/>
+      <c r="G67"/>
+      <c r="H67"/>
+      <c r="I67"/>
+      <c r="J67"/>
+      <c r="K67"/>
+      <c r="L67"/>
+      <c r="M67"/>
+      <c r="N67"/>
+      <c r="O67"/>
+      <c r="P67"/>
+      <c r="Q67"/>
+      <c r="R67"/>
+      <c r="S67"/>
+      <c r="T67"/>
+      <c r="U67"/>
+      <c r="V67"/>
+      <c r="W67"/>
+      <c r="X67"/>
+      <c r="Y67"/>
+      <c r="Z67"/>
+      <c r="AA67"/>
+      <c r="AB67"/>
+      <c r="AC67"/>
+      <c r="AD67"/>
+    </row>
+    <row r="68" s="1" customFormat="1" spans="2:30">
+      <c r="B68"/>
+      <c r="C68"/>
+      <c r="D68" t="s">
+        <v>129</v>
+      </c>
+      <c r="E68"/>
+      <c r="F68"/>
+      <c r="G68"/>
+      <c r="H68"/>
+      <c r="I68"/>
+      <c r="J68"/>
+      <c r="K68"/>
+      <c r="L68"/>
+      <c r="M68"/>
+      <c r="N68"/>
+      <c r="O68"/>
+      <c r="P68"/>
+      <c r="Q68"/>
+      <c r="R68"/>
+      <c r="S68"/>
+      <c r="T68"/>
+      <c r="U68"/>
+      <c r="V68"/>
+      <c r="W68"/>
+      <c r="X68"/>
+      <c r="Y68"/>
+      <c r="Z68"/>
+      <c r="AA68"/>
+      <c r="AB68"/>
+      <c r="AC68"/>
+      <c r="AD68"/>
+    </row>
+    <row r="69" s="1" customFormat="1" spans="2:30">
+      <c r="B69"/>
+      <c r="C69"/>
+      <c r="D69" t="s">
+        <v>130</v>
+      </c>
+      <c r="E69"/>
+      <c r="F69"/>
+      <c r="G69"/>
+      <c r="H69"/>
+      <c r="I69"/>
+      <c r="J69"/>
+      <c r="K69"/>
+      <c r="L69"/>
+      <c r="M69"/>
+      <c r="N69"/>
+      <c r="O69"/>
+      <c r="P69"/>
+      <c r="Q69"/>
+      <c r="R69"/>
+      <c r="S69"/>
+      <c r="T69"/>
+      <c r="U69"/>
+      <c r="V69"/>
+      <c r="W69"/>
+      <c r="X69"/>
+      <c r="Y69"/>
+      <c r="Z69"/>
+      <c r="AA69"/>
+      <c r="AB69"/>
+      <c r="AC69"/>
+      <c r="AD69"/>
+    </row>
+    <row r="70" s="1" customFormat="1" spans="2:30">
+      <c r="B70"/>
+      <c r="C70"/>
+      <c r="D70" t="s">
+        <v>131</v>
+      </c>
+      <c r="E70"/>
+      <c r="F70"/>
+      <c r="G70"/>
+      <c r="H70"/>
+      <c r="I70"/>
+      <c r="J70"/>
+      <c r="K70"/>
+      <c r="L70"/>
+      <c r="M70"/>
+      <c r="N70"/>
+      <c r="O70"/>
+      <c r="P70"/>
+      <c r="Q70"/>
+      <c r="R70"/>
+      <c r="S70"/>
+      <c r="T70"/>
+      <c r="U70"/>
+      <c r="V70"/>
+      <c r="W70"/>
+      <c r="X70"/>
+      <c r="Y70"/>
+      <c r="Z70"/>
+      <c r="AA70"/>
+      <c r="AB70"/>
+      <c r="AC70"/>
+      <c r="AD70"/>
+    </row>
+    <row r="71" s="1" customFormat="1" spans="2:30">
+      <c r="B71" t="s">
+        <v>132</v>
+      </c>
+      <c r="C71"/>
+      <c r="D71" s="1"/>
+      <c r="E71"/>
+      <c r="F71"/>
+      <c r="G71"/>
+      <c r="H71"/>
+      <c r="I71"/>
+      <c r="J71"/>
+      <c r="K71"/>
+      <c r="L71"/>
+      <c r="M71"/>
+      <c r="N71"/>
+      <c r="O71"/>
+      <c r="P71"/>
+      <c r="Q71"/>
+      <c r="R71"/>
+      <c r="S71"/>
+      <c r="T71"/>
+      <c r="U71"/>
+      <c r="V71"/>
+      <c r="W71"/>
+      <c r="X71"/>
+      <c r="Y71"/>
+      <c r="Z71"/>
+      <c r="AA71"/>
+      <c r="AB71"/>
+      <c r="AC71"/>
+      <c r="AD71"/>
+    </row>
+    <row r="72" s="1" customFormat="1" spans="2:30">
+      <c r="B72"/>
+      <c r="C72" t="s">
+        <v>133</v>
+      </c>
+      <c r="D72" s="1"/>
+      <c r="E72"/>
+      <c r="F72"/>
+      <c r="G72"/>
+      <c r="H72"/>
+      <c r="I72"/>
+      <c r="J72"/>
+      <c r="K72"/>
+      <c r="L72"/>
+      <c r="M72"/>
+      <c r="N72"/>
+      <c r="O72"/>
+      <c r="P72"/>
+      <c r="Q72"/>
+      <c r="R72"/>
+      <c r="S72"/>
+      <c r="T72"/>
+      <c r="U72"/>
+      <c r="V72"/>
+      <c r="W72"/>
+      <c r="X72"/>
+      <c r="Y72"/>
+      <c r="Z72"/>
+      <c r="AA72"/>
+      <c r="AB72"/>
+      <c r="AC72"/>
+      <c r="AD72"/>
+    </row>
+    <row r="73" s="1" customFormat="1" spans="2:30">
+      <c r="B73"/>
+      <c r="C73" t="s">
+        <v>134</v>
+      </c>
+      <c r="D73"/>
+      <c r="E73"/>
+      <c r="F73"/>
+      <c r="G73"/>
+      <c r="H73"/>
+      <c r="I73"/>
+      <c r="J73"/>
+      <c r="K73"/>
+      <c r="L73"/>
+      <c r="M73"/>
+      <c r="N73"/>
+      <c r="O73"/>
+      <c r="P73"/>
+      <c r="Q73"/>
+      <c r="R73"/>
+      <c r="S73"/>
+      <c r="T73"/>
+      <c r="U73"/>
+      <c r="V73"/>
+      <c r="W73"/>
+      <c r="X73"/>
+      <c r="Y73"/>
+      <c r="Z73"/>
+      <c r="AA73"/>
+      <c r="AB73"/>
+      <c r="AC73"/>
+      <c r="AD73"/>
+    </row>
+    <row r="74" s="1" customFormat="1" spans="2:30">
+      <c r="B74" t="s">
+        <v>135</v>
+      </c>
+      <c r="C74"/>
+      <c r="D74"/>
+      <c r="E74"/>
+      <c r="F74"/>
+      <c r="G74"/>
+      <c r="H74"/>
+      <c r="I74"/>
+      <c r="J74"/>
+      <c r="K74"/>
+      <c r="L74"/>
+      <c r="M74"/>
+      <c r="N74"/>
+      <c r="O74"/>
+      <c r="P74"/>
+      <c r="Q74"/>
+      <c r="R74"/>
+      <c r="S74"/>
+      <c r="T74"/>
+      <c r="U74"/>
+      <c r="V74"/>
+      <c r="W74"/>
+      <c r="X74"/>
+      <c r="Y74"/>
+      <c r="Z74"/>
+      <c r="AA74"/>
+      <c r="AB74"/>
+      <c r="AC74"/>
+      <c r="AD74"/>
+    </row>
+    <row r="75" s="1" customFormat="1" spans="2:30">
+      <c r="B75"/>
+      <c r="C75"/>
+      <c r="D75"/>
+      <c r="E75"/>
+      <c r="F75"/>
+      <c r="G75"/>
+      <c r="H75"/>
+      <c r="I75"/>
+      <c r="J75"/>
+      <c r="K75"/>
+      <c r="L75"/>
+      <c r="M75"/>
+      <c r="N75"/>
+      <c r="O75"/>
+      <c r="P75"/>
+      <c r="Q75"/>
+      <c r="R75"/>
+      <c r="S75"/>
+      <c r="T75"/>
+      <c r="U75"/>
+      <c r="V75"/>
+      <c r="W75"/>
+      <c r="X75"/>
+      <c r="Y75"/>
+      <c r="Z75"/>
+      <c r="AA75"/>
+      <c r="AB75"/>
+      <c r="AC75"/>
+      <c r="AD75"/>
+    </row>
+    <row r="76" s="1" customFormat="1" spans="2:30">
+      <c r="B76"/>
+      <c r="C76"/>
+      <c r="D76"/>
+      <c r="E76"/>
+      <c r="F76"/>
+      <c r="G76"/>
+      <c r="H76"/>
+      <c r="I76"/>
+      <c r="J76"/>
+      <c r="K76"/>
+      <c r="L76"/>
+      <c r="M76"/>
+      <c r="N76"/>
+      <c r="O76"/>
+      <c r="P76"/>
+      <c r="Q76"/>
+      <c r="R76"/>
+      <c r="S76"/>
+      <c r="T76"/>
+      <c r="U76"/>
+      <c r="V76"/>
+      <c r="W76"/>
+      <c r="X76"/>
+      <c r="Y76"/>
+      <c r="Z76"/>
+      <c r="AA76"/>
+      <c r="AB76"/>
+      <c r="AC76"/>
+      <c r="AD76"/>
+    </row>
+    <row r="77" s="1" customFormat="1" spans="2:30">
+      <c r="B77"/>
+      <c r="C77"/>
+      <c r="D77"/>
+      <c r="E77"/>
+      <c r="F77"/>
+      <c r="G77"/>
+      <c r="H77"/>
+      <c r="I77"/>
+      <c r="J77"/>
+      <c r="K77"/>
+      <c r="L77"/>
+      <c r="M77"/>
+      <c r="N77"/>
+      <c r="O77"/>
+      <c r="P77"/>
+      <c r="Q77"/>
+      <c r="R77"/>
+      <c r="S77"/>
+      <c r="T77"/>
+      <c r="U77"/>
+      <c r="V77"/>
+      <c r="W77"/>
+      <c r="X77"/>
+      <c r="Y77"/>
+      <c r="Z77"/>
+      <c r="AA77"/>
+      <c r="AB77"/>
+      <c r="AC77"/>
+      <c r="AD77"/>
+    </row>
+    <row r="78" s="1" customFormat="1" spans="2:30">
+      <c r="B78"/>
+      <c r="C78"/>
+      <c r="D78"/>
+      <c r="E78"/>
+      <c r="F78"/>
+      <c r="G78"/>
+      <c r="H78"/>
+      <c r="I78"/>
+      <c r="J78"/>
+      <c r="K78"/>
+      <c r="L78"/>
+      <c r="M78"/>
+      <c r="N78"/>
+      <c r="O78"/>
+      <c r="P78"/>
+      <c r="Q78"/>
+      <c r="R78"/>
+      <c r="S78"/>
+      <c r="T78"/>
+      <c r="U78"/>
+      <c r="V78"/>
+      <c r="W78"/>
+      <c r="X78"/>
+      <c r="Y78"/>
+      <c r="Z78"/>
+      <c r="AA78"/>
+      <c r="AB78"/>
+      <c r="AC78"/>
+      <c r="AD78"/>
+    </row>
+    <row r="79" s="1" customFormat="1" spans="2:30">
+      <c r="B79"/>
+      <c r="C79"/>
+      <c r="D79"/>
+      <c r="E79"/>
+      <c r="F79"/>
+      <c r="G79"/>
+      <c r="H79"/>
+      <c r="I79"/>
+      <c r="J79"/>
+      <c r="K79"/>
+      <c r="L79"/>
+      <c r="M79"/>
+      <c r="N79"/>
+      <c r="O79"/>
+      <c r="P79"/>
+      <c r="Q79"/>
+      <c r="R79"/>
+      <c r="S79"/>
+      <c r="T79"/>
+      <c r="U79"/>
+      <c r="V79"/>
+      <c r="W79"/>
+      <c r="X79"/>
+      <c r="Y79"/>
+      <c r="Z79"/>
+      <c r="AA79"/>
+      <c r="AB79"/>
+      <c r="AC79"/>
+      <c r="AD79"/>
+    </row>
+    <row r="80" s="1" customFormat="1" spans="2:30">
+      <c r="B80"/>
+      <c r="C80"/>
+      <c r="D80"/>
+      <c r="E80"/>
+      <c r="F80"/>
+      <c r="G80"/>
+      <c r="H80"/>
+      <c r="I80"/>
+      <c r="J80"/>
+      <c r="K80"/>
+      <c r="L80"/>
+      <c r="M80"/>
+      <c r="N80"/>
+      <c r="O80"/>
+      <c r="P80"/>
+      <c r="Q80"/>
+      <c r="R80"/>
+      <c r="S80"/>
+      <c r="T80"/>
+      <c r="U80"/>
+      <c r="V80"/>
+      <c r="W80"/>
+      <c r="X80"/>
+      <c r="Y80"/>
+      <c r="Z80"/>
+      <c r="AA80"/>
+      <c r="AB80"/>
+      <c r="AC80"/>
+      <c r="AD80"/>
+    </row>
+    <row r="81" s="1" customFormat="1" spans="2:30">
+      <c r="B81"/>
+      <c r="C81"/>
+      <c r="D81"/>
+      <c r="E81"/>
+      <c r="F81"/>
+      <c r="G81"/>
+      <c r="H81"/>
+      <c r="I81"/>
+      <c r="J81"/>
+      <c r="K81"/>
+      <c r="L81"/>
+      <c r="M81"/>
+      <c r="N81"/>
+      <c r="O81"/>
+      <c r="P81"/>
+      <c r="Q81"/>
+      <c r="R81" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="S81" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="T81" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="U81" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="V81" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="W81" s="1"/>
+      <c r="X81"/>
+      <c r="Y81"/>
+      <c r="Z81"/>
+      <c r="AA81"/>
+      <c r="AB81"/>
+      <c r="AC81"/>
+      <c r="AD81"/>
+    </row>
+    <row r="82" s="1" customFormat="1" spans="2:30">
+      <c r="B82"/>
+      <c r="C82"/>
+      <c r="D82"/>
+      <c r="E82"/>
+      <c r="F82"/>
+      <c r="G82"/>
+      <c r="H82"/>
+      <c r="I82"/>
+      <c r="J82"/>
+      <c r="K82"/>
+      <c r="L82"/>
+      <c r="M82"/>
+      <c r="N82"/>
+      <c r="O82"/>
+      <c r="P82"/>
+      <c r="Q82"/>
+      <c r="R82" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="S82" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="T82" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="U82" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="V82" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="W82" s="1"/>
+      <c r="X82"/>
+      <c r="Y82"/>
+      <c r="Z82"/>
+      <c r="AA82"/>
+      <c r="AB82"/>
+      <c r="AC82"/>
+      <c r="AD82"/>
+    </row>
+    <row r="83" s="1" customFormat="1" spans="2:30">
+      <c r="B83"/>
+      <c r="C83"/>
+      <c r="D83"/>
+      <c r="E83"/>
+      <c r="F83"/>
+      <c r="G83"/>
+      <c r="H83"/>
+      <c r="I83"/>
+      <c r="J83"/>
+      <c r="K83"/>
+      <c r="L83"/>
+      <c r="M83"/>
+      <c r="N83"/>
+      <c r="O83"/>
+      <c r="P83"/>
+      <c r="Q83"/>
+      <c r="R83"/>
+      <c r="S83"/>
+      <c r="T83"/>
+      <c r="U83"/>
+      <c r="V83"/>
+      <c r="W83"/>
+      <c r="X83"/>
+      <c r="Y83"/>
+      <c r="Z83"/>
+      <c r="AA83"/>
+      <c r="AB83"/>
+      <c r="AC83"/>
+      <c r="AD83"/>
+    </row>
+    <row r="84" s="1" customFormat="1" spans="2:30">
+      <c r="B84"/>
+      <c r="C84"/>
+      <c r="D84"/>
+      <c r="E84"/>
+      <c r="F84"/>
+      <c r="G84"/>
+      <c r="H84"/>
+      <c r="I84"/>
+      <c r="J84"/>
+      <c r="K84"/>
+      <c r="L84"/>
+      <c r="M84"/>
+      <c r="N84"/>
+      <c r="O84"/>
+      <c r="P84"/>
+      <c r="Q84"/>
+      <c r="R84"/>
+      <c r="S84"/>
+      <c r="T84"/>
+      <c r="U84"/>
+      <c r="V84"/>
+      <c r="W84"/>
+      <c r="X84"/>
+      <c r="Y84"/>
+      <c r="Z84"/>
+      <c r="AA84"/>
+      <c r="AB84"/>
+      <c r="AC84"/>
+      <c r="AD84"/>
+    </row>
+    <row r="85" s="1" customFormat="1" spans="2:30">
+      <c r="B85"/>
+      <c r="C85"/>
+      <c r="D85"/>
+      <c r="E85"/>
+      <c r="F85"/>
+      <c r="G85"/>
+      <c r="H85"/>
+      <c r="I85"/>
+      <c r="J85"/>
+      <c r="K85"/>
+      <c r="L85"/>
+      <c r="M85"/>
+      <c r="N85"/>
+      <c r="O85"/>
+      <c r="P85"/>
+      <c r="Q85"/>
+      <c r="R85"/>
+      <c r="S85"/>
+      <c r="T85"/>
+      <c r="U85"/>
+      <c r="V85"/>
+      <c r="W85"/>
+      <c r="X85"/>
+      <c r="Y85"/>
+      <c r="Z85"/>
+      <c r="AA85"/>
+      <c r="AB85"/>
+      <c r="AC85"/>
+      <c r="AD85"/>
+    </row>
+    <row r="86" s="1" customFormat="1" spans="2:30">
+      <c r="B86"/>
+      <c r="C86"/>
+      <c r="D86"/>
+      <c r="E86"/>
+      <c r="F86"/>
+      <c r="G86"/>
+      <c r="H86"/>
+      <c r="I86"/>
+      <c r="J86"/>
+      <c r="K86"/>
+      <c r="L86"/>
+      <c r="M86"/>
+      <c r="N86"/>
+      <c r="O86"/>
+      <c r="P86"/>
+      <c r="Q86"/>
+      <c r="R86"/>
+      <c r="S86"/>
+      <c r="T86"/>
+      <c r="U86"/>
+      <c r="V86"/>
+      <c r="W86"/>
+      <c r="X86"/>
+      <c r="Y86"/>
+      <c r="Z86"/>
+      <c r="AA86"/>
+      <c r="AB86"/>
+      <c r="AC86"/>
+      <c r="AD86"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Q10" sqref="Q10"/>
+      <selection activeCell="Y12" sqref="Y12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="s">
-        <v>46</v>
+        <v>136</v>
       </c>
     </row>
   </sheetData>
@@ -5452,4 +8013,36 @@
   <headerFooter/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E35" sqref="E35"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetData/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetData/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
 </file>
--- a/数电.xlsx
+++ b/数电.xlsx
@@ -4,22 +4,24 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28125" windowHeight="12540" activeTab="3"/>
+    <workbookView windowWidth="28125" windowHeight="12540" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="第9章" sheetId="1" r:id="rId1"/>
     <sheet name="第10章" sheetId="2" r:id="rId2"/>
     <sheet name="第11章" sheetId="4" r:id="rId3"/>
-    <sheet name="书签" sheetId="3" r:id="rId4"/>
-    <sheet name="第12章" sheetId="5" r:id="rId5"/>
-    <sheet name="第13章" sheetId="6" r:id="rId6"/>
+    <sheet name="第12章" sheetId="5" r:id="rId4"/>
+    <sheet name="第13章" sheetId="6" r:id="rId5"/>
+    <sheet name="第14章" sheetId="8" r:id="rId6"/>
+    <sheet name="第15章" sheetId="9" r:id="rId7"/>
+    <sheet name="书签" sheetId="3" r:id="rId8"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="144525" calcCompleted="0" calcOnSave="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="179" uniqueCount="137">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="353" uniqueCount="221">
   <si>
     <t>模电和数电</t>
   </si>
@@ -427,6 +429,258 @@
   </si>
   <si>
     <t>11.8奇偶校验器</t>
+  </si>
+  <si>
+    <t>11.8.1奇偶校验原理</t>
+  </si>
+  <si>
+    <t>分奇校验和偶校验，奇校验就是有奇数个1，校验结果就是0，偶数个1，校验结果是1，偶校验同理</t>
+  </si>
+  <si>
+    <t>11.8.2奇偶校验器</t>
+  </si>
+  <si>
+    <t>第12章：时序逻辑电路</t>
+  </si>
+  <si>
+    <t>时序逻辑电路简称时序电路，是一种具有记忆功能的电路。由组合逻辑电路和记忆电路（存储电路）组成</t>
+  </si>
+  <si>
+    <t>常见的时序逻辑电路有触发器，寄存器，计数器等。</t>
+  </si>
+  <si>
+    <t>12.1触发器</t>
+  </si>
+  <si>
+    <t>触发器是一种有记忆功能的电路，他是时序逻辑电路中的基本单元，触发器有很多种</t>
+  </si>
+  <si>
+    <t>eg：基本RS触发器，同步RS触发器，D触发器，JK触发器，T触发器，主从触发器等。</t>
+  </si>
+  <si>
+    <t>12.1.1基本RS触发器</t>
+  </si>
+  <si>
+    <t>基本RS触发器是一种最简单的触发器，其他类型的触发器大多数都是有RS触发器进行改进得来的</t>
+  </si>
+  <si>
+    <t>真值表</t>
+  </si>
+  <si>
+    <t>/R</t>
+  </si>
+  <si>
+    <t>/S</t>
+  </si>
+  <si>
+    <t>Q输出</t>
+  </si>
+  <si>
+    <t>/Q输出</t>
+  </si>
+  <si>
+    <t>保持</t>
+  </si>
+  <si>
+    <t>不允许</t>
+  </si>
+  <si>
+    <t>基本RS触发器实现了置0，置1，保持的功能</t>
+  </si>
+  <si>
+    <t>12.1.2同步RS触发器</t>
+  </si>
+  <si>
+    <t>⑴CP脉冲</t>
+  </si>
+  <si>
+    <t>在数字电路中有很多触发器，为了让触发器按照统一的节拍工作，大多需要一个脉冲信号控制各个触发器。</t>
+  </si>
+  <si>
+    <t>当控制脉冲过来的时候各个触发器才能工作，该控制脉冲称为始终脉冲，简称CP。</t>
+  </si>
+  <si>
+    <t>⑵同步RS触发器</t>
+  </si>
+  <si>
+    <t>①结构和原理</t>
+  </si>
+  <si>
+    <t>CP</t>
+  </si>
+  <si>
+    <t>R</t>
+  </si>
+  <si>
+    <t>S</t>
+  </si>
+  <si>
+    <t>随意</t>
+  </si>
+  <si>
+    <t>在基本RS触发器前面加了锁，时钟为0的时候输出锁住，时钟为1的时候有效，结果刚好和上面的相反，所以输入输出没有反信号</t>
+  </si>
+  <si>
+    <t>12.1.3D触发器</t>
+  </si>
+  <si>
+    <t>D触发器又称为延时触发器或数据锁存触发器，可以组成锁存器，寄存器，计数器等</t>
+  </si>
+  <si>
+    <t>把同步RS触发器的输入换成一个D信号，把D信号分成正反两个，这样输入信号只能是01或10</t>
+  </si>
+  <si>
+    <t>时钟来了，输入啥就输出啥，时钟无效时就保持上次的状态。</t>
+  </si>
+  <si>
+    <t>12.1.4JK触发器</t>
+  </si>
+  <si>
+    <t>在同步RS触发器的基础上，加上了把输出又引入了输入，这样就能在J，K同时出1的情况下实现反转的功能。</t>
+  </si>
+  <si>
+    <t>J</t>
+  </si>
+  <si>
+    <t>K</t>
+  </si>
+  <si>
+    <t>反转</t>
+  </si>
+  <si>
+    <t>12.1.5T触发器</t>
+  </si>
+  <si>
+    <t>又叫计数型触发器，把JK触发器的两段连在一起，实现出0保持，出1反转。</t>
+  </si>
+  <si>
+    <t>12.1.6主从触发器和边沿触发器</t>
+  </si>
+  <si>
+    <t>前面介绍了大多数触发器都加了时钟脉冲CP，当时钟脉冲来了，触发器工作，CP走了，触发器保持。</t>
+  </si>
+  <si>
+    <t>给触发器加时钟脉冲的作用是让触发器每来一个时钟脉冲，触发器就变化一次，那么假如CP来的时候输入信号又不断的变化了，触发器的状态也会变的，</t>
+  </si>
+  <si>
+    <t>我们把触发器变的情况称为触发器空翻，但是实际操作中时钟脉冲来的时候我们不希望触发器变，为了克服空翻，出现了主从触发器和边沿触发器</t>
+  </si>
+  <si>
+    <t>⑴主从触发器</t>
+  </si>
+  <si>
+    <t>把两个触发器放在一起，CP信号分成正反两个，所以任意时刻都只有一个触发器工作，这样就能解决CP来了，输出稳定的问题了。</t>
+  </si>
+  <si>
+    <t>⑵边沿触发器</t>
+  </si>
+  <si>
+    <t>边沿触发器是克服空翻问题更好的方法，边沿触发器能让CP在上升沿或下降沿的时候输出才有效，其他时间处于封锁状态，所以即使CP来了，信号变化也不会影响结果</t>
+  </si>
+  <si>
+    <t>边沿触发器内部就是CP0变1的时候，触发器能动了，但是由于结构问题，瞬间又不能动了，就实现了上升沿触发</t>
+  </si>
+  <si>
+    <t>12.2寄存器与移位寄存器</t>
+  </si>
+  <si>
+    <t>12.2.1寄存器</t>
+  </si>
+  <si>
+    <t>寄存器是一种能存取二进制数据的电路，数据存取过程称为寄存器的读写</t>
+  </si>
+  <si>
+    <t>寄存器的存取是采用了有记忆功能的电路，既触发器，一个触发器能存放1位，8个寄存器就能存放8位</t>
+  </si>
+  <si>
+    <t>把4个D触发器连在一起，组成4位的寄存器，把D触发器搞成下降沿有效，经过非门变成上升沿有效</t>
+  </si>
+  <si>
+    <t>CP=0，非门变成1，产生上升沿，不工作</t>
+  </si>
+  <si>
+    <t>CP=1，非门变成0，产生下降沿，工作，寄存器输出和输入相同，</t>
+  </si>
+  <si>
+    <t>上升沿过后，又不工作了，数据就存上了</t>
+  </si>
+  <si>
+    <t>复位信号来了，寄存器输出0</t>
+  </si>
+  <si>
+    <t>⑵常用的寄存器芯片</t>
+  </si>
+  <si>
+    <t>移位寄存器简称移存器，除了又寄存器的功能，还有移位的功能，可以分为左移寄存器，右移寄存器，双向移位寄存器</t>
+  </si>
+  <si>
+    <t>也可分为串行输入，串行输出，串行输入，并行输出，并行输入，串行输出，并行输入，并行输出</t>
+  </si>
+  <si>
+    <t>①左移寄存器</t>
+  </si>
+  <si>
+    <t>串行输入来了，来一个上升沿，Q0=输入。再来一个上升沿，Q0的信号输入Q1，Q0变成新的输入，实现了每来一个脉冲信号，Q的信息向左移一下</t>
+  </si>
+  <si>
+    <t>输出可以是串行的一个一个出来，也可以是并行的一起全出来，所以移位寄存器也有延时功能，也常将其用做为数字延时器</t>
+  </si>
+  <si>
+    <t>②右移寄存器</t>
+  </si>
+  <si>
+    <t>和左移的一样</t>
+  </si>
+  <si>
+    <t>③双向移位寄存器</t>
+  </si>
+  <si>
+    <t>把左移和右移叠加在一起就行啦</t>
+  </si>
+  <si>
+    <t>12.3计数器</t>
+  </si>
+  <si>
+    <t>计数器是一种具有计数功能的电路，主要由触发器和门电路组成，是数字电路中使用最多的一种时序逻辑电路</t>
+  </si>
+  <si>
+    <t>计数器可以用来对脉冲进行计数，还可以用作数字运算，分频，定时控制等。</t>
+  </si>
+  <si>
+    <t>12.3.1二进制计数器</t>
+  </si>
+  <si>
+    <t>12.3.2十进制计数器</t>
+  </si>
+  <si>
+    <t>12.3.3任意进制计数器</t>
+  </si>
+  <si>
+    <t>12.3.4常用计数器芯片</t>
+  </si>
+  <si>
+    <t>12.4电子密码控制器</t>
+  </si>
+  <si>
+    <t>第13章：脉冲电路</t>
+  </si>
+  <si>
+    <t>讲产生脉冲的电路，如何用电路转换信号</t>
+  </si>
+  <si>
+    <t>第14章：数模转换电路</t>
+  </si>
+  <si>
+    <t>用电路实现模拟数字相互转换</t>
+  </si>
+  <si>
+    <t>第15章：半导体存储器</t>
+  </si>
+  <si>
+    <t>半导体存储器指的是由半导体材料制成的，用于存取二进制数的电路，半导体存储电路分类是：顺序存储器（SAM），随机存储器（RAM），只读存储器（ROM）</t>
+  </si>
+  <si>
+    <t>15.1顺序存储器（SAM）</t>
   </si>
   <si>
     <t>https://e.dangdang.com/pc/reader/index.html?id=1901087681</t>
@@ -437,9 +691,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="23">
@@ -473,13 +727,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -487,46 +734,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -541,7 +749,45 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -549,13 +795,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -586,16 +825,15 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <sz val="13"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -615,6 +853,22 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -625,7 +879,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -637,13 +921,97 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -655,49 +1023,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -709,108 +1053,18 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="9">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -819,11 +1073,32 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -869,26 +1144,18 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
+      <top/>
+      <bottom style="medium">
         <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -910,9 +1177,11 @@
     <border>
       <left/>
       <right/>
-      <top/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -924,10 +1193,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="14" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -936,137 +1205,137 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="21" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="27" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="7" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="27" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="29" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="29" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1081,6 +1350,12 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1328,20 +1603,193 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>238125</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>57785</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="图片 2"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1485900" y="2000250"/>
+          <a:ext cx="1352550" cy="1429385"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>12700</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="图片 3"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1857375" y="4743450"/>
+          <a:ext cx="1870075" cy="2162175"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>79</xdr:row>
+      <xdr:rowOff>170815</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>30480</xdr:colOff>
+      <xdr:row>87</xdr:row>
+      <xdr:rowOff>69850</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="图片 1"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1857375" y="13829665"/>
+          <a:ext cx="2630805" cy="1270635"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>92</xdr:row>
+      <xdr:rowOff>170815</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>70485</xdr:colOff>
+      <xdr:row>100</xdr:row>
+      <xdr:rowOff>62865</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="图片 4"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId4"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1857375" y="16058515"/>
+          <a:ext cx="2670810" cy="1263650"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>1</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>21</xdr:col>
-      <xdr:colOff>38100</xdr:colOff>
-      <xdr:row>54</xdr:row>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>666750</xdr:colOff>
+      <xdr:row>43</xdr:row>
       <xdr:rowOff>114300</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="图片 1"/>
+        <xdr:cNvPr id="3" name="图片 2"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -1355,7 +1803,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="171450"/>
-          <a:ext cx="14439900" cy="9201150"/>
+          <a:ext cx="13011150" cy="7315200"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1758,10 +2206,10 @@
       <c r="E14" s="2"/>
     </row>
     <row r="16" s="1" customFormat="1" spans="3:3">
-      <c r="C16" s="5"/>
+      <c r="C16" s="7"/>
     </row>
     <row r="17" s="1" customFormat="1" spans="3:3">
-      <c r="C17" s="5"/>
+      <c r="C17" s="7"/>
     </row>
     <row r="18" s="1" customFormat="1" spans="4:4">
       <c r="D18" s="1" t="s">
@@ -1774,7 +2222,7 @@
       </c>
     </row>
     <row r="20" s="1" customFormat="1" spans="3:4">
-      <c r="C20" s="5"/>
+      <c r="C20" s="7"/>
       <c r="D20" s="1" t="s">
         <v>20</v>
       </c>
@@ -1790,7 +2238,7 @@
       </c>
     </row>
     <row r="23" s="1" customFormat="1" spans="3:4">
-      <c r="C23" s="5"/>
+      <c r="C23" s="7"/>
       <c r="D23" s="2" t="s">
         <v>23</v>
       </c>
@@ -3806,8 +4254,8 @@
   <sheetPr/>
   <dimension ref="A1:AE86"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="O25" sqref="$A1:$XFD1048576"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="K7" sqref="K7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="4.875" defaultRowHeight="13.5"/>
@@ -3976,19 +4424,6 @@
       <c r="C25" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="D25" s="1"/>
-      <c r="E25" s="1"/>
-      <c r="F25" s="1"/>
-      <c r="G25" s="1"/>
-      <c r="H25" s="1"/>
-      <c r="I25" s="1"/>
-      <c r="J25" s="1"/>
-      <c r="K25" s="1"/>
-      <c r="L25" s="1"/>
-      <c r="M25" s="1"/>
-      <c r="N25" s="1"/>
-      <c r="O25" s="1"/>
-      <c r="P25" s="1"/>
       <c r="Q25"/>
       <c r="R25"/>
       <c r="S25"/>
@@ -4008,18 +4443,6 @@
       <c r="D26" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="E26" s="1"/>
-      <c r="F26" s="1"/>
-      <c r="G26" s="1"/>
-      <c r="H26" s="1"/>
-      <c r="I26" s="1"/>
-      <c r="J26" s="1"/>
-      <c r="K26" s="1"/>
-      <c r="L26" s="1"/>
-      <c r="M26" s="1"/>
-      <c r="N26" s="1"/>
-      <c r="O26" s="1"/>
-      <c r="P26" s="1"/>
       <c r="Q26"/>
       <c r="R26"/>
       <c r="S26"/>
@@ -4039,19 +4462,6 @@
       <c r="C27" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="D27" s="1"/>
-      <c r="E27" s="1"/>
-      <c r="F27" s="1"/>
-      <c r="G27" s="1"/>
-      <c r="H27" s="1"/>
-      <c r="I27" s="1"/>
-      <c r="J27" s="1"/>
-      <c r="K27" s="1"/>
-      <c r="L27" s="1"/>
-      <c r="M27" s="1"/>
-      <c r="N27" s="1"/>
-      <c r="O27" s="1"/>
-      <c r="P27" s="1"/>
       <c r="Q27"/>
       <c r="R27"/>
       <c r="S27"/>
@@ -5904,8 +6314,8 @@
   <sheetPr/>
   <dimension ref="A1:AE86"/>
   <sheetViews>
-    <sheetView zoomScale="160" zoomScaleNormal="160" topLeftCell="A62" workbookViewId="0">
-      <selection activeCell="E78" sqref="E78"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="K9" sqref="$A1:$XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="4.875" defaultRowHeight="13.5"/>
@@ -5975,7 +6385,6 @@
       <c r="B6" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="C6" s="1"/>
       <c r="X6" s="2"/>
       <c r="AA6" s="4"/>
     </row>
@@ -6164,7 +6573,6 @@
     <row r="30" s="1" customFormat="1" spans="2:30">
       <c r="B30"/>
       <c r="C30"/>
-      <c r="D30" s="1"/>
       <c r="E30" t="s">
         <v>102</v>
       </c>
@@ -6232,7 +6640,6 @@
       <c r="C32" t="s">
         <v>104</v>
       </c>
-      <c r="D32" s="1"/>
       <c r="E32"/>
       <c r="F32"/>
       <c r="G32"/>
@@ -6423,7 +6830,6 @@
       <c r="C38" t="s">
         <v>110</v>
       </c>
-      <c r="D38" s="1"/>
       <c r="E38"/>
       <c r="F38"/>
       <c r="G38"/>
@@ -7463,7 +7869,6 @@
         <v>132</v>
       </c>
       <c r="C71"/>
-      <c r="D71" s="1"/>
       <c r="E71"/>
       <c r="F71"/>
       <c r="G71"/>
@@ -7496,7 +7901,6 @@
       <c r="C72" t="s">
         <v>133</v>
       </c>
-      <c r="D72" s="1"/>
       <c r="E72"/>
       <c r="F72"/>
       <c r="G72"/>
@@ -7561,6 +7965,4302 @@
       <c r="B74" t="s">
         <v>135</v>
       </c>
+      <c r="C74"/>
+      <c r="D74"/>
+      <c r="E74"/>
+      <c r="F74"/>
+      <c r="G74"/>
+      <c r="H74"/>
+      <c r="I74"/>
+      <c r="J74"/>
+      <c r="K74"/>
+      <c r="L74"/>
+      <c r="M74"/>
+      <c r="N74"/>
+      <c r="O74"/>
+      <c r="P74"/>
+      <c r="Q74"/>
+      <c r="R74"/>
+      <c r="S74"/>
+      <c r="T74"/>
+      <c r="U74"/>
+      <c r="V74"/>
+      <c r="W74"/>
+      <c r="X74"/>
+      <c r="Y74"/>
+      <c r="Z74"/>
+      <c r="AA74"/>
+      <c r="AB74"/>
+      <c r="AC74"/>
+      <c r="AD74"/>
+    </row>
+    <row r="75" s="1" customFormat="1" spans="2:30">
+      <c r="B75"/>
+      <c r="C75" t="s">
+        <v>136</v>
+      </c>
+      <c r="D75"/>
+      <c r="E75"/>
+      <c r="F75"/>
+      <c r="G75"/>
+      <c r="H75"/>
+      <c r="I75"/>
+      <c r="J75"/>
+      <c r="K75"/>
+      <c r="L75"/>
+      <c r="M75"/>
+      <c r="N75"/>
+      <c r="O75"/>
+      <c r="P75"/>
+      <c r="Q75"/>
+      <c r="R75"/>
+      <c r="S75"/>
+      <c r="T75"/>
+      <c r="U75"/>
+      <c r="V75"/>
+      <c r="W75"/>
+      <c r="X75"/>
+      <c r="Y75"/>
+      <c r="Z75"/>
+      <c r="AA75"/>
+      <c r="AB75"/>
+      <c r="AC75"/>
+      <c r="AD75"/>
+    </row>
+    <row r="76" s="1" customFormat="1" spans="2:30">
+      <c r="B76"/>
+      <c r="C76"/>
+      <c r="D76" t="s">
+        <v>137</v>
+      </c>
+      <c r="E76"/>
+      <c r="F76"/>
+      <c r="G76"/>
+      <c r="H76"/>
+      <c r="I76"/>
+      <c r="J76"/>
+      <c r="K76"/>
+      <c r="L76"/>
+      <c r="M76"/>
+      <c r="N76"/>
+      <c r="O76"/>
+      <c r="P76"/>
+      <c r="Q76"/>
+      <c r="R76"/>
+      <c r="S76"/>
+      <c r="T76"/>
+      <c r="U76"/>
+      <c r="V76"/>
+      <c r="W76"/>
+      <c r="X76"/>
+      <c r="Y76"/>
+      <c r="Z76"/>
+      <c r="AA76"/>
+      <c r="AB76"/>
+      <c r="AC76"/>
+      <c r="AD76"/>
+    </row>
+    <row r="77" s="1" customFormat="1" spans="2:30">
+      <c r="B77"/>
+      <c r="C77" t="s">
+        <v>138</v>
+      </c>
+      <c r="D77"/>
+      <c r="E77"/>
+      <c r="F77"/>
+      <c r="G77"/>
+      <c r="H77"/>
+      <c r="I77"/>
+      <c r="J77"/>
+      <c r="K77"/>
+      <c r="L77"/>
+      <c r="M77"/>
+      <c r="N77"/>
+      <c r="O77"/>
+      <c r="P77"/>
+      <c r="Q77"/>
+      <c r="R77"/>
+      <c r="S77"/>
+      <c r="T77"/>
+      <c r="U77"/>
+      <c r="V77"/>
+      <c r="W77"/>
+      <c r="X77"/>
+      <c r="Y77"/>
+      <c r="Z77"/>
+      <c r="AA77"/>
+      <c r="AB77"/>
+      <c r="AC77"/>
+      <c r="AD77"/>
+    </row>
+    <row r="78" s="1" customFormat="1" spans="2:30">
+      <c r="B78"/>
+      <c r="C78"/>
+      <c r="D78"/>
+      <c r="E78"/>
+      <c r="F78"/>
+      <c r="G78"/>
+      <c r="H78"/>
+      <c r="I78"/>
+      <c r="J78"/>
+      <c r="K78"/>
+      <c r="L78"/>
+      <c r="M78"/>
+      <c r="N78"/>
+      <c r="O78"/>
+      <c r="P78"/>
+      <c r="Q78"/>
+      <c r="R78"/>
+      <c r="S78"/>
+      <c r="T78"/>
+      <c r="U78"/>
+      <c r="V78"/>
+      <c r="W78"/>
+      <c r="X78"/>
+      <c r="Y78"/>
+      <c r="Z78"/>
+      <c r="AA78"/>
+      <c r="AB78"/>
+      <c r="AC78"/>
+      <c r="AD78"/>
+    </row>
+    <row r="79" s="1" customFormat="1" spans="2:30">
+      <c r="B79"/>
+      <c r="C79"/>
+      <c r="D79"/>
+      <c r="E79"/>
+      <c r="F79"/>
+      <c r="G79"/>
+      <c r="H79"/>
+      <c r="I79"/>
+      <c r="J79"/>
+      <c r="K79"/>
+      <c r="L79"/>
+      <c r="M79"/>
+      <c r="N79"/>
+      <c r="O79"/>
+      <c r="P79"/>
+      <c r="Q79"/>
+      <c r="R79"/>
+      <c r="S79"/>
+      <c r="T79"/>
+      <c r="U79"/>
+      <c r="V79"/>
+      <c r="W79"/>
+      <c r="X79"/>
+      <c r="Y79"/>
+      <c r="Z79"/>
+      <c r="AA79"/>
+      <c r="AB79"/>
+      <c r="AC79"/>
+      <c r="AD79"/>
+    </row>
+    <row r="80" s="1" customFormat="1" spans="2:30">
+      <c r="B80"/>
+      <c r="C80"/>
+      <c r="D80"/>
+      <c r="E80"/>
+      <c r="F80"/>
+      <c r="G80"/>
+      <c r="H80"/>
+      <c r="I80"/>
+      <c r="J80"/>
+      <c r="K80"/>
+      <c r="L80"/>
+      <c r="M80"/>
+      <c r="N80"/>
+      <c r="O80"/>
+      <c r="P80"/>
+      <c r="Q80"/>
+      <c r="R80"/>
+      <c r="S80"/>
+      <c r="T80"/>
+      <c r="U80"/>
+      <c r="V80"/>
+      <c r="W80"/>
+      <c r="X80"/>
+      <c r="Y80"/>
+      <c r="Z80"/>
+      <c r="AA80"/>
+      <c r="AB80"/>
+      <c r="AC80"/>
+      <c r="AD80"/>
+    </row>
+    <row r="81" s="1" customFormat="1" spans="2:30">
+      <c r="B81"/>
+      <c r="C81"/>
+      <c r="D81"/>
+      <c r="E81"/>
+      <c r="F81"/>
+      <c r="G81"/>
+      <c r="H81"/>
+      <c r="I81"/>
+      <c r="J81"/>
+      <c r="K81"/>
+      <c r="L81"/>
+      <c r="M81"/>
+      <c r="N81"/>
+      <c r="O81"/>
+      <c r="P81"/>
+      <c r="Q81"/>
+      <c r="R81" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="S81" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="T81" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="U81" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="V81" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="X81"/>
+      <c r="Y81"/>
+      <c r="Z81"/>
+      <c r="AA81"/>
+      <c r="AB81"/>
+      <c r="AC81"/>
+      <c r="AD81"/>
+    </row>
+    <row r="82" s="1" customFormat="1" spans="2:30">
+      <c r="B82"/>
+      <c r="C82"/>
+      <c r="D82"/>
+      <c r="E82"/>
+      <c r="F82"/>
+      <c r="G82"/>
+      <c r="H82"/>
+      <c r="I82"/>
+      <c r="J82"/>
+      <c r="K82"/>
+      <c r="L82"/>
+      <c r="M82"/>
+      <c r="N82"/>
+      <c r="O82"/>
+      <c r="P82"/>
+      <c r="Q82"/>
+      <c r="R82" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="S82" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="T82" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="U82" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="V82" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="X82"/>
+      <c r="Y82"/>
+      <c r="Z82"/>
+      <c r="AA82"/>
+      <c r="AB82"/>
+      <c r="AC82"/>
+      <c r="AD82"/>
+    </row>
+    <row r="83" s="1" customFormat="1" spans="2:30">
+      <c r="B83"/>
+      <c r="C83"/>
+      <c r="D83"/>
+      <c r="E83"/>
+      <c r="F83"/>
+      <c r="G83"/>
+      <c r="H83"/>
+      <c r="I83"/>
+      <c r="J83"/>
+      <c r="K83"/>
+      <c r="L83"/>
+      <c r="M83"/>
+      <c r="N83"/>
+      <c r="O83"/>
+      <c r="P83"/>
+      <c r="Q83"/>
+      <c r="R83"/>
+      <c r="S83"/>
+      <c r="T83"/>
+      <c r="U83"/>
+      <c r="V83"/>
+      <c r="W83"/>
+      <c r="X83"/>
+      <c r="Y83"/>
+      <c r="Z83"/>
+      <c r="AA83"/>
+      <c r="AB83"/>
+      <c r="AC83"/>
+      <c r="AD83"/>
+    </row>
+    <row r="84" s="1" customFormat="1" spans="2:30">
+      <c r="B84"/>
+      <c r="C84"/>
+      <c r="D84"/>
+      <c r="E84"/>
+      <c r="F84"/>
+      <c r="G84"/>
+      <c r="H84"/>
+      <c r="I84"/>
+      <c r="J84"/>
+      <c r="K84"/>
+      <c r="L84"/>
+      <c r="M84"/>
+      <c r="N84"/>
+      <c r="O84"/>
+      <c r="P84"/>
+      <c r="Q84"/>
+      <c r="R84"/>
+      <c r="S84"/>
+      <c r="T84"/>
+      <c r="U84"/>
+      <c r="V84"/>
+      <c r="W84"/>
+      <c r="X84"/>
+      <c r="Y84"/>
+      <c r="Z84"/>
+      <c r="AA84"/>
+      <c r="AB84"/>
+      <c r="AC84"/>
+      <c r="AD84"/>
+    </row>
+    <row r="85" s="1" customFormat="1" spans="2:30">
+      <c r="B85"/>
+      <c r="C85"/>
+      <c r="D85"/>
+      <c r="E85"/>
+      <c r="F85"/>
+      <c r="G85"/>
+      <c r="H85"/>
+      <c r="I85"/>
+      <c r="J85"/>
+      <c r="K85"/>
+      <c r="L85"/>
+      <c r="M85"/>
+      <c r="N85"/>
+      <c r="O85"/>
+      <c r="P85"/>
+      <c r="Q85"/>
+      <c r="R85"/>
+      <c r="S85"/>
+      <c r="T85"/>
+      <c r="U85"/>
+      <c r="V85"/>
+      <c r="W85"/>
+      <c r="X85"/>
+      <c r="Y85"/>
+      <c r="Z85"/>
+      <c r="AA85"/>
+      <c r="AB85"/>
+      <c r="AC85"/>
+      <c r="AD85"/>
+    </row>
+    <row r="86" s="1" customFormat="1" spans="2:30">
+      <c r="B86"/>
+      <c r="C86"/>
+      <c r="D86"/>
+      <c r="E86"/>
+      <c r="F86"/>
+      <c r="G86"/>
+      <c r="H86"/>
+      <c r="I86"/>
+      <c r="J86"/>
+      <c r="K86"/>
+      <c r="L86"/>
+      <c r="M86"/>
+      <c r="N86"/>
+      <c r="O86"/>
+      <c r="P86"/>
+      <c r="Q86"/>
+      <c r="R86"/>
+      <c r="S86"/>
+      <c r="T86"/>
+      <c r="U86"/>
+      <c r="V86"/>
+      <c r="W86"/>
+      <c r="X86"/>
+      <c r="Y86"/>
+      <c r="Z86"/>
+      <c r="AA86"/>
+      <c r="AB86"/>
+      <c r="AC86"/>
+      <c r="AD86"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:AE110"/>
+  <sheetViews>
+    <sheetView showGridLines="0" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="C5" sqref="C5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="4.875" defaultRowHeight="13.5"/>
+  <cols>
+    <col min="1" max="16384" width="4.875" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" s="1" customFormat="1" ht="22.5" spans="9:31">
+      <c r="I1" s="3"/>
+      <c r="J1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="V1" s="2"/>
+      <c r="W1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="X1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="Y1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="Z1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="AA1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="AE1" s="2"/>
+    </row>
+    <row r="2" s="1" customFormat="1" spans="23:27">
+      <c r="W2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="X2" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="Y2" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="Z2" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="AA2" s="4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" s="1" customFormat="1" spans="1:1">
+      <c r="A3" s="1" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="4" s="1" customFormat="1" spans="2:2">
+      <c r="B4" s="1" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="5" s="1" customFormat="1" spans="2:31">
+      <c r="B5" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="V5" s="2"/>
+      <c r="X5" s="2"/>
+      <c r="AE5" s="2"/>
+    </row>
+    <row r="6" s="1" customFormat="1" spans="2:27">
+      <c r="B6" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="X6" s="2"/>
+      <c r="AA6" s="4"/>
+    </row>
+    <row r="7" s="1" customFormat="1" spans="3:3">
+      <c r="C7" s="1" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="8" s="1" customFormat="1" spans="3:3">
+      <c r="C8" s="1" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="9" s="1" customFormat="1" spans="3:3">
+      <c r="C9" s="1" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="10" s="1" customFormat="1" spans="4:4">
+      <c r="D10" s="1" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="11" s="1" customFormat="1" spans="4:4">
+      <c r="D11" s="1" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="12" s="1" customFormat="1" spans="10:10">
+      <c r="J12" s="1" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="13" s="1" customFormat="1" spans="10:15">
+      <c r="J13" s="6" t="s">
+        <v>148</v>
+      </c>
+      <c r="K13" s="6" t="s">
+        <v>149</v>
+      </c>
+      <c r="L13" s="6" t="s">
+        <v>150</v>
+      </c>
+      <c r="M13" s="6"/>
+      <c r="N13" s="6" t="s">
+        <v>151</v>
+      </c>
+      <c r="O13" s="6"/>
+    </row>
+    <row r="14" s="1" customFormat="1" spans="5:15">
+      <c r="E14" s="2"/>
+      <c r="J14" s="6">
+        <v>1</v>
+      </c>
+      <c r="K14" s="6">
+        <v>0</v>
+      </c>
+      <c r="L14" s="6">
+        <v>1</v>
+      </c>
+      <c r="M14" s="6"/>
+      <c r="N14" s="6">
+        <v>0</v>
+      </c>
+      <c r="O14" s="6"/>
+    </row>
+    <row r="15" s="1" customFormat="1" spans="5:15">
+      <c r="E15" s="2"/>
+      <c r="J15" s="6">
+        <v>0</v>
+      </c>
+      <c r="K15" s="6">
+        <v>1</v>
+      </c>
+      <c r="L15" s="6">
+        <v>0</v>
+      </c>
+      <c r="M15" s="6"/>
+      <c r="N15" s="6">
+        <v>1</v>
+      </c>
+      <c r="O15" s="6"/>
+    </row>
+    <row r="16" s="1" customFormat="1" spans="10:15">
+      <c r="J16" s="6">
+        <v>1</v>
+      </c>
+      <c r="K16" s="6">
+        <v>1</v>
+      </c>
+      <c r="L16" s="6" t="s">
+        <v>152</v>
+      </c>
+      <c r="M16" s="6"/>
+      <c r="N16" s="6" t="s">
+        <v>152</v>
+      </c>
+      <c r="O16" s="6"/>
+    </row>
+    <row r="17" s="1" customFormat="1" spans="10:15">
+      <c r="J17" s="6">
+        <v>0</v>
+      </c>
+      <c r="K17" s="6">
+        <v>0</v>
+      </c>
+      <c r="L17" s="6" t="s">
+        <v>153</v>
+      </c>
+      <c r="M17" s="6"/>
+      <c r="N17" s="6" t="s">
+        <v>153</v>
+      </c>
+      <c r="O17" s="6"/>
+    </row>
+    <row r="21" s="1" customFormat="1" spans="5:5">
+      <c r="E21" s="1" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="22" s="1" customFormat="1" spans="3:3">
+      <c r="C22" s="1" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="23" s="1" customFormat="1" spans="4:4">
+      <c r="D23" s="1" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="24" s="1" customFormat="1" spans="5:5">
+      <c r="E24" s="1" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="25" s="1" customFormat="1" spans="5:30">
+      <c r="E25" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="Q25"/>
+      <c r="R25"/>
+      <c r="S25"/>
+      <c r="T25"/>
+      <c r="U25"/>
+      <c r="V25"/>
+      <c r="W25"/>
+      <c r="X25"/>
+      <c r="Y25"/>
+      <c r="Z25"/>
+      <c r="AA25"/>
+      <c r="AB25"/>
+      <c r="AC25"/>
+      <c r="AD25"/>
+    </row>
+    <row r="26" s="1" customFormat="1" spans="4:30">
+      <c r="D26" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="Q26"/>
+      <c r="R26"/>
+      <c r="S26"/>
+      <c r="T26"/>
+      <c r="U26"/>
+      <c r="V26"/>
+      <c r="W26"/>
+      <c r="X26"/>
+      <c r="Y26"/>
+      <c r="Z26"/>
+      <c r="AA26"/>
+      <c r="AB26"/>
+      <c r="AC26"/>
+      <c r="AD26"/>
+    </row>
+    <row r="27" s="1" customFormat="1" spans="5:30">
+      <c r="E27" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="Q27"/>
+      <c r="R27"/>
+      <c r="S27"/>
+      <c r="T27"/>
+      <c r="U27"/>
+      <c r="V27"/>
+      <c r="W27"/>
+      <c r="X27"/>
+      <c r="Y27"/>
+      <c r="Z27"/>
+      <c r="AA27"/>
+      <c r="AB27"/>
+      <c r="AC27"/>
+      <c r="AD27"/>
+    </row>
+    <row r="28" s="1" customFormat="1" spans="2:30">
+      <c r="B28"/>
+      <c r="C28"/>
+      <c r="D28"/>
+      <c r="E28"/>
+      <c r="F28"/>
+      <c r="G28"/>
+      <c r="H28"/>
+      <c r="I28"/>
+      <c r="J28"/>
+      <c r="K28"/>
+      <c r="L28"/>
+      <c r="M28"/>
+      <c r="N28"/>
+      <c r="O28"/>
+      <c r="P28"/>
+      <c r="Q28"/>
+      <c r="R28"/>
+      <c r="S28"/>
+      <c r="T28"/>
+      <c r="U28"/>
+      <c r="V28"/>
+      <c r="W28"/>
+      <c r="X28"/>
+      <c r="Y28"/>
+      <c r="Z28"/>
+      <c r="AA28"/>
+      <c r="AB28"/>
+      <c r="AC28"/>
+      <c r="AD28"/>
+    </row>
+    <row r="29" s="1" customFormat="1" spans="12:30">
+      <c r="L29"/>
+      <c r="M29" t="s">
+        <v>147</v>
+      </c>
+      <c r="N29"/>
+      <c r="O29"/>
+      <c r="P29"/>
+      <c r="Q29"/>
+      <c r="R29"/>
+      <c r="S29"/>
+      <c r="T29"/>
+      <c r="U29"/>
+      <c r="V29"/>
+      <c r="W29"/>
+      <c r="X29"/>
+      <c r="Y29"/>
+      <c r="Z29"/>
+      <c r="AA29"/>
+      <c r="AB29"/>
+      <c r="AC29"/>
+      <c r="AD29"/>
+    </row>
+    <row r="30" s="1" customFormat="1" spans="2:30">
+      <c r="B30"/>
+      <c r="C30"/>
+      <c r="E30"/>
+      <c r="F30"/>
+      <c r="G30"/>
+      <c r="H30"/>
+      <c r="I30"/>
+      <c r="J30"/>
+      <c r="K30"/>
+      <c r="L30"/>
+      <c r="M30" s="5" t="s">
+        <v>161</v>
+      </c>
+      <c r="N30" s="5" t="s">
+        <v>162</v>
+      </c>
+      <c r="O30" s="5" t="s">
+        <v>163</v>
+      </c>
+      <c r="P30" s="6" t="s">
+        <v>150</v>
+      </c>
+      <c r="Q30" s="6"/>
+      <c r="R30" s="6" t="s">
+        <v>151</v>
+      </c>
+      <c r="S30" s="6"/>
+      <c r="T30"/>
+      <c r="U30"/>
+      <c r="V30"/>
+      <c r="W30"/>
+      <c r="X30"/>
+      <c r="Y30"/>
+      <c r="Z30"/>
+      <c r="AA30"/>
+      <c r="AB30"/>
+      <c r="AC30"/>
+      <c r="AD30"/>
+    </row>
+    <row r="31" s="1" customFormat="1" spans="2:30">
+      <c r="B31"/>
+      <c r="C31"/>
+      <c r="D31"/>
+      <c r="E31"/>
+      <c r="F31"/>
+      <c r="G31"/>
+      <c r="H31"/>
+      <c r="I31"/>
+      <c r="J31"/>
+      <c r="K31"/>
+      <c r="L31"/>
+      <c r="M31" s="5">
+        <v>0</v>
+      </c>
+      <c r="N31" s="5" t="s">
+        <v>164</v>
+      </c>
+      <c r="O31" s="5" t="s">
+        <v>164</v>
+      </c>
+      <c r="P31" s="6" t="s">
+        <v>152</v>
+      </c>
+      <c r="Q31" s="6"/>
+      <c r="R31" s="6" t="s">
+        <v>152</v>
+      </c>
+      <c r="S31" s="6"/>
+      <c r="T31"/>
+      <c r="U31"/>
+      <c r="V31"/>
+      <c r="W31"/>
+      <c r="X31"/>
+      <c r="Y31"/>
+      <c r="Z31"/>
+      <c r="AA31"/>
+      <c r="AB31"/>
+      <c r="AC31"/>
+      <c r="AD31"/>
+    </row>
+    <row r="32" s="1" customFormat="1" spans="2:30">
+      <c r="B32"/>
+      <c r="C32"/>
+      <c r="E32"/>
+      <c r="F32"/>
+      <c r="G32"/>
+      <c r="H32"/>
+      <c r="I32"/>
+      <c r="J32"/>
+      <c r="K32"/>
+      <c r="L32"/>
+      <c r="M32" s="5">
+        <v>1</v>
+      </c>
+      <c r="N32" s="5">
+        <v>0</v>
+      </c>
+      <c r="O32" s="5">
+        <v>1</v>
+      </c>
+      <c r="P32" s="6">
+        <v>1</v>
+      </c>
+      <c r="Q32" s="6"/>
+      <c r="R32" s="6">
+        <v>0</v>
+      </c>
+      <c r="S32" s="6"/>
+      <c r="T32"/>
+      <c r="U32"/>
+      <c r="V32"/>
+      <c r="W32"/>
+      <c r="X32"/>
+      <c r="Y32"/>
+      <c r="Z32"/>
+      <c r="AA32"/>
+      <c r="AB32"/>
+      <c r="AC32"/>
+      <c r="AD32"/>
+    </row>
+    <row r="33" s="1" customFormat="1" spans="2:30">
+      <c r="B33"/>
+      <c r="C33"/>
+      <c r="D33"/>
+      <c r="E33"/>
+      <c r="F33"/>
+      <c r="G33"/>
+      <c r="H33"/>
+      <c r="I33"/>
+      <c r="J33"/>
+      <c r="K33"/>
+      <c r="L33"/>
+      <c r="M33" s="5">
+        <v>1</v>
+      </c>
+      <c r="N33" s="5">
+        <v>1</v>
+      </c>
+      <c r="O33" s="5">
+        <v>0</v>
+      </c>
+      <c r="P33" s="6">
+        <v>0</v>
+      </c>
+      <c r="Q33" s="6"/>
+      <c r="R33" s="6">
+        <v>1</v>
+      </c>
+      <c r="S33" s="6"/>
+      <c r="T33"/>
+      <c r="U33"/>
+      <c r="V33"/>
+      <c r="W33"/>
+      <c r="X33"/>
+      <c r="Y33"/>
+      <c r="Z33"/>
+      <c r="AA33"/>
+      <c r="AB33"/>
+      <c r="AC33"/>
+      <c r="AD33"/>
+    </row>
+    <row r="34" s="1" customFormat="1" spans="2:22">
+      <c r="B34"/>
+      <c r="C34"/>
+      <c r="E34"/>
+      <c r="F34"/>
+      <c r="G34"/>
+      <c r="H34"/>
+      <c r="I34"/>
+      <c r="J34"/>
+      <c r="K34"/>
+      <c r="L34"/>
+      <c r="M34" s="5">
+        <v>1</v>
+      </c>
+      <c r="N34" s="5">
+        <v>0</v>
+      </c>
+      <c r="O34" s="5">
+        <v>0</v>
+      </c>
+      <c r="P34" s="6" t="s">
+        <v>152</v>
+      </c>
+      <c r="Q34" s="6"/>
+      <c r="R34" s="6" t="s">
+        <v>152</v>
+      </c>
+      <c r="S34" s="6"/>
+      <c r="T34"/>
+      <c r="U34"/>
+      <c r="V34"/>
+    </row>
+    <row r="35" s="1" customFormat="1" spans="2:22">
+      <c r="B35"/>
+      <c r="C35"/>
+      <c r="E35"/>
+      <c r="F35"/>
+      <c r="G35"/>
+      <c r="H35"/>
+      <c r="I35"/>
+      <c r="J35"/>
+      <c r="K35"/>
+      <c r="L35"/>
+      <c r="M35" s="5">
+        <v>1</v>
+      </c>
+      <c r="N35" s="5">
+        <v>1</v>
+      </c>
+      <c r="O35" s="5">
+        <v>1</v>
+      </c>
+      <c r="P35" s="6" t="s">
+        <v>153</v>
+      </c>
+      <c r="Q35" s="6"/>
+      <c r="R35" s="6" t="s">
+        <v>153</v>
+      </c>
+      <c r="S35" s="6"/>
+      <c r="T35"/>
+      <c r="U35"/>
+      <c r="V35"/>
+    </row>
+    <row r="36" s="1" customFormat="1" spans="2:30">
+      <c r="B36"/>
+      <c r="C36"/>
+      <c r="D36"/>
+      <c r="E36"/>
+      <c r="F36"/>
+      <c r="G36"/>
+      <c r="H36"/>
+      <c r="I36"/>
+      <c r="J36"/>
+      <c r="K36"/>
+      <c r="L36"/>
+      <c r="M36"/>
+      <c r="N36"/>
+      <c r="O36"/>
+      <c r="P36"/>
+      <c r="Q36"/>
+      <c r="R36"/>
+      <c r="S36"/>
+      <c r="T36"/>
+      <c r="U36"/>
+      <c r="V36"/>
+      <c r="W36"/>
+      <c r="X36"/>
+      <c r="Y36"/>
+      <c r="Z36"/>
+      <c r="AA36"/>
+      <c r="AB36"/>
+      <c r="AC36"/>
+      <c r="AD36"/>
+    </row>
+    <row r="37" s="1" customFormat="1" spans="2:30">
+      <c r="B37"/>
+      <c r="C37"/>
+      <c r="D37" s="2"/>
+      <c r="E37"/>
+      <c r="F37"/>
+      <c r="G37"/>
+      <c r="H37"/>
+      <c r="I37"/>
+      <c r="J37"/>
+      <c r="K37"/>
+      <c r="L37"/>
+      <c r="M37"/>
+      <c r="N37"/>
+      <c r="O37"/>
+      <c r="P37"/>
+      <c r="Q37"/>
+      <c r="Y37"/>
+      <c r="Z37"/>
+      <c r="AA37"/>
+      <c r="AB37"/>
+      <c r="AC37"/>
+      <c r="AD37"/>
+    </row>
+    <row r="38" s="1" customFormat="1" spans="2:30">
+      <c r="B38"/>
+      <c r="C38"/>
+      <c r="E38"/>
+      <c r="F38"/>
+      <c r="G38"/>
+      <c r="H38"/>
+      <c r="I38"/>
+      <c r="J38"/>
+      <c r="K38"/>
+      <c r="L38"/>
+      <c r="M38"/>
+      <c r="N38"/>
+      <c r="O38"/>
+      <c r="P38"/>
+      <c r="Q38"/>
+      <c r="Y38"/>
+      <c r="Z38"/>
+      <c r="AA38"/>
+      <c r="AB38"/>
+      <c r="AC38"/>
+      <c r="AD38"/>
+    </row>
+    <row r="39" s="1" customFormat="1" spans="2:30">
+      <c r="B39"/>
+      <c r="C39"/>
+      <c r="E39"/>
+      <c r="F39"/>
+      <c r="G39"/>
+      <c r="H39"/>
+      <c r="I39"/>
+      <c r="J39"/>
+      <c r="K39"/>
+      <c r="L39"/>
+      <c r="M39"/>
+      <c r="N39"/>
+      <c r="O39"/>
+      <c r="P39"/>
+      <c r="Q39"/>
+      <c r="R39"/>
+      <c r="S39"/>
+      <c r="T39"/>
+      <c r="U39"/>
+      <c r="V39"/>
+      <c r="W39"/>
+      <c r="X39"/>
+      <c r="Y39"/>
+      <c r="Z39"/>
+      <c r="AA39"/>
+      <c r="AB39"/>
+      <c r="AC39"/>
+      <c r="AD39"/>
+    </row>
+    <row r="40" s="1" customFormat="1" spans="2:30">
+      <c r="B40"/>
+      <c r="C40"/>
+      <c r="G40"/>
+      <c r="H40"/>
+      <c r="I40"/>
+      <c r="J40"/>
+      <c r="K40"/>
+      <c r="L40"/>
+      <c r="M40"/>
+      <c r="N40"/>
+      <c r="O40"/>
+      <c r="P40"/>
+      <c r="Q40"/>
+      <c r="R40"/>
+      <c r="S40"/>
+      <c r="T40"/>
+      <c r="U40"/>
+      <c r="V40"/>
+      <c r="W40"/>
+      <c r="X40"/>
+      <c r="Y40"/>
+      <c r="Z40"/>
+      <c r="AA40"/>
+      <c r="AB40"/>
+      <c r="AC40"/>
+      <c r="AD40"/>
+    </row>
+    <row r="41" s="1" customFormat="1" spans="2:30">
+      <c r="B41"/>
+      <c r="C41"/>
+      <c r="F41" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="G41"/>
+      <c r="H41"/>
+      <c r="I41"/>
+      <c r="J41"/>
+      <c r="K41"/>
+      <c r="L41"/>
+      <c r="M41"/>
+      <c r="N41"/>
+      <c r="O41"/>
+      <c r="P41"/>
+      <c r="Q41"/>
+      <c r="R41"/>
+      <c r="S41"/>
+      <c r="T41"/>
+      <c r="U41"/>
+      <c r="V41"/>
+      <c r="W41"/>
+      <c r="X41"/>
+      <c r="Y41"/>
+      <c r="Z41"/>
+      <c r="AA41"/>
+      <c r="AB41"/>
+      <c r="AC41"/>
+      <c r="AD41"/>
+    </row>
+    <row r="42" s="1" customFormat="1" spans="2:30">
+      <c r="B42"/>
+      <c r="C42" t="s">
+        <v>166</v>
+      </c>
+      <c r="D42" s="2"/>
+      <c r="E42"/>
+      <c r="F42"/>
+      <c r="G42"/>
+      <c r="H42"/>
+      <c r="I42"/>
+      <c r="J42"/>
+      <c r="K42"/>
+      <c r="L42"/>
+      <c r="M42"/>
+      <c r="N42"/>
+      <c r="O42"/>
+      <c r="P42"/>
+      <c r="Q42"/>
+      <c r="R42"/>
+      <c r="S42"/>
+      <c r="T42"/>
+      <c r="U42"/>
+      <c r="V42"/>
+      <c r="W42"/>
+      <c r="X42"/>
+      <c r="Y42"/>
+      <c r="Z42"/>
+      <c r="AA42"/>
+      <c r="AB42"/>
+      <c r="AC42"/>
+      <c r="AD42"/>
+    </row>
+    <row r="43" s="1" customFormat="1" spans="2:30">
+      <c r="B43"/>
+      <c r="C43"/>
+      <c r="D43" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="E43"/>
+      <c r="F43"/>
+      <c r="G43"/>
+      <c r="H43"/>
+      <c r="I43"/>
+      <c r="J43"/>
+      <c r="K43"/>
+      <c r="L43"/>
+      <c r="M43"/>
+      <c r="N43"/>
+      <c r="O43"/>
+      <c r="P43"/>
+      <c r="Q43"/>
+      <c r="R43"/>
+      <c r="S43"/>
+      <c r="T43"/>
+      <c r="U43"/>
+      <c r="V43"/>
+      <c r="W43"/>
+      <c r="X43"/>
+      <c r="Y43"/>
+      <c r="Z43"/>
+      <c r="AA43"/>
+      <c r="AB43"/>
+      <c r="AC43"/>
+      <c r="AD43"/>
+    </row>
+    <row r="44" s="1" customFormat="1" spans="2:30">
+      <c r="B44"/>
+      <c r="C44"/>
+      <c r="D44" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="E44"/>
+      <c r="F44"/>
+      <c r="G44"/>
+      <c r="H44"/>
+      <c r="I44"/>
+      <c r="J44"/>
+      <c r="K44"/>
+      <c r="L44"/>
+      <c r="M44"/>
+      <c r="N44"/>
+      <c r="O44"/>
+      <c r="P44"/>
+      <c r="Q44"/>
+      <c r="R44"/>
+      <c r="S44"/>
+      <c r="T44"/>
+      <c r="U44"/>
+      <c r="V44"/>
+      <c r="W44"/>
+      <c r="X44"/>
+      <c r="Y44"/>
+      <c r="Z44"/>
+      <c r="AA44"/>
+      <c r="AB44"/>
+      <c r="AC44"/>
+      <c r="AD44"/>
+    </row>
+    <row r="45" s="1" customFormat="1" spans="2:28">
+      <c r="B45"/>
+      <c r="C45"/>
+      <c r="D45"/>
+      <c r="E45" t="s">
+        <v>168</v>
+      </c>
+      <c r="F45"/>
+      <c r="G45"/>
+      <c r="H45"/>
+      <c r="I45"/>
+      <c r="J45"/>
+      <c r="K45"/>
+      <c r="L45"/>
+      <c r="M45"/>
+      <c r="N45"/>
+      <c r="O45"/>
+      <c r="P45"/>
+      <c r="Q45"/>
+      <c r="R45"/>
+      <c r="S45"/>
+      <c r="T45"/>
+      <c r="U45"/>
+      <c r="V45"/>
+      <c r="W45"/>
+      <c r="X45" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="Y45" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="Z45" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="AA45" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="AB45" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="46" s="1" customFormat="1" spans="2:28">
+      <c r="B46"/>
+      <c r="C46"/>
+      <c r="D46"/>
+      <c r="E46" t="s">
+        <v>169</v>
+      </c>
+      <c r="F46"/>
+      <c r="G46"/>
+      <c r="H46"/>
+      <c r="I46"/>
+      <c r="J46"/>
+      <c r="K46"/>
+      <c r="L46"/>
+      <c r="M46"/>
+      <c r="N46"/>
+      <c r="O46"/>
+      <c r="P46"/>
+      <c r="Q46"/>
+      <c r="R46"/>
+      <c r="S46"/>
+      <c r="T46"/>
+      <c r="U46"/>
+      <c r="V46"/>
+      <c r="W46"/>
+      <c r="X46" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="Y46" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="Z46" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="AA46" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="AB46" s="4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="47" s="1" customFormat="1" spans="2:30">
+      <c r="B47"/>
+      <c r="C47" t="s">
+        <v>170</v>
+      </c>
+      <c r="D47"/>
+      <c r="E47"/>
+      <c r="F47"/>
+      <c r="G47"/>
+      <c r="H47"/>
+      <c r="I47"/>
+      <c r="J47"/>
+      <c r="K47"/>
+      <c r="L47"/>
+      <c r="M47"/>
+      <c r="N47"/>
+      <c r="O47"/>
+      <c r="P47"/>
+      <c r="Q47"/>
+      <c r="R47"/>
+      <c r="S47"/>
+      <c r="T47"/>
+      <c r="U47"/>
+      <c r="V47"/>
+      <c r="W47"/>
+      <c r="X47"/>
+      <c r="Y47"/>
+      <c r="Z47"/>
+      <c r="AA47"/>
+      <c r="AB47"/>
+      <c r="AC47"/>
+      <c r="AD47"/>
+    </row>
+    <row r="48" s="1" customFormat="1" spans="2:30">
+      <c r="B48"/>
+      <c r="C48"/>
+      <c r="D48" t="s">
+        <v>171</v>
+      </c>
+      <c r="E48"/>
+      <c r="F48"/>
+      <c r="G48"/>
+      <c r="H48"/>
+      <c r="I48"/>
+      <c r="J48"/>
+      <c r="K48"/>
+      <c r="L48"/>
+      <c r="M48"/>
+      <c r="N48"/>
+      <c r="O48"/>
+      <c r="P48"/>
+      <c r="Q48"/>
+      <c r="R48"/>
+      <c r="S48"/>
+      <c r="T48"/>
+      <c r="U48"/>
+      <c r="V48"/>
+      <c r="W48"/>
+      <c r="X48"/>
+      <c r="Y48"/>
+      <c r="Z48"/>
+      <c r="AA48"/>
+      <c r="AB48"/>
+      <c r="AC48"/>
+      <c r="AD48"/>
+    </row>
+    <row r="49" s="1" customFormat="1" spans="2:30">
+      <c r="B49"/>
+      <c r="C49"/>
+      <c r="D49" t="s">
+        <v>147</v>
+      </c>
+      <c r="E49"/>
+      <c r="F49"/>
+      <c r="G49"/>
+      <c r="H49"/>
+      <c r="I49"/>
+      <c r="J49"/>
+      <c r="K49"/>
+      <c r="L49"/>
+      <c r="M49"/>
+      <c r="N49"/>
+      <c r="O49"/>
+      <c r="P49"/>
+      <c r="Q49"/>
+      <c r="R49"/>
+      <c r="S49"/>
+      <c r="T49"/>
+      <c r="U49"/>
+      <c r="V49"/>
+      <c r="W49"/>
+      <c r="X49"/>
+      <c r="Y49"/>
+      <c r="Z49"/>
+      <c r="AA49"/>
+      <c r="AB49"/>
+      <c r="AC49"/>
+      <c r="AD49"/>
+    </row>
+    <row r="50" s="1" customFormat="1" spans="2:30">
+      <c r="B50"/>
+      <c r="C50"/>
+      <c r="D50" s="5" t="s">
+        <v>161</v>
+      </c>
+      <c r="E50" s="5" t="s">
+        <v>172</v>
+      </c>
+      <c r="F50" s="5" t="s">
+        <v>173</v>
+      </c>
+      <c r="G50" s="6" t="s">
+        <v>150</v>
+      </c>
+      <c r="H50" s="6"/>
+      <c r="I50" s="6" t="s">
+        <v>151</v>
+      </c>
+      <c r="J50" s="6"/>
+      <c r="K50"/>
+      <c r="L50"/>
+      <c r="M50"/>
+      <c r="N50"/>
+      <c r="O50"/>
+      <c r="P50"/>
+      <c r="Q50"/>
+      <c r="R50"/>
+      <c r="S50"/>
+      <c r="T50"/>
+      <c r="U50"/>
+      <c r="V50"/>
+      <c r="W50"/>
+      <c r="X50"/>
+      <c r="Y50"/>
+      <c r="Z50"/>
+      <c r="AA50"/>
+      <c r="AB50"/>
+      <c r="AC50"/>
+      <c r="AD50"/>
+    </row>
+    <row r="51" s="1" customFormat="1" spans="2:30">
+      <c r="B51"/>
+      <c r="C51"/>
+      <c r="D51" s="5">
+        <v>0</v>
+      </c>
+      <c r="E51" s="5" t="s">
+        <v>164</v>
+      </c>
+      <c r="F51" s="5" t="s">
+        <v>164</v>
+      </c>
+      <c r="G51" s="6" t="s">
+        <v>152</v>
+      </c>
+      <c r="H51" s="6"/>
+      <c r="I51" s="6" t="s">
+        <v>152</v>
+      </c>
+      <c r="J51" s="6"/>
+      <c r="K51"/>
+      <c r="L51"/>
+      <c r="M51"/>
+      <c r="N51"/>
+      <c r="O51"/>
+      <c r="P51"/>
+      <c r="Q51"/>
+      <c r="R51"/>
+      <c r="S51"/>
+      <c r="T51"/>
+      <c r="U51"/>
+      <c r="V51"/>
+      <c r="W51"/>
+      <c r="X51"/>
+      <c r="Y51"/>
+      <c r="Z51"/>
+      <c r="AA51"/>
+      <c r="AB51"/>
+      <c r="AC51"/>
+      <c r="AD51"/>
+    </row>
+    <row r="52" s="1" customFormat="1" spans="2:30">
+      <c r="B52"/>
+      <c r="C52"/>
+      <c r="D52" s="5">
+        <v>1</v>
+      </c>
+      <c r="E52" s="5">
+        <v>0</v>
+      </c>
+      <c r="F52" s="5">
+        <v>1</v>
+      </c>
+      <c r="G52" s="6">
+        <v>1</v>
+      </c>
+      <c r="H52" s="6"/>
+      <c r="I52" s="6">
+        <v>0</v>
+      </c>
+      <c r="J52" s="6"/>
+      <c r="K52"/>
+      <c r="L52"/>
+      <c r="M52"/>
+      <c r="N52"/>
+      <c r="O52"/>
+      <c r="P52"/>
+      <c r="Q52"/>
+      <c r="R52"/>
+      <c r="S52"/>
+      <c r="T52"/>
+      <c r="U52"/>
+      <c r="V52"/>
+      <c r="W52"/>
+      <c r="X52"/>
+      <c r="Y52"/>
+      <c r="Z52"/>
+      <c r="AA52"/>
+      <c r="AB52"/>
+      <c r="AC52"/>
+      <c r="AD52"/>
+    </row>
+    <row r="53" s="1" customFormat="1" spans="2:30">
+      <c r="B53"/>
+      <c r="C53"/>
+      <c r="D53" s="5">
+        <v>1</v>
+      </c>
+      <c r="E53" s="5">
+        <v>1</v>
+      </c>
+      <c r="F53" s="5">
+        <v>0</v>
+      </c>
+      <c r="G53" s="6">
+        <v>0</v>
+      </c>
+      <c r="H53" s="6"/>
+      <c r="I53" s="6">
+        <v>1</v>
+      </c>
+      <c r="J53" s="6"/>
+      <c r="K53"/>
+      <c r="L53"/>
+      <c r="M53"/>
+      <c r="N53"/>
+      <c r="O53"/>
+      <c r="P53"/>
+      <c r="Q53"/>
+      <c r="R53"/>
+      <c r="S53"/>
+      <c r="T53"/>
+      <c r="V53" s="2"/>
+      <c r="AB53"/>
+      <c r="AC53"/>
+      <c r="AD53"/>
+    </row>
+    <row r="54" s="1" customFormat="1" spans="2:30">
+      <c r="B54"/>
+      <c r="C54"/>
+      <c r="D54" s="5">
+        <v>1</v>
+      </c>
+      <c r="E54" s="5">
+        <v>0</v>
+      </c>
+      <c r="F54" s="5">
+        <v>0</v>
+      </c>
+      <c r="G54" s="6" t="s">
+        <v>152</v>
+      </c>
+      <c r="H54" s="6"/>
+      <c r="I54" s="6" t="s">
+        <v>152</v>
+      </c>
+      <c r="J54" s="6"/>
+      <c r="K54"/>
+      <c r="L54"/>
+      <c r="M54"/>
+      <c r="N54"/>
+      <c r="O54"/>
+      <c r="P54"/>
+      <c r="Q54"/>
+      <c r="R54"/>
+      <c r="S54"/>
+      <c r="T54"/>
+      <c r="V54" s="2"/>
+      <c r="Y54" s="4"/>
+      <c r="AB54"/>
+      <c r="AC54"/>
+      <c r="AD54"/>
+    </row>
+    <row r="55" s="1" customFormat="1" spans="2:30">
+      <c r="B55"/>
+      <c r="C55"/>
+      <c r="D55" s="5">
+        <v>1</v>
+      </c>
+      <c r="E55" s="5">
+        <v>1</v>
+      </c>
+      <c r="F55" s="5">
+        <v>1</v>
+      </c>
+      <c r="G55" s="6" t="s">
+        <v>174</v>
+      </c>
+      <c r="H55" s="6"/>
+      <c r="I55" s="6" t="s">
+        <v>174</v>
+      </c>
+      <c r="J55" s="6"/>
+      <c r="K55"/>
+      <c r="L55"/>
+      <c r="M55"/>
+      <c r="N55"/>
+      <c r="O55"/>
+      <c r="P55"/>
+      <c r="Q55"/>
+      <c r="R55"/>
+      <c r="S55"/>
+      <c r="T55"/>
+      <c r="U55"/>
+      <c r="V55"/>
+      <c r="W55"/>
+      <c r="X55"/>
+      <c r="Y55"/>
+      <c r="Z55"/>
+      <c r="AA55"/>
+      <c r="AB55"/>
+      <c r="AC55"/>
+      <c r="AD55"/>
+    </row>
+    <row r="56" s="1" customFormat="1" spans="2:30">
+      <c r="B56"/>
+      <c r="C56" t="s">
+        <v>175</v>
+      </c>
+      <c r="D56"/>
+      <c r="E56"/>
+      <c r="F56"/>
+      <c r="G56"/>
+      <c r="H56"/>
+      <c r="I56"/>
+      <c r="J56"/>
+      <c r="K56"/>
+      <c r="L56"/>
+      <c r="M56"/>
+      <c r="N56"/>
+      <c r="O56"/>
+      <c r="P56"/>
+      <c r="Q56"/>
+      <c r="R56"/>
+      <c r="S56"/>
+      <c r="T56"/>
+      <c r="U56"/>
+      <c r="V56"/>
+      <c r="W56"/>
+      <c r="X56"/>
+      <c r="Y56"/>
+      <c r="Z56"/>
+      <c r="AA56"/>
+      <c r="AB56"/>
+      <c r="AC56"/>
+      <c r="AD56"/>
+    </row>
+    <row r="57" s="1" customFormat="1" spans="2:30">
+      <c r="B57"/>
+      <c r="C57"/>
+      <c r="D57" t="s">
+        <v>176</v>
+      </c>
+      <c r="E57"/>
+      <c r="F57"/>
+      <c r="G57"/>
+      <c r="H57"/>
+      <c r="I57"/>
+      <c r="J57"/>
+      <c r="K57"/>
+      <c r="L57"/>
+      <c r="M57"/>
+      <c r="N57"/>
+      <c r="O57"/>
+      <c r="P57"/>
+      <c r="Q57"/>
+      <c r="R57"/>
+      <c r="S57"/>
+      <c r="T57"/>
+      <c r="U57"/>
+      <c r="V57"/>
+      <c r="W57"/>
+      <c r="X57"/>
+      <c r="Y57"/>
+      <c r="Z57"/>
+      <c r="AA57"/>
+      <c r="AB57"/>
+      <c r="AC57"/>
+      <c r="AD57"/>
+    </row>
+    <row r="58" s="1" customFormat="1" spans="2:30">
+      <c r="B58"/>
+      <c r="C58" t="s">
+        <v>177</v>
+      </c>
+      <c r="E58"/>
+      <c r="F58"/>
+      <c r="G58"/>
+      <c r="H58"/>
+      <c r="I58"/>
+      <c r="J58"/>
+      <c r="K58"/>
+      <c r="L58"/>
+      <c r="M58"/>
+      <c r="N58"/>
+      <c r="O58"/>
+      <c r="P58"/>
+      <c r="Q58"/>
+      <c r="R58"/>
+      <c r="S58"/>
+      <c r="T58"/>
+      <c r="U58"/>
+      <c r="V58"/>
+      <c r="W58"/>
+      <c r="X58"/>
+      <c r="Y58"/>
+      <c r="Z58"/>
+      <c r="AA58"/>
+      <c r="AB58"/>
+      <c r="AC58"/>
+      <c r="AD58"/>
+    </row>
+    <row r="59" s="1" customFormat="1" spans="2:30">
+      <c r="B59"/>
+      <c r="C59"/>
+      <c r="D59" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="E59"/>
+      <c r="F59"/>
+      <c r="G59"/>
+      <c r="H59"/>
+      <c r="I59"/>
+      <c r="J59"/>
+      <c r="K59"/>
+      <c r="L59"/>
+      <c r="M59"/>
+      <c r="N59"/>
+      <c r="O59"/>
+      <c r="P59"/>
+      <c r="Q59"/>
+      <c r="R59"/>
+      <c r="S59"/>
+      <c r="T59"/>
+      <c r="U59"/>
+      <c r="V59"/>
+      <c r="W59"/>
+      <c r="X59"/>
+      <c r="Y59"/>
+      <c r="Z59"/>
+      <c r="AA59"/>
+      <c r="AB59"/>
+      <c r="AC59"/>
+      <c r="AD59"/>
+    </row>
+    <row r="60" s="1" customFormat="1" spans="2:30">
+      <c r="B60"/>
+      <c r="C60"/>
+      <c r="D60" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="E60"/>
+      <c r="F60"/>
+      <c r="G60"/>
+      <c r="H60"/>
+      <c r="I60"/>
+      <c r="J60"/>
+      <c r="K60"/>
+      <c r="L60"/>
+      <c r="M60"/>
+      <c r="N60"/>
+      <c r="O60"/>
+      <c r="P60"/>
+      <c r="Q60"/>
+      <c r="R60"/>
+      <c r="S60"/>
+      <c r="T60"/>
+      <c r="U60"/>
+      <c r="V60"/>
+      <c r="W60"/>
+      <c r="X60"/>
+      <c r="Y60"/>
+      <c r="Z60"/>
+      <c r="AA60"/>
+      <c r="AB60"/>
+      <c r="AC60"/>
+      <c r="AD60"/>
+    </row>
+    <row r="61" s="1" customFormat="1" spans="2:30">
+      <c r="B61"/>
+      <c r="C61"/>
+      <c r="D61" t="s">
+        <v>180</v>
+      </c>
+      <c r="E61"/>
+      <c r="F61"/>
+      <c r="G61"/>
+      <c r="H61"/>
+      <c r="I61"/>
+      <c r="J61"/>
+      <c r="K61"/>
+      <c r="L61"/>
+      <c r="M61"/>
+      <c r="N61"/>
+      <c r="O61"/>
+      <c r="P61"/>
+      <c r="Q61"/>
+      <c r="R61"/>
+      <c r="S61"/>
+      <c r="T61"/>
+      <c r="U61"/>
+      <c r="V61"/>
+      <c r="W61"/>
+      <c r="X61"/>
+      <c r="Y61"/>
+      <c r="Z61"/>
+      <c r="AA61"/>
+      <c r="AB61"/>
+      <c r="AC61"/>
+      <c r="AD61"/>
+    </row>
+    <row r="62" s="1" customFormat="1" spans="2:30">
+      <c r="B62"/>
+      <c r="C62"/>
+      <c r="D62" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="E62"/>
+      <c r="F62"/>
+      <c r="G62"/>
+      <c r="H62"/>
+      <c r="I62"/>
+      <c r="J62"/>
+      <c r="K62"/>
+      <c r="L62"/>
+      <c r="M62"/>
+      <c r="N62"/>
+      <c r="O62"/>
+      <c r="P62"/>
+      <c r="Q62"/>
+      <c r="R62"/>
+      <c r="S62"/>
+      <c r="T62"/>
+      <c r="U62"/>
+      <c r="V62"/>
+      <c r="W62"/>
+      <c r="X62"/>
+      <c r="Y62"/>
+      <c r="Z62"/>
+      <c r="AA62"/>
+      <c r="AB62"/>
+      <c r="AC62"/>
+      <c r="AD62"/>
+    </row>
+    <row r="63" s="1" customFormat="1" spans="2:30">
+      <c r="B63"/>
+      <c r="C63"/>
+      <c r="D63"/>
+      <c r="E63" t="s">
+        <v>182</v>
+      </c>
+      <c r="F63"/>
+      <c r="G63"/>
+      <c r="H63"/>
+      <c r="I63"/>
+      <c r="J63"/>
+      <c r="K63"/>
+      <c r="L63"/>
+      <c r="M63"/>
+      <c r="N63"/>
+      <c r="O63"/>
+      <c r="P63"/>
+      <c r="Q63"/>
+      <c r="R63"/>
+      <c r="S63"/>
+      <c r="T63"/>
+      <c r="U63"/>
+      <c r="V63"/>
+      <c r="W63"/>
+      <c r="X63"/>
+      <c r="Y63"/>
+      <c r="Z63"/>
+      <c r="AA63"/>
+      <c r="AB63"/>
+      <c r="AC63"/>
+      <c r="AD63"/>
+    </row>
+    <row r="64" s="1" customFormat="1" spans="2:30">
+      <c r="B64"/>
+      <c r="C64"/>
+      <c r="D64" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="E64"/>
+      <c r="F64"/>
+      <c r="G64"/>
+      <c r="H64"/>
+      <c r="I64"/>
+      <c r="J64"/>
+      <c r="K64"/>
+      <c r="L64"/>
+      <c r="M64"/>
+      <c r="N64"/>
+      <c r="O64"/>
+      <c r="P64"/>
+      <c r="Q64"/>
+      <c r="R64"/>
+      <c r="S64"/>
+      <c r="T64"/>
+      <c r="U64"/>
+      <c r="V64"/>
+      <c r="W64"/>
+      <c r="X64"/>
+      <c r="Y64"/>
+      <c r="Z64"/>
+      <c r="AA64"/>
+      <c r="AB64"/>
+      <c r="AC64"/>
+      <c r="AD64"/>
+    </row>
+    <row r="65" s="1" customFormat="1" spans="2:30">
+      <c r="B65"/>
+      <c r="C65"/>
+      <c r="E65" t="s">
+        <v>184</v>
+      </c>
+      <c r="F65"/>
+      <c r="G65"/>
+      <c r="H65"/>
+      <c r="I65"/>
+      <c r="J65"/>
+      <c r="K65"/>
+      <c r="L65"/>
+      <c r="M65"/>
+      <c r="N65"/>
+      <c r="O65"/>
+      <c r="P65"/>
+      <c r="Q65"/>
+      <c r="R65"/>
+      <c r="S65"/>
+      <c r="T65"/>
+      <c r="U65"/>
+      <c r="V65"/>
+      <c r="W65"/>
+      <c r="X65"/>
+      <c r="Y65"/>
+      <c r="Z65"/>
+      <c r="AA65"/>
+      <c r="AB65"/>
+      <c r="AC65"/>
+      <c r="AD65"/>
+    </row>
+    <row r="66" s="1" customFormat="1" spans="2:30">
+      <c r="B66"/>
+      <c r="C66"/>
+      <c r="E66" t="s">
+        <v>185</v>
+      </c>
+      <c r="F66"/>
+      <c r="G66"/>
+      <c r="H66"/>
+      <c r="I66"/>
+      <c r="J66"/>
+      <c r="K66"/>
+      <c r="L66"/>
+      <c r="M66"/>
+      <c r="N66"/>
+      <c r="O66"/>
+      <c r="P66"/>
+      <c r="Q66"/>
+      <c r="R66"/>
+      <c r="S66"/>
+      <c r="T66"/>
+      <c r="U66"/>
+      <c r="V66"/>
+      <c r="W66"/>
+      <c r="X66"/>
+      <c r="Y66"/>
+      <c r="Z66"/>
+      <c r="AA66"/>
+      <c r="AB66"/>
+      <c r="AC66"/>
+      <c r="AD66"/>
+    </row>
+    <row r="67" s="1" customFormat="1" spans="2:30">
+      <c r="B67" t="s">
+        <v>186</v>
+      </c>
+      <c r="C67"/>
+      <c r="D67"/>
+      <c r="E67"/>
+      <c r="F67"/>
+      <c r="G67"/>
+      <c r="H67"/>
+      <c r="I67"/>
+      <c r="J67"/>
+      <c r="K67"/>
+      <c r="L67"/>
+      <c r="M67"/>
+      <c r="N67"/>
+      <c r="O67"/>
+      <c r="P67"/>
+      <c r="Q67"/>
+      <c r="R67"/>
+      <c r="S67"/>
+      <c r="T67"/>
+      <c r="U67"/>
+      <c r="V67"/>
+      <c r="W67"/>
+      <c r="X67"/>
+      <c r="Y67"/>
+      <c r="Z67"/>
+      <c r="AA67"/>
+      <c r="AB67"/>
+      <c r="AC67"/>
+      <c r="AD67"/>
+    </row>
+    <row r="68" s="1" customFormat="1" spans="2:30">
+      <c r="B68"/>
+      <c r="C68" t="s">
+        <v>187</v>
+      </c>
+      <c r="D68"/>
+      <c r="E68"/>
+      <c r="F68"/>
+      <c r="G68"/>
+      <c r="H68"/>
+      <c r="I68"/>
+      <c r="J68"/>
+      <c r="K68"/>
+      <c r="L68"/>
+      <c r="M68"/>
+      <c r="N68"/>
+      <c r="O68"/>
+      <c r="P68"/>
+      <c r="Q68"/>
+      <c r="R68"/>
+      <c r="S68"/>
+      <c r="T68"/>
+      <c r="U68"/>
+      <c r="V68"/>
+      <c r="W68"/>
+      <c r="X68"/>
+      <c r="Y68"/>
+      <c r="Z68"/>
+      <c r="AA68"/>
+      <c r="AB68"/>
+      <c r="AC68"/>
+      <c r="AD68"/>
+    </row>
+    <row r="69" s="1" customFormat="1" spans="2:30">
+      <c r="B69"/>
+      <c r="C69"/>
+      <c r="D69" t="s">
+        <v>188</v>
+      </c>
+      <c r="E69"/>
+      <c r="F69"/>
+      <c r="G69"/>
+      <c r="H69"/>
+      <c r="I69"/>
+      <c r="J69"/>
+      <c r="K69"/>
+      <c r="L69"/>
+      <c r="M69"/>
+      <c r="N69"/>
+      <c r="O69"/>
+      <c r="P69"/>
+      <c r="Q69"/>
+      <c r="R69"/>
+      <c r="S69"/>
+      <c r="T69"/>
+      <c r="U69"/>
+      <c r="V69"/>
+      <c r="W69"/>
+      <c r="X69"/>
+      <c r="Y69"/>
+      <c r="Z69"/>
+      <c r="AA69"/>
+      <c r="AB69"/>
+      <c r="AC69"/>
+      <c r="AD69"/>
+    </row>
+    <row r="70" s="1" customFormat="1" spans="2:30">
+      <c r="B70"/>
+      <c r="C70"/>
+      <c r="D70" t="s">
+        <v>189</v>
+      </c>
+      <c r="E70"/>
+      <c r="F70"/>
+      <c r="G70"/>
+      <c r="H70"/>
+      <c r="I70"/>
+      <c r="J70"/>
+      <c r="K70"/>
+      <c r="L70"/>
+      <c r="M70"/>
+      <c r="N70"/>
+      <c r="O70"/>
+      <c r="P70"/>
+      <c r="Q70"/>
+      <c r="R70"/>
+      <c r="S70"/>
+      <c r="T70"/>
+      <c r="U70"/>
+      <c r="V70"/>
+      <c r="W70"/>
+      <c r="X70"/>
+      <c r="Y70"/>
+      <c r="Z70"/>
+      <c r="AA70"/>
+      <c r="AB70"/>
+      <c r="AC70"/>
+      <c r="AD70"/>
+    </row>
+    <row r="71" s="1" customFormat="1" spans="2:30">
+      <c r="B71"/>
+      <c r="C71"/>
+      <c r="D71" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="E71"/>
+      <c r="F71"/>
+      <c r="G71"/>
+      <c r="H71"/>
+      <c r="I71"/>
+      <c r="J71"/>
+      <c r="K71"/>
+      <c r="L71"/>
+      <c r="M71"/>
+      <c r="N71"/>
+      <c r="O71"/>
+      <c r="P71"/>
+      <c r="Q71"/>
+      <c r="R71"/>
+      <c r="S71"/>
+      <c r="T71"/>
+      <c r="U71"/>
+      <c r="V71"/>
+      <c r="W71"/>
+      <c r="X71"/>
+      <c r="Y71"/>
+      <c r="Z71"/>
+      <c r="AA71"/>
+      <c r="AB71"/>
+      <c r="AC71"/>
+      <c r="AD71"/>
+    </row>
+    <row r="72" s="1" customFormat="1" spans="2:30">
+      <c r="B72"/>
+      <c r="C72"/>
+      <c r="E72" t="s">
+        <v>190</v>
+      </c>
+      <c r="F72"/>
+      <c r="G72"/>
+      <c r="H72"/>
+      <c r="I72"/>
+      <c r="J72"/>
+      <c r="K72"/>
+      <c r="L72"/>
+      <c r="M72"/>
+      <c r="N72"/>
+      <c r="O72"/>
+      <c r="P72"/>
+      <c r="Q72"/>
+      <c r="R72"/>
+      <c r="S72"/>
+      <c r="T72"/>
+      <c r="U72"/>
+      <c r="V72"/>
+      <c r="W72"/>
+      <c r="X72"/>
+      <c r="Y72"/>
+      <c r="Z72"/>
+      <c r="AA72"/>
+      <c r="AB72"/>
+      <c r="AC72"/>
+      <c r="AD72"/>
+    </row>
+    <row r="73" s="1" customFormat="1" spans="2:30">
+      <c r="B73"/>
+      <c r="C73"/>
+      <c r="D73"/>
+      <c r="E73" t="s">
+        <v>191</v>
+      </c>
+      <c r="F73"/>
+      <c r="G73"/>
+      <c r="H73"/>
+      <c r="I73"/>
+      <c r="J73"/>
+      <c r="K73"/>
+      <c r="L73"/>
+      <c r="M73"/>
+      <c r="N73"/>
+      <c r="O73"/>
+      <c r="P73"/>
+      <c r="Q73"/>
+      <c r="R73"/>
+      <c r="S73"/>
+      <c r="T73"/>
+      <c r="U73"/>
+      <c r="V73"/>
+      <c r="W73"/>
+      <c r="X73"/>
+      <c r="Y73"/>
+      <c r="Z73"/>
+      <c r="AA73"/>
+      <c r="AB73"/>
+      <c r="AC73"/>
+      <c r="AD73"/>
+    </row>
+    <row r="74" s="1" customFormat="1" spans="2:30">
+      <c r="B74"/>
+      <c r="C74"/>
+      <c r="D74"/>
+      <c r="E74" t="s">
+        <v>192</v>
+      </c>
+      <c r="F74"/>
+      <c r="G74"/>
+      <c r="H74"/>
+      <c r="I74"/>
+      <c r="J74"/>
+      <c r="K74"/>
+      <c r="L74"/>
+      <c r="M74"/>
+      <c r="N74"/>
+      <c r="O74"/>
+      <c r="P74"/>
+      <c r="Q74"/>
+      <c r="R74"/>
+      <c r="S74"/>
+      <c r="T74"/>
+      <c r="U74"/>
+      <c r="V74"/>
+      <c r="W74"/>
+      <c r="X74"/>
+      <c r="Y74"/>
+      <c r="Z74"/>
+      <c r="AA74"/>
+      <c r="AB74"/>
+      <c r="AC74"/>
+      <c r="AD74"/>
+    </row>
+    <row r="75" s="1" customFormat="1" spans="2:29">
+      <c r="B75"/>
+      <c r="C75"/>
+      <c r="D75"/>
+      <c r="E75" t="s">
+        <v>193</v>
+      </c>
+      <c r="F75"/>
+      <c r="G75"/>
+      <c r="H75"/>
+      <c r="I75"/>
+      <c r="J75"/>
+      <c r="K75"/>
+      <c r="L75"/>
+      <c r="M75"/>
+      <c r="N75"/>
+      <c r="O75"/>
+      <c r="P75"/>
+      <c r="Q75"/>
+      <c r="R75"/>
+      <c r="S75"/>
+      <c r="T75"/>
+      <c r="U75"/>
+      <c r="V75"/>
+      <c r="W75"/>
+      <c r="X75"/>
+      <c r="Y75" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="Z75" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="AA75" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="AB75" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="AC75" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="76" s="1" customFormat="1" spans="2:29">
+      <c r="B76"/>
+      <c r="C76"/>
+      <c r="D76"/>
+      <c r="E76" t="s">
+        <v>194</v>
+      </c>
+      <c r="F76"/>
+      <c r="G76"/>
+      <c r="H76"/>
+      <c r="I76"/>
+      <c r="J76"/>
+      <c r="K76"/>
+      <c r="L76"/>
+      <c r="M76"/>
+      <c r="N76"/>
+      <c r="O76"/>
+      <c r="P76"/>
+      <c r="Q76"/>
+      <c r="R76"/>
+      <c r="S76"/>
+      <c r="T76"/>
+      <c r="U76"/>
+      <c r="V76"/>
+      <c r="W76"/>
+      <c r="X76"/>
+      <c r="Y76" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="Z76" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="AA76" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="AB76" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="AC76" s="4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="77" s="1" customFormat="1" spans="2:30">
+      <c r="B77"/>
+      <c r="C77"/>
+      <c r="D77" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="E77"/>
+      <c r="F77"/>
+      <c r="G77"/>
+      <c r="H77"/>
+      <c r="I77"/>
+      <c r="J77"/>
+      <c r="K77"/>
+      <c r="L77"/>
+      <c r="M77"/>
+      <c r="N77"/>
+      <c r="O77"/>
+      <c r="P77"/>
+      <c r="Q77"/>
+      <c r="R77"/>
+      <c r="S77"/>
+      <c r="T77"/>
+      <c r="U77"/>
+      <c r="V77"/>
+      <c r="W77"/>
+      <c r="X77"/>
+      <c r="Y77"/>
+      <c r="Z77"/>
+      <c r="AA77"/>
+      <c r="AB77"/>
+      <c r="AC77"/>
+      <c r="AD77"/>
+    </row>
+    <row r="78" s="1" customFormat="1" spans="2:30">
+      <c r="B78"/>
+      <c r="C78"/>
+      <c r="D78"/>
+      <c r="E78" t="s">
+        <v>196</v>
+      </c>
+      <c r="F78"/>
+      <c r="G78"/>
+      <c r="H78"/>
+      <c r="I78"/>
+      <c r="J78"/>
+      <c r="K78"/>
+      <c r="L78"/>
+      <c r="M78"/>
+      <c r="N78"/>
+      <c r="O78"/>
+      <c r="P78"/>
+      <c r="Q78"/>
+      <c r="R78"/>
+      <c r="S78"/>
+      <c r="T78"/>
+      <c r="U78"/>
+      <c r="V78"/>
+      <c r="W78"/>
+      <c r="X78"/>
+      <c r="Y78"/>
+      <c r="Z78"/>
+      <c r="AA78"/>
+      <c r="AB78"/>
+      <c r="AC78"/>
+      <c r="AD78"/>
+    </row>
+    <row r="79" s="1" customFormat="1" spans="2:30">
+      <c r="B79"/>
+      <c r="C79"/>
+      <c r="D79"/>
+      <c r="E79" t="s">
+        <v>197</v>
+      </c>
+      <c r="F79"/>
+      <c r="G79"/>
+      <c r="H79"/>
+      <c r="I79"/>
+      <c r="J79"/>
+      <c r="K79"/>
+      <c r="L79"/>
+      <c r="M79"/>
+      <c r="N79"/>
+      <c r="O79"/>
+      <c r="P79"/>
+      <c r="Q79"/>
+      <c r="R79"/>
+      <c r="S79"/>
+      <c r="T79"/>
+      <c r="U79"/>
+      <c r="V79"/>
+      <c r="W79"/>
+      <c r="X79"/>
+      <c r="Y79"/>
+      <c r="Z79"/>
+      <c r="AA79"/>
+      <c r="AB79"/>
+      <c r="AC79"/>
+      <c r="AD79"/>
+    </row>
+    <row r="80" s="1" customFormat="1" spans="2:30">
+      <c r="B80"/>
+      <c r="C80"/>
+      <c r="D80"/>
+      <c r="E80" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="F80"/>
+      <c r="G80"/>
+      <c r="H80"/>
+      <c r="I80"/>
+      <c r="J80"/>
+      <c r="K80"/>
+      <c r="L80"/>
+      <c r="M80"/>
+      <c r="N80"/>
+      <c r="O80"/>
+      <c r="P80"/>
+      <c r="Q80"/>
+      <c r="R80"/>
+      <c r="S80"/>
+      <c r="T80"/>
+      <c r="U80"/>
+      <c r="V80"/>
+      <c r="W80"/>
+      <c r="X80"/>
+      <c r="Y80"/>
+      <c r="Z80"/>
+      <c r="AA80"/>
+      <c r="AB80"/>
+      <c r="AC80"/>
+      <c r="AD80"/>
+    </row>
+    <row r="81" s="1" customFormat="1" spans="2:30">
+      <c r="B81"/>
+      <c r="C81"/>
+      <c r="D81"/>
+      <c r="E81"/>
+      <c r="F81"/>
+      <c r="G81"/>
+      <c r="H81"/>
+      <c r="I81"/>
+      <c r="J81"/>
+      <c r="K81"/>
+      <c r="L81"/>
+      <c r="M81"/>
+      <c r="N81"/>
+      <c r="O81"/>
+      <c r="P81"/>
+      <c r="Q81"/>
+      <c r="S81" s="2"/>
+      <c r="X81"/>
+      <c r="Y81"/>
+      <c r="Z81"/>
+      <c r="AA81"/>
+      <c r="AB81"/>
+      <c r="AC81"/>
+      <c r="AD81"/>
+    </row>
+    <row r="82" s="1" customFormat="1" spans="2:30">
+      <c r="B82"/>
+      <c r="C82"/>
+      <c r="E82"/>
+      <c r="F82"/>
+      <c r="G82"/>
+      <c r="H82"/>
+      <c r="I82"/>
+      <c r="J82"/>
+      <c r="K82"/>
+      <c r="L82"/>
+      <c r="M82"/>
+      <c r="N82"/>
+      <c r="O82"/>
+      <c r="P82"/>
+      <c r="Q82"/>
+      <c r="S82" s="2"/>
+      <c r="V82" s="4"/>
+      <c r="X82"/>
+      <c r="Y82"/>
+      <c r="Z82"/>
+      <c r="AA82"/>
+      <c r="AB82"/>
+      <c r="AC82"/>
+      <c r="AD82"/>
+    </row>
+    <row r="83" s="1" customFormat="1" spans="2:30">
+      <c r="B83"/>
+      <c r="C83"/>
+      <c r="D83"/>
+      <c r="E83"/>
+      <c r="F83"/>
+      <c r="G83"/>
+      <c r="H83"/>
+      <c r="I83"/>
+      <c r="J83"/>
+      <c r="K83"/>
+      <c r="L83"/>
+      <c r="M83"/>
+      <c r="N83"/>
+      <c r="O83"/>
+      <c r="P83"/>
+      <c r="Q83"/>
+      <c r="R83"/>
+      <c r="S83"/>
+      <c r="T83"/>
+      <c r="U83"/>
+      <c r="V83"/>
+      <c r="W83"/>
+      <c r="X83"/>
+      <c r="Y83"/>
+      <c r="Z83"/>
+      <c r="AA83"/>
+      <c r="AB83"/>
+      <c r="AC83"/>
+      <c r="AD83"/>
+    </row>
+    <row r="84" s="1" customFormat="1" spans="2:30">
+      <c r="B84"/>
+      <c r="C84"/>
+      <c r="D84"/>
+      <c r="E84"/>
+      <c r="F84"/>
+      <c r="G84"/>
+      <c r="H84"/>
+      <c r="I84"/>
+      <c r="J84"/>
+      <c r="K84"/>
+      <c r="L84"/>
+      <c r="M84"/>
+      <c r="N84"/>
+      <c r="O84"/>
+      <c r="P84"/>
+      <c r="Q84"/>
+      <c r="R84"/>
+      <c r="S84"/>
+      <c r="T84"/>
+      <c r="U84"/>
+      <c r="V84"/>
+      <c r="W84"/>
+      <c r="X84"/>
+      <c r="Y84"/>
+      <c r="Z84"/>
+      <c r="AA84"/>
+      <c r="AB84"/>
+      <c r="AC84"/>
+      <c r="AD84"/>
+    </row>
+    <row r="85" s="1" customFormat="1" spans="2:30">
+      <c r="B85"/>
+      <c r="C85"/>
+      <c r="D85"/>
+      <c r="E85"/>
+      <c r="F85"/>
+      <c r="G85"/>
+      <c r="H85"/>
+      <c r="I85"/>
+      <c r="J85"/>
+      <c r="K85"/>
+      <c r="L85"/>
+      <c r="M85"/>
+      <c r="N85"/>
+      <c r="O85"/>
+      <c r="P85"/>
+      <c r="Q85"/>
+      <c r="R85"/>
+      <c r="S85"/>
+      <c r="T85"/>
+      <c r="U85"/>
+      <c r="V85"/>
+      <c r="W85"/>
+      <c r="X85"/>
+      <c r="Y85"/>
+      <c r="Z85"/>
+      <c r="AA85"/>
+      <c r="AB85"/>
+      <c r="AC85"/>
+      <c r="AD85"/>
+    </row>
+    <row r="86" s="1" customFormat="1" spans="2:30">
+      <c r="B86"/>
+      <c r="C86"/>
+      <c r="D86"/>
+      <c r="E86"/>
+      <c r="F86"/>
+      <c r="G86"/>
+      <c r="H86"/>
+      <c r="I86"/>
+      <c r="J86"/>
+      <c r="K86"/>
+      <c r="L86"/>
+      <c r="M86"/>
+      <c r="N86"/>
+      <c r="O86"/>
+      <c r="P86"/>
+      <c r="Q86"/>
+      <c r="R86"/>
+      <c r="S86"/>
+      <c r="T86"/>
+      <c r="U86"/>
+      <c r="V86"/>
+      <c r="W86"/>
+      <c r="X86"/>
+      <c r="Y86"/>
+      <c r="Z86"/>
+      <c r="AA86"/>
+      <c r="AB86"/>
+      <c r="AC86"/>
+      <c r="AD86"/>
+    </row>
+    <row r="89" spans="6:6">
+      <c r="F89" s="1" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="90" spans="6:6">
+      <c r="F90" s="1" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="91" spans="5:5">
+      <c r="E91" s="1" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="92" spans="6:6">
+      <c r="F92" s="1" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="93" spans="5:5">
+      <c r="E93" s="1" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="102" spans="6:6">
+      <c r="F102" s="1" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="103" spans="2:2">
+      <c r="B103" s="1" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="104" spans="3:3">
+      <c r="C104" s="1" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="105" spans="3:3">
+      <c r="C105" s="1" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="106" spans="3:3">
+      <c r="C106" s="1" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="107" spans="3:3">
+      <c r="C107" s="1" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="108" spans="3:3">
+      <c r="C108" s="1" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="109" spans="3:3">
+      <c r="C109" s="1" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="110" spans="2:2">
+      <c r="B110" s="1" t="s">
+        <v>212</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="34">
+    <mergeCell ref="L13:M13"/>
+    <mergeCell ref="N13:O13"/>
+    <mergeCell ref="L14:M14"/>
+    <mergeCell ref="N14:O14"/>
+    <mergeCell ref="L15:M15"/>
+    <mergeCell ref="N15:O15"/>
+    <mergeCell ref="L16:M16"/>
+    <mergeCell ref="N16:O16"/>
+    <mergeCell ref="L17:M17"/>
+    <mergeCell ref="N17:O17"/>
+    <mergeCell ref="P30:Q30"/>
+    <mergeCell ref="R30:S30"/>
+    <mergeCell ref="P31:Q31"/>
+    <mergeCell ref="R31:S31"/>
+    <mergeCell ref="P32:Q32"/>
+    <mergeCell ref="R32:S32"/>
+    <mergeCell ref="P33:Q33"/>
+    <mergeCell ref="R33:S33"/>
+    <mergeCell ref="P34:Q34"/>
+    <mergeCell ref="R34:S34"/>
+    <mergeCell ref="P35:Q35"/>
+    <mergeCell ref="R35:S35"/>
+    <mergeCell ref="G50:H50"/>
+    <mergeCell ref="I50:J50"/>
+    <mergeCell ref="G51:H51"/>
+    <mergeCell ref="I51:J51"/>
+    <mergeCell ref="G52:H52"/>
+    <mergeCell ref="I52:J52"/>
+    <mergeCell ref="G53:H53"/>
+    <mergeCell ref="I53:J53"/>
+    <mergeCell ref="G54:H54"/>
+    <mergeCell ref="I54:J54"/>
+    <mergeCell ref="G55:H55"/>
+    <mergeCell ref="I55:J55"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:AE86"/>
+  <sheetViews>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="4.875" defaultRowHeight="13.5"/>
+  <cols>
+    <col min="1" max="16384" width="4.875" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" s="1" customFormat="1" ht="22.5" spans="9:31">
+      <c r="I1" s="3"/>
+      <c r="J1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="V1" s="2"/>
+      <c r="W1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="X1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="Y1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="Z1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="AA1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="AE1" s="2"/>
+    </row>
+    <row r="2" s="1" customFormat="1" spans="23:27">
+      <c r="W2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="X2" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="Y2" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="Z2" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="AA2" s="4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" s="1" customFormat="1" spans="1:1">
+      <c r="A3" s="1" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="4" s="1" customFormat="1" spans="2:2">
+      <c r="B4" s="1" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="5" s="1" customFormat="1" spans="22:31">
+      <c r="V5" s="2"/>
+      <c r="X5" s="2"/>
+      <c r="AE5" s="2"/>
+    </row>
+    <row r="6" s="1" customFormat="1" spans="24:27">
+      <c r="X6" s="2"/>
+      <c r="AA6" s="4"/>
+    </row>
+    <row r="14" s="1" customFormat="1" spans="5:5">
+      <c r="E14" s="2"/>
+    </row>
+    <row r="15" s="1" customFormat="1" spans="5:5">
+      <c r="E15" s="2"/>
+    </row>
+    <row r="25" s="1" customFormat="1" spans="17:30">
+      <c r="Q25"/>
+      <c r="R25"/>
+      <c r="S25"/>
+      <c r="T25"/>
+      <c r="U25"/>
+      <c r="V25"/>
+      <c r="W25"/>
+      <c r="X25"/>
+      <c r="Y25"/>
+      <c r="Z25"/>
+      <c r="AA25"/>
+      <c r="AB25"/>
+      <c r="AC25"/>
+      <c r="AD25"/>
+    </row>
+    <row r="26" s="1" customFormat="1" spans="17:30">
+      <c r="Q26"/>
+      <c r="R26"/>
+      <c r="S26"/>
+      <c r="T26"/>
+      <c r="U26"/>
+      <c r="V26"/>
+      <c r="W26"/>
+      <c r="X26"/>
+      <c r="Y26"/>
+      <c r="Z26"/>
+      <c r="AA26"/>
+      <c r="AB26"/>
+      <c r="AC26"/>
+      <c r="AD26"/>
+    </row>
+    <row r="27" s="1" customFormat="1" spans="17:30">
+      <c r="Q27"/>
+      <c r="R27"/>
+      <c r="S27"/>
+      <c r="T27"/>
+      <c r="U27"/>
+      <c r="V27"/>
+      <c r="W27"/>
+      <c r="X27"/>
+      <c r="Y27"/>
+      <c r="Z27"/>
+      <c r="AA27"/>
+      <c r="AB27"/>
+      <c r="AC27"/>
+      <c r="AD27"/>
+    </row>
+    <row r="28" s="1" customFormat="1" spans="2:30">
+      <c r="B28"/>
+      <c r="C28"/>
+      <c r="D28"/>
+      <c r="E28"/>
+      <c r="F28"/>
+      <c r="G28"/>
+      <c r="H28"/>
+      <c r="I28"/>
+      <c r="J28"/>
+      <c r="K28"/>
+      <c r="L28"/>
+      <c r="M28"/>
+      <c r="N28"/>
+      <c r="O28"/>
+      <c r="P28"/>
+      <c r="Q28"/>
+      <c r="R28"/>
+      <c r="S28"/>
+      <c r="T28"/>
+      <c r="U28"/>
+      <c r="V28"/>
+      <c r="W28"/>
+      <c r="X28"/>
+      <c r="Y28"/>
+      <c r="Z28"/>
+      <c r="AA28"/>
+      <c r="AB28"/>
+      <c r="AC28"/>
+      <c r="AD28"/>
+    </row>
+    <row r="29" s="1" customFormat="1" spans="12:30">
+      <c r="L29"/>
+      <c r="M29"/>
+      <c r="N29"/>
+      <c r="O29"/>
+      <c r="P29"/>
+      <c r="Q29"/>
+      <c r="R29"/>
+      <c r="S29"/>
+      <c r="T29"/>
+      <c r="U29"/>
+      <c r="V29"/>
+      <c r="W29"/>
+      <c r="X29"/>
+      <c r="Y29"/>
+      <c r="Z29"/>
+      <c r="AA29"/>
+      <c r="AB29"/>
+      <c r="AC29"/>
+      <c r="AD29"/>
+    </row>
+    <row r="30" s="1" customFormat="1" spans="2:30">
+      <c r="B30"/>
+      <c r="C30"/>
+      <c r="E30"/>
+      <c r="F30"/>
+      <c r="G30"/>
+      <c r="H30"/>
+      <c r="I30"/>
+      <c r="J30"/>
+      <c r="K30"/>
+      <c r="L30"/>
+      <c r="M30"/>
+      <c r="N30"/>
+      <c r="O30"/>
+      <c r="P30"/>
+      <c r="Q30"/>
+      <c r="R30"/>
+      <c r="S30"/>
+      <c r="T30"/>
+      <c r="U30"/>
+      <c r="V30"/>
+      <c r="W30"/>
+      <c r="X30"/>
+      <c r="Y30"/>
+      <c r="Z30"/>
+      <c r="AA30"/>
+      <c r="AB30"/>
+      <c r="AC30"/>
+      <c r="AD30"/>
+    </row>
+    <row r="31" s="1" customFormat="1" spans="2:30">
+      <c r="B31"/>
+      <c r="C31"/>
+      <c r="D31"/>
+      <c r="E31"/>
+      <c r="F31"/>
+      <c r="G31"/>
+      <c r="H31"/>
+      <c r="I31"/>
+      <c r="J31"/>
+      <c r="K31"/>
+      <c r="L31"/>
+      <c r="M31"/>
+      <c r="N31"/>
+      <c r="O31"/>
+      <c r="P31"/>
+      <c r="Q31"/>
+      <c r="R31"/>
+      <c r="S31"/>
+      <c r="T31"/>
+      <c r="U31"/>
+      <c r="V31"/>
+      <c r="W31"/>
+      <c r="X31"/>
+      <c r="Y31"/>
+      <c r="Z31"/>
+      <c r="AA31"/>
+      <c r="AB31"/>
+      <c r="AC31"/>
+      <c r="AD31"/>
+    </row>
+    <row r="32" s="1" customFormat="1" spans="2:30">
+      <c r="B32"/>
+      <c r="C32"/>
+      <c r="E32"/>
+      <c r="F32"/>
+      <c r="G32"/>
+      <c r="H32"/>
+      <c r="I32"/>
+      <c r="J32"/>
+      <c r="K32"/>
+      <c r="L32"/>
+      <c r="M32"/>
+      <c r="N32"/>
+      <c r="O32"/>
+      <c r="P32"/>
+      <c r="Q32"/>
+      <c r="R32"/>
+      <c r="S32"/>
+      <c r="T32"/>
+      <c r="U32"/>
+      <c r="V32"/>
+      <c r="W32"/>
+      <c r="X32"/>
+      <c r="Y32"/>
+      <c r="Z32"/>
+      <c r="AA32"/>
+      <c r="AB32"/>
+      <c r="AC32"/>
+      <c r="AD32"/>
+    </row>
+    <row r="33" s="1" customFormat="1" spans="2:30">
+      <c r="B33"/>
+      <c r="C33"/>
+      <c r="D33"/>
+      <c r="E33"/>
+      <c r="F33"/>
+      <c r="G33"/>
+      <c r="H33"/>
+      <c r="I33"/>
+      <c r="J33"/>
+      <c r="K33"/>
+      <c r="L33"/>
+      <c r="M33"/>
+      <c r="N33"/>
+      <c r="O33"/>
+      <c r="P33"/>
+      <c r="Q33"/>
+      <c r="R33"/>
+      <c r="S33"/>
+      <c r="T33"/>
+      <c r="U33"/>
+      <c r="V33"/>
+      <c r="W33"/>
+      <c r="X33"/>
+      <c r="Y33"/>
+      <c r="Z33"/>
+      <c r="AA33"/>
+      <c r="AB33"/>
+      <c r="AC33"/>
+      <c r="AD33"/>
+    </row>
+    <row r="34" s="1" customFormat="1" spans="2:30">
+      <c r="B34"/>
+      <c r="C34"/>
+      <c r="D34" s="1"/>
+      <c r="E34"/>
+      <c r="F34"/>
+      <c r="G34"/>
+      <c r="H34"/>
+      <c r="I34"/>
+      <c r="J34"/>
+      <c r="K34"/>
+      <c r="L34"/>
+      <c r="M34"/>
+      <c r="N34"/>
+      <c r="O34"/>
+      <c r="P34"/>
+      <c r="Q34"/>
+      <c r="R34"/>
+      <c r="S34"/>
+      <c r="T34"/>
+      <c r="U34"/>
+      <c r="V34"/>
+      <c r="W34"/>
+      <c r="X34"/>
+      <c r="Y34"/>
+      <c r="Z34"/>
+      <c r="AA34"/>
+      <c r="AB34"/>
+      <c r="AC34"/>
+      <c r="AD34"/>
+    </row>
+    <row r="35" s="1" customFormat="1" spans="2:30">
+      <c r="B35"/>
+      <c r="C35"/>
+      <c r="D35" s="1"/>
+      <c r="E35"/>
+      <c r="F35"/>
+      <c r="G35"/>
+      <c r="H35"/>
+      <c r="I35"/>
+      <c r="J35"/>
+      <c r="K35"/>
+      <c r="L35"/>
+      <c r="M35"/>
+      <c r="N35"/>
+      <c r="O35"/>
+      <c r="P35"/>
+      <c r="Q35"/>
+      <c r="R35"/>
+      <c r="S35"/>
+      <c r="T35"/>
+      <c r="U35"/>
+      <c r="V35"/>
+      <c r="W35"/>
+      <c r="X35"/>
+      <c r="Y35"/>
+      <c r="Z35"/>
+      <c r="AA35"/>
+      <c r="AB35"/>
+      <c r="AC35"/>
+      <c r="AD35"/>
+    </row>
+    <row r="36" s="1" customFormat="1" spans="2:30">
+      <c r="B36"/>
+      <c r="C36"/>
+      <c r="D36"/>
+      <c r="E36"/>
+      <c r="F36"/>
+      <c r="G36"/>
+      <c r="H36"/>
+      <c r="I36"/>
+      <c r="J36"/>
+      <c r="K36"/>
+      <c r="L36"/>
+      <c r="M36"/>
+      <c r="N36"/>
+      <c r="O36"/>
+      <c r="P36"/>
+      <c r="Q36"/>
+      <c r="R36"/>
+      <c r="S36"/>
+      <c r="T36"/>
+      <c r="U36"/>
+      <c r="V36"/>
+      <c r="W36"/>
+      <c r="X36"/>
+      <c r="Y36"/>
+      <c r="Z36"/>
+      <c r="AA36"/>
+      <c r="AB36"/>
+      <c r="AC36"/>
+      <c r="AD36"/>
+    </row>
+    <row r="37" s="1" customFormat="1" spans="2:30">
+      <c r="B37"/>
+      <c r="C37"/>
+      <c r="D37" s="2"/>
+      <c r="E37"/>
+      <c r="F37"/>
+      <c r="G37"/>
+      <c r="H37"/>
+      <c r="I37"/>
+      <c r="J37"/>
+      <c r="K37"/>
+      <c r="L37"/>
+      <c r="M37"/>
+      <c r="N37"/>
+      <c r="O37"/>
+      <c r="P37"/>
+      <c r="Q37"/>
+      <c r="Y37"/>
+      <c r="Z37"/>
+      <c r="AA37"/>
+      <c r="AB37"/>
+      <c r="AC37"/>
+      <c r="AD37"/>
+    </row>
+    <row r="38" s="1" customFormat="1" spans="2:30">
+      <c r="B38"/>
+      <c r="C38"/>
+      <c r="E38"/>
+      <c r="F38"/>
+      <c r="G38"/>
+      <c r="H38"/>
+      <c r="I38"/>
+      <c r="J38"/>
+      <c r="K38"/>
+      <c r="L38"/>
+      <c r="M38"/>
+      <c r="N38"/>
+      <c r="O38"/>
+      <c r="P38"/>
+      <c r="Q38"/>
+      <c r="Y38"/>
+      <c r="Z38"/>
+      <c r="AA38"/>
+      <c r="AB38"/>
+      <c r="AC38"/>
+      <c r="AD38"/>
+    </row>
+    <row r="39" s="1" customFormat="1" spans="2:30">
+      <c r="B39"/>
+      <c r="C39"/>
+      <c r="E39"/>
+      <c r="F39"/>
+      <c r="G39"/>
+      <c r="H39"/>
+      <c r="I39"/>
+      <c r="J39"/>
+      <c r="K39"/>
+      <c r="L39"/>
+      <c r="M39"/>
+      <c r="N39"/>
+      <c r="O39"/>
+      <c r="P39"/>
+      <c r="Q39"/>
+      <c r="R39"/>
+      <c r="S39"/>
+      <c r="T39"/>
+      <c r="U39"/>
+      <c r="V39"/>
+      <c r="W39"/>
+      <c r="X39"/>
+      <c r="Y39"/>
+      <c r="Z39"/>
+      <c r="AA39"/>
+      <c r="AB39"/>
+      <c r="AC39"/>
+      <c r="AD39"/>
+    </row>
+    <row r="40" s="1" customFormat="1" spans="2:30">
+      <c r="B40"/>
+      <c r="C40"/>
+      <c r="G40"/>
+      <c r="H40"/>
+      <c r="I40"/>
+      <c r="J40"/>
+      <c r="K40"/>
+      <c r="L40"/>
+      <c r="M40"/>
+      <c r="N40"/>
+      <c r="O40"/>
+      <c r="P40"/>
+      <c r="Q40"/>
+      <c r="R40"/>
+      <c r="S40"/>
+      <c r="T40"/>
+      <c r="U40"/>
+      <c r="V40"/>
+      <c r="W40"/>
+      <c r="X40"/>
+      <c r="Y40"/>
+      <c r="Z40"/>
+      <c r="AA40"/>
+      <c r="AB40"/>
+      <c r="AC40"/>
+      <c r="AD40"/>
+    </row>
+    <row r="41" s="1" customFormat="1" spans="2:30">
+      <c r="B41"/>
+      <c r="C41"/>
+      <c r="G41"/>
+      <c r="H41"/>
+      <c r="I41"/>
+      <c r="J41"/>
+      <c r="K41"/>
+      <c r="L41"/>
+      <c r="M41"/>
+      <c r="N41"/>
+      <c r="O41"/>
+      <c r="P41"/>
+      <c r="Q41"/>
+      <c r="R41"/>
+      <c r="S41"/>
+      <c r="T41"/>
+      <c r="U41"/>
+      <c r="V41"/>
+      <c r="W41"/>
+      <c r="X41"/>
+      <c r="Y41"/>
+      <c r="Z41"/>
+      <c r="AA41"/>
+      <c r="AB41"/>
+      <c r="AC41"/>
+      <c r="AD41"/>
+    </row>
+    <row r="42" s="1" customFormat="1" spans="2:30">
+      <c r="B42"/>
+      <c r="C42"/>
+      <c r="D42" s="2"/>
+      <c r="E42"/>
+      <c r="F42"/>
+      <c r="G42"/>
+      <c r="H42"/>
+      <c r="I42"/>
+      <c r="J42"/>
+      <c r="K42"/>
+      <c r="L42"/>
+      <c r="M42"/>
+      <c r="N42"/>
+      <c r="O42"/>
+      <c r="P42"/>
+      <c r="Q42"/>
+      <c r="R42"/>
+      <c r="S42"/>
+      <c r="T42"/>
+      <c r="U42"/>
+      <c r="V42"/>
+      <c r="W42"/>
+      <c r="X42"/>
+      <c r="Y42"/>
+      <c r="Z42"/>
+      <c r="AA42"/>
+      <c r="AB42"/>
+      <c r="AC42"/>
+      <c r="AD42"/>
+    </row>
+    <row r="43" s="1" customFormat="1" spans="2:30">
+      <c r="B43"/>
+      <c r="C43"/>
+      <c r="D43" s="2"/>
+      <c r="E43"/>
+      <c r="F43"/>
+      <c r="G43"/>
+      <c r="H43"/>
+      <c r="I43"/>
+      <c r="J43"/>
+      <c r="K43"/>
+      <c r="L43"/>
+      <c r="M43"/>
+      <c r="N43"/>
+      <c r="O43"/>
+      <c r="P43"/>
+      <c r="Q43"/>
+      <c r="R43"/>
+      <c r="S43"/>
+      <c r="T43"/>
+      <c r="U43"/>
+      <c r="V43"/>
+      <c r="W43"/>
+      <c r="X43"/>
+      <c r="Y43"/>
+      <c r="Z43"/>
+      <c r="AA43"/>
+      <c r="AB43"/>
+      <c r="AC43"/>
+      <c r="AD43"/>
+    </row>
+    <row r="44" s="1" customFormat="1" spans="2:30">
+      <c r="B44"/>
+      <c r="C44"/>
+      <c r="D44"/>
+      <c r="E44"/>
+      <c r="F44"/>
+      <c r="G44"/>
+      <c r="H44"/>
+      <c r="I44"/>
+      <c r="J44"/>
+      <c r="K44"/>
+      <c r="L44"/>
+      <c r="M44"/>
+      <c r="N44"/>
+      <c r="O44"/>
+      <c r="P44"/>
+      <c r="Q44"/>
+      <c r="R44"/>
+      <c r="S44"/>
+      <c r="T44"/>
+      <c r="U44"/>
+      <c r="V44"/>
+      <c r="W44"/>
+      <c r="X44"/>
+      <c r="Y44"/>
+      <c r="Z44"/>
+      <c r="AA44"/>
+      <c r="AB44"/>
+      <c r="AC44"/>
+      <c r="AD44"/>
+    </row>
+    <row r="45" s="1" customFormat="1" spans="2:30">
+      <c r="B45"/>
+      <c r="C45"/>
+      <c r="D45"/>
+      <c r="E45"/>
+      <c r="F45"/>
+      <c r="G45"/>
+      <c r="H45"/>
+      <c r="I45"/>
+      <c r="J45"/>
+      <c r="K45"/>
+      <c r="L45"/>
+      <c r="M45"/>
+      <c r="N45"/>
+      <c r="O45"/>
+      <c r="P45"/>
+      <c r="Q45"/>
+      <c r="R45"/>
+      <c r="S45"/>
+      <c r="T45"/>
+      <c r="U45"/>
+      <c r="V45"/>
+      <c r="W45"/>
+      <c r="X45"/>
+      <c r="Y45"/>
+      <c r="Z45"/>
+      <c r="AA45"/>
+      <c r="AB45"/>
+      <c r="AC45"/>
+      <c r="AD45"/>
+    </row>
+    <row r="46" s="1" customFormat="1" spans="2:30">
+      <c r="B46"/>
+      <c r="C46"/>
+      <c r="D46"/>
+      <c r="E46"/>
+      <c r="F46"/>
+      <c r="G46"/>
+      <c r="H46"/>
+      <c r="I46"/>
+      <c r="J46"/>
+      <c r="K46"/>
+      <c r="L46"/>
+      <c r="M46"/>
+      <c r="N46"/>
+      <c r="O46"/>
+      <c r="P46"/>
+      <c r="Q46"/>
+      <c r="R46"/>
+      <c r="S46"/>
+      <c r="T46"/>
+      <c r="U46"/>
+      <c r="V46"/>
+      <c r="W46"/>
+      <c r="X46"/>
+      <c r="Y46"/>
+      <c r="Z46"/>
+      <c r="AA46"/>
+      <c r="AB46"/>
+      <c r="AC46"/>
+      <c r="AD46"/>
+    </row>
+    <row r="47" s="1" customFormat="1" spans="2:30">
+      <c r="B47"/>
+      <c r="C47"/>
+      <c r="D47"/>
+      <c r="E47"/>
+      <c r="F47"/>
+      <c r="G47"/>
+      <c r="H47"/>
+      <c r="I47"/>
+      <c r="J47"/>
+      <c r="K47"/>
+      <c r="L47"/>
+      <c r="M47"/>
+      <c r="N47"/>
+      <c r="O47"/>
+      <c r="P47"/>
+      <c r="Q47"/>
+      <c r="R47"/>
+      <c r="S47"/>
+      <c r="T47"/>
+      <c r="U47"/>
+      <c r="V47"/>
+      <c r="W47"/>
+      <c r="X47"/>
+      <c r="Y47"/>
+      <c r="Z47"/>
+      <c r="AA47"/>
+      <c r="AB47"/>
+      <c r="AC47"/>
+      <c r="AD47"/>
+    </row>
+    <row r="48" s="1" customFormat="1" spans="2:30">
+      <c r="B48"/>
+      <c r="C48"/>
+      <c r="D48"/>
+      <c r="E48"/>
+      <c r="F48"/>
+      <c r="G48"/>
+      <c r="H48"/>
+      <c r="I48"/>
+      <c r="J48"/>
+      <c r="K48"/>
+      <c r="L48"/>
+      <c r="M48"/>
+      <c r="N48"/>
+      <c r="O48"/>
+      <c r="P48"/>
+      <c r="Q48"/>
+      <c r="R48"/>
+      <c r="S48"/>
+      <c r="T48"/>
+      <c r="U48"/>
+      <c r="V48"/>
+      <c r="W48"/>
+      <c r="X48"/>
+      <c r="Y48"/>
+      <c r="Z48"/>
+      <c r="AA48"/>
+      <c r="AB48"/>
+      <c r="AC48"/>
+      <c r="AD48"/>
+    </row>
+    <row r="49" s="1" customFormat="1" spans="2:30">
+      <c r="B49"/>
+      <c r="C49"/>
+      <c r="D49"/>
+      <c r="E49"/>
+      <c r="F49"/>
+      <c r="G49"/>
+      <c r="H49"/>
+      <c r="I49"/>
+      <c r="J49"/>
+      <c r="K49"/>
+      <c r="L49"/>
+      <c r="M49"/>
+      <c r="N49"/>
+      <c r="O49"/>
+      <c r="P49"/>
+      <c r="Q49"/>
+      <c r="R49"/>
+      <c r="S49"/>
+      <c r="T49"/>
+      <c r="U49"/>
+      <c r="V49"/>
+      <c r="W49"/>
+      <c r="X49"/>
+      <c r="Y49"/>
+      <c r="Z49"/>
+      <c r="AA49"/>
+      <c r="AB49"/>
+      <c r="AC49"/>
+      <c r="AD49"/>
+    </row>
+    <row r="50" s="1" customFormat="1" spans="2:30">
+      <c r="B50"/>
+      <c r="C50"/>
+      <c r="D50"/>
+      <c r="E50"/>
+      <c r="F50"/>
+      <c r="G50"/>
+      <c r="H50"/>
+      <c r="I50"/>
+      <c r="J50"/>
+      <c r="K50"/>
+      <c r="L50"/>
+      <c r="M50"/>
+      <c r="N50"/>
+      <c r="O50"/>
+      <c r="P50"/>
+      <c r="Q50"/>
+      <c r="R50"/>
+      <c r="S50"/>
+      <c r="T50"/>
+      <c r="U50"/>
+      <c r="V50"/>
+      <c r="W50"/>
+      <c r="X50"/>
+      <c r="Y50"/>
+      <c r="Z50"/>
+      <c r="AA50"/>
+      <c r="AB50"/>
+      <c r="AC50"/>
+      <c r="AD50"/>
+    </row>
+    <row r="51" s="1" customFormat="1" spans="2:30">
+      <c r="B51"/>
+      <c r="C51"/>
+      <c r="D51"/>
+      <c r="E51"/>
+      <c r="F51"/>
+      <c r="G51"/>
+      <c r="H51"/>
+      <c r="I51"/>
+      <c r="J51"/>
+      <c r="K51"/>
+      <c r="L51"/>
+      <c r="M51"/>
+      <c r="N51"/>
+      <c r="O51"/>
+      <c r="P51"/>
+      <c r="Q51"/>
+      <c r="R51"/>
+      <c r="S51"/>
+      <c r="T51"/>
+      <c r="U51"/>
+      <c r="V51"/>
+      <c r="W51"/>
+      <c r="X51"/>
+      <c r="Y51"/>
+      <c r="Z51"/>
+      <c r="AA51"/>
+      <c r="AB51"/>
+      <c r="AC51"/>
+      <c r="AD51"/>
+    </row>
+    <row r="52" s="1" customFormat="1" spans="2:30">
+      <c r="B52"/>
+      <c r="C52"/>
+      <c r="D52"/>
+      <c r="E52"/>
+      <c r="F52"/>
+      <c r="G52"/>
+      <c r="H52"/>
+      <c r="I52"/>
+      <c r="J52"/>
+      <c r="K52"/>
+      <c r="L52"/>
+      <c r="M52"/>
+      <c r="N52"/>
+      <c r="O52"/>
+      <c r="P52"/>
+      <c r="Q52"/>
+      <c r="R52"/>
+      <c r="S52"/>
+      <c r="T52"/>
+      <c r="U52"/>
+      <c r="V52"/>
+      <c r="W52"/>
+      <c r="X52"/>
+      <c r="Y52"/>
+      <c r="Z52"/>
+      <c r="AA52"/>
+      <c r="AB52"/>
+      <c r="AC52"/>
+      <c r="AD52"/>
+    </row>
+    <row r="53" s="1" customFormat="1" spans="2:30">
+      <c r="B53"/>
+      <c r="C53"/>
+      <c r="D53"/>
+      <c r="E53"/>
+      <c r="F53"/>
+      <c r="G53"/>
+      <c r="H53"/>
+      <c r="I53"/>
+      <c r="J53"/>
+      <c r="K53"/>
+      <c r="L53"/>
+      <c r="M53"/>
+      <c r="N53"/>
+      <c r="O53"/>
+      <c r="P53"/>
+      <c r="Q53"/>
+      <c r="R53"/>
+      <c r="S53"/>
+      <c r="T53"/>
+      <c r="V53" s="2"/>
+      <c r="AB53"/>
+      <c r="AC53"/>
+      <c r="AD53"/>
+    </row>
+    <row r="54" s="1" customFormat="1" spans="2:30">
+      <c r="B54"/>
+      <c r="C54"/>
+      <c r="D54"/>
+      <c r="E54"/>
+      <c r="F54"/>
+      <c r="G54"/>
+      <c r="H54"/>
+      <c r="I54"/>
+      <c r="J54"/>
+      <c r="K54"/>
+      <c r="L54"/>
+      <c r="M54"/>
+      <c r="N54"/>
+      <c r="O54"/>
+      <c r="P54"/>
+      <c r="Q54"/>
+      <c r="R54"/>
+      <c r="S54"/>
+      <c r="T54"/>
+      <c r="V54" s="2"/>
+      <c r="Y54" s="4"/>
+      <c r="AB54"/>
+      <c r="AC54"/>
+      <c r="AD54"/>
+    </row>
+    <row r="55" s="1" customFormat="1" spans="2:30">
+      <c r="B55"/>
+      <c r="C55"/>
+      <c r="D55"/>
+      <c r="E55"/>
+      <c r="F55"/>
+      <c r="G55"/>
+      <c r="H55"/>
+      <c r="I55"/>
+      <c r="J55"/>
+      <c r="K55"/>
+      <c r="L55"/>
+      <c r="M55"/>
+      <c r="N55"/>
+      <c r="O55"/>
+      <c r="P55"/>
+      <c r="Q55"/>
+      <c r="R55"/>
+      <c r="S55"/>
+      <c r="T55"/>
+      <c r="U55"/>
+      <c r="V55"/>
+      <c r="W55"/>
+      <c r="X55"/>
+      <c r="Y55"/>
+      <c r="Z55"/>
+      <c r="AA55"/>
+      <c r="AB55"/>
+      <c r="AC55"/>
+      <c r="AD55"/>
+    </row>
+    <row r="56" s="1" customFormat="1" spans="2:30">
+      <c r="B56"/>
+      <c r="C56"/>
+      <c r="D56"/>
+      <c r="E56"/>
+      <c r="F56"/>
+      <c r="G56"/>
+      <c r="H56"/>
+      <c r="I56"/>
+      <c r="J56"/>
+      <c r="K56"/>
+      <c r="L56"/>
+      <c r="M56"/>
+      <c r="N56"/>
+      <c r="O56"/>
+      <c r="P56"/>
+      <c r="Q56"/>
+      <c r="R56"/>
+      <c r="S56"/>
+      <c r="T56"/>
+      <c r="U56"/>
+      <c r="V56"/>
+      <c r="W56"/>
+      <c r="X56"/>
+      <c r="Y56"/>
+      <c r="Z56"/>
+      <c r="AA56"/>
+      <c r="AB56"/>
+      <c r="AC56"/>
+      <c r="AD56"/>
+    </row>
+    <row r="57" s="1" customFormat="1" spans="2:30">
+      <c r="B57"/>
+      <c r="C57"/>
+      <c r="D57"/>
+      <c r="E57"/>
+      <c r="F57"/>
+      <c r="G57"/>
+      <c r="H57"/>
+      <c r="I57"/>
+      <c r="J57"/>
+      <c r="K57"/>
+      <c r="L57"/>
+      <c r="M57"/>
+      <c r="N57"/>
+      <c r="O57"/>
+      <c r="P57"/>
+      <c r="Q57"/>
+      <c r="R57"/>
+      <c r="S57"/>
+      <c r="T57"/>
+      <c r="U57"/>
+      <c r="V57"/>
+      <c r="W57"/>
+      <c r="X57"/>
+      <c r="Y57"/>
+      <c r="Z57"/>
+      <c r="AA57"/>
+      <c r="AB57"/>
+      <c r="AC57"/>
+      <c r="AD57"/>
+    </row>
+    <row r="58" s="1" customFormat="1" spans="2:30">
+      <c r="B58"/>
+      <c r="C58"/>
+      <c r="E58"/>
+      <c r="F58"/>
+      <c r="G58"/>
+      <c r="H58"/>
+      <c r="I58"/>
+      <c r="J58"/>
+      <c r="K58"/>
+      <c r="L58"/>
+      <c r="M58"/>
+      <c r="N58"/>
+      <c r="O58"/>
+      <c r="P58"/>
+      <c r="Q58"/>
+      <c r="R58"/>
+      <c r="S58"/>
+      <c r="T58"/>
+      <c r="U58"/>
+      <c r="V58"/>
+      <c r="W58"/>
+      <c r="X58"/>
+      <c r="Y58"/>
+      <c r="Z58"/>
+      <c r="AA58"/>
+      <c r="AB58"/>
+      <c r="AC58"/>
+      <c r="AD58"/>
+    </row>
+    <row r="59" s="1" customFormat="1" spans="2:30">
+      <c r="B59"/>
+      <c r="C59"/>
+      <c r="E59"/>
+      <c r="F59"/>
+      <c r="G59"/>
+      <c r="H59"/>
+      <c r="I59"/>
+      <c r="J59"/>
+      <c r="K59"/>
+      <c r="L59"/>
+      <c r="M59"/>
+      <c r="N59"/>
+      <c r="O59"/>
+      <c r="P59"/>
+      <c r="Q59"/>
+      <c r="R59"/>
+      <c r="S59"/>
+      <c r="T59"/>
+      <c r="U59"/>
+      <c r="V59"/>
+      <c r="W59"/>
+      <c r="X59"/>
+      <c r="Y59"/>
+      <c r="Z59"/>
+      <c r="AA59"/>
+      <c r="AB59"/>
+      <c r="AC59"/>
+      <c r="AD59"/>
+    </row>
+    <row r="60" s="1" customFormat="1" spans="2:30">
+      <c r="B60"/>
+      <c r="C60"/>
+      <c r="D60" s="1"/>
+      <c r="E60"/>
+      <c r="F60"/>
+      <c r="G60"/>
+      <c r="H60"/>
+      <c r="I60"/>
+      <c r="J60"/>
+      <c r="K60"/>
+      <c r="L60"/>
+      <c r="M60"/>
+      <c r="N60"/>
+      <c r="O60"/>
+      <c r="P60"/>
+      <c r="Q60"/>
+      <c r="R60"/>
+      <c r="S60"/>
+      <c r="T60"/>
+      <c r="U60"/>
+      <c r="V60"/>
+      <c r="W60"/>
+      <c r="X60"/>
+      <c r="Y60"/>
+      <c r="Z60"/>
+      <c r="AA60"/>
+      <c r="AB60"/>
+      <c r="AC60"/>
+      <c r="AD60"/>
+    </row>
+    <row r="61" s="1" customFormat="1" spans="2:30">
+      <c r="B61"/>
+      <c r="C61"/>
+      <c r="D61"/>
+      <c r="E61"/>
+      <c r="F61"/>
+      <c r="G61"/>
+      <c r="H61"/>
+      <c r="I61"/>
+      <c r="J61"/>
+      <c r="K61"/>
+      <c r="L61"/>
+      <c r="M61"/>
+      <c r="N61"/>
+      <c r="O61"/>
+      <c r="P61"/>
+      <c r="Q61"/>
+      <c r="R61"/>
+      <c r="S61"/>
+      <c r="T61"/>
+      <c r="U61"/>
+      <c r="V61"/>
+      <c r="W61"/>
+      <c r="X61"/>
+      <c r="Y61"/>
+      <c r="Z61"/>
+      <c r="AA61"/>
+      <c r="AB61"/>
+      <c r="AC61"/>
+      <c r="AD61"/>
+    </row>
+    <row r="62" s="1" customFormat="1" spans="2:30">
+      <c r="B62"/>
+      <c r="C62"/>
+      <c r="D62"/>
+      <c r="E62"/>
+      <c r="F62"/>
+      <c r="G62"/>
+      <c r="H62"/>
+      <c r="I62"/>
+      <c r="J62"/>
+      <c r="K62"/>
+      <c r="L62"/>
+      <c r="M62"/>
+      <c r="N62"/>
+      <c r="O62"/>
+      <c r="P62"/>
+      <c r="Q62"/>
+      <c r="R62"/>
+      <c r="S62"/>
+      <c r="T62"/>
+      <c r="U62"/>
+      <c r="V62"/>
+      <c r="W62"/>
+      <c r="X62"/>
+      <c r="Y62"/>
+      <c r="Z62"/>
+      <c r="AA62"/>
+      <c r="AB62"/>
+      <c r="AC62"/>
+      <c r="AD62"/>
+    </row>
+    <row r="63" s="1" customFormat="1" spans="2:30">
+      <c r="B63"/>
+      <c r="C63"/>
+      <c r="D63"/>
+      <c r="E63"/>
+      <c r="F63"/>
+      <c r="G63"/>
+      <c r="H63"/>
+      <c r="I63"/>
+      <c r="J63"/>
+      <c r="K63"/>
+      <c r="L63"/>
+      <c r="M63"/>
+      <c r="N63"/>
+      <c r="O63"/>
+      <c r="P63"/>
+      <c r="Q63"/>
+      <c r="R63"/>
+      <c r="S63"/>
+      <c r="T63"/>
+      <c r="U63"/>
+      <c r="V63"/>
+      <c r="W63"/>
+      <c r="X63"/>
+      <c r="Y63"/>
+      <c r="Z63"/>
+      <c r="AA63"/>
+      <c r="AB63"/>
+      <c r="AC63"/>
+      <c r="AD63"/>
+    </row>
+    <row r="64" s="1" customFormat="1" spans="2:30">
+      <c r="B64"/>
+      <c r="C64"/>
+      <c r="D64"/>
+      <c r="E64"/>
+      <c r="F64"/>
+      <c r="G64"/>
+      <c r="H64"/>
+      <c r="I64"/>
+      <c r="J64"/>
+      <c r="K64"/>
+      <c r="L64"/>
+      <c r="M64"/>
+      <c r="N64"/>
+      <c r="O64"/>
+      <c r="P64"/>
+      <c r="Q64"/>
+      <c r="R64"/>
+      <c r="S64"/>
+      <c r="T64"/>
+      <c r="U64"/>
+      <c r="V64"/>
+      <c r="W64"/>
+      <c r="X64"/>
+      <c r="Y64"/>
+      <c r="Z64"/>
+      <c r="AA64"/>
+      <c r="AB64"/>
+      <c r="AC64"/>
+      <c r="AD64"/>
+    </row>
+    <row r="65" s="1" customFormat="1" spans="2:30">
+      <c r="B65"/>
+      <c r="C65"/>
+      <c r="D65" s="1"/>
+      <c r="E65"/>
+      <c r="F65"/>
+      <c r="G65"/>
+      <c r="H65"/>
+      <c r="I65"/>
+      <c r="J65"/>
+      <c r="K65"/>
+      <c r="L65"/>
+      <c r="M65"/>
+      <c r="N65"/>
+      <c r="O65"/>
+      <c r="P65"/>
+      <c r="Q65"/>
+      <c r="R65"/>
+      <c r="S65"/>
+      <c r="T65"/>
+      <c r="U65"/>
+      <c r="V65"/>
+      <c r="W65"/>
+      <c r="X65"/>
+      <c r="Y65"/>
+      <c r="Z65"/>
+      <c r="AA65"/>
+      <c r="AB65"/>
+      <c r="AC65"/>
+      <c r="AD65"/>
+    </row>
+    <row r="66" s="1" customFormat="1" spans="2:30">
+      <c r="B66"/>
+      <c r="C66"/>
+      <c r="D66" s="1"/>
+      <c r="E66"/>
+      <c r="F66"/>
+      <c r="G66"/>
+      <c r="H66"/>
+      <c r="I66"/>
+      <c r="J66"/>
+      <c r="K66"/>
+      <c r="L66"/>
+      <c r="M66"/>
+      <c r="N66"/>
+      <c r="O66"/>
+      <c r="P66"/>
+      <c r="Q66"/>
+      <c r="R66"/>
+      <c r="S66"/>
+      <c r="T66"/>
+      <c r="U66"/>
+      <c r="V66"/>
+      <c r="W66"/>
+      <c r="X66"/>
+      <c r="Y66"/>
+      <c r="Z66"/>
+      <c r="AA66"/>
+      <c r="AB66"/>
+      <c r="AC66"/>
+      <c r="AD66"/>
+    </row>
+    <row r="67" s="1" customFormat="1" spans="2:30">
+      <c r="B67"/>
+      <c r="C67"/>
+      <c r="D67"/>
+      <c r="E67"/>
+      <c r="F67"/>
+      <c r="G67"/>
+      <c r="H67"/>
+      <c r="I67"/>
+      <c r="J67"/>
+      <c r="K67"/>
+      <c r="L67"/>
+      <c r="M67"/>
+      <c r="N67"/>
+      <c r="O67"/>
+      <c r="P67"/>
+      <c r="Q67"/>
+      <c r="R67"/>
+      <c r="S67"/>
+      <c r="T67"/>
+      <c r="U67"/>
+      <c r="V67"/>
+      <c r="W67"/>
+      <c r="X67"/>
+      <c r="Y67"/>
+      <c r="Z67"/>
+      <c r="AA67"/>
+      <c r="AB67"/>
+      <c r="AC67"/>
+      <c r="AD67"/>
+    </row>
+    <row r="68" s="1" customFormat="1" spans="2:30">
+      <c r="B68"/>
+      <c r="C68"/>
+      <c r="D68"/>
+      <c r="E68"/>
+      <c r="F68"/>
+      <c r="G68"/>
+      <c r="H68"/>
+      <c r="I68"/>
+      <c r="J68"/>
+      <c r="K68"/>
+      <c r="L68"/>
+      <c r="M68"/>
+      <c r="N68"/>
+      <c r="O68"/>
+      <c r="P68"/>
+      <c r="Q68"/>
+      <c r="R68"/>
+      <c r="S68"/>
+      <c r="T68"/>
+      <c r="U68"/>
+      <c r="V68"/>
+      <c r="W68"/>
+      <c r="X68"/>
+      <c r="Y68"/>
+      <c r="Z68"/>
+      <c r="AA68"/>
+      <c r="AB68"/>
+      <c r="AC68"/>
+      <c r="AD68"/>
+    </row>
+    <row r="69" s="1" customFormat="1" spans="2:30">
+      <c r="B69"/>
+      <c r="C69"/>
+      <c r="D69"/>
+      <c r="E69"/>
+      <c r="F69"/>
+      <c r="G69"/>
+      <c r="H69"/>
+      <c r="I69"/>
+      <c r="J69"/>
+      <c r="K69"/>
+      <c r="L69"/>
+      <c r="M69"/>
+      <c r="N69"/>
+      <c r="O69"/>
+      <c r="P69"/>
+      <c r="Q69"/>
+      <c r="R69"/>
+      <c r="S69"/>
+      <c r="T69"/>
+      <c r="U69"/>
+      <c r="V69"/>
+      <c r="W69"/>
+      <c r="X69"/>
+      <c r="Y69"/>
+      <c r="Z69"/>
+      <c r="AA69"/>
+      <c r="AB69"/>
+      <c r="AC69"/>
+      <c r="AD69"/>
+    </row>
+    <row r="70" s="1" customFormat="1" spans="2:30">
+      <c r="B70"/>
+      <c r="C70"/>
+      <c r="D70"/>
+      <c r="E70"/>
+      <c r="F70"/>
+      <c r="G70"/>
+      <c r="H70"/>
+      <c r="I70"/>
+      <c r="J70"/>
+      <c r="K70"/>
+      <c r="L70"/>
+      <c r="M70"/>
+      <c r="N70"/>
+      <c r="O70"/>
+      <c r="P70"/>
+      <c r="Q70"/>
+      <c r="R70"/>
+      <c r="S70"/>
+      <c r="T70"/>
+      <c r="U70"/>
+      <c r="V70"/>
+      <c r="W70"/>
+      <c r="X70"/>
+      <c r="Y70"/>
+      <c r="Z70"/>
+      <c r="AA70"/>
+      <c r="AB70"/>
+      <c r="AC70"/>
+      <c r="AD70"/>
+    </row>
+    <row r="71" s="1" customFormat="1" spans="2:30">
+      <c r="B71"/>
+      <c r="C71"/>
+      <c r="E71"/>
+      <c r="F71"/>
+      <c r="G71"/>
+      <c r="H71"/>
+      <c r="I71"/>
+      <c r="J71"/>
+      <c r="K71"/>
+      <c r="L71"/>
+      <c r="M71"/>
+      <c r="N71"/>
+      <c r="O71"/>
+      <c r="P71"/>
+      <c r="Q71"/>
+      <c r="R71"/>
+      <c r="S71"/>
+      <c r="T71"/>
+      <c r="U71"/>
+      <c r="V71"/>
+      <c r="W71"/>
+      <c r="X71"/>
+      <c r="Y71"/>
+      <c r="Z71"/>
+      <c r="AA71"/>
+      <c r="AB71"/>
+      <c r="AC71"/>
+      <c r="AD71"/>
+    </row>
+    <row r="72" s="1" customFormat="1" spans="2:30">
+      <c r="B72"/>
+      <c r="C72"/>
+      <c r="E72"/>
+      <c r="F72"/>
+      <c r="G72"/>
+      <c r="H72"/>
+      <c r="I72"/>
+      <c r="J72"/>
+      <c r="K72"/>
+      <c r="L72"/>
+      <c r="M72"/>
+      <c r="N72"/>
+      <c r="O72"/>
+      <c r="P72"/>
+      <c r="Q72"/>
+      <c r="R72"/>
+      <c r="S72"/>
+      <c r="T72"/>
+      <c r="U72"/>
+      <c r="V72"/>
+      <c r="W72"/>
+      <c r="X72"/>
+      <c r="Y72"/>
+      <c r="Z72"/>
+      <c r="AA72"/>
+      <c r="AB72"/>
+      <c r="AC72"/>
+      <c r="AD72"/>
+    </row>
+    <row r="73" s="1" customFormat="1" spans="2:30">
+      <c r="B73"/>
+      <c r="C73"/>
+      <c r="D73"/>
+      <c r="E73"/>
+      <c r="F73"/>
+      <c r="G73"/>
+      <c r="H73"/>
+      <c r="I73"/>
+      <c r="J73"/>
+      <c r="K73"/>
+      <c r="L73"/>
+      <c r="M73"/>
+      <c r="N73"/>
+      <c r="O73"/>
+      <c r="P73"/>
+      <c r="Q73"/>
+      <c r="R73"/>
+      <c r="S73"/>
+      <c r="T73"/>
+      <c r="U73"/>
+      <c r="V73"/>
+      <c r="W73"/>
+      <c r="X73"/>
+      <c r="Y73"/>
+      <c r="Z73"/>
+      <c r="AA73"/>
+      <c r="AB73"/>
+      <c r="AC73"/>
+      <c r="AD73"/>
+    </row>
+    <row r="74" s="1" customFormat="1" spans="2:30">
+      <c r="B74"/>
       <c r="C74"/>
       <c r="D74"/>
       <c r="E74"/>
@@ -7793,22 +12493,11 @@
       <c r="O81"/>
       <c r="P81"/>
       <c r="Q81"/>
-      <c r="R81" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="S81" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="T81" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="U81" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="V81" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="W81" s="1"/>
+      <c r="R81" s="1"/>
+      <c r="S81" s="2"/>
+      <c r="T81" s="1"/>
+      <c r="U81" s="1"/>
+      <c r="V81" s="1"/>
       <c r="X81"/>
       <c r="Y81"/>
       <c r="Z81"/>
@@ -7834,22 +12523,11 @@
       <c r="O82"/>
       <c r="P82"/>
       <c r="Q82"/>
-      <c r="R82" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="S82" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="T82" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="U82" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="V82" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="W82" s="1"/>
+      <c r="R82" s="1"/>
+      <c r="S82" s="2"/>
+      <c r="T82" s="1"/>
+      <c r="U82" s="1"/>
+      <c r="V82" s="4"/>
       <c r="X82"/>
       <c r="Y82"/>
       <c r="Z82"/>
@@ -7985,24 +12663,3824 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
-  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:AE86"/>
+  <sheetViews>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="L38" sqref="L38"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="4.875" defaultRowHeight="13.5"/>
+  <cols>
+    <col min="1" max="16384" width="4.875" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" s="1" customFormat="1" ht="22.5" spans="9:31">
+      <c r="I1" s="3"/>
+      <c r="J1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="V1" s="2"/>
+      <c r="W1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="X1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="Y1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="Z1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="AA1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="AE1" s="2"/>
+    </row>
+    <row r="2" s="1" customFormat="1" spans="23:27">
+      <c r="W2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="X2" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="Y2" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="Z2" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="AA2" s="4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" s="1" customFormat="1" spans="1:1">
+      <c r="A3" s="1" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="4" spans="2:2">
+      <c r="B4" s="1" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="5" s="1" customFormat="1" spans="22:31">
+      <c r="V5" s="2"/>
+      <c r="X5" s="2"/>
+      <c r="AE5" s="2"/>
+    </row>
+    <row r="6" s="1" customFormat="1" spans="24:27">
+      <c r="X6" s="2"/>
+      <c r="AA6" s="4"/>
+    </row>
+    <row r="14" s="1" customFormat="1" spans="5:5">
+      <c r="E14" s="2"/>
+    </row>
+    <row r="15" s="1" customFormat="1" spans="5:5">
+      <c r="E15" s="2"/>
+    </row>
+    <row r="25" s="1" customFormat="1" spans="17:30">
+      <c r="Q25"/>
+      <c r="R25"/>
+      <c r="S25"/>
+      <c r="T25"/>
+      <c r="U25"/>
+      <c r="V25"/>
+      <c r="W25"/>
+      <c r="X25"/>
+      <c r="Y25"/>
+      <c r="Z25"/>
+      <c r="AA25"/>
+      <c r="AB25"/>
+      <c r="AC25"/>
+      <c r="AD25"/>
+    </row>
+    <row r="26" s="1" customFormat="1" spans="17:30">
+      <c r="Q26"/>
+      <c r="R26"/>
+      <c r="S26"/>
+      <c r="T26"/>
+      <c r="U26"/>
+      <c r="V26"/>
+      <c r="W26"/>
+      <c r="X26"/>
+      <c r="Y26"/>
+      <c r="Z26"/>
+      <c r="AA26"/>
+      <c r="AB26"/>
+      <c r="AC26"/>
+      <c r="AD26"/>
+    </row>
+    <row r="27" s="1" customFormat="1" spans="17:30">
+      <c r="Q27"/>
+      <c r="R27"/>
+      <c r="S27"/>
+      <c r="T27"/>
+      <c r="U27"/>
+      <c r="V27"/>
+      <c r="W27"/>
+      <c r="X27"/>
+      <c r="Y27"/>
+      <c r="Z27"/>
+      <c r="AA27"/>
+      <c r="AB27"/>
+      <c r="AC27"/>
+      <c r="AD27"/>
+    </row>
+    <row r="28" s="1" customFormat="1" spans="2:30">
+      <c r="B28"/>
+      <c r="C28"/>
+      <c r="D28"/>
+      <c r="E28"/>
+      <c r="F28"/>
+      <c r="G28"/>
+      <c r="H28"/>
+      <c r="I28"/>
+      <c r="J28"/>
+      <c r="K28"/>
+      <c r="L28"/>
+      <c r="M28"/>
+      <c r="N28"/>
+      <c r="O28"/>
+      <c r="P28"/>
+      <c r="Q28"/>
+      <c r="R28"/>
+      <c r="S28"/>
+      <c r="T28"/>
+      <c r="U28"/>
+      <c r="V28"/>
+      <c r="W28"/>
+      <c r="X28"/>
+      <c r="Y28"/>
+      <c r="Z28"/>
+      <c r="AA28"/>
+      <c r="AB28"/>
+      <c r="AC28"/>
+      <c r="AD28"/>
+    </row>
+    <row r="29" s="1" customFormat="1" spans="12:30">
+      <c r="L29"/>
+      <c r="M29"/>
+      <c r="N29"/>
+      <c r="O29"/>
+      <c r="P29"/>
+      <c r="Q29"/>
+      <c r="R29"/>
+      <c r="S29"/>
+      <c r="T29"/>
+      <c r="U29"/>
+      <c r="V29"/>
+      <c r="W29"/>
+      <c r="X29"/>
+      <c r="Y29"/>
+      <c r="Z29"/>
+      <c r="AA29"/>
+      <c r="AB29"/>
+      <c r="AC29"/>
+      <c r="AD29"/>
+    </row>
+    <row r="30" s="1" customFormat="1" spans="2:30">
+      <c r="B30"/>
+      <c r="C30"/>
+      <c r="E30"/>
+      <c r="F30"/>
+      <c r="G30"/>
+      <c r="H30"/>
+      <c r="I30"/>
+      <c r="J30"/>
+      <c r="K30"/>
+      <c r="L30"/>
+      <c r="M30"/>
+      <c r="N30"/>
+      <c r="O30"/>
+      <c r="P30"/>
+      <c r="Q30"/>
+      <c r="R30"/>
+      <c r="S30"/>
+      <c r="T30"/>
+      <c r="U30"/>
+      <c r="V30"/>
+      <c r="W30"/>
+      <c r="X30"/>
+      <c r="Y30"/>
+      <c r="Z30"/>
+      <c r="AA30"/>
+      <c r="AB30"/>
+      <c r="AC30"/>
+      <c r="AD30"/>
+    </row>
+    <row r="31" s="1" customFormat="1" spans="2:30">
+      <c r="B31"/>
+      <c r="C31"/>
+      <c r="D31"/>
+      <c r="E31"/>
+      <c r="F31"/>
+      <c r="G31"/>
+      <c r="H31"/>
+      <c r="I31"/>
+      <c r="J31"/>
+      <c r="K31"/>
+      <c r="L31"/>
+      <c r="M31"/>
+      <c r="N31"/>
+      <c r="O31"/>
+      <c r="P31"/>
+      <c r="Q31"/>
+      <c r="R31"/>
+      <c r="S31"/>
+      <c r="T31"/>
+      <c r="U31"/>
+      <c r="V31"/>
+      <c r="W31"/>
+      <c r="X31"/>
+      <c r="Y31"/>
+      <c r="Z31"/>
+      <c r="AA31"/>
+      <c r="AB31"/>
+      <c r="AC31"/>
+      <c r="AD31"/>
+    </row>
+    <row r="32" s="1" customFormat="1" spans="2:30">
+      <c r="B32"/>
+      <c r="C32"/>
+      <c r="E32"/>
+      <c r="F32"/>
+      <c r="G32"/>
+      <c r="H32"/>
+      <c r="I32"/>
+      <c r="J32"/>
+      <c r="K32"/>
+      <c r="L32"/>
+      <c r="M32"/>
+      <c r="N32"/>
+      <c r="O32"/>
+      <c r="P32"/>
+      <c r="Q32"/>
+      <c r="R32"/>
+      <c r="S32"/>
+      <c r="T32"/>
+      <c r="U32"/>
+      <c r="V32"/>
+      <c r="W32"/>
+      <c r="X32"/>
+      <c r="Y32"/>
+      <c r="Z32"/>
+      <c r="AA32"/>
+      <c r="AB32"/>
+      <c r="AC32"/>
+      <c r="AD32"/>
+    </row>
+    <row r="33" s="1" customFormat="1" spans="2:30">
+      <c r="B33"/>
+      <c r="C33"/>
+      <c r="D33"/>
+      <c r="E33"/>
+      <c r="F33"/>
+      <c r="G33"/>
+      <c r="H33"/>
+      <c r="I33"/>
+      <c r="J33"/>
+      <c r="K33"/>
+      <c r="L33"/>
+      <c r="M33"/>
+      <c r="N33"/>
+      <c r="O33"/>
+      <c r="P33"/>
+      <c r="Q33"/>
+      <c r="R33"/>
+      <c r="S33"/>
+      <c r="T33"/>
+      <c r="U33"/>
+      <c r="V33"/>
+      <c r="W33"/>
+      <c r="X33"/>
+      <c r="Y33"/>
+      <c r="Z33"/>
+      <c r="AA33"/>
+      <c r="AB33"/>
+      <c r="AC33"/>
+      <c r="AD33"/>
+    </row>
+    <row r="34" s="1" customFormat="1" spans="2:30">
+      <c r="B34"/>
+      <c r="C34"/>
+      <c r="E34"/>
+      <c r="F34"/>
+      <c r="G34"/>
+      <c r="H34"/>
+      <c r="I34"/>
+      <c r="J34"/>
+      <c r="K34"/>
+      <c r="L34"/>
+      <c r="M34"/>
+      <c r="N34"/>
+      <c r="O34"/>
+      <c r="P34"/>
+      <c r="Q34"/>
+      <c r="R34"/>
+      <c r="S34"/>
+      <c r="T34"/>
+      <c r="U34"/>
+      <c r="V34"/>
+      <c r="W34"/>
+      <c r="X34"/>
+      <c r="Y34"/>
+      <c r="Z34"/>
+      <c r="AA34"/>
+      <c r="AB34"/>
+      <c r="AC34"/>
+      <c r="AD34"/>
+    </row>
+    <row r="35" s="1" customFormat="1" spans="2:30">
+      <c r="B35"/>
+      <c r="C35"/>
+      <c r="E35"/>
+      <c r="F35"/>
+      <c r="G35"/>
+      <c r="H35"/>
+      <c r="I35"/>
+      <c r="J35"/>
+      <c r="K35"/>
+      <c r="L35"/>
+      <c r="M35"/>
+      <c r="N35"/>
+      <c r="O35"/>
+      <c r="P35"/>
+      <c r="Q35"/>
+      <c r="R35"/>
+      <c r="S35"/>
+      <c r="T35"/>
+      <c r="U35"/>
+      <c r="V35"/>
+      <c r="W35"/>
+      <c r="X35"/>
+      <c r="Y35"/>
+      <c r="Z35"/>
+      <c r="AA35"/>
+      <c r="AB35"/>
+      <c r="AC35"/>
+      <c r="AD35"/>
+    </row>
+    <row r="36" s="1" customFormat="1" spans="2:30">
+      <c r="B36"/>
+      <c r="C36"/>
+      <c r="D36"/>
+      <c r="E36"/>
+      <c r="F36"/>
+      <c r="G36"/>
+      <c r="H36"/>
+      <c r="I36"/>
+      <c r="J36"/>
+      <c r="K36"/>
+      <c r="L36"/>
+      <c r="M36"/>
+      <c r="N36"/>
+      <c r="O36"/>
+      <c r="P36"/>
+      <c r="Q36"/>
+      <c r="R36"/>
+      <c r="S36"/>
+      <c r="T36"/>
+      <c r="U36"/>
+      <c r="V36"/>
+      <c r="W36"/>
+      <c r="X36"/>
+      <c r="Y36"/>
+      <c r="Z36"/>
+      <c r="AA36"/>
+      <c r="AB36"/>
+      <c r="AC36"/>
+      <c r="AD36"/>
+    </row>
+    <row r="37" s="1" customFormat="1" spans="2:30">
+      <c r="B37"/>
+      <c r="C37"/>
+      <c r="D37" s="2"/>
+      <c r="E37"/>
+      <c r="F37"/>
+      <c r="G37"/>
+      <c r="H37"/>
+      <c r="I37"/>
+      <c r="J37"/>
+      <c r="K37"/>
+      <c r="L37"/>
+      <c r="M37"/>
+      <c r="N37"/>
+      <c r="O37"/>
+      <c r="P37"/>
+      <c r="Q37"/>
+      <c r="Y37"/>
+      <c r="Z37"/>
+      <c r="AA37"/>
+      <c r="AB37"/>
+      <c r="AC37"/>
+      <c r="AD37"/>
+    </row>
+    <row r="38" s="1" customFormat="1" spans="2:30">
+      <c r="B38"/>
+      <c r="C38"/>
+      <c r="E38"/>
+      <c r="F38"/>
+      <c r="G38"/>
+      <c r="H38"/>
+      <c r="I38"/>
+      <c r="J38"/>
+      <c r="K38"/>
+      <c r="L38"/>
+      <c r="M38"/>
+      <c r="N38"/>
+      <c r="O38"/>
+      <c r="P38"/>
+      <c r="Q38"/>
+      <c r="Y38"/>
+      <c r="Z38"/>
+      <c r="AA38"/>
+      <c r="AB38"/>
+      <c r="AC38"/>
+      <c r="AD38"/>
+    </row>
+    <row r="39" s="1" customFormat="1" spans="2:30">
+      <c r="B39"/>
+      <c r="C39"/>
+      <c r="E39"/>
+      <c r="F39"/>
+      <c r="G39"/>
+      <c r="H39"/>
+      <c r="I39"/>
+      <c r="J39"/>
+      <c r="K39"/>
+      <c r="L39"/>
+      <c r="M39"/>
+      <c r="N39"/>
+      <c r="O39"/>
+      <c r="P39"/>
+      <c r="Q39"/>
+      <c r="R39"/>
+      <c r="S39"/>
+      <c r="T39"/>
+      <c r="U39"/>
+      <c r="V39"/>
+      <c r="W39"/>
+      <c r="X39"/>
+      <c r="Y39"/>
+      <c r="Z39"/>
+      <c r="AA39"/>
+      <c r="AB39"/>
+      <c r="AC39"/>
+      <c r="AD39"/>
+    </row>
+    <row r="40" s="1" customFormat="1" spans="2:30">
+      <c r="B40"/>
+      <c r="C40"/>
+      <c r="G40"/>
+      <c r="H40"/>
+      <c r="I40"/>
+      <c r="J40"/>
+      <c r="K40"/>
+      <c r="L40"/>
+      <c r="M40"/>
+      <c r="N40"/>
+      <c r="O40"/>
+      <c r="P40"/>
+      <c r="Q40"/>
+      <c r="R40"/>
+      <c r="S40"/>
+      <c r="T40"/>
+      <c r="U40"/>
+      <c r="V40"/>
+      <c r="W40"/>
+      <c r="X40"/>
+      <c r="Y40"/>
+      <c r="Z40"/>
+      <c r="AA40"/>
+      <c r="AB40"/>
+      <c r="AC40"/>
+      <c r="AD40"/>
+    </row>
+    <row r="41" s="1" customFormat="1" spans="2:30">
+      <c r="B41"/>
+      <c r="C41"/>
+      <c r="G41"/>
+      <c r="H41"/>
+      <c r="I41"/>
+      <c r="J41"/>
+      <c r="K41"/>
+      <c r="L41"/>
+      <c r="M41"/>
+      <c r="N41"/>
+      <c r="O41"/>
+      <c r="P41"/>
+      <c r="Q41"/>
+      <c r="R41"/>
+      <c r="S41"/>
+      <c r="T41"/>
+      <c r="U41"/>
+      <c r="V41"/>
+      <c r="W41"/>
+      <c r="X41"/>
+      <c r="Y41"/>
+      <c r="Z41"/>
+      <c r="AA41"/>
+      <c r="AB41"/>
+      <c r="AC41"/>
+      <c r="AD41"/>
+    </row>
+    <row r="42" s="1" customFormat="1" spans="2:30">
+      <c r="B42"/>
+      <c r="C42"/>
+      <c r="D42" s="2"/>
+      <c r="E42"/>
+      <c r="F42"/>
+      <c r="G42"/>
+      <c r="H42"/>
+      <c r="I42"/>
+      <c r="J42"/>
+      <c r="K42"/>
+      <c r="L42"/>
+      <c r="M42"/>
+      <c r="N42"/>
+      <c r="O42"/>
+      <c r="P42"/>
+      <c r="Q42"/>
+      <c r="R42"/>
+      <c r="S42"/>
+      <c r="T42"/>
+      <c r="U42"/>
+      <c r="V42"/>
+      <c r="W42"/>
+      <c r="X42"/>
+      <c r="Y42"/>
+      <c r="Z42"/>
+      <c r="AA42"/>
+      <c r="AB42"/>
+      <c r="AC42"/>
+      <c r="AD42"/>
+    </row>
+    <row r="43" s="1" customFormat="1" spans="2:30">
+      <c r="B43"/>
+      <c r="C43"/>
+      <c r="D43" s="2"/>
+      <c r="E43"/>
+      <c r="F43"/>
+      <c r="G43"/>
+      <c r="H43"/>
+      <c r="I43"/>
+      <c r="J43"/>
+      <c r="K43"/>
+      <c r="L43"/>
+      <c r="M43"/>
+      <c r="N43"/>
+      <c r="O43"/>
+      <c r="P43"/>
+      <c r="Q43"/>
+      <c r="R43"/>
+      <c r="S43"/>
+      <c r="T43"/>
+      <c r="U43"/>
+      <c r="V43"/>
+      <c r="W43"/>
+      <c r="X43"/>
+      <c r="Y43"/>
+      <c r="Z43"/>
+      <c r="AA43"/>
+      <c r="AB43"/>
+      <c r="AC43"/>
+      <c r="AD43"/>
+    </row>
+    <row r="44" s="1" customFormat="1" spans="2:30">
+      <c r="B44"/>
+      <c r="C44"/>
+      <c r="D44"/>
+      <c r="E44"/>
+      <c r="F44"/>
+      <c r="G44"/>
+      <c r="H44"/>
+      <c r="I44"/>
+      <c r="J44"/>
+      <c r="K44"/>
+      <c r="L44"/>
+      <c r="M44"/>
+      <c r="N44"/>
+      <c r="O44"/>
+      <c r="P44"/>
+      <c r="Q44"/>
+      <c r="R44"/>
+      <c r="S44"/>
+      <c r="T44"/>
+      <c r="U44"/>
+      <c r="V44"/>
+      <c r="W44"/>
+      <c r="X44"/>
+      <c r="Y44"/>
+      <c r="Z44"/>
+      <c r="AA44"/>
+      <c r="AB44"/>
+      <c r="AC44"/>
+      <c r="AD44"/>
+    </row>
+    <row r="45" s="1" customFormat="1" spans="2:30">
+      <c r="B45"/>
+      <c r="C45"/>
+      <c r="D45"/>
+      <c r="E45"/>
+      <c r="F45"/>
+      <c r="G45"/>
+      <c r="H45"/>
+      <c r="I45"/>
+      <c r="J45"/>
+      <c r="K45"/>
+      <c r="L45"/>
+      <c r="M45"/>
+      <c r="N45"/>
+      <c r="O45"/>
+      <c r="P45"/>
+      <c r="Q45"/>
+      <c r="R45"/>
+      <c r="S45"/>
+      <c r="T45"/>
+      <c r="U45"/>
+      <c r="V45"/>
+      <c r="W45"/>
+      <c r="X45"/>
+      <c r="Y45"/>
+      <c r="Z45"/>
+      <c r="AA45"/>
+      <c r="AB45"/>
+      <c r="AC45"/>
+      <c r="AD45"/>
+    </row>
+    <row r="46" s="1" customFormat="1" spans="2:30">
+      <c r="B46"/>
+      <c r="C46"/>
+      <c r="D46"/>
+      <c r="E46"/>
+      <c r="F46"/>
+      <c r="G46"/>
+      <c r="H46"/>
+      <c r="I46"/>
+      <c r="J46"/>
+      <c r="K46"/>
+      <c r="L46"/>
+      <c r="M46"/>
+      <c r="N46"/>
+      <c r="O46"/>
+      <c r="P46"/>
+      <c r="Q46"/>
+      <c r="R46"/>
+      <c r="S46"/>
+      <c r="T46"/>
+      <c r="U46"/>
+      <c r="V46"/>
+      <c r="W46"/>
+      <c r="X46"/>
+      <c r="Y46"/>
+      <c r="Z46"/>
+      <c r="AA46"/>
+      <c r="AB46"/>
+      <c r="AC46"/>
+      <c r="AD46"/>
+    </row>
+    <row r="47" s="1" customFormat="1" spans="2:30">
+      <c r="B47"/>
+      <c r="C47"/>
+      <c r="D47"/>
+      <c r="E47"/>
+      <c r="F47"/>
+      <c r="G47"/>
+      <c r="H47"/>
+      <c r="I47"/>
+      <c r="J47"/>
+      <c r="K47"/>
+      <c r="L47"/>
+      <c r="M47"/>
+      <c r="N47"/>
+      <c r="O47"/>
+      <c r="P47"/>
+      <c r="Q47"/>
+      <c r="R47"/>
+      <c r="S47"/>
+      <c r="T47"/>
+      <c r="U47"/>
+      <c r="V47"/>
+      <c r="W47"/>
+      <c r="X47"/>
+      <c r="Y47"/>
+      <c r="Z47"/>
+      <c r="AA47"/>
+      <c r="AB47"/>
+      <c r="AC47"/>
+      <c r="AD47"/>
+    </row>
+    <row r="48" s="1" customFormat="1" spans="2:30">
+      <c r="B48"/>
+      <c r="C48"/>
+      <c r="D48"/>
+      <c r="E48"/>
+      <c r="F48"/>
+      <c r="G48"/>
+      <c r="H48"/>
+      <c r="I48"/>
+      <c r="J48"/>
+      <c r="K48"/>
+      <c r="L48"/>
+      <c r="M48"/>
+      <c r="N48"/>
+      <c r="O48"/>
+      <c r="P48"/>
+      <c r="Q48"/>
+      <c r="R48"/>
+      <c r="S48"/>
+      <c r="T48"/>
+      <c r="U48"/>
+      <c r="V48"/>
+      <c r="W48"/>
+      <c r="X48"/>
+      <c r="Y48"/>
+      <c r="Z48"/>
+      <c r="AA48"/>
+      <c r="AB48"/>
+      <c r="AC48"/>
+      <c r="AD48"/>
+    </row>
+    <row r="49" s="1" customFormat="1" spans="2:30">
+      <c r="B49"/>
+      <c r="C49"/>
+      <c r="D49"/>
+      <c r="E49"/>
+      <c r="F49"/>
+      <c r="G49"/>
+      <c r="H49"/>
+      <c r="I49"/>
+      <c r="J49"/>
+      <c r="K49"/>
+      <c r="L49"/>
+      <c r="M49"/>
+      <c r="N49"/>
+      <c r="O49"/>
+      <c r="P49"/>
+      <c r="Q49"/>
+      <c r="R49"/>
+      <c r="S49"/>
+      <c r="T49"/>
+      <c r="U49"/>
+      <c r="V49"/>
+      <c r="W49"/>
+      <c r="X49"/>
+      <c r="Y49"/>
+      <c r="Z49"/>
+      <c r="AA49"/>
+      <c r="AB49"/>
+      <c r="AC49"/>
+      <c r="AD49"/>
+    </row>
+    <row r="50" s="1" customFormat="1" spans="2:30">
+      <c r="B50"/>
+      <c r="C50"/>
+      <c r="D50"/>
+      <c r="E50"/>
+      <c r="F50"/>
+      <c r="G50"/>
+      <c r="H50"/>
+      <c r="I50"/>
+      <c r="J50"/>
+      <c r="K50"/>
+      <c r="L50"/>
+      <c r="M50"/>
+      <c r="N50"/>
+      <c r="O50"/>
+      <c r="P50"/>
+      <c r="Q50"/>
+      <c r="R50"/>
+      <c r="S50"/>
+      <c r="T50"/>
+      <c r="U50"/>
+      <c r="V50"/>
+      <c r="W50"/>
+      <c r="X50"/>
+      <c r="Y50"/>
+      <c r="Z50"/>
+      <c r="AA50"/>
+      <c r="AB50"/>
+      <c r="AC50"/>
+      <c r="AD50"/>
+    </row>
+    <row r="51" s="1" customFormat="1" spans="2:30">
+      <c r="B51"/>
+      <c r="C51"/>
+      <c r="D51"/>
+      <c r="E51"/>
+      <c r="F51"/>
+      <c r="G51"/>
+      <c r="H51"/>
+      <c r="I51"/>
+      <c r="J51"/>
+      <c r="K51"/>
+      <c r="L51"/>
+      <c r="M51"/>
+      <c r="N51"/>
+      <c r="O51"/>
+      <c r="P51"/>
+      <c r="Q51"/>
+      <c r="R51"/>
+      <c r="S51"/>
+      <c r="T51"/>
+      <c r="U51"/>
+      <c r="V51"/>
+      <c r="W51"/>
+      <c r="X51"/>
+      <c r="Y51"/>
+      <c r="Z51"/>
+      <c r="AA51"/>
+      <c r="AB51"/>
+      <c r="AC51"/>
+      <c r="AD51"/>
+    </row>
+    <row r="52" s="1" customFormat="1" spans="2:30">
+      <c r="B52"/>
+      <c r="C52"/>
+      <c r="D52"/>
+      <c r="E52"/>
+      <c r="F52"/>
+      <c r="G52"/>
+      <c r="H52"/>
+      <c r="I52"/>
+      <c r="J52"/>
+      <c r="K52"/>
+      <c r="L52"/>
+      <c r="M52"/>
+      <c r="N52"/>
+      <c r="O52"/>
+      <c r="P52"/>
+      <c r="Q52"/>
+      <c r="R52"/>
+      <c r="S52"/>
+      <c r="T52"/>
+      <c r="U52"/>
+      <c r="V52"/>
+      <c r="W52"/>
+      <c r="X52"/>
+      <c r="Y52"/>
+      <c r="Z52"/>
+      <c r="AA52"/>
+      <c r="AB52"/>
+      <c r="AC52"/>
+      <c r="AD52"/>
+    </row>
+    <row r="53" s="1" customFormat="1" spans="2:30">
+      <c r="B53"/>
+      <c r="C53"/>
+      <c r="D53"/>
+      <c r="E53"/>
+      <c r="F53"/>
+      <c r="G53"/>
+      <c r="H53"/>
+      <c r="I53"/>
+      <c r="J53"/>
+      <c r="K53"/>
+      <c r="L53"/>
+      <c r="M53"/>
+      <c r="N53"/>
+      <c r="O53"/>
+      <c r="P53"/>
+      <c r="Q53"/>
+      <c r="R53"/>
+      <c r="S53"/>
+      <c r="T53"/>
+      <c r="V53" s="2"/>
+      <c r="AB53"/>
+      <c r="AC53"/>
+      <c r="AD53"/>
+    </row>
+    <row r="54" s="1" customFormat="1" spans="2:30">
+      <c r="B54"/>
+      <c r="C54"/>
+      <c r="D54"/>
+      <c r="E54"/>
+      <c r="F54"/>
+      <c r="G54"/>
+      <c r="H54"/>
+      <c r="I54"/>
+      <c r="J54"/>
+      <c r="K54"/>
+      <c r="L54"/>
+      <c r="M54"/>
+      <c r="N54"/>
+      <c r="O54"/>
+      <c r="P54"/>
+      <c r="Q54"/>
+      <c r="R54"/>
+      <c r="S54"/>
+      <c r="T54"/>
+      <c r="V54" s="2"/>
+      <c r="Y54" s="4"/>
+      <c r="AB54"/>
+      <c r="AC54"/>
+      <c r="AD54"/>
+    </row>
+    <row r="55" s="1" customFormat="1" spans="2:30">
+      <c r="B55"/>
+      <c r="C55"/>
+      <c r="D55"/>
+      <c r="E55"/>
+      <c r="F55"/>
+      <c r="G55"/>
+      <c r="H55"/>
+      <c r="I55"/>
+      <c r="J55"/>
+      <c r="K55"/>
+      <c r="L55"/>
+      <c r="M55"/>
+      <c r="N55"/>
+      <c r="O55"/>
+      <c r="P55"/>
+      <c r="Q55"/>
+      <c r="R55"/>
+      <c r="S55"/>
+      <c r="T55"/>
+      <c r="U55"/>
+      <c r="V55"/>
+      <c r="W55"/>
+      <c r="X55"/>
+      <c r="Y55"/>
+      <c r="Z55"/>
+      <c r="AA55"/>
+      <c r="AB55"/>
+      <c r="AC55"/>
+      <c r="AD55"/>
+    </row>
+    <row r="56" s="1" customFormat="1" spans="2:30">
+      <c r="B56"/>
+      <c r="C56"/>
+      <c r="D56"/>
+      <c r="E56"/>
+      <c r="F56"/>
+      <c r="G56"/>
+      <c r="H56"/>
+      <c r="I56"/>
+      <c r="J56"/>
+      <c r="K56"/>
+      <c r="L56"/>
+      <c r="M56"/>
+      <c r="N56"/>
+      <c r="O56"/>
+      <c r="P56"/>
+      <c r="Q56"/>
+      <c r="R56"/>
+      <c r="S56"/>
+      <c r="T56"/>
+      <c r="U56"/>
+      <c r="V56"/>
+      <c r="W56"/>
+      <c r="X56"/>
+      <c r="Y56"/>
+      <c r="Z56"/>
+      <c r="AA56"/>
+      <c r="AB56"/>
+      <c r="AC56"/>
+      <c r="AD56"/>
+    </row>
+    <row r="57" s="1" customFormat="1" spans="2:30">
+      <c r="B57"/>
+      <c r="C57"/>
+      <c r="D57"/>
+      <c r="E57"/>
+      <c r="F57"/>
+      <c r="G57"/>
+      <c r="H57"/>
+      <c r="I57"/>
+      <c r="J57"/>
+      <c r="K57"/>
+      <c r="L57"/>
+      <c r="M57"/>
+      <c r="N57"/>
+      <c r="O57"/>
+      <c r="P57"/>
+      <c r="Q57"/>
+      <c r="R57"/>
+      <c r="S57"/>
+      <c r="T57"/>
+      <c r="U57"/>
+      <c r="V57"/>
+      <c r="W57"/>
+      <c r="X57"/>
+      <c r="Y57"/>
+      <c r="Z57"/>
+      <c r="AA57"/>
+      <c r="AB57"/>
+      <c r="AC57"/>
+      <c r="AD57"/>
+    </row>
+    <row r="58" s="1" customFormat="1" spans="2:30">
+      <c r="B58"/>
+      <c r="C58"/>
+      <c r="E58"/>
+      <c r="F58"/>
+      <c r="G58"/>
+      <c r="H58"/>
+      <c r="I58"/>
+      <c r="J58"/>
+      <c r="K58"/>
+      <c r="L58"/>
+      <c r="M58"/>
+      <c r="N58"/>
+      <c r="O58"/>
+      <c r="P58"/>
+      <c r="Q58"/>
+      <c r="R58"/>
+      <c r="S58"/>
+      <c r="T58"/>
+      <c r="U58"/>
+      <c r="V58"/>
+      <c r="W58"/>
+      <c r="X58"/>
+      <c r="Y58"/>
+      <c r="Z58"/>
+      <c r="AA58"/>
+      <c r="AB58"/>
+      <c r="AC58"/>
+      <c r="AD58"/>
+    </row>
+    <row r="59" s="1" customFormat="1" spans="2:30">
+      <c r="B59"/>
+      <c r="C59"/>
+      <c r="E59"/>
+      <c r="F59"/>
+      <c r="G59"/>
+      <c r="H59"/>
+      <c r="I59"/>
+      <c r="J59"/>
+      <c r="K59"/>
+      <c r="L59"/>
+      <c r="M59"/>
+      <c r="N59"/>
+      <c r="O59"/>
+      <c r="P59"/>
+      <c r="Q59"/>
+      <c r="R59"/>
+      <c r="S59"/>
+      <c r="T59"/>
+      <c r="U59"/>
+      <c r="V59"/>
+      <c r="W59"/>
+      <c r="X59"/>
+      <c r="Y59"/>
+      <c r="Z59"/>
+      <c r="AA59"/>
+      <c r="AB59"/>
+      <c r="AC59"/>
+      <c r="AD59"/>
+    </row>
+    <row r="60" s="1" customFormat="1" spans="2:30">
+      <c r="B60"/>
+      <c r="C60"/>
+      <c r="E60"/>
+      <c r="F60"/>
+      <c r="G60"/>
+      <c r="H60"/>
+      <c r="I60"/>
+      <c r="J60"/>
+      <c r="K60"/>
+      <c r="L60"/>
+      <c r="M60"/>
+      <c r="N60"/>
+      <c r="O60"/>
+      <c r="P60"/>
+      <c r="Q60"/>
+      <c r="R60"/>
+      <c r="S60"/>
+      <c r="T60"/>
+      <c r="U60"/>
+      <c r="V60"/>
+      <c r="W60"/>
+      <c r="X60"/>
+      <c r="Y60"/>
+      <c r="Z60"/>
+      <c r="AA60"/>
+      <c r="AB60"/>
+      <c r="AC60"/>
+      <c r="AD60"/>
+    </row>
+    <row r="61" s="1" customFormat="1" spans="2:30">
+      <c r="B61"/>
+      <c r="C61"/>
+      <c r="D61"/>
+      <c r="E61"/>
+      <c r="F61"/>
+      <c r="G61"/>
+      <c r="H61"/>
+      <c r="I61"/>
+      <c r="J61"/>
+      <c r="K61"/>
+      <c r="L61"/>
+      <c r="M61"/>
+      <c r="N61"/>
+      <c r="O61"/>
+      <c r="P61"/>
+      <c r="Q61"/>
+      <c r="R61"/>
+      <c r="S61"/>
+      <c r="T61"/>
+      <c r="U61"/>
+      <c r="V61"/>
+      <c r="W61"/>
+      <c r="X61"/>
+      <c r="Y61"/>
+      <c r="Z61"/>
+      <c r="AA61"/>
+      <c r="AB61"/>
+      <c r="AC61"/>
+      <c r="AD61"/>
+    </row>
+    <row r="62" s="1" customFormat="1" spans="2:30">
+      <c r="B62"/>
+      <c r="C62"/>
+      <c r="D62"/>
+      <c r="E62"/>
+      <c r="F62"/>
+      <c r="G62"/>
+      <c r="H62"/>
+      <c r="I62"/>
+      <c r="J62"/>
+      <c r="K62"/>
+      <c r="L62"/>
+      <c r="M62"/>
+      <c r="N62"/>
+      <c r="O62"/>
+      <c r="P62"/>
+      <c r="Q62"/>
+      <c r="R62"/>
+      <c r="S62"/>
+      <c r="T62"/>
+      <c r="U62"/>
+      <c r="V62"/>
+      <c r="W62"/>
+      <c r="X62"/>
+      <c r="Y62"/>
+      <c r="Z62"/>
+      <c r="AA62"/>
+      <c r="AB62"/>
+      <c r="AC62"/>
+      <c r="AD62"/>
+    </row>
+    <row r="63" s="1" customFormat="1" spans="2:30">
+      <c r="B63"/>
+      <c r="C63"/>
+      <c r="D63"/>
+      <c r="E63"/>
+      <c r="F63"/>
+      <c r="G63"/>
+      <c r="H63"/>
+      <c r="I63"/>
+      <c r="J63"/>
+      <c r="K63"/>
+      <c r="L63"/>
+      <c r="M63"/>
+      <c r="N63"/>
+      <c r="O63"/>
+      <c r="P63"/>
+      <c r="Q63"/>
+      <c r="R63"/>
+      <c r="S63"/>
+      <c r="T63"/>
+      <c r="U63"/>
+      <c r="V63"/>
+      <c r="W63"/>
+      <c r="X63"/>
+      <c r="Y63"/>
+      <c r="Z63"/>
+      <c r="AA63"/>
+      <c r="AB63"/>
+      <c r="AC63"/>
+      <c r="AD63"/>
+    </row>
+    <row r="64" s="1" customFormat="1" spans="2:30">
+      <c r="B64"/>
+      <c r="C64"/>
+      <c r="D64"/>
+      <c r="E64"/>
+      <c r="F64"/>
+      <c r="G64"/>
+      <c r="H64"/>
+      <c r="I64"/>
+      <c r="J64"/>
+      <c r="K64"/>
+      <c r="L64"/>
+      <c r="M64"/>
+      <c r="N64"/>
+      <c r="O64"/>
+      <c r="P64"/>
+      <c r="Q64"/>
+      <c r="R64"/>
+      <c r="S64"/>
+      <c r="T64"/>
+      <c r="U64"/>
+      <c r="V64"/>
+      <c r="W64"/>
+      <c r="X64"/>
+      <c r="Y64"/>
+      <c r="Z64"/>
+      <c r="AA64"/>
+      <c r="AB64"/>
+      <c r="AC64"/>
+      <c r="AD64"/>
+    </row>
+    <row r="65" s="1" customFormat="1" spans="2:30">
+      <c r="B65"/>
+      <c r="C65"/>
+      <c r="E65"/>
+      <c r="F65"/>
+      <c r="G65"/>
+      <c r="H65"/>
+      <c r="I65"/>
+      <c r="J65"/>
+      <c r="K65"/>
+      <c r="L65"/>
+      <c r="M65"/>
+      <c r="N65"/>
+      <c r="O65"/>
+      <c r="P65"/>
+      <c r="Q65"/>
+      <c r="R65"/>
+      <c r="S65"/>
+      <c r="T65"/>
+      <c r="U65"/>
+      <c r="V65"/>
+      <c r="W65"/>
+      <c r="X65"/>
+      <c r="Y65"/>
+      <c r="Z65"/>
+      <c r="AA65"/>
+      <c r="AB65"/>
+      <c r="AC65"/>
+      <c r="AD65"/>
+    </row>
+    <row r="66" s="1" customFormat="1" spans="2:30">
+      <c r="B66"/>
+      <c r="C66"/>
+      <c r="E66"/>
+      <c r="F66"/>
+      <c r="G66"/>
+      <c r="H66"/>
+      <c r="I66"/>
+      <c r="J66"/>
+      <c r="K66"/>
+      <c r="L66"/>
+      <c r="M66"/>
+      <c r="N66"/>
+      <c r="O66"/>
+      <c r="P66"/>
+      <c r="Q66"/>
+      <c r="R66"/>
+      <c r="S66"/>
+      <c r="T66"/>
+      <c r="U66"/>
+      <c r="V66"/>
+      <c r="W66"/>
+      <c r="X66"/>
+      <c r="Y66"/>
+      <c r="Z66"/>
+      <c r="AA66"/>
+      <c r="AB66"/>
+      <c r="AC66"/>
+      <c r="AD66"/>
+    </row>
+    <row r="67" s="1" customFormat="1" spans="2:30">
+      <c r="B67"/>
+      <c r="C67"/>
+      <c r="D67"/>
+      <c r="E67"/>
+      <c r="F67"/>
+      <c r="G67"/>
+      <c r="H67"/>
+      <c r="I67"/>
+      <c r="J67"/>
+      <c r="K67"/>
+      <c r="L67"/>
+      <c r="M67"/>
+      <c r="N67"/>
+      <c r="O67"/>
+      <c r="P67"/>
+      <c r="Q67"/>
+      <c r="R67"/>
+      <c r="S67"/>
+      <c r="T67"/>
+      <c r="U67"/>
+      <c r="V67"/>
+      <c r="W67"/>
+      <c r="X67"/>
+      <c r="Y67"/>
+      <c r="Z67"/>
+      <c r="AA67"/>
+      <c r="AB67"/>
+      <c r="AC67"/>
+      <c r="AD67"/>
+    </row>
+    <row r="68" s="1" customFormat="1" spans="2:30">
+      <c r="B68"/>
+      <c r="C68"/>
+      <c r="D68"/>
+      <c r="E68"/>
+      <c r="F68"/>
+      <c r="G68"/>
+      <c r="H68"/>
+      <c r="I68"/>
+      <c r="J68"/>
+      <c r="K68"/>
+      <c r="L68"/>
+      <c r="M68"/>
+      <c r="N68"/>
+      <c r="O68"/>
+      <c r="P68"/>
+      <c r="Q68"/>
+      <c r="R68"/>
+      <c r="S68"/>
+      <c r="T68"/>
+      <c r="U68"/>
+      <c r="V68"/>
+      <c r="W68"/>
+      <c r="X68"/>
+      <c r="Y68"/>
+      <c r="Z68"/>
+      <c r="AA68"/>
+      <c r="AB68"/>
+      <c r="AC68"/>
+      <c r="AD68"/>
+    </row>
+    <row r="69" s="1" customFormat="1" spans="2:30">
+      <c r="B69"/>
+      <c r="C69"/>
+      <c r="D69"/>
+      <c r="E69"/>
+      <c r="F69"/>
+      <c r="G69"/>
+      <c r="H69"/>
+      <c r="I69"/>
+      <c r="J69"/>
+      <c r="K69"/>
+      <c r="L69"/>
+      <c r="M69"/>
+      <c r="N69"/>
+      <c r="O69"/>
+      <c r="P69"/>
+      <c r="Q69"/>
+      <c r="R69"/>
+      <c r="S69"/>
+      <c r="T69"/>
+      <c r="U69"/>
+      <c r="V69"/>
+      <c r="W69"/>
+      <c r="X69"/>
+      <c r="Y69"/>
+      <c r="Z69"/>
+      <c r="AA69"/>
+      <c r="AB69"/>
+      <c r="AC69"/>
+      <c r="AD69"/>
+    </row>
+    <row r="70" s="1" customFormat="1" spans="2:30">
+      <c r="B70"/>
+      <c r="C70"/>
+      <c r="D70"/>
+      <c r="E70"/>
+      <c r="F70"/>
+      <c r="G70"/>
+      <c r="H70"/>
+      <c r="I70"/>
+      <c r="J70"/>
+      <c r="K70"/>
+      <c r="L70"/>
+      <c r="M70"/>
+      <c r="N70"/>
+      <c r="O70"/>
+      <c r="P70"/>
+      <c r="Q70"/>
+      <c r="R70"/>
+      <c r="S70"/>
+      <c r="T70"/>
+      <c r="U70"/>
+      <c r="V70"/>
+      <c r="W70"/>
+      <c r="X70"/>
+      <c r="Y70"/>
+      <c r="Z70"/>
+      <c r="AA70"/>
+      <c r="AB70"/>
+      <c r="AC70"/>
+      <c r="AD70"/>
+    </row>
+    <row r="71" s="1" customFormat="1" spans="2:30">
+      <c r="B71"/>
+      <c r="C71"/>
+      <c r="E71"/>
+      <c r="F71"/>
+      <c r="G71"/>
+      <c r="H71"/>
+      <c r="I71"/>
+      <c r="J71"/>
+      <c r="K71"/>
+      <c r="L71"/>
+      <c r="M71"/>
+      <c r="N71"/>
+      <c r="O71"/>
+      <c r="P71"/>
+      <c r="Q71"/>
+      <c r="R71"/>
+      <c r="S71"/>
+      <c r="T71"/>
+      <c r="U71"/>
+      <c r="V71"/>
+      <c r="W71"/>
+      <c r="X71"/>
+      <c r="Y71"/>
+      <c r="Z71"/>
+      <c r="AA71"/>
+      <c r="AB71"/>
+      <c r="AC71"/>
+      <c r="AD71"/>
+    </row>
+    <row r="72" s="1" customFormat="1" spans="2:30">
+      <c r="B72"/>
+      <c r="C72"/>
+      <c r="E72"/>
+      <c r="F72"/>
+      <c r="G72"/>
+      <c r="H72"/>
+      <c r="I72"/>
+      <c r="J72"/>
+      <c r="K72"/>
+      <c r="L72"/>
+      <c r="M72"/>
+      <c r="N72"/>
+      <c r="O72"/>
+      <c r="P72"/>
+      <c r="Q72"/>
+      <c r="R72"/>
+      <c r="S72"/>
+      <c r="T72"/>
+      <c r="U72"/>
+      <c r="V72"/>
+      <c r="W72"/>
+      <c r="X72"/>
+      <c r="Y72"/>
+      <c r="Z72"/>
+      <c r="AA72"/>
+      <c r="AB72"/>
+      <c r="AC72"/>
+      <c r="AD72"/>
+    </row>
+    <row r="73" s="1" customFormat="1" spans="2:30">
+      <c r="B73"/>
+      <c r="C73"/>
+      <c r="D73"/>
+      <c r="E73"/>
+      <c r="F73"/>
+      <c r="G73"/>
+      <c r="H73"/>
+      <c r="I73"/>
+      <c r="J73"/>
+      <c r="K73"/>
+      <c r="L73"/>
+      <c r="M73"/>
+      <c r="N73"/>
+      <c r="O73"/>
+      <c r="P73"/>
+      <c r="Q73"/>
+      <c r="R73"/>
+      <c r="S73"/>
+      <c r="T73"/>
+      <c r="U73"/>
+      <c r="V73"/>
+      <c r="W73"/>
+      <c r="X73"/>
+      <c r="Y73"/>
+      <c r="Z73"/>
+      <c r="AA73"/>
+      <c r="AB73"/>
+      <c r="AC73"/>
+      <c r="AD73"/>
+    </row>
+    <row r="74" s="1" customFormat="1" spans="2:30">
+      <c r="B74"/>
+      <c r="C74"/>
+      <c r="D74"/>
+      <c r="E74"/>
+      <c r="F74"/>
+      <c r="G74"/>
+      <c r="H74"/>
+      <c r="I74"/>
+      <c r="J74"/>
+      <c r="K74"/>
+      <c r="L74"/>
+      <c r="M74"/>
+      <c r="N74"/>
+      <c r="O74"/>
+      <c r="P74"/>
+      <c r="Q74"/>
+      <c r="R74"/>
+      <c r="S74"/>
+      <c r="T74"/>
+      <c r="U74"/>
+      <c r="V74"/>
+      <c r="W74"/>
+      <c r="X74"/>
+      <c r="Y74"/>
+      <c r="Z74"/>
+      <c r="AA74"/>
+      <c r="AB74"/>
+      <c r="AC74"/>
+      <c r="AD74"/>
+    </row>
+    <row r="75" s="1" customFormat="1" spans="2:30">
+      <c r="B75"/>
+      <c r="C75"/>
+      <c r="D75"/>
+      <c r="E75"/>
+      <c r="F75"/>
+      <c r="G75"/>
+      <c r="H75"/>
+      <c r="I75"/>
+      <c r="J75"/>
+      <c r="K75"/>
+      <c r="L75"/>
+      <c r="M75"/>
+      <c r="N75"/>
+      <c r="O75"/>
+      <c r="P75"/>
+      <c r="Q75"/>
+      <c r="R75"/>
+      <c r="S75"/>
+      <c r="T75"/>
+      <c r="U75"/>
+      <c r="V75"/>
+      <c r="W75"/>
+      <c r="X75"/>
+      <c r="Y75"/>
+      <c r="Z75"/>
+      <c r="AA75"/>
+      <c r="AB75"/>
+      <c r="AC75"/>
+      <c r="AD75"/>
+    </row>
+    <row r="76" s="1" customFormat="1" spans="2:30">
+      <c r="B76"/>
+      <c r="C76"/>
+      <c r="D76"/>
+      <c r="E76"/>
+      <c r="F76"/>
+      <c r="G76"/>
+      <c r="H76"/>
+      <c r="I76"/>
+      <c r="J76"/>
+      <c r="K76"/>
+      <c r="L76"/>
+      <c r="M76"/>
+      <c r="N76"/>
+      <c r="O76"/>
+      <c r="P76"/>
+      <c r="Q76"/>
+      <c r="R76"/>
+      <c r="S76"/>
+      <c r="T76"/>
+      <c r="U76"/>
+      <c r="V76"/>
+      <c r="W76"/>
+      <c r="X76"/>
+      <c r="Y76"/>
+      <c r="Z76"/>
+      <c r="AA76"/>
+      <c r="AB76"/>
+      <c r="AC76"/>
+      <c r="AD76"/>
+    </row>
+    <row r="77" s="1" customFormat="1" spans="2:30">
+      <c r="B77"/>
+      <c r="C77"/>
+      <c r="D77"/>
+      <c r="E77"/>
+      <c r="F77"/>
+      <c r="G77"/>
+      <c r="H77"/>
+      <c r="I77"/>
+      <c r="J77"/>
+      <c r="K77"/>
+      <c r="L77"/>
+      <c r="M77"/>
+      <c r="N77"/>
+      <c r="O77"/>
+      <c r="P77"/>
+      <c r="Q77"/>
+      <c r="R77"/>
+      <c r="S77"/>
+      <c r="T77"/>
+      <c r="U77"/>
+      <c r="V77"/>
+      <c r="W77"/>
+      <c r="X77"/>
+      <c r="Y77"/>
+      <c r="Z77"/>
+      <c r="AA77"/>
+      <c r="AB77"/>
+      <c r="AC77"/>
+      <c r="AD77"/>
+    </row>
+    <row r="78" s="1" customFormat="1" spans="2:30">
+      <c r="B78"/>
+      <c r="C78"/>
+      <c r="D78"/>
+      <c r="E78"/>
+      <c r="F78"/>
+      <c r="G78"/>
+      <c r="H78"/>
+      <c r="I78"/>
+      <c r="J78"/>
+      <c r="K78"/>
+      <c r="L78"/>
+      <c r="M78"/>
+      <c r="N78"/>
+      <c r="O78"/>
+      <c r="P78"/>
+      <c r="Q78"/>
+      <c r="R78"/>
+      <c r="S78"/>
+      <c r="T78"/>
+      <c r="U78"/>
+      <c r="V78"/>
+      <c r="W78"/>
+      <c r="X78"/>
+      <c r="Y78"/>
+      <c r="Z78"/>
+      <c r="AA78"/>
+      <c r="AB78"/>
+      <c r="AC78"/>
+      <c r="AD78"/>
+    </row>
+    <row r="79" s="1" customFormat="1" spans="2:30">
+      <c r="B79"/>
+      <c r="C79"/>
+      <c r="D79"/>
+      <c r="E79"/>
+      <c r="F79"/>
+      <c r="G79"/>
+      <c r="H79"/>
+      <c r="I79"/>
+      <c r="J79"/>
+      <c r="K79"/>
+      <c r="L79"/>
+      <c r="M79"/>
+      <c r="N79"/>
+      <c r="O79"/>
+      <c r="P79"/>
+      <c r="Q79"/>
+      <c r="R79"/>
+      <c r="S79"/>
+      <c r="T79"/>
+      <c r="U79"/>
+      <c r="V79"/>
+      <c r="W79"/>
+      <c r="X79"/>
+      <c r="Y79"/>
+      <c r="Z79"/>
+      <c r="AA79"/>
+      <c r="AB79"/>
+      <c r="AC79"/>
+      <c r="AD79"/>
+    </row>
+    <row r="80" s="1" customFormat="1" spans="2:30">
+      <c r="B80"/>
+      <c r="C80"/>
+      <c r="D80"/>
+      <c r="E80"/>
+      <c r="F80"/>
+      <c r="G80"/>
+      <c r="H80"/>
+      <c r="I80"/>
+      <c r="J80"/>
+      <c r="K80"/>
+      <c r="L80"/>
+      <c r="M80"/>
+      <c r="N80"/>
+      <c r="O80"/>
+      <c r="P80"/>
+      <c r="Q80"/>
+      <c r="R80"/>
+      <c r="S80"/>
+      <c r="T80"/>
+      <c r="U80"/>
+      <c r="V80"/>
+      <c r="W80"/>
+      <c r="X80"/>
+      <c r="Y80"/>
+      <c r="Z80"/>
+      <c r="AA80"/>
+      <c r="AB80"/>
+      <c r="AC80"/>
+      <c r="AD80"/>
+    </row>
+    <row r="81" s="1" customFormat="1" spans="2:30">
+      <c r="B81"/>
+      <c r="C81"/>
+      <c r="D81"/>
+      <c r="E81"/>
+      <c r="F81"/>
+      <c r="G81"/>
+      <c r="H81"/>
+      <c r="I81"/>
+      <c r="J81"/>
+      <c r="K81"/>
+      <c r="L81"/>
+      <c r="M81"/>
+      <c r="N81"/>
+      <c r="O81"/>
+      <c r="P81"/>
+      <c r="Q81"/>
+      <c r="S81" s="2"/>
+      <c r="X81"/>
+      <c r="Y81"/>
+      <c r="Z81"/>
+      <c r="AA81"/>
+      <c r="AB81"/>
+      <c r="AC81"/>
+      <c r="AD81"/>
+    </row>
+    <row r="82" s="1" customFormat="1" spans="2:30">
+      <c r="B82"/>
+      <c r="C82"/>
+      <c r="D82"/>
+      <c r="E82"/>
+      <c r="F82"/>
+      <c r="G82"/>
+      <c r="H82"/>
+      <c r="I82"/>
+      <c r="J82"/>
+      <c r="K82"/>
+      <c r="L82"/>
+      <c r="M82"/>
+      <c r="N82"/>
+      <c r="O82"/>
+      <c r="P82"/>
+      <c r="Q82"/>
+      <c r="S82" s="2"/>
+      <c r="V82" s="4"/>
+      <c r="X82"/>
+      <c r="Y82"/>
+      <c r="Z82"/>
+      <c r="AA82"/>
+      <c r="AB82"/>
+      <c r="AC82"/>
+      <c r="AD82"/>
+    </row>
+    <row r="83" s="1" customFormat="1" spans="2:30">
+      <c r="B83"/>
+      <c r="C83"/>
+      <c r="D83"/>
+      <c r="E83"/>
+      <c r="F83"/>
+      <c r="G83"/>
+      <c r="H83"/>
+      <c r="I83"/>
+      <c r="J83"/>
+      <c r="K83"/>
+      <c r="L83"/>
+      <c r="M83"/>
+      <c r="N83"/>
+      <c r="O83"/>
+      <c r="P83"/>
+      <c r="Q83"/>
+      <c r="R83"/>
+      <c r="S83"/>
+      <c r="T83"/>
+      <c r="U83"/>
+      <c r="V83"/>
+      <c r="W83"/>
+      <c r="X83"/>
+      <c r="Y83"/>
+      <c r="Z83"/>
+      <c r="AA83"/>
+      <c r="AB83"/>
+      <c r="AC83"/>
+      <c r="AD83"/>
+    </row>
+    <row r="84" s="1" customFormat="1" spans="2:30">
+      <c r="B84"/>
+      <c r="C84"/>
+      <c r="D84"/>
+      <c r="E84"/>
+      <c r="F84"/>
+      <c r="G84"/>
+      <c r="H84"/>
+      <c r="I84"/>
+      <c r="J84"/>
+      <c r="K84"/>
+      <c r="L84"/>
+      <c r="M84"/>
+      <c r="N84"/>
+      <c r="O84"/>
+      <c r="P84"/>
+      <c r="Q84"/>
+      <c r="R84"/>
+      <c r="S84"/>
+      <c r="T84"/>
+      <c r="U84"/>
+      <c r="V84"/>
+      <c r="W84"/>
+      <c r="X84"/>
+      <c r="Y84"/>
+      <c r="Z84"/>
+      <c r="AA84"/>
+      <c r="AB84"/>
+      <c r="AC84"/>
+      <c r="AD84"/>
+    </row>
+    <row r="85" s="1" customFormat="1" spans="2:30">
+      <c r="B85"/>
+      <c r="C85"/>
+      <c r="D85"/>
+      <c r="E85"/>
+      <c r="F85"/>
+      <c r="G85"/>
+      <c r="H85"/>
+      <c r="I85"/>
+      <c r="J85"/>
+      <c r="K85"/>
+      <c r="L85"/>
+      <c r="M85"/>
+      <c r="N85"/>
+      <c r="O85"/>
+      <c r="P85"/>
+      <c r="Q85"/>
+      <c r="R85"/>
+      <c r="S85"/>
+      <c r="T85"/>
+      <c r="U85"/>
+      <c r="V85"/>
+      <c r="W85"/>
+      <c r="X85"/>
+      <c r="Y85"/>
+      <c r="Z85"/>
+      <c r="AA85"/>
+      <c r="AB85"/>
+      <c r="AC85"/>
+      <c r="AD85"/>
+    </row>
+    <row r="86" s="1" customFormat="1" spans="2:30">
+      <c r="B86"/>
+      <c r="C86"/>
+      <c r="D86"/>
+      <c r="E86"/>
+      <c r="F86"/>
+      <c r="G86"/>
+      <c r="H86"/>
+      <c r="I86"/>
+      <c r="J86"/>
+      <c r="K86"/>
+      <c r="L86"/>
+      <c r="M86"/>
+      <c r="N86"/>
+      <c r="O86"/>
+      <c r="P86"/>
+      <c r="Q86"/>
+      <c r="R86"/>
+      <c r="S86"/>
+      <c r="T86"/>
+      <c r="U86"/>
+      <c r="V86"/>
+      <c r="W86"/>
+      <c r="X86"/>
+      <c r="Y86"/>
+      <c r="Z86"/>
+      <c r="AA86"/>
+      <c r="AB86"/>
+      <c r="AC86"/>
+      <c r="AD86"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:AE86"/>
+  <sheetViews>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="N13" sqref="N13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="4.875" defaultRowHeight="13.5"/>
+  <cols>
+    <col min="1" max="16384" width="4.875" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" s="1" customFormat="1" ht="22.5" spans="9:31">
+      <c r="I1" s="3"/>
+      <c r="J1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="V1" s="2"/>
+      <c r="W1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="X1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="Y1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="Z1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="AA1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="AE1" s="2"/>
+    </row>
+    <row r="2" s="1" customFormat="1" spans="23:27">
+      <c r="W2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="X2" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="Y2" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="Z2" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="AA2" s="4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" s="1" customFormat="1" spans="1:1">
+      <c r="A3" s="1" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="4" spans="2:2">
+      <c r="B4" s="1" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="5" s="1" customFormat="1" spans="2:31">
+      <c r="B5" s="1" t="s">
+        <v>219</v>
+      </c>
+      <c r="V5" s="2"/>
+      <c r="X5" s="2"/>
+      <c r="AE5" s="2"/>
+    </row>
+    <row r="6" s="1" customFormat="1" spans="24:27">
+      <c r="X6" s="2"/>
+      <c r="AA6" s="4"/>
+    </row>
+    <row r="14" s="1" customFormat="1" spans="5:5">
+      <c r="E14" s="2"/>
+    </row>
+    <row r="15" s="1" customFormat="1" spans="5:5">
+      <c r="E15" s="2"/>
+    </row>
+    <row r="25" s="1" customFormat="1" spans="17:30">
+      <c r="Q25"/>
+      <c r="R25"/>
+      <c r="S25"/>
+      <c r="T25"/>
+      <c r="U25"/>
+      <c r="V25"/>
+      <c r="W25"/>
+      <c r="X25"/>
+      <c r="Y25"/>
+      <c r="Z25"/>
+      <c r="AA25"/>
+      <c r="AB25"/>
+      <c r="AC25"/>
+      <c r="AD25"/>
+    </row>
+    <row r="26" s="1" customFormat="1" spans="17:30">
+      <c r="Q26"/>
+      <c r="R26"/>
+      <c r="S26"/>
+      <c r="T26"/>
+      <c r="U26"/>
+      <c r="V26"/>
+      <c r="W26"/>
+      <c r="X26"/>
+      <c r="Y26"/>
+      <c r="Z26"/>
+      <c r="AA26"/>
+      <c r="AB26"/>
+      <c r="AC26"/>
+      <c r="AD26"/>
+    </row>
+    <row r="27" s="1" customFormat="1" spans="17:30">
+      <c r="Q27"/>
+      <c r="R27"/>
+      <c r="S27"/>
+      <c r="T27"/>
+      <c r="U27"/>
+      <c r="V27"/>
+      <c r="W27"/>
+      <c r="X27"/>
+      <c r="Y27"/>
+      <c r="Z27"/>
+      <c r="AA27"/>
+      <c r="AB27"/>
+      <c r="AC27"/>
+      <c r="AD27"/>
+    </row>
+    <row r="28" s="1" customFormat="1" spans="2:30">
+      <c r="B28"/>
+      <c r="C28"/>
+      <c r="D28"/>
+      <c r="E28"/>
+      <c r="F28"/>
+      <c r="G28"/>
+      <c r="H28"/>
+      <c r="I28"/>
+      <c r="J28"/>
+      <c r="K28"/>
+      <c r="L28"/>
+      <c r="M28"/>
+      <c r="N28"/>
+      <c r="O28"/>
+      <c r="P28"/>
+      <c r="Q28"/>
+      <c r="R28"/>
+      <c r="S28"/>
+      <c r="T28"/>
+      <c r="U28"/>
+      <c r="V28"/>
+      <c r="W28"/>
+      <c r="X28"/>
+      <c r="Y28"/>
+      <c r="Z28"/>
+      <c r="AA28"/>
+      <c r="AB28"/>
+      <c r="AC28"/>
+      <c r="AD28"/>
+    </row>
+    <row r="29" s="1" customFormat="1" spans="12:30">
+      <c r="L29"/>
+      <c r="M29"/>
+      <c r="N29"/>
+      <c r="O29"/>
+      <c r="P29"/>
+      <c r="Q29"/>
+      <c r="R29"/>
+      <c r="S29"/>
+      <c r="T29"/>
+      <c r="U29"/>
+      <c r="V29"/>
+      <c r="W29"/>
+      <c r="X29"/>
+      <c r="Y29"/>
+      <c r="Z29"/>
+      <c r="AA29"/>
+      <c r="AB29"/>
+      <c r="AC29"/>
+      <c r="AD29"/>
+    </row>
+    <row r="30" s="1" customFormat="1" spans="2:30">
+      <c r="B30"/>
+      <c r="C30"/>
+      <c r="E30"/>
+      <c r="F30"/>
+      <c r="G30"/>
+      <c r="H30"/>
+      <c r="I30"/>
+      <c r="J30"/>
+      <c r="K30"/>
+      <c r="L30"/>
+      <c r="M30"/>
+      <c r="N30"/>
+      <c r="O30"/>
+      <c r="P30"/>
+      <c r="Q30"/>
+      <c r="R30"/>
+      <c r="S30"/>
+      <c r="T30"/>
+      <c r="U30"/>
+      <c r="V30"/>
+      <c r="W30"/>
+      <c r="X30"/>
+      <c r="Y30"/>
+      <c r="Z30"/>
+      <c r="AA30"/>
+      <c r="AB30"/>
+      <c r="AC30"/>
+      <c r="AD30"/>
+    </row>
+    <row r="31" s="1" customFormat="1" spans="2:30">
+      <c r="B31"/>
+      <c r="C31"/>
+      <c r="D31"/>
+      <c r="E31"/>
+      <c r="F31"/>
+      <c r="G31"/>
+      <c r="H31"/>
+      <c r="I31"/>
+      <c r="J31"/>
+      <c r="K31"/>
+      <c r="L31"/>
+      <c r="M31"/>
+      <c r="N31"/>
+      <c r="O31"/>
+      <c r="P31"/>
+      <c r="Q31"/>
+      <c r="R31"/>
+      <c r="S31"/>
+      <c r="T31"/>
+      <c r="U31"/>
+      <c r="V31"/>
+      <c r="W31"/>
+      <c r="X31"/>
+      <c r="Y31"/>
+      <c r="Z31"/>
+      <c r="AA31"/>
+      <c r="AB31"/>
+      <c r="AC31"/>
+      <c r="AD31"/>
+    </row>
+    <row r="32" s="1" customFormat="1" spans="2:30">
+      <c r="B32"/>
+      <c r="C32"/>
+      <c r="E32"/>
+      <c r="F32"/>
+      <c r="G32"/>
+      <c r="H32"/>
+      <c r="I32"/>
+      <c r="J32"/>
+      <c r="K32"/>
+      <c r="L32"/>
+      <c r="M32"/>
+      <c r="N32"/>
+      <c r="O32"/>
+      <c r="P32"/>
+      <c r="Q32"/>
+      <c r="R32"/>
+      <c r="S32"/>
+      <c r="T32"/>
+      <c r="U32"/>
+      <c r="V32"/>
+      <c r="W32"/>
+      <c r="X32"/>
+      <c r="Y32"/>
+      <c r="Z32"/>
+      <c r="AA32"/>
+      <c r="AB32"/>
+      <c r="AC32"/>
+      <c r="AD32"/>
+    </row>
+    <row r="33" s="1" customFormat="1" spans="2:30">
+      <c r="B33"/>
+      <c r="C33"/>
+      <c r="D33"/>
+      <c r="E33"/>
+      <c r="F33"/>
+      <c r="G33"/>
+      <c r="H33"/>
+      <c r="I33"/>
+      <c r="J33"/>
+      <c r="K33"/>
+      <c r="L33"/>
+      <c r="M33"/>
+      <c r="N33"/>
+      <c r="O33"/>
+      <c r="P33"/>
+      <c r="Q33"/>
+      <c r="R33"/>
+      <c r="S33"/>
+      <c r="T33"/>
+      <c r="U33"/>
+      <c r="V33"/>
+      <c r="W33"/>
+      <c r="X33"/>
+      <c r="Y33"/>
+      <c r="Z33"/>
+      <c r="AA33"/>
+      <c r="AB33"/>
+      <c r="AC33"/>
+      <c r="AD33"/>
+    </row>
+    <row r="34" s="1" customFormat="1" spans="2:30">
+      <c r="B34"/>
+      <c r="C34"/>
+      <c r="E34"/>
+      <c r="F34"/>
+      <c r="G34"/>
+      <c r="H34"/>
+      <c r="I34"/>
+      <c r="J34"/>
+      <c r="K34"/>
+      <c r="L34"/>
+      <c r="M34"/>
+      <c r="N34"/>
+      <c r="O34"/>
+      <c r="P34"/>
+      <c r="Q34"/>
+      <c r="R34"/>
+      <c r="S34"/>
+      <c r="T34"/>
+      <c r="U34"/>
+      <c r="V34"/>
+      <c r="W34"/>
+      <c r="X34"/>
+      <c r="Y34"/>
+      <c r="Z34"/>
+      <c r="AA34"/>
+      <c r="AB34"/>
+      <c r="AC34"/>
+      <c r="AD34"/>
+    </row>
+    <row r="35" s="1" customFormat="1" spans="2:30">
+      <c r="B35"/>
+      <c r="C35"/>
+      <c r="E35"/>
+      <c r="F35"/>
+      <c r="G35"/>
+      <c r="H35"/>
+      <c r="I35"/>
+      <c r="J35"/>
+      <c r="K35"/>
+      <c r="L35"/>
+      <c r="M35"/>
+      <c r="N35"/>
+      <c r="O35"/>
+      <c r="P35"/>
+      <c r="Q35"/>
+      <c r="R35"/>
+      <c r="S35"/>
+      <c r="T35"/>
+      <c r="U35"/>
+      <c r="V35"/>
+      <c r="W35"/>
+      <c r="X35"/>
+      <c r="Y35"/>
+      <c r="Z35"/>
+      <c r="AA35"/>
+      <c r="AB35"/>
+      <c r="AC35"/>
+      <c r="AD35"/>
+    </row>
+    <row r="36" s="1" customFormat="1" spans="2:30">
+      <c r="B36"/>
+      <c r="C36"/>
+      <c r="D36"/>
+      <c r="E36"/>
+      <c r="F36"/>
+      <c r="G36"/>
+      <c r="H36"/>
+      <c r="I36"/>
+      <c r="J36"/>
+      <c r="K36"/>
+      <c r="L36"/>
+      <c r="M36"/>
+      <c r="N36"/>
+      <c r="O36"/>
+      <c r="P36"/>
+      <c r="Q36"/>
+      <c r="R36"/>
+      <c r="S36"/>
+      <c r="T36"/>
+      <c r="U36"/>
+      <c r="V36"/>
+      <c r="W36"/>
+      <c r="X36"/>
+      <c r="Y36"/>
+      <c r="Z36"/>
+      <c r="AA36"/>
+      <c r="AB36"/>
+      <c r="AC36"/>
+      <c r="AD36"/>
+    </row>
+    <row r="37" s="1" customFormat="1" spans="2:30">
+      <c r="B37"/>
+      <c r="C37"/>
+      <c r="D37" s="2"/>
+      <c r="E37"/>
+      <c r="F37"/>
+      <c r="G37"/>
+      <c r="H37"/>
+      <c r="I37"/>
+      <c r="J37"/>
+      <c r="K37"/>
+      <c r="L37"/>
+      <c r="M37"/>
+      <c r="N37"/>
+      <c r="O37"/>
+      <c r="P37"/>
+      <c r="Q37"/>
+      <c r="Y37"/>
+      <c r="Z37"/>
+      <c r="AA37"/>
+      <c r="AB37"/>
+      <c r="AC37"/>
+      <c r="AD37"/>
+    </row>
+    <row r="38" s="1" customFormat="1" spans="2:30">
+      <c r="B38"/>
+      <c r="C38"/>
+      <c r="E38"/>
+      <c r="F38"/>
+      <c r="G38"/>
+      <c r="H38"/>
+      <c r="I38"/>
+      <c r="J38"/>
+      <c r="K38"/>
+      <c r="L38"/>
+      <c r="M38"/>
+      <c r="N38"/>
+      <c r="O38"/>
+      <c r="P38"/>
+      <c r="Q38"/>
+      <c r="Y38"/>
+      <c r="Z38"/>
+      <c r="AA38"/>
+      <c r="AB38"/>
+      <c r="AC38"/>
+      <c r="AD38"/>
+    </row>
+    <row r="39" s="1" customFormat="1" spans="2:30">
+      <c r="B39"/>
+      <c r="C39"/>
+      <c r="E39"/>
+      <c r="F39"/>
+      <c r="G39"/>
+      <c r="H39"/>
+      <c r="I39"/>
+      <c r="J39"/>
+      <c r="K39"/>
+      <c r="L39"/>
+      <c r="M39"/>
+      <c r="N39"/>
+      <c r="O39"/>
+      <c r="P39"/>
+      <c r="Q39"/>
+      <c r="R39"/>
+      <c r="S39"/>
+      <c r="T39"/>
+      <c r="U39"/>
+      <c r="V39"/>
+      <c r="W39"/>
+      <c r="X39"/>
+      <c r="Y39"/>
+      <c r="Z39"/>
+      <c r="AA39"/>
+      <c r="AB39"/>
+      <c r="AC39"/>
+      <c r="AD39"/>
+    </row>
+    <row r="40" s="1" customFormat="1" spans="2:30">
+      <c r="B40"/>
+      <c r="C40"/>
+      <c r="G40"/>
+      <c r="H40"/>
+      <c r="I40"/>
+      <c r="J40"/>
+      <c r="K40"/>
+      <c r="L40"/>
+      <c r="M40"/>
+      <c r="N40"/>
+      <c r="O40"/>
+      <c r="P40"/>
+      <c r="Q40"/>
+      <c r="R40"/>
+      <c r="S40"/>
+      <c r="T40"/>
+      <c r="U40"/>
+      <c r="V40"/>
+      <c r="W40"/>
+      <c r="X40"/>
+      <c r="Y40"/>
+      <c r="Z40"/>
+      <c r="AA40"/>
+      <c r="AB40"/>
+      <c r="AC40"/>
+      <c r="AD40"/>
+    </row>
+    <row r="41" s="1" customFormat="1" spans="2:30">
+      <c r="B41"/>
+      <c r="C41"/>
+      <c r="G41"/>
+      <c r="H41"/>
+      <c r="I41"/>
+      <c r="J41"/>
+      <c r="K41"/>
+      <c r="L41"/>
+      <c r="M41"/>
+      <c r="N41"/>
+      <c r="O41"/>
+      <c r="P41"/>
+      <c r="Q41"/>
+      <c r="R41"/>
+      <c r="S41"/>
+      <c r="T41"/>
+      <c r="U41"/>
+      <c r="V41"/>
+      <c r="W41"/>
+      <c r="X41"/>
+      <c r="Y41"/>
+      <c r="Z41"/>
+      <c r="AA41"/>
+      <c r="AB41"/>
+      <c r="AC41"/>
+      <c r="AD41"/>
+    </row>
+    <row r="42" s="1" customFormat="1" spans="2:30">
+      <c r="B42"/>
+      <c r="C42"/>
+      <c r="D42" s="2"/>
+      <c r="E42"/>
+      <c r="F42"/>
+      <c r="G42"/>
+      <c r="H42"/>
+      <c r="I42"/>
+      <c r="J42"/>
+      <c r="K42"/>
+      <c r="L42"/>
+      <c r="M42"/>
+      <c r="N42"/>
+      <c r="O42"/>
+      <c r="P42"/>
+      <c r="Q42"/>
+      <c r="R42"/>
+      <c r="S42"/>
+      <c r="T42"/>
+      <c r="U42"/>
+      <c r="V42"/>
+      <c r="W42"/>
+      <c r="X42"/>
+      <c r="Y42"/>
+      <c r="Z42"/>
+      <c r="AA42"/>
+      <c r="AB42"/>
+      <c r="AC42"/>
+      <c r="AD42"/>
+    </row>
+    <row r="43" s="1" customFormat="1" spans="2:30">
+      <c r="B43"/>
+      <c r="C43"/>
+      <c r="D43" s="2"/>
+      <c r="E43"/>
+      <c r="F43"/>
+      <c r="G43"/>
+      <c r="H43"/>
+      <c r="I43"/>
+      <c r="J43"/>
+      <c r="K43"/>
+      <c r="L43"/>
+      <c r="M43"/>
+      <c r="N43"/>
+      <c r="O43"/>
+      <c r="P43"/>
+      <c r="Q43"/>
+      <c r="R43"/>
+      <c r="S43"/>
+      <c r="T43"/>
+      <c r="U43"/>
+      <c r="V43"/>
+      <c r="W43"/>
+      <c r="X43"/>
+      <c r="Y43"/>
+      <c r="Z43"/>
+      <c r="AA43"/>
+      <c r="AB43"/>
+      <c r="AC43"/>
+      <c r="AD43"/>
+    </row>
+    <row r="44" s="1" customFormat="1" spans="2:30">
+      <c r="B44"/>
+      <c r="C44"/>
+      <c r="D44"/>
+      <c r="E44"/>
+      <c r="F44"/>
+      <c r="G44"/>
+      <c r="H44"/>
+      <c r="I44"/>
+      <c r="J44"/>
+      <c r="K44"/>
+      <c r="L44"/>
+      <c r="M44"/>
+      <c r="N44"/>
+      <c r="O44"/>
+      <c r="P44"/>
+      <c r="Q44"/>
+      <c r="R44"/>
+      <c r="S44"/>
+      <c r="T44"/>
+      <c r="U44"/>
+      <c r="V44"/>
+      <c r="W44"/>
+      <c r="X44"/>
+      <c r="Y44"/>
+      <c r="Z44"/>
+      <c r="AA44"/>
+      <c r="AB44"/>
+      <c r="AC44"/>
+      <c r="AD44"/>
+    </row>
+    <row r="45" s="1" customFormat="1" spans="2:30">
+      <c r="B45"/>
+      <c r="C45"/>
+      <c r="D45"/>
+      <c r="E45"/>
+      <c r="F45"/>
+      <c r="G45"/>
+      <c r="H45"/>
+      <c r="I45"/>
+      <c r="J45"/>
+      <c r="K45"/>
+      <c r="L45"/>
+      <c r="M45"/>
+      <c r="N45"/>
+      <c r="O45"/>
+      <c r="P45"/>
+      <c r="Q45"/>
+      <c r="R45"/>
+      <c r="S45"/>
+      <c r="T45"/>
+      <c r="U45"/>
+      <c r="V45"/>
+      <c r="W45"/>
+      <c r="X45"/>
+      <c r="Y45"/>
+      <c r="Z45"/>
+      <c r="AA45"/>
+      <c r="AB45"/>
+      <c r="AC45"/>
+      <c r="AD45"/>
+    </row>
+    <row r="46" s="1" customFormat="1" spans="2:30">
+      <c r="B46"/>
+      <c r="C46"/>
+      <c r="D46"/>
+      <c r="E46"/>
+      <c r="F46"/>
+      <c r="G46"/>
+      <c r="H46"/>
+      <c r="I46"/>
+      <c r="J46"/>
+      <c r="K46"/>
+      <c r="L46"/>
+      <c r="M46"/>
+      <c r="N46"/>
+      <c r="O46"/>
+      <c r="P46"/>
+      <c r="Q46"/>
+      <c r="R46"/>
+      <c r="S46"/>
+      <c r="T46"/>
+      <c r="U46"/>
+      <c r="V46"/>
+      <c r="W46"/>
+      <c r="X46"/>
+      <c r="Y46"/>
+      <c r="Z46"/>
+      <c r="AA46"/>
+      <c r="AB46"/>
+      <c r="AC46"/>
+      <c r="AD46"/>
+    </row>
+    <row r="47" s="1" customFormat="1" spans="2:30">
+      <c r="B47"/>
+      <c r="C47"/>
+      <c r="D47"/>
+      <c r="E47"/>
+      <c r="F47"/>
+      <c r="G47"/>
+      <c r="H47"/>
+      <c r="I47"/>
+      <c r="J47"/>
+      <c r="K47"/>
+      <c r="L47"/>
+      <c r="M47"/>
+      <c r="N47"/>
+      <c r="O47"/>
+      <c r="P47"/>
+      <c r="Q47"/>
+      <c r="R47"/>
+      <c r="S47"/>
+      <c r="T47"/>
+      <c r="U47"/>
+      <c r="V47"/>
+      <c r="W47"/>
+      <c r="X47"/>
+      <c r="Y47"/>
+      <c r="Z47"/>
+      <c r="AA47"/>
+      <c r="AB47"/>
+      <c r="AC47"/>
+      <c r="AD47"/>
+    </row>
+    <row r="48" s="1" customFormat="1" spans="2:30">
+      <c r="B48"/>
+      <c r="C48"/>
+      <c r="D48"/>
+      <c r="E48"/>
+      <c r="F48"/>
+      <c r="G48"/>
+      <c r="H48"/>
+      <c r="I48"/>
+      <c r="J48"/>
+      <c r="K48"/>
+      <c r="L48"/>
+      <c r="M48"/>
+      <c r="N48"/>
+      <c r="O48"/>
+      <c r="P48"/>
+      <c r="Q48"/>
+      <c r="R48"/>
+      <c r="S48"/>
+      <c r="T48"/>
+      <c r="U48"/>
+      <c r="V48"/>
+      <c r="W48"/>
+      <c r="X48"/>
+      <c r="Y48"/>
+      <c r="Z48"/>
+      <c r="AA48"/>
+      <c r="AB48"/>
+      <c r="AC48"/>
+      <c r="AD48"/>
+    </row>
+    <row r="49" s="1" customFormat="1" spans="2:30">
+      <c r="B49"/>
+      <c r="C49"/>
+      <c r="D49"/>
+      <c r="E49"/>
+      <c r="F49"/>
+      <c r="G49"/>
+      <c r="H49"/>
+      <c r="I49"/>
+      <c r="J49"/>
+      <c r="K49"/>
+      <c r="L49"/>
+      <c r="M49"/>
+      <c r="N49"/>
+      <c r="O49"/>
+      <c r="P49"/>
+      <c r="Q49"/>
+      <c r="R49"/>
+      <c r="S49"/>
+      <c r="T49"/>
+      <c r="U49"/>
+      <c r="V49"/>
+      <c r="W49"/>
+      <c r="X49"/>
+      <c r="Y49"/>
+      <c r="Z49"/>
+      <c r="AA49"/>
+      <c r="AB49"/>
+      <c r="AC49"/>
+      <c r="AD49"/>
+    </row>
+    <row r="50" s="1" customFormat="1" spans="2:30">
+      <c r="B50"/>
+      <c r="C50"/>
+      <c r="D50"/>
+      <c r="E50"/>
+      <c r="F50"/>
+      <c r="G50"/>
+      <c r="H50"/>
+      <c r="I50"/>
+      <c r="J50"/>
+      <c r="K50"/>
+      <c r="L50"/>
+      <c r="M50"/>
+      <c r="N50"/>
+      <c r="O50"/>
+      <c r="P50"/>
+      <c r="Q50"/>
+      <c r="R50"/>
+      <c r="S50"/>
+      <c r="T50"/>
+      <c r="U50"/>
+      <c r="V50"/>
+      <c r="W50"/>
+      <c r="X50"/>
+      <c r="Y50"/>
+      <c r="Z50"/>
+      <c r="AA50"/>
+      <c r="AB50"/>
+      <c r="AC50"/>
+      <c r="AD50"/>
+    </row>
+    <row r="51" s="1" customFormat="1" spans="2:30">
+      <c r="B51"/>
+      <c r="C51"/>
+      <c r="D51"/>
+      <c r="E51"/>
+      <c r="F51"/>
+      <c r="G51"/>
+      <c r="H51"/>
+      <c r="I51"/>
+      <c r="J51"/>
+      <c r="K51"/>
+      <c r="L51"/>
+      <c r="M51"/>
+      <c r="N51"/>
+      <c r="O51"/>
+      <c r="P51"/>
+      <c r="Q51"/>
+      <c r="R51"/>
+      <c r="S51"/>
+      <c r="T51"/>
+      <c r="U51"/>
+      <c r="V51"/>
+      <c r="W51"/>
+      <c r="X51"/>
+      <c r="Y51"/>
+      <c r="Z51"/>
+      <c r="AA51"/>
+      <c r="AB51"/>
+      <c r="AC51"/>
+      <c r="AD51"/>
+    </row>
+    <row r="52" s="1" customFormat="1" spans="2:30">
+      <c r="B52"/>
+      <c r="C52"/>
+      <c r="D52"/>
+      <c r="E52"/>
+      <c r="F52"/>
+      <c r="G52"/>
+      <c r="H52"/>
+      <c r="I52"/>
+      <c r="J52"/>
+      <c r="K52"/>
+      <c r="L52"/>
+      <c r="M52"/>
+      <c r="N52"/>
+      <c r="O52"/>
+      <c r="P52"/>
+      <c r="Q52"/>
+      <c r="R52"/>
+      <c r="S52"/>
+      <c r="T52"/>
+      <c r="U52"/>
+      <c r="V52"/>
+      <c r="W52"/>
+      <c r="X52"/>
+      <c r="Y52"/>
+      <c r="Z52"/>
+      <c r="AA52"/>
+      <c r="AB52"/>
+      <c r="AC52"/>
+      <c r="AD52"/>
+    </row>
+    <row r="53" s="1" customFormat="1" spans="2:30">
+      <c r="B53"/>
+      <c r="C53"/>
+      <c r="D53"/>
+      <c r="E53"/>
+      <c r="F53"/>
+      <c r="G53"/>
+      <c r="H53"/>
+      <c r="I53"/>
+      <c r="J53"/>
+      <c r="K53"/>
+      <c r="L53"/>
+      <c r="M53"/>
+      <c r="N53"/>
+      <c r="O53"/>
+      <c r="P53"/>
+      <c r="Q53"/>
+      <c r="R53"/>
+      <c r="S53"/>
+      <c r="T53"/>
+      <c r="V53" s="2"/>
+      <c r="AB53"/>
+      <c r="AC53"/>
+      <c r="AD53"/>
+    </row>
+    <row r="54" s="1" customFormat="1" spans="2:30">
+      <c r="B54"/>
+      <c r="C54"/>
+      <c r="D54"/>
+      <c r="E54"/>
+      <c r="F54"/>
+      <c r="G54"/>
+      <c r="H54"/>
+      <c r="I54"/>
+      <c r="J54"/>
+      <c r="K54"/>
+      <c r="L54"/>
+      <c r="M54"/>
+      <c r="N54"/>
+      <c r="O54"/>
+      <c r="P54"/>
+      <c r="Q54"/>
+      <c r="R54"/>
+      <c r="S54"/>
+      <c r="T54"/>
+      <c r="V54" s="2"/>
+      <c r="Y54" s="4"/>
+      <c r="AB54"/>
+      <c r="AC54"/>
+      <c r="AD54"/>
+    </row>
+    <row r="55" s="1" customFormat="1" spans="2:30">
+      <c r="B55"/>
+      <c r="C55"/>
+      <c r="D55"/>
+      <c r="E55"/>
+      <c r="F55"/>
+      <c r="G55"/>
+      <c r="H55"/>
+      <c r="I55"/>
+      <c r="J55"/>
+      <c r="K55"/>
+      <c r="L55"/>
+      <c r="M55"/>
+      <c r="N55"/>
+      <c r="O55"/>
+      <c r="P55"/>
+      <c r="Q55"/>
+      <c r="R55"/>
+      <c r="S55"/>
+      <c r="T55"/>
+      <c r="U55"/>
+      <c r="V55"/>
+      <c r="W55"/>
+      <c r="X55"/>
+      <c r="Y55"/>
+      <c r="Z55"/>
+      <c r="AA55"/>
+      <c r="AB55"/>
+      <c r="AC55"/>
+      <c r="AD55"/>
+    </row>
+    <row r="56" s="1" customFormat="1" spans="2:30">
+      <c r="B56"/>
+      <c r="C56"/>
+      <c r="D56"/>
+      <c r="E56"/>
+      <c r="F56"/>
+      <c r="G56"/>
+      <c r="H56"/>
+      <c r="I56"/>
+      <c r="J56"/>
+      <c r="K56"/>
+      <c r="L56"/>
+      <c r="M56"/>
+      <c r="N56"/>
+      <c r="O56"/>
+      <c r="P56"/>
+      <c r="Q56"/>
+      <c r="R56"/>
+      <c r="S56"/>
+      <c r="T56"/>
+      <c r="U56"/>
+      <c r="V56"/>
+      <c r="W56"/>
+      <c r="X56"/>
+      <c r="Y56"/>
+      <c r="Z56"/>
+      <c r="AA56"/>
+      <c r="AB56"/>
+      <c r="AC56"/>
+      <c r="AD56"/>
+    </row>
+    <row r="57" s="1" customFormat="1" spans="2:30">
+      <c r="B57"/>
+      <c r="C57"/>
+      <c r="D57"/>
+      <c r="E57"/>
+      <c r="F57"/>
+      <c r="G57"/>
+      <c r="H57"/>
+      <c r="I57"/>
+      <c r="J57"/>
+      <c r="K57"/>
+      <c r="L57"/>
+      <c r="M57"/>
+      <c r="N57"/>
+      <c r="O57"/>
+      <c r="P57"/>
+      <c r="Q57"/>
+      <c r="R57"/>
+      <c r="S57"/>
+      <c r="T57"/>
+      <c r="U57"/>
+      <c r="V57"/>
+      <c r="W57"/>
+      <c r="X57"/>
+      <c r="Y57"/>
+      <c r="Z57"/>
+      <c r="AA57"/>
+      <c r="AB57"/>
+      <c r="AC57"/>
+      <c r="AD57"/>
+    </row>
+    <row r="58" s="1" customFormat="1" spans="2:30">
+      <c r="B58"/>
+      <c r="C58"/>
+      <c r="E58"/>
+      <c r="F58"/>
+      <c r="G58"/>
+      <c r="H58"/>
+      <c r="I58"/>
+      <c r="J58"/>
+      <c r="K58"/>
+      <c r="L58"/>
+      <c r="M58"/>
+      <c r="N58"/>
+      <c r="O58"/>
+      <c r="P58"/>
+      <c r="Q58"/>
+      <c r="R58"/>
+      <c r="S58"/>
+      <c r="T58"/>
+      <c r="U58"/>
+      <c r="V58"/>
+      <c r="W58"/>
+      <c r="X58"/>
+      <c r="Y58"/>
+      <c r="Z58"/>
+      <c r="AA58"/>
+      <c r="AB58"/>
+      <c r="AC58"/>
+      <c r="AD58"/>
+    </row>
+    <row r="59" s="1" customFormat="1" spans="2:30">
+      <c r="B59"/>
+      <c r="C59"/>
+      <c r="E59"/>
+      <c r="F59"/>
+      <c r="G59"/>
+      <c r="H59"/>
+      <c r="I59"/>
+      <c r="J59"/>
+      <c r="K59"/>
+      <c r="L59"/>
+      <c r="M59"/>
+      <c r="N59"/>
+      <c r="O59"/>
+      <c r="P59"/>
+      <c r="Q59"/>
+      <c r="R59"/>
+      <c r="S59"/>
+      <c r="T59"/>
+      <c r="U59"/>
+      <c r="V59"/>
+      <c r="W59"/>
+      <c r="X59"/>
+      <c r="Y59"/>
+      <c r="Z59"/>
+      <c r="AA59"/>
+      <c r="AB59"/>
+      <c r="AC59"/>
+      <c r="AD59"/>
+    </row>
+    <row r="60" s="1" customFormat="1" spans="2:30">
+      <c r="B60"/>
+      <c r="C60"/>
+      <c r="E60"/>
+      <c r="F60"/>
+      <c r="G60"/>
+      <c r="H60"/>
+      <c r="I60"/>
+      <c r="J60"/>
+      <c r="K60"/>
+      <c r="L60"/>
+      <c r="M60"/>
+      <c r="N60"/>
+      <c r="O60"/>
+      <c r="P60"/>
+      <c r="Q60"/>
+      <c r="R60"/>
+      <c r="S60"/>
+      <c r="T60"/>
+      <c r="U60"/>
+      <c r="V60"/>
+      <c r="W60"/>
+      <c r="X60"/>
+      <c r="Y60"/>
+      <c r="Z60"/>
+      <c r="AA60"/>
+      <c r="AB60"/>
+      <c r="AC60"/>
+      <c r="AD60"/>
+    </row>
+    <row r="61" s="1" customFormat="1" spans="2:30">
+      <c r="B61"/>
+      <c r="C61"/>
+      <c r="D61"/>
+      <c r="E61"/>
+      <c r="F61"/>
+      <c r="G61"/>
+      <c r="H61"/>
+      <c r="I61"/>
+      <c r="J61"/>
+      <c r="K61"/>
+      <c r="L61"/>
+      <c r="M61"/>
+      <c r="N61"/>
+      <c r="O61"/>
+      <c r="P61"/>
+      <c r="Q61"/>
+      <c r="R61"/>
+      <c r="S61"/>
+      <c r="T61"/>
+      <c r="U61"/>
+      <c r="V61"/>
+      <c r="W61"/>
+      <c r="X61"/>
+      <c r="Y61"/>
+      <c r="Z61"/>
+      <c r="AA61"/>
+      <c r="AB61"/>
+      <c r="AC61"/>
+      <c r="AD61"/>
+    </row>
+    <row r="62" s="1" customFormat="1" spans="2:30">
+      <c r="B62"/>
+      <c r="C62"/>
+      <c r="D62"/>
+      <c r="E62"/>
+      <c r="F62"/>
+      <c r="G62"/>
+      <c r="H62"/>
+      <c r="I62"/>
+      <c r="J62"/>
+      <c r="K62"/>
+      <c r="L62"/>
+      <c r="M62"/>
+      <c r="N62"/>
+      <c r="O62"/>
+      <c r="P62"/>
+      <c r="Q62"/>
+      <c r="R62"/>
+      <c r="S62"/>
+      <c r="T62"/>
+      <c r="U62"/>
+      <c r="V62"/>
+      <c r="W62"/>
+      <c r="X62"/>
+      <c r="Y62"/>
+      <c r="Z62"/>
+      <c r="AA62"/>
+      <c r="AB62"/>
+      <c r="AC62"/>
+      <c r="AD62"/>
+    </row>
+    <row r="63" s="1" customFormat="1" spans="2:30">
+      <c r="B63"/>
+      <c r="C63"/>
+      <c r="D63"/>
+      <c r="E63"/>
+      <c r="F63"/>
+      <c r="G63"/>
+      <c r="H63"/>
+      <c r="I63"/>
+      <c r="J63"/>
+      <c r="K63"/>
+      <c r="L63"/>
+      <c r="M63"/>
+      <c r="N63"/>
+      <c r="O63"/>
+      <c r="P63"/>
+      <c r="Q63"/>
+      <c r="R63"/>
+      <c r="S63"/>
+      <c r="T63"/>
+      <c r="U63"/>
+      <c r="V63"/>
+      <c r="W63"/>
+      <c r="X63"/>
+      <c r="Y63"/>
+      <c r="Z63"/>
+      <c r="AA63"/>
+      <c r="AB63"/>
+      <c r="AC63"/>
+      <c r="AD63"/>
+    </row>
+    <row r="64" s="1" customFormat="1" spans="2:30">
+      <c r="B64"/>
+      <c r="C64"/>
+      <c r="D64"/>
+      <c r="E64"/>
+      <c r="F64"/>
+      <c r="G64"/>
+      <c r="H64"/>
+      <c r="I64"/>
+      <c r="J64"/>
+      <c r="K64"/>
+      <c r="L64"/>
+      <c r="M64"/>
+      <c r="N64"/>
+      <c r="O64"/>
+      <c r="P64"/>
+      <c r="Q64"/>
+      <c r="R64"/>
+      <c r="S64"/>
+      <c r="T64"/>
+      <c r="U64"/>
+      <c r="V64"/>
+      <c r="W64"/>
+      <c r="X64"/>
+      <c r="Y64"/>
+      <c r="Z64"/>
+      <c r="AA64"/>
+      <c r="AB64"/>
+      <c r="AC64"/>
+      <c r="AD64"/>
+    </row>
+    <row r="65" s="1" customFormat="1" spans="2:30">
+      <c r="B65"/>
+      <c r="C65"/>
+      <c r="E65"/>
+      <c r="F65"/>
+      <c r="G65"/>
+      <c r="H65"/>
+      <c r="I65"/>
+      <c r="J65"/>
+      <c r="K65"/>
+      <c r="L65"/>
+      <c r="M65"/>
+      <c r="N65"/>
+      <c r="O65"/>
+      <c r="P65"/>
+      <c r="Q65"/>
+      <c r="R65"/>
+      <c r="S65"/>
+      <c r="T65"/>
+      <c r="U65"/>
+      <c r="V65"/>
+      <c r="W65"/>
+      <c r="X65"/>
+      <c r="Y65"/>
+      <c r="Z65"/>
+      <c r="AA65"/>
+      <c r="AB65"/>
+      <c r="AC65"/>
+      <c r="AD65"/>
+    </row>
+    <row r="66" s="1" customFormat="1" spans="2:30">
+      <c r="B66"/>
+      <c r="C66"/>
+      <c r="E66"/>
+      <c r="F66"/>
+      <c r="G66"/>
+      <c r="H66"/>
+      <c r="I66"/>
+      <c r="J66"/>
+      <c r="K66"/>
+      <c r="L66"/>
+      <c r="M66"/>
+      <c r="N66"/>
+      <c r="O66"/>
+      <c r="P66"/>
+      <c r="Q66"/>
+      <c r="R66"/>
+      <c r="S66"/>
+      <c r="T66"/>
+      <c r="U66"/>
+      <c r="V66"/>
+      <c r="W66"/>
+      <c r="X66"/>
+      <c r="Y66"/>
+      <c r="Z66"/>
+      <c r="AA66"/>
+      <c r="AB66"/>
+      <c r="AC66"/>
+      <c r="AD66"/>
+    </row>
+    <row r="67" s="1" customFormat="1" spans="2:30">
+      <c r="B67"/>
+      <c r="C67"/>
+      <c r="D67"/>
+      <c r="E67"/>
+      <c r="F67"/>
+      <c r="G67"/>
+      <c r="H67"/>
+      <c r="I67"/>
+      <c r="J67"/>
+      <c r="K67"/>
+      <c r="L67"/>
+      <c r="M67"/>
+      <c r="N67"/>
+      <c r="O67"/>
+      <c r="P67"/>
+      <c r="Q67"/>
+      <c r="R67"/>
+      <c r="S67"/>
+      <c r="T67"/>
+      <c r="U67"/>
+      <c r="V67"/>
+      <c r="W67"/>
+      <c r="X67"/>
+      <c r="Y67"/>
+      <c r="Z67"/>
+      <c r="AA67"/>
+      <c r="AB67"/>
+      <c r="AC67"/>
+      <c r="AD67"/>
+    </row>
+    <row r="68" s="1" customFormat="1" spans="2:30">
+      <c r="B68"/>
+      <c r="C68"/>
+      <c r="D68"/>
+      <c r="E68"/>
+      <c r="F68"/>
+      <c r="G68"/>
+      <c r="H68"/>
+      <c r="I68"/>
+      <c r="J68"/>
+      <c r="K68"/>
+      <c r="L68"/>
+      <c r="M68"/>
+      <c r="N68"/>
+      <c r="O68"/>
+      <c r="P68"/>
+      <c r="Q68"/>
+      <c r="R68"/>
+      <c r="S68"/>
+      <c r="T68"/>
+      <c r="U68"/>
+      <c r="V68"/>
+      <c r="W68"/>
+      <c r="X68"/>
+      <c r="Y68"/>
+      <c r="Z68"/>
+      <c r="AA68"/>
+      <c r="AB68"/>
+      <c r="AC68"/>
+      <c r="AD68"/>
+    </row>
+    <row r="69" s="1" customFormat="1" spans="2:30">
+      <c r="B69"/>
+      <c r="C69"/>
+      <c r="D69"/>
+      <c r="E69"/>
+      <c r="F69"/>
+      <c r="G69"/>
+      <c r="H69"/>
+      <c r="I69"/>
+      <c r="J69"/>
+      <c r="K69"/>
+      <c r="L69"/>
+      <c r="M69"/>
+      <c r="N69"/>
+      <c r="O69"/>
+      <c r="P69"/>
+      <c r="Q69"/>
+      <c r="R69"/>
+      <c r="S69"/>
+      <c r="T69"/>
+      <c r="U69"/>
+      <c r="V69"/>
+      <c r="W69"/>
+      <c r="X69"/>
+      <c r="Y69"/>
+      <c r="Z69"/>
+      <c r="AA69"/>
+      <c r="AB69"/>
+      <c r="AC69"/>
+      <c r="AD69"/>
+    </row>
+    <row r="70" s="1" customFormat="1" spans="2:30">
+      <c r="B70"/>
+      <c r="C70"/>
+      <c r="D70"/>
+      <c r="E70"/>
+      <c r="F70"/>
+      <c r="G70"/>
+      <c r="H70"/>
+      <c r="I70"/>
+      <c r="J70"/>
+      <c r="K70"/>
+      <c r="L70"/>
+      <c r="M70"/>
+      <c r="N70"/>
+      <c r="O70"/>
+      <c r="P70"/>
+      <c r="Q70"/>
+      <c r="R70"/>
+      <c r="S70"/>
+      <c r="T70"/>
+      <c r="U70"/>
+      <c r="V70"/>
+      <c r="W70"/>
+      <c r="X70"/>
+      <c r="Y70"/>
+      <c r="Z70"/>
+      <c r="AA70"/>
+      <c r="AB70"/>
+      <c r="AC70"/>
+      <c r="AD70"/>
+    </row>
+    <row r="71" s="1" customFormat="1" spans="2:30">
+      <c r="B71"/>
+      <c r="C71"/>
+      <c r="E71"/>
+      <c r="F71"/>
+      <c r="G71"/>
+      <c r="H71"/>
+      <c r="I71"/>
+      <c r="J71"/>
+      <c r="K71"/>
+      <c r="L71"/>
+      <c r="M71"/>
+      <c r="N71"/>
+      <c r="O71"/>
+      <c r="P71"/>
+      <c r="Q71"/>
+      <c r="R71"/>
+      <c r="S71"/>
+      <c r="T71"/>
+      <c r="U71"/>
+      <c r="V71"/>
+      <c r="W71"/>
+      <c r="X71"/>
+      <c r="Y71"/>
+      <c r="Z71"/>
+      <c r="AA71"/>
+      <c r="AB71"/>
+      <c r="AC71"/>
+      <c r="AD71"/>
+    </row>
+    <row r="72" s="1" customFormat="1" spans="2:30">
+      <c r="B72"/>
+      <c r="C72"/>
+      <c r="E72"/>
+      <c r="F72"/>
+      <c r="G72"/>
+      <c r="H72"/>
+      <c r="I72"/>
+      <c r="J72"/>
+      <c r="K72"/>
+      <c r="L72"/>
+      <c r="M72"/>
+      <c r="N72"/>
+      <c r="O72"/>
+      <c r="P72"/>
+      <c r="Q72"/>
+      <c r="R72"/>
+      <c r="S72"/>
+      <c r="T72"/>
+      <c r="U72"/>
+      <c r="V72"/>
+      <c r="W72"/>
+      <c r="X72"/>
+      <c r="Y72"/>
+      <c r="Z72"/>
+      <c r="AA72"/>
+      <c r="AB72"/>
+      <c r="AC72"/>
+      <c r="AD72"/>
+    </row>
+    <row r="73" s="1" customFormat="1" spans="2:30">
+      <c r="B73"/>
+      <c r="C73"/>
+      <c r="D73"/>
+      <c r="E73"/>
+      <c r="F73"/>
+      <c r="G73"/>
+      <c r="H73"/>
+      <c r="I73"/>
+      <c r="J73"/>
+      <c r="K73"/>
+      <c r="L73"/>
+      <c r="M73"/>
+      <c r="N73"/>
+      <c r="O73"/>
+      <c r="P73"/>
+      <c r="Q73"/>
+      <c r="R73"/>
+      <c r="S73"/>
+      <c r="T73"/>
+      <c r="U73"/>
+      <c r="V73"/>
+      <c r="W73"/>
+      <c r="X73"/>
+      <c r="Y73"/>
+      <c r="Z73"/>
+      <c r="AA73"/>
+      <c r="AB73"/>
+      <c r="AC73"/>
+      <c r="AD73"/>
+    </row>
+    <row r="74" s="1" customFormat="1" spans="2:30">
+      <c r="B74"/>
+      <c r="C74"/>
+      <c r="D74"/>
+      <c r="E74"/>
+      <c r="F74"/>
+      <c r="G74"/>
+      <c r="H74"/>
+      <c r="I74"/>
+      <c r="J74"/>
+      <c r="K74"/>
+      <c r="L74"/>
+      <c r="M74"/>
+      <c r="N74"/>
+      <c r="O74"/>
+      <c r="P74"/>
+      <c r="Q74"/>
+      <c r="R74"/>
+      <c r="S74"/>
+      <c r="T74"/>
+      <c r="U74"/>
+      <c r="V74"/>
+      <c r="W74"/>
+      <c r="X74"/>
+      <c r="Y74"/>
+      <c r="Z74"/>
+      <c r="AA74"/>
+      <c r="AB74"/>
+      <c r="AC74"/>
+      <c r="AD74"/>
+    </row>
+    <row r="75" s="1" customFormat="1" spans="2:30">
+      <c r="B75"/>
+      <c r="C75"/>
+      <c r="D75"/>
+      <c r="E75"/>
+      <c r="F75"/>
+      <c r="G75"/>
+      <c r="H75"/>
+      <c r="I75"/>
+      <c r="J75"/>
+      <c r="K75"/>
+      <c r="L75"/>
+      <c r="M75"/>
+      <c r="N75"/>
+      <c r="O75"/>
+      <c r="P75"/>
+      <c r="Q75"/>
+      <c r="R75"/>
+      <c r="S75"/>
+      <c r="T75"/>
+      <c r="U75"/>
+      <c r="V75"/>
+      <c r="W75"/>
+      <c r="X75"/>
+      <c r="Y75"/>
+      <c r="Z75"/>
+      <c r="AA75"/>
+      <c r="AB75"/>
+      <c r="AC75"/>
+      <c r="AD75"/>
+    </row>
+    <row r="76" s="1" customFormat="1" spans="2:30">
+      <c r="B76"/>
+      <c r="C76"/>
+      <c r="D76"/>
+      <c r="E76"/>
+      <c r="F76"/>
+      <c r="G76"/>
+      <c r="H76"/>
+      <c r="I76"/>
+      <c r="J76"/>
+      <c r="K76"/>
+      <c r="L76"/>
+      <c r="M76"/>
+      <c r="N76"/>
+      <c r="O76"/>
+      <c r="P76"/>
+      <c r="Q76"/>
+      <c r="R76"/>
+      <c r="S76"/>
+      <c r="T76"/>
+      <c r="U76"/>
+      <c r="V76"/>
+      <c r="W76"/>
+      <c r="X76"/>
+      <c r="Y76"/>
+      <c r="Z76"/>
+      <c r="AA76"/>
+      <c r="AB76"/>
+      <c r="AC76"/>
+      <c r="AD76"/>
+    </row>
+    <row r="77" s="1" customFormat="1" spans="2:30">
+      <c r="B77"/>
+      <c r="C77"/>
+      <c r="D77"/>
+      <c r="E77"/>
+      <c r="F77"/>
+      <c r="G77"/>
+      <c r="H77"/>
+      <c r="I77"/>
+      <c r="J77"/>
+      <c r="K77"/>
+      <c r="L77"/>
+      <c r="M77"/>
+      <c r="N77"/>
+      <c r="O77"/>
+      <c r="P77"/>
+      <c r="Q77"/>
+      <c r="R77"/>
+      <c r="S77"/>
+      <c r="T77"/>
+      <c r="U77"/>
+      <c r="V77"/>
+      <c r="W77"/>
+      <c r="X77"/>
+      <c r="Y77"/>
+      <c r="Z77"/>
+      <c r="AA77"/>
+      <c r="AB77"/>
+      <c r="AC77"/>
+      <c r="AD77"/>
+    </row>
+    <row r="78" s="1" customFormat="1" spans="2:30">
+      <c r="B78"/>
+      <c r="C78"/>
+      <c r="D78"/>
+      <c r="E78"/>
+      <c r="F78"/>
+      <c r="G78"/>
+      <c r="H78"/>
+      <c r="I78"/>
+      <c r="J78"/>
+      <c r="K78"/>
+      <c r="L78"/>
+      <c r="M78"/>
+      <c r="N78"/>
+      <c r="O78"/>
+      <c r="P78"/>
+      <c r="Q78"/>
+      <c r="R78"/>
+      <c r="S78"/>
+      <c r="T78"/>
+      <c r="U78"/>
+      <c r="V78"/>
+      <c r="W78"/>
+      <c r="X78"/>
+      <c r="Y78"/>
+      <c r="Z78"/>
+      <c r="AA78"/>
+      <c r="AB78"/>
+      <c r="AC78"/>
+      <c r="AD78"/>
+    </row>
+    <row r="79" s="1" customFormat="1" spans="2:30">
+      <c r="B79"/>
+      <c r="C79"/>
+      <c r="D79"/>
+      <c r="E79"/>
+      <c r="F79"/>
+      <c r="G79"/>
+      <c r="H79"/>
+      <c r="I79"/>
+      <c r="J79"/>
+      <c r="K79"/>
+      <c r="L79"/>
+      <c r="M79"/>
+      <c r="N79"/>
+      <c r="O79"/>
+      <c r="P79"/>
+      <c r="Q79"/>
+      <c r="R79"/>
+      <c r="S79"/>
+      <c r="T79"/>
+      <c r="U79"/>
+      <c r="V79"/>
+      <c r="W79"/>
+      <c r="X79"/>
+      <c r="Y79"/>
+      <c r="Z79"/>
+      <c r="AA79"/>
+      <c r="AB79"/>
+      <c r="AC79"/>
+      <c r="AD79"/>
+    </row>
+    <row r="80" s="1" customFormat="1" spans="2:30">
+      <c r="B80"/>
+      <c r="C80"/>
+      <c r="D80"/>
+      <c r="E80"/>
+      <c r="F80"/>
+      <c r="G80"/>
+      <c r="H80"/>
+      <c r="I80"/>
+      <c r="J80"/>
+      <c r="K80"/>
+      <c r="L80"/>
+      <c r="M80"/>
+      <c r="N80"/>
+      <c r="O80"/>
+      <c r="P80"/>
+      <c r="Q80"/>
+      <c r="R80"/>
+      <c r="S80"/>
+      <c r="T80"/>
+      <c r="U80"/>
+      <c r="V80"/>
+      <c r="W80"/>
+      <c r="X80"/>
+      <c r="Y80"/>
+      <c r="Z80"/>
+      <c r="AA80"/>
+      <c r="AB80"/>
+      <c r="AC80"/>
+      <c r="AD80"/>
+    </row>
+    <row r="81" s="1" customFormat="1" spans="2:30">
+      <c r="B81"/>
+      <c r="C81"/>
+      <c r="D81"/>
+      <c r="E81"/>
+      <c r="F81"/>
+      <c r="G81"/>
+      <c r="H81"/>
+      <c r="I81"/>
+      <c r="J81"/>
+      <c r="K81"/>
+      <c r="L81"/>
+      <c r="M81"/>
+      <c r="N81"/>
+      <c r="O81"/>
+      <c r="P81"/>
+      <c r="Q81"/>
+      <c r="S81" s="2"/>
+      <c r="X81"/>
+      <c r="Y81"/>
+      <c r="Z81"/>
+      <c r="AA81"/>
+      <c r="AB81"/>
+      <c r="AC81"/>
+      <c r="AD81"/>
+    </row>
+    <row r="82" s="1" customFormat="1" spans="2:30">
+      <c r="B82"/>
+      <c r="C82"/>
+      <c r="D82"/>
+      <c r="E82"/>
+      <c r="F82"/>
+      <c r="G82"/>
+      <c r="H82"/>
+      <c r="I82"/>
+      <c r="J82"/>
+      <c r="K82"/>
+      <c r="L82"/>
+      <c r="M82"/>
+      <c r="N82"/>
+      <c r="O82"/>
+      <c r="P82"/>
+      <c r="Q82"/>
+      <c r="S82" s="2"/>
+      <c r="V82" s="4"/>
+      <c r="X82"/>
+      <c r="Y82"/>
+      <c r="Z82"/>
+      <c r="AA82"/>
+      <c r="AB82"/>
+      <c r="AC82"/>
+      <c r="AD82"/>
+    </row>
+    <row r="83" s="1" customFormat="1" spans="2:30">
+      <c r="B83"/>
+      <c r="C83"/>
+      <c r="D83"/>
+      <c r="E83"/>
+      <c r="F83"/>
+      <c r="G83"/>
+      <c r="H83"/>
+      <c r="I83"/>
+      <c r="J83"/>
+      <c r="K83"/>
+      <c r="L83"/>
+      <c r="M83"/>
+      <c r="N83"/>
+      <c r="O83"/>
+      <c r="P83"/>
+      <c r="Q83"/>
+      <c r="R83"/>
+      <c r="S83"/>
+      <c r="T83"/>
+      <c r="U83"/>
+      <c r="V83"/>
+      <c r="W83"/>
+      <c r="X83"/>
+      <c r="Y83"/>
+      <c r="Z83"/>
+      <c r="AA83"/>
+      <c r="AB83"/>
+      <c r="AC83"/>
+      <c r="AD83"/>
+    </row>
+    <row r="84" s="1" customFormat="1" spans="2:30">
+      <c r="B84"/>
+      <c r="C84"/>
+      <c r="D84"/>
+      <c r="E84"/>
+      <c r="F84"/>
+      <c r="G84"/>
+      <c r="H84"/>
+      <c r="I84"/>
+      <c r="J84"/>
+      <c r="K84"/>
+      <c r="L84"/>
+      <c r="M84"/>
+      <c r="N84"/>
+      <c r="O84"/>
+      <c r="P84"/>
+      <c r="Q84"/>
+      <c r="R84"/>
+      <c r="S84"/>
+      <c r="T84"/>
+      <c r="U84"/>
+      <c r="V84"/>
+      <c r="W84"/>
+      <c r="X84"/>
+      <c r="Y84"/>
+      <c r="Z84"/>
+      <c r="AA84"/>
+      <c r="AB84"/>
+      <c r="AC84"/>
+      <c r="AD84"/>
+    </row>
+    <row r="85" s="1" customFormat="1" spans="2:30">
+      <c r="B85"/>
+      <c r="C85"/>
+      <c r="D85"/>
+      <c r="E85"/>
+      <c r="F85"/>
+      <c r="G85"/>
+      <c r="H85"/>
+      <c r="I85"/>
+      <c r="J85"/>
+      <c r="K85"/>
+      <c r="L85"/>
+      <c r="M85"/>
+      <c r="N85"/>
+      <c r="O85"/>
+      <c r="P85"/>
+      <c r="Q85"/>
+      <c r="R85"/>
+      <c r="S85"/>
+      <c r="T85"/>
+      <c r="U85"/>
+      <c r="V85"/>
+      <c r="W85"/>
+      <c r="X85"/>
+      <c r="Y85"/>
+      <c r="Z85"/>
+      <c r="AA85"/>
+      <c r="AB85"/>
+      <c r="AC85"/>
+      <c r="AD85"/>
+    </row>
+    <row r="86" s="1" customFormat="1" spans="2:30">
+      <c r="B86"/>
+      <c r="C86"/>
+      <c r="D86"/>
+      <c r="E86"/>
+      <c r="F86"/>
+      <c r="G86"/>
+      <c r="H86"/>
+      <c r="I86"/>
+      <c r="J86"/>
+      <c r="K86"/>
+      <c r="L86"/>
+      <c r="M86"/>
+      <c r="N86"/>
+      <c r="O86"/>
+      <c r="P86"/>
+      <c r="Q86"/>
+      <c r="R86"/>
+      <c r="S86"/>
+      <c r="T86"/>
+      <c r="U86"/>
+      <c r="V86"/>
+      <c r="W86"/>
+      <c r="X86"/>
+      <c r="Y86"/>
+      <c r="Z86"/>
+      <c r="AA86"/>
+      <c r="AB86"/>
+      <c r="AC86"/>
+      <c r="AD86"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Y12" sqref="Y12"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="s">
-        <v>136</v>
+        <v>220</v>
       </c>
     </row>
   </sheetData>
@@ -8013,36 +16491,4 @@
   <headerFooter/>
   <drawing r:id="rId1"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E35" sqref="E35"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
-  <sheetData/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
-  <sheetData/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
-</worksheet>
 </file>
--- a/数电.xlsx
+++ b/数电.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28125" windowHeight="12540" activeTab="6"/>
+    <workbookView windowWidth="15915" windowHeight="7860" firstSheet="2" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="第9章" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="353" uniqueCount="221">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="386" uniqueCount="254">
   <si>
     <t>模电和数电</t>
   </si>
@@ -681,6 +681,105 @@
   </si>
   <si>
     <t>15.1顺序存储器（SAM）</t>
+  </si>
+  <si>
+    <t>顺序存储器简称（SAM），是一种以串行方式将数据存入或取出的存储器，又称为串行存储器，SAM是由动态存储器组成的。</t>
+  </si>
+  <si>
+    <t>15.1.1动态移存单元</t>
+  </si>
+  <si>
+    <t>动态移存单元是SAM的最基本单元，由mos管构成，采用了主从结构</t>
+  </si>
+  <si>
+    <t>输入为1时，CP=0时，主输出0，CP=1时，主把0给从，从输出1。</t>
+  </si>
+  <si>
+    <t>15.2.2动态移存器</t>
+  </si>
+  <si>
+    <t>由很多个动态移存单元构成，每来一个时钟，动态移存单元就把数传递给下一个动态移存单元</t>
+  </si>
+  <si>
+    <t>这样加入输入了一个1024位的串行数据，经过1024个时钟信号，动态移存器就把这1024个位都存下来了</t>
+  </si>
+  <si>
+    <t>15.1.3顺序存储器</t>
+  </si>
+  <si>
+    <t>顺序存储器是由动态存储器和几个门电路组合搞出来的，这种存储器有3种状态，读，写，循环刷新</t>
+  </si>
+  <si>
+    <t>D是要写入的串行数据，RW是控制读写的，CP是时钟脉冲，</t>
+  </si>
+  <si>
+    <t>写就D进去，来1024个脉冲，数据就进去了</t>
+  </si>
+  <si>
+    <t>读就直接从输出里面拿数据，来1024个脉冲，数据就读走了，因为输出又连输入上了，所以一圈下来数据还在，能存住</t>
+  </si>
+  <si>
+    <t>但是这种存储器得一直让它刷新，因为不刷新过一会儿数据就没了</t>
+  </si>
+  <si>
+    <t>上面是1位的，也就是只有一路输入，做8个这样的就是8路的</t>
+  </si>
+  <si>
+    <t>缺点：顺序存储器必须按顺序来，加入1024个位我要1023位，那得搞1023个时钟脉冲才能达到目的，麻烦死了</t>
+  </si>
+  <si>
+    <t>15.2随机存储器（RAM）</t>
+  </si>
+  <si>
+    <t>为了解决顺序存储器的缺点，研究出了随机存储器，</t>
+  </si>
+  <si>
+    <t>15.2.1随机存储器的结构个原理</t>
+  </si>
+  <si>
+    <t>主要由存储矩阵，地址译码器，片选，读写控制电路组成</t>
+  </si>
+  <si>
+    <t>⑴存储矩阵</t>
+  </si>
+  <si>
+    <t>由256个存储单元组成的，16*16的方式排列的，存储单元一般丢失触发器，所以这个RAM的容量是256位的</t>
+  </si>
+  <si>
+    <t>⑵地址译码器</t>
+  </si>
+  <si>
+    <t>把八个输入线的数据转成32跟线输出出来，32个输出线16个表示行，16个表示列，这样输入点输入一个地址，就直接能找到地址里面的数据了。</t>
+  </si>
+  <si>
+    <t>这8个输入线称为地址，高四位是列地址，第四位是行地址，</t>
+  </si>
+  <si>
+    <t>⑶片选和读写电路</t>
+  </si>
+  <si>
+    <t>但是现在单片机的RAM必须很大，２５６比特，３２个字节太小了，所以就得把很多个RAM组合在一起使用，为了控制RAM是否工作</t>
+  </si>
+  <si>
+    <t>设计了片选线，这比较简单</t>
+  </si>
+  <si>
+    <t>⑷RAM的工作过程</t>
+  </si>
+  <si>
+    <t>想往RAM中存数据，先把地址送进去，把读写写那个信号送进去，把数据送进去</t>
+  </si>
+  <si>
+    <t>15.2.2存储单元</t>
+  </si>
+  <si>
+    <t>存储单元组成了存储器，根据原理的不同，分为静态存储单元和动态存储单元</t>
+  </si>
+  <si>
+    <t>15.2.3存储器的扩展</t>
+  </si>
+  <si>
+    <t>电路中一个RAM不够，所以得扩展，分为字长扩展和字数扩展。</t>
   </si>
   <si>
     <t>https://e.dangdang.com/pc/reader/index.html?id=1901087681</t>
@@ -691,8 +790,8 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
@@ -727,13 +826,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -741,15 +833,15 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <i/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -757,14 +849,36 @@
     <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -779,7 +893,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -787,30 +901,7 @@
     <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -832,16 +923,16 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -856,7 +947,15 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -879,13 +978,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -897,31 +1020,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -933,31 +1032,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -975,13 +1056,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -993,13 +1092,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1011,55 +1140,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1089,21 +1188,6 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
       <right style="thin">
@@ -1114,15 +1198,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1151,15 +1226,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -1170,6 +1236,39 @@
         <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
         <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
@@ -1193,10 +1292,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="12" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1205,133 +1304,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="27" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="27" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="21" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="7" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="29" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1776,20 +1875,109 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>314325</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="图片 1"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1114425" y="2514600"/>
+          <a:ext cx="3657600" cy="1438275"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>266700</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="图片 2"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1114425" y="5772150"/>
+          <a:ext cx="3238500" cy="2447925"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>1</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>666750</xdr:colOff>
-      <xdr:row>43</xdr:row>
-      <xdr:rowOff>114300</xdr:rowOff>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>419100</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="图片 2"/>
+        <xdr:cNvPr id="2" name="图片 1"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -1803,7 +1991,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="171450"/>
-          <a:ext cx="13011150" cy="7315200"/>
+          <a:ext cx="8648700" cy="5724525"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -11059,7 +11247,6 @@
     <row r="34" s="1" customFormat="1" spans="2:30">
       <c r="B34"/>
       <c r="C34"/>
-      <c r="D34" s="1"/>
       <c r="E34"/>
       <c r="F34"/>
       <c r="G34"/>
@@ -11090,7 +11277,6 @@
     <row r="35" s="1" customFormat="1" spans="2:30">
       <c r="B35"/>
       <c r="C35"/>
-      <c r="D35" s="1"/>
       <c r="E35"/>
       <c r="F35"/>
       <c r="G35"/>
@@ -11830,7 +12016,6 @@
     <row r="60" s="1" customFormat="1" spans="2:30">
       <c r="B60"/>
       <c r="C60"/>
-      <c r="D60" s="1"/>
       <c r="E60"/>
       <c r="F60"/>
       <c r="G60"/>
@@ -11985,7 +12170,6 @@
     <row r="65" s="1" customFormat="1" spans="2:30">
       <c r="B65"/>
       <c r="C65"/>
-      <c r="D65" s="1"/>
       <c r="E65"/>
       <c r="F65"/>
       <c r="G65"/>
@@ -12016,7 +12200,6 @@
     <row r="66" s="1" customFormat="1" spans="2:30">
       <c r="B66"/>
       <c r="C66"/>
-      <c r="D66" s="1"/>
       <c r="E66"/>
       <c r="F66"/>
       <c r="G66"/>
@@ -12493,11 +12676,7 @@
       <c r="O81"/>
       <c r="P81"/>
       <c r="Q81"/>
-      <c r="R81" s="1"/>
       <c r="S81" s="2"/>
-      <c r="T81" s="1"/>
-      <c r="U81" s="1"/>
-      <c r="V81" s="1"/>
       <c r="X81"/>
       <c r="Y81"/>
       <c r="Z81"/>
@@ -12523,10 +12702,7 @@
       <c r="O82"/>
       <c r="P82"/>
       <c r="Q82"/>
-      <c r="R82" s="1"/>
       <c r="S82" s="2"/>
-      <c r="T82" s="1"/>
-      <c r="U82" s="1"/>
       <c r="V82" s="4"/>
       <c r="X82"/>
       <c r="Y82"/>
@@ -12672,7 +12848,7 @@
   <dimension ref="A1:AE86"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="L38" sqref="L38"/>
+      <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="4.875" defaultRowHeight="13.5"/>
@@ -14570,8 +14746,8 @@
   <sheetPr/>
   <dimension ref="A1:AE86"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="N13" sqref="N13"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A51" workbookViewId="0">
+      <selection activeCell="G68" sqref="G68"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="4.875" defaultRowHeight="13.5"/>
@@ -14637,17 +14813,66 @@
       <c r="X5" s="2"/>
       <c r="AE5" s="2"/>
     </row>
-    <row r="6" s="1" customFormat="1" spans="24:27">
+    <row r="6" s="1" customFormat="1" spans="3:27">
+      <c r="C6" s="1" t="s">
+        <v>220</v>
+      </c>
       <c r="X6" s="2"/>
       <c r="AA6" s="4"/>
     </row>
-    <row r="14" s="1" customFormat="1" spans="5:5">
+    <row r="7" spans="3:3">
+      <c r="C7" s="1" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="8" spans="4:4">
+      <c r="D8" s="1" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="9" spans="4:4">
+      <c r="D9" s="1" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="10" spans="3:3">
+      <c r="C10" s="1" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="11" spans="4:4">
+      <c r="D11" s="1" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="12" spans="4:4">
+      <c r="D12" s="1" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="13" spans="3:3">
+      <c r="C13" s="1" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="14" s="1" customFormat="1" spans="4:5">
+      <c r="D14" s="1" t="s">
+        <v>228</v>
+      </c>
       <c r="E14" s="2"/>
     </row>
     <row r="15" s="1" customFormat="1" spans="5:5">
       <c r="E15" s="2"/>
     </row>
-    <row r="25" s="1" customFormat="1" spans="17:30">
+    <row r="24" spans="4:4">
+      <c r="D24" s="1" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="25" s="1" customFormat="1" spans="4:30">
+      <c r="D25" s="1" t="s">
+        <v>230</v>
+      </c>
       <c r="Q25"/>
       <c r="R25"/>
       <c r="S25"/>
@@ -14663,7 +14888,10 @@
       <c r="AC25"/>
       <c r="AD25"/>
     </row>
-    <row r="26" s="1" customFormat="1" spans="17:30">
+    <row r="26" s="1" customFormat="1" spans="4:30">
+      <c r="D26" s="1" t="s">
+        <v>231</v>
+      </c>
       <c r="Q26"/>
       <c r="R26"/>
       <c r="S26"/>
@@ -14679,7 +14907,10 @@
       <c r="AC26"/>
       <c r="AD26"/>
     </row>
-    <row r="27" s="1" customFormat="1" spans="17:30">
+    <row r="27" s="1" customFormat="1" spans="4:30">
+      <c r="D27" s="1" t="s">
+        <v>232</v>
+      </c>
       <c r="Q27"/>
       <c r="R27"/>
       <c r="S27"/>
@@ -14698,7 +14929,9 @@
     <row r="28" s="1" customFormat="1" spans="2:30">
       <c r="B28"/>
       <c r="C28"/>
-      <c r="D28"/>
+      <c r="D28" t="s">
+        <v>233</v>
+      </c>
       <c r="E28"/>
       <c r="F28"/>
       <c r="G28"/>
@@ -14726,7 +14959,10 @@
       <c r="AC28"/>
       <c r="AD28"/>
     </row>
-    <row r="29" s="1" customFormat="1" spans="12:30">
+    <row r="29" s="1" customFormat="1" spans="4:30">
+      <c r="D29" s="1" t="s">
+        <v>234</v>
+      </c>
       <c r="L29"/>
       <c r="M29"/>
       <c r="N29"/>
@@ -14748,7 +14984,9 @@
       <c r="AD29"/>
     </row>
     <row r="30" s="1" customFormat="1" spans="2:30">
-      <c r="B30"/>
+      <c r="B30" s="1" t="s">
+        <v>235</v>
+      </c>
       <c r="C30"/>
       <c r="E30"/>
       <c r="F30"/>
@@ -14779,7 +15017,9 @@
     </row>
     <row r="31" s="1" customFormat="1" spans="2:30">
       <c r="B31"/>
-      <c r="C31"/>
+      <c r="C31" t="s">
+        <v>236</v>
+      </c>
       <c r="D31"/>
       <c r="E31"/>
       <c r="F31"/>
@@ -14810,7 +15050,9 @@
     </row>
     <row r="32" s="1" customFormat="1" spans="2:30">
       <c r="B32"/>
-      <c r="C32"/>
+      <c r="C32" t="s">
+        <v>237</v>
+      </c>
       <c r="E32"/>
       <c r="F32"/>
       <c r="G32"/>
@@ -14841,7 +15083,9 @@
     <row r="33" s="1" customFormat="1" spans="2:30">
       <c r="B33"/>
       <c r="C33"/>
-      <c r="D33"/>
+      <c r="D33" t="s">
+        <v>238</v>
+      </c>
       <c r="E33"/>
       <c r="F33"/>
       <c r="G33"/>
@@ -15313,8 +15557,9 @@
     <row r="49" s="1" customFormat="1" spans="2:30">
       <c r="B49"/>
       <c r="C49"/>
-      <c r="D49"/>
-      <c r="E49"/>
+      <c r="D49" s="1" t="s">
+        <v>239</v>
+      </c>
       <c r="F49"/>
       <c r="G49"/>
       <c r="H49"/>
@@ -15344,8 +15589,9 @@
     <row r="50" s="1" customFormat="1" spans="2:30">
       <c r="B50"/>
       <c r="C50"/>
-      <c r="D50"/>
-      <c r="E50"/>
+      <c r="E50" s="1" t="s">
+        <v>240</v>
+      </c>
       <c r="F50"/>
       <c r="G50"/>
       <c r="H50"/>
@@ -15375,7 +15621,9 @@
     <row r="51" s="1" customFormat="1" spans="2:30">
       <c r="B51"/>
       <c r="C51"/>
-      <c r="D51"/>
+      <c r="D51" s="1" t="s">
+        <v>241</v>
+      </c>
       <c r="E51"/>
       <c r="F51"/>
       <c r="G51"/>
@@ -15406,8 +15654,9 @@
     <row r="52" s="1" customFormat="1" spans="2:30">
       <c r="B52"/>
       <c r="C52"/>
-      <c r="D52"/>
-      <c r="E52"/>
+      <c r="E52" t="s">
+        <v>242</v>
+      </c>
       <c r="F52"/>
       <c r="G52"/>
       <c r="H52"/>
@@ -15438,7 +15687,9 @@
       <c r="B53"/>
       <c r="C53"/>
       <c r="D53"/>
-      <c r="E53"/>
+      <c r="E53" t="s">
+        <v>243</v>
+      </c>
       <c r="F53"/>
       <c r="G53"/>
       <c r="H53"/>
@@ -15462,7 +15713,9 @@
     <row r="54" s="1" customFormat="1" spans="2:30">
       <c r="B54"/>
       <c r="C54"/>
-      <c r="D54"/>
+      <c r="D54" s="2" t="s">
+        <v>244</v>
+      </c>
       <c r="E54"/>
       <c r="F54"/>
       <c r="G54"/>
@@ -15488,8 +15741,9 @@
     <row r="55" s="1" customFormat="1" spans="2:30">
       <c r="B55"/>
       <c r="C55"/>
-      <c r="D55"/>
-      <c r="E55"/>
+      <c r="E55" t="s">
+        <v>245</v>
+      </c>
       <c r="F55"/>
       <c r="G55"/>
       <c r="H55"/>
@@ -15519,8 +15773,9 @@
     <row r="56" s="1" customFormat="1" spans="2:30">
       <c r="B56"/>
       <c r="C56"/>
-      <c r="D56"/>
-      <c r="E56"/>
+      <c r="E56" t="s">
+        <v>246</v>
+      </c>
       <c r="F56"/>
       <c r="G56"/>
       <c r="H56"/>
@@ -15550,7 +15805,9 @@
     <row r="57" s="1" customFormat="1" spans="2:30">
       <c r="B57"/>
       <c r="C57"/>
-      <c r="D57"/>
+      <c r="D57" s="2" t="s">
+        <v>247</v>
+      </c>
       <c r="E57"/>
       <c r="F57"/>
       <c r="G57"/>
@@ -15581,7 +15838,9 @@
     <row r="58" s="1" customFormat="1" spans="2:30">
       <c r="B58"/>
       <c r="C58"/>
-      <c r="E58"/>
+      <c r="E58" t="s">
+        <v>248</v>
+      </c>
       <c r="F58"/>
       <c r="G58"/>
       <c r="H58"/>
@@ -15610,7 +15869,9 @@
     </row>
     <row r="59" s="1" customFormat="1" spans="2:30">
       <c r="B59"/>
-      <c r="C59"/>
+      <c r="C59" t="s">
+        <v>249</v>
+      </c>
       <c r="E59"/>
       <c r="F59"/>
       <c r="G59"/>
@@ -15641,6 +15902,9 @@
     <row r="60" s="1" customFormat="1" spans="2:30">
       <c r="B60"/>
       <c r="C60"/>
+      <c r="D60" s="1" t="s">
+        <v>250</v>
+      </c>
       <c r="E60"/>
       <c r="F60"/>
       <c r="G60"/>
@@ -15670,7 +15934,9 @@
     </row>
     <row r="61" s="1" customFormat="1" spans="2:30">
       <c r="B61"/>
-      <c r="C61"/>
+      <c r="C61" t="s">
+        <v>251</v>
+      </c>
       <c r="D61"/>
       <c r="E61"/>
       <c r="F61"/>
@@ -15702,7 +15968,9 @@
     <row r="62" s="1" customFormat="1" spans="2:30">
       <c r="B62"/>
       <c r="C62"/>
-      <c r="D62"/>
+      <c r="D62" t="s">
+        <v>252</v>
+      </c>
       <c r="E62"/>
       <c r="F62"/>
       <c r="G62"/>
@@ -16464,6 +16732,7 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -16480,7 +16749,7 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="s">
-        <v>220</v>
+        <v>253</v>
       </c>
     </row>
   </sheetData>

--- a/数电.xlsx
+++ b/数电.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="15915" windowHeight="7860" firstSheet="2" activeTab="6"/>
+    <workbookView windowWidth="28125" windowHeight="12540" firstSheet="2" activeTab="9"/>
   </bookViews>
   <sheets>
     <sheet name="第9章" sheetId="1" r:id="rId1"/>
@@ -14,14 +14,16 @@
     <sheet name="第13章" sheetId="6" r:id="rId5"/>
     <sheet name="第14章" sheetId="8" r:id="rId6"/>
     <sheet name="第15章" sheetId="9" r:id="rId7"/>
-    <sheet name="书签" sheetId="3" r:id="rId8"/>
+    <sheet name="第16章 " sheetId="11" r:id="rId8"/>
+    <sheet name="可编程逻辑器件和VHDL" sheetId="12" r:id="rId9"/>
+    <sheet name="可编程逻辑器件和VHDL（2）" sheetId="13" r:id="rId10"/>
   </sheets>
-  <calcPr calcId="144525" calcCompleted="0" calcOnSave="0"/>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="386" uniqueCount="254">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="501" uniqueCount="326">
   <si>
     <t>模电和数电</t>
   </si>
@@ -782,7 +784,223 @@
     <t>电路中一个RAM不够，所以得扩展，分为字长扩展和字数扩展。</t>
   </si>
   <si>
-    <t>https://e.dangdang.com/pc/reader/index.html?id=1901087681</t>
+    <t>15.3只读存储器（ROM）</t>
+  </si>
+  <si>
+    <t>直面介绍的RAM是通过一系列的电路实现的，但是电路掉电了数据就没了，在计算机中需要长期保持数据，比如固定的程序，字符，立即数等</t>
+  </si>
+  <si>
+    <t>这样就发明了只读存储器（ROM），是一种长期保持信息的存储器，这种存储器掉电不丢，但是只能读，不能写，不能改，</t>
+  </si>
+  <si>
+    <t>ROM的分类有很多，固定存储器，可变成存储器，可改写只读存储器，电可改写只读存储器</t>
+  </si>
+  <si>
+    <t>15.3.1固定只读存储器（ROM）</t>
+  </si>
+  <si>
+    <t>固定只读存储器在生产的时候就把信息固化了，用户不能改</t>
+  </si>
+  <si>
+    <t>⑴二极管固定ROM</t>
+  </si>
+  <si>
+    <t>⑵MOS管固定ROM</t>
+  </si>
+  <si>
+    <t>15.3.2可编程只读存储器（PROM）</t>
+  </si>
+  <si>
+    <t>只能写一次，通过大电流改变电路结构，写完之后和ROM一样了</t>
+  </si>
+  <si>
+    <t>15.3.3可改写只读存储器（EPROM）</t>
+  </si>
+  <si>
+    <t>可以重复擦写的存储器，一个看不懂的物理结构，有没有电子能决定该结构导不导通。但是想该需要紫外线照射。</t>
+  </si>
+  <si>
+    <t>15.3.4电可改写只读存储器（EEPROM）</t>
+  </si>
+  <si>
+    <t>利用量子隧道效应做的，非常高级</t>
+  </si>
+  <si>
+    <t>第16章：电力电子电路</t>
+  </si>
+  <si>
+    <t>主要是用弱电控制强电</t>
+  </si>
+  <si>
+    <t>16.4 PWM控制技术</t>
+  </si>
+  <si>
+    <t>16.4.1 PWM控制的基本原理</t>
+  </si>
+  <si>
+    <t>⑴面积等效原理</t>
+  </si>
+  <si>
+    <t>对一个信号积分，只要值相等，就认为是近似等效</t>
+  </si>
+  <si>
+    <t>⑵SPWM控制原理</t>
+  </si>
+  <si>
+    <t>SPWM意思是正弦波脉冲宽度调制，按正弦波的规律等效出离散的矩形波</t>
+  </si>
+  <si>
+    <t>16.4.2 SPWM波的产生</t>
+  </si>
+  <si>
+    <t>可编程逻辑器件与VHDL设计</t>
+  </si>
+  <si>
+    <t>第一章：绪论</t>
+  </si>
+  <si>
+    <t>系统是由若干个相互作用相互依赖的事物组合成的，具有特定功能的整体，由电子元件组成的整体称为电子系统。</t>
+  </si>
+  <si>
+    <t>电子系统的发展依赖两次技术的产生，一个是集成电路技术，一个是EDA技术，EDA就是电子设计自动化技术。</t>
+  </si>
+  <si>
+    <t>1.1集成技术和可编程逻辑器件</t>
+  </si>
+  <si>
+    <t>1.1.1可编程逻辑器件</t>
+  </si>
+  <si>
+    <t>数字电路系统从最开始的焊电路板子到超大规模集成电路，到片上系统SOC的出现，集成度不断提高，出现了可编程逻辑器件PLD</t>
+  </si>
+  <si>
+    <t>应用最广泛的是现场可编程门阵列FPGA，复杂可编程逻辑器件CPLD，应用十分广泛</t>
+  </si>
+  <si>
+    <t>有个公司发明了一种新型的可擦除的可编程的逻辑器件EPLD，集成度非常高，设计灵活，内部互联能力比较弱，后来又改进了，研究出了复杂可编程逻辑器件CPLD</t>
+  </si>
+  <si>
+    <t>比之前增加了内部连线，改进了内部结构，经过改进又研究出了FPGA器件，内部又很多独立可编程的模块</t>
+  </si>
+  <si>
+    <t>1.1.2CPLD和FPLD</t>
+  </si>
+  <si>
+    <t>这俩都是可编程逻辑器件，内部实际就是一个电子系统</t>
+  </si>
+  <si>
+    <t>⑴CPLD</t>
+  </si>
+  <si>
+    <t>是一种与，或阵列组成的阵列，内部有可编程逻辑宏单元，可编程IO单元，可编程内部连线，有的内部还集成了RAM</t>
+  </si>
+  <si>
+    <t>⑵FPGA</t>
+  </si>
+  <si>
+    <t>集成度超高，属于一个小型的数字系统，</t>
+  </si>
+  <si>
+    <t>1.2电子系统设计与VHD</t>
+  </si>
+  <si>
+    <t>1.2.1传统的设计方法</t>
+  </si>
+  <si>
+    <t>根据系统的硬件要求，画出系统流程图，根据需求搞出硬件，但是一旦有问题就得改硬件，仿真也只能在硬件上进行，</t>
+  </si>
+  <si>
+    <t>1.2.2VHDL与自上而下的设计方法</t>
+  </si>
+  <si>
+    <t>传统设计系统非常不方便，</t>
+  </si>
+  <si>
+    <t>⑴硬件描述语言</t>
+  </si>
+  <si>
+    <t>为了方便，人们把复杂电路用语言纪律下来，方便阅读和保存，就诞生了硬件语言，各个公司都发明了自己的硬件语言</t>
+  </si>
+  <si>
+    <t>⑵VHDL</t>
+  </si>
+  <si>
+    <t>主要用于描述数字系统的结构，行为，功能，接口，实现了标准化规范化</t>
+  </si>
+  <si>
+    <t>VHDL功能强大，覆盖面广，描述能力强，有丰富的仿真语句和库函数，</t>
+  </si>
+  <si>
+    <t>⑶自上而下的设计方法</t>
+  </si>
+  <si>
+    <t>1.3EDA，VHDL应用</t>
+  </si>
+  <si>
+    <t>1.3.1EDA</t>
+  </si>
+  <si>
+    <t>相当于一个平台</t>
+  </si>
+  <si>
+    <t>1.3.2VHDL的特点</t>
+  </si>
+  <si>
+    <t>描述能力遍布各个级别，系统级别，算法级别，寄存器级别，门级</t>
+  </si>
+  <si>
+    <t>第二章：现场可编辑逻辑阵列（FPLA）</t>
+  </si>
+  <si>
+    <t>任何一个逻辑表达式都能写成与或操作，所以用门电路就能实现任何功能，FPLA由与矩阵，或矩阵，输出缓冲器组成，</t>
+  </si>
+  <si>
+    <t>FPLA和ROM的结构非常相似，但是ROM的地址译码器是固定的，FPLA的矩阵是可编程的，因为发明了绝缘栅，实现了可编程可控制的电路开关，</t>
+  </si>
+  <si>
+    <t>第三章：可编程逻辑阵列（PAL）</t>
+  </si>
+  <si>
+    <t>由可编辑的与矩阵，不可编辑的或矩阵，输出缓冲器组成，和上面类似，都是那玩意</t>
+  </si>
+  <si>
+    <t>第四章：通用阵列逻辑（GAL）</t>
+  </si>
+  <si>
+    <t>还是那玩意</t>
+  </si>
+  <si>
+    <t>第五章：可擦除的可编程逻辑器件（EPLD）</t>
+  </si>
+  <si>
+    <t>第六章：复杂的可编程逻辑器件（CPLD）</t>
+  </si>
+  <si>
+    <t>还那玩意</t>
+  </si>
+  <si>
+    <t>第七章：现场可编程逻辑器件（FPGA）</t>
+  </si>
+  <si>
+    <t>第八章：在系统可编程通用数字开关</t>
+  </si>
+  <si>
+    <t>搞一个开关的矩阵，就不细研究了。</t>
+  </si>
+  <si>
+    <t>第九章：PLD的编程</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> PLD的编程只要分为硬件和软件</t>
+  </si>
+  <si>
+    <t>早期写完程序后转化成与或操作不能自动化，后来采用硬件语言就能实现自动化了。</t>
+  </si>
+  <si>
+    <t>第十章：硬件语言VHDL</t>
+  </si>
+  <si>
+    <t>仅仅是一门语言而已</t>
   </si>
 </sst>
 </file>
@@ -790,10 +1008,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="23">
     <font>
@@ -825,80 +1043,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
@@ -907,47 +1051,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -963,7 +1068,120 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -978,25 +1196,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1014,7 +1238,97 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1026,7 +1340,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1038,127 +1370,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1188,6 +1406,36 @@
     </border>
     <border>
       <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
       <right style="thin">
@@ -1198,6 +1446,15 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1220,23 +1477,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
       <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1246,30 +1488,6 @@
       <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1295,7 +1513,7 @@
     <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1304,133 +1522,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="27" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="27" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="21" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1441,11 +1659,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1960,53 +2178,6 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>419100</xdr:colOff>
-      <xdr:row>34</xdr:row>
-      <xdr:rowOff>66675</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="图片 1"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip r:embed="rId1"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="0" y="171450"/>
-          <a:ext cx="8648700" cy="5724525"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln w="9525">
-          <a:noFill/>
-        </a:ln>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
   <a:themeElements>
@@ -2306,15 +2477,15 @@
   </cols>
   <sheetData>
     <row r="1" s="1" customFormat="1" ht="22.5" spans="9:31">
-      <c r="I1" s="3"/>
-      <c r="J1" s="3" t="s">
+      <c r="I1" s="2"/>
+      <c r="J1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="V1" s="2"/>
+      <c r="V1" s="3"/>
       <c r="W1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="X1" s="2" t="s">
+      <c r="X1" s="3" t="s">
         <v>2</v>
       </c>
       <c r="Y1" s="1" t="s">
@@ -2326,13 +2497,13 @@
       <c r="AA1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="AE1" s="2"/>
+      <c r="AE1" s="3"/>
     </row>
     <row r="2" s="1" customFormat="1" spans="23:27">
       <c r="W2" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="X2" s="2" t="s">
+      <c r="X2" s="3" t="s">
         <v>7</v>
       </c>
       <c r="Y2" s="1" t="s">
@@ -2349,22 +2520,22 @@
       <c r="A3" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="I3" s="3"/>
-      <c r="J3" s="3"/>
+      <c r="I3" s="2"/>
+      <c r="J3" s="2"/>
     </row>
     <row r="4" s="1" customFormat="1" spans="2:31">
       <c r="B4" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="V4" s="2"/>
-      <c r="X4" s="2"/>
-      <c r="AE4" s="2"/>
+      <c r="V4" s="3"/>
+      <c r="X4" s="3"/>
+      <c r="AE4" s="3"/>
     </row>
     <row r="5" s="1" customFormat="1" spans="3:27">
       <c r="C5" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="X5" s="2"/>
+      <c r="X5" s="3"/>
       <c r="AA5" s="4"/>
     </row>
     <row r="6" s="1" customFormat="1" spans="3:3">
@@ -2388,10 +2559,10 @@
       </c>
     </row>
     <row r="13" spans="5:5">
-      <c r="E13" s="2"/>
+      <c r="E13" s="3"/>
     </row>
     <row r="14" spans="5:5">
-      <c r="E14" s="2"/>
+      <c r="E14" s="3"/>
     </row>
     <row r="16" s="1" customFormat="1" spans="3:3">
       <c r="C16" s="7"/>
@@ -2421,13 +2592,13 @@
       </c>
     </row>
     <row r="22" s="1" customFormat="1" spans="4:4">
-      <c r="D22" s="2" t="s">
+      <c r="D22" s="3" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="23" s="1" customFormat="1" spans="3:4">
       <c r="C23" s="7"/>
-      <c r="D23" s="2" t="s">
+      <c r="D23" s="3" t="s">
         <v>23</v>
       </c>
     </row>
@@ -3015,7 +3186,7 @@
     <row r="42" s="1" customFormat="1" spans="2:30">
       <c r="B42"/>
       <c r="C42"/>
-      <c r="D42" s="2" t="s">
+      <c r="D42" s="3" t="s">
         <v>42</v>
       </c>
       <c r="E42"/>
@@ -3048,7 +3219,7 @@
     <row r="43" s="1" customFormat="1" spans="2:30">
       <c r="B43"/>
       <c r="C43"/>
-      <c r="D43" s="2"/>
+      <c r="D43" s="3"/>
       <c r="E43" t="s">
         <v>43</v>
       </c>
@@ -3382,7 +3553,7 @@
       <c r="U53" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="V53" s="2" t="s">
+      <c r="V53" s="3" t="s">
         <v>2</v>
       </c>
       <c r="W53" s="1" t="s">
@@ -3421,7 +3592,7 @@
       <c r="U54" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="V54" s="2" t="s">
+      <c r="V54" s="3" t="s">
         <v>7</v>
       </c>
       <c r="W54" s="1" t="s">
@@ -4437,13 +4608,13 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:AE86"/>
+  <dimension ref="A1:AE31"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="K7" sqref="K7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="O19" sqref="O19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="4.875" defaultRowHeight="13.5"/>
@@ -4452,15 +4623,15 @@
   </cols>
   <sheetData>
     <row r="1" s="1" customFormat="1" ht="22.5" spans="9:31">
-      <c r="I1" s="3"/>
-      <c r="J1" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="V1" s="2"/>
+      <c r="I1" s="2"/>
+      <c r="J1" s="2" t="s">
+        <v>276</v>
+      </c>
+      <c r="V1" s="3"/>
       <c r="W1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="X1" s="2" t="s">
+      <c r="X1" s="3" t="s">
         <v>2</v>
       </c>
       <c r="Y1" s="1" t="s">
@@ -4472,13 +4643,13 @@
       <c r="AA1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="AE1" s="2"/>
-    </row>
-    <row r="2" spans="23:27">
+      <c r="AE1" s="3"/>
+    </row>
+    <row r="2" s="1" customFormat="1" spans="23:27">
       <c r="W2" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="X2" s="2" t="s">
+      <c r="X2" s="3" t="s">
         <v>7</v>
       </c>
       <c r="Y2" s="1" t="s">
@@ -4491,127 +4662,724 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" s="1" customFormat="1" spans="1:1">
+    <row r="3" s="1" customFormat="1" ht="22.5" spans="1:10">
       <c r="A3" s="1" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="4" spans="2:2">
-      <c r="B4" s="1" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="5" s="1" customFormat="1" spans="2:31">
-      <c r="B5" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="V5" s="2"/>
-      <c r="X5" s="2"/>
-      <c r="AE5" s="2"/>
-    </row>
-    <row r="6" s="1" customFormat="1" spans="3:27">
-      <c r="C6" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="X6" s="2"/>
-      <c r="AA6" s="4"/>
-    </row>
-    <row r="7" spans="3:3">
-      <c r="C7" s="1" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="8" spans="3:3">
-      <c r="C8" s="1" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="9" spans="3:3">
-      <c r="C9" s="1" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="10" spans="2:2">
-      <c r="B10" s="1" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="11" spans="3:3">
-      <c r="C11" s="1" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="12" spans="3:3">
-      <c r="C12" s="1" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="13" spans="3:3">
-      <c r="C13" s="1" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="14" s="1" customFormat="1" spans="3:5">
-      <c r="C14" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="E14" s="2"/>
-    </row>
-    <row r="15" s="1" customFormat="1" spans="4:5">
-      <c r="D15" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="E15" s="2"/>
-    </row>
-    <row r="16" spans="4:4">
-      <c r="D16" s="1" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="17" s="1" customFormat="1" spans="4:4">
-      <c r="D17" s="1" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="18" s="1" customFormat="1" spans="3:3">
-      <c r="C18" s="1" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="19" spans="4:4">
-      <c r="D19" s="1" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="20" spans="3:3">
-      <c r="C20" s="1" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="21" s="1" customFormat="1" spans="4:4">
-      <c r="D21" s="1" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="22" spans="3:3">
-      <c r="C22" s="1" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="23" s="1" customFormat="1" spans="2:2">
-      <c r="B23" s="1" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="24" s="1" customFormat="1" spans="3:3">
-      <c r="C24" s="1" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="25" s="1" customFormat="1" spans="3:30">
-      <c r="C25" s="1" t="s">
-        <v>67</v>
-      </c>
+        <v>308</v>
+      </c>
+      <c r="I3" s="2"/>
+      <c r="J3" s="2"/>
+    </row>
+    <row r="4" s="1" customFormat="1" spans="2:30">
+      <c r="B4" t="s">
+        <v>309</v>
+      </c>
+      <c r="C4"/>
+      <c r="D4"/>
+      <c r="E4"/>
+      <c r="F4"/>
+      <c r="G4"/>
+      <c r="H4"/>
+      <c r="I4"/>
+      <c r="J4"/>
+      <c r="K4"/>
+      <c r="L4"/>
+      <c r="M4"/>
+      <c r="N4"/>
+      <c r="O4"/>
+      <c r="P4"/>
+      <c r="Q4"/>
+      <c r="R4"/>
+      <c r="S4"/>
+      <c r="T4"/>
+      <c r="U4"/>
+      <c r="V4"/>
+      <c r="W4"/>
+      <c r="X4"/>
+      <c r="Y4"/>
+      <c r="Z4"/>
+      <c r="AA4"/>
+      <c r="AB4"/>
+      <c r="AC4"/>
+      <c r="AD4"/>
+    </row>
+    <row r="5" s="1" customFormat="1" spans="2:30">
+      <c r="B5" t="s">
+        <v>310</v>
+      </c>
+      <c r="C5"/>
+      <c r="D5"/>
+      <c r="E5"/>
+      <c r="F5"/>
+      <c r="G5"/>
+      <c r="H5"/>
+      <c r="I5"/>
+      <c r="J5"/>
+      <c r="K5"/>
+      <c r="L5"/>
+      <c r="M5"/>
+      <c r="N5"/>
+      <c r="O5"/>
+      <c r="P5"/>
+      <c r="Q5"/>
+      <c r="R5"/>
+      <c r="S5"/>
+      <c r="T5"/>
+      <c r="U5"/>
+      <c r="V5"/>
+      <c r="W5"/>
+      <c r="X5"/>
+      <c r="Y5"/>
+      <c r="Z5"/>
+      <c r="AA5"/>
+      <c r="AB5"/>
+      <c r="AC5"/>
+      <c r="AD5"/>
+    </row>
+    <row r="6" s="1" customFormat="1" spans="1:30">
+      <c r="A6" s="1" t="s">
+        <v>311</v>
+      </c>
+      <c r="B6"/>
+      <c r="C6"/>
+      <c r="D6"/>
+      <c r="E6"/>
+      <c r="F6"/>
+      <c r="G6"/>
+      <c r="H6"/>
+      <c r="I6"/>
+      <c r="J6"/>
+      <c r="K6"/>
+      <c r="L6"/>
+      <c r="M6"/>
+      <c r="N6"/>
+      <c r="O6"/>
+      <c r="P6"/>
+      <c r="Q6"/>
+      <c r="R6"/>
+      <c r="S6"/>
+      <c r="T6"/>
+      <c r="U6"/>
+      <c r="V6"/>
+      <c r="W6"/>
+      <c r="X6"/>
+      <c r="Y6"/>
+      <c r="Z6"/>
+      <c r="AA6"/>
+      <c r="AB6"/>
+      <c r="AC6"/>
+      <c r="AD6"/>
+    </row>
+    <row r="7" s="1" customFormat="1" spans="2:30">
+      <c r="B7" t="s">
+        <v>312</v>
+      </c>
+      <c r="C7"/>
+      <c r="D7"/>
+      <c r="E7"/>
+      <c r="F7"/>
+      <c r="G7"/>
+      <c r="H7"/>
+      <c r="I7"/>
+      <c r="J7"/>
+      <c r="K7"/>
+      <c r="L7"/>
+      <c r="M7"/>
+      <c r="N7"/>
+      <c r="O7"/>
+      <c r="P7"/>
+      <c r="Q7"/>
+      <c r="R7"/>
+      <c r="S7"/>
+      <c r="T7"/>
+      <c r="U7"/>
+      <c r="V7"/>
+      <c r="W7"/>
+      <c r="X7"/>
+      <c r="Y7"/>
+      <c r="Z7"/>
+      <c r="AA7"/>
+      <c r="AB7"/>
+      <c r="AC7"/>
+      <c r="AD7"/>
+    </row>
+    <row r="8" s="1" customFormat="1" spans="1:30">
+      <c r="A8" s="1" t="s">
+        <v>313</v>
+      </c>
+      <c r="B8"/>
+      <c r="C8"/>
+      <c r="D8"/>
+      <c r="E8"/>
+      <c r="F8"/>
+      <c r="G8"/>
+      <c r="H8"/>
+      <c r="I8"/>
+      <c r="J8"/>
+      <c r="K8"/>
+      <c r="L8"/>
+      <c r="M8"/>
+      <c r="N8"/>
+      <c r="O8"/>
+      <c r="P8"/>
+      <c r="Q8"/>
+      <c r="R8"/>
+      <c r="S8"/>
+      <c r="T8"/>
+      <c r="U8"/>
+      <c r="V8"/>
+      <c r="W8"/>
+      <c r="X8"/>
+      <c r="Y8"/>
+      <c r="Z8"/>
+      <c r="AA8"/>
+      <c r="AB8"/>
+      <c r="AC8"/>
+      <c r="AD8"/>
+    </row>
+    <row r="9" s="1" customFormat="1" spans="2:30">
+      <c r="B9" t="s">
+        <v>314</v>
+      </c>
+      <c r="C9"/>
+      <c r="D9"/>
+      <c r="E9"/>
+      <c r="F9"/>
+      <c r="G9"/>
+      <c r="H9"/>
+      <c r="I9"/>
+      <c r="J9"/>
+      <c r="K9"/>
+      <c r="L9"/>
+      <c r="M9"/>
+      <c r="N9"/>
+      <c r="O9"/>
+      <c r="P9"/>
+      <c r="Q9"/>
+      <c r="R9"/>
+      <c r="S9"/>
+      <c r="T9"/>
+      <c r="U9"/>
+      <c r="V9"/>
+      <c r="W9"/>
+      <c r="X9"/>
+      <c r="Y9"/>
+      <c r="Z9"/>
+      <c r="AA9"/>
+      <c r="AB9"/>
+      <c r="AC9"/>
+      <c r="AD9"/>
+    </row>
+    <row r="10" s="1" customFormat="1" spans="1:30">
+      <c r="A10" s="1" t="s">
+        <v>315</v>
+      </c>
+      <c r="B10"/>
+      <c r="C10"/>
+      <c r="D10"/>
+      <c r="E10"/>
+      <c r="F10"/>
+      <c r="G10"/>
+      <c r="H10"/>
+      <c r="I10"/>
+      <c r="J10"/>
+      <c r="K10"/>
+      <c r="L10"/>
+      <c r="M10"/>
+      <c r="N10"/>
+      <c r="O10"/>
+      <c r="P10"/>
+      <c r="Q10"/>
+      <c r="R10"/>
+      <c r="S10"/>
+      <c r="T10"/>
+      <c r="U10"/>
+      <c r="V10"/>
+      <c r="W10"/>
+      <c r="X10"/>
+      <c r="Y10"/>
+      <c r="Z10"/>
+      <c r="AA10"/>
+      <c r="AB10"/>
+      <c r="AC10"/>
+      <c r="AD10"/>
+    </row>
+    <row r="11" s="1" customFormat="1" spans="2:30">
+      <c r="B11" t="s">
+        <v>314</v>
+      </c>
+      <c r="C11"/>
+      <c r="D11"/>
+      <c r="E11"/>
+      <c r="F11"/>
+      <c r="G11"/>
+      <c r="H11"/>
+      <c r="I11"/>
+      <c r="J11"/>
+      <c r="K11"/>
+      <c r="L11"/>
+      <c r="M11"/>
+      <c r="N11"/>
+      <c r="O11"/>
+      <c r="P11"/>
+      <c r="Q11"/>
+      <c r="R11"/>
+      <c r="S11"/>
+      <c r="T11"/>
+      <c r="U11"/>
+      <c r="V11"/>
+      <c r="W11"/>
+      <c r="X11"/>
+      <c r="Y11"/>
+      <c r="Z11"/>
+      <c r="AA11"/>
+      <c r="AB11"/>
+      <c r="AC11"/>
+      <c r="AD11"/>
+    </row>
+    <row r="12" s="1" customFormat="1" spans="1:30">
+      <c r="A12" s="1" t="s">
+        <v>316</v>
+      </c>
+      <c r="B12"/>
+      <c r="C12"/>
+      <c r="D12"/>
+      <c r="E12"/>
+      <c r="F12"/>
+      <c r="G12"/>
+      <c r="H12"/>
+      <c r="I12"/>
+      <c r="J12"/>
+      <c r="K12"/>
+      <c r="L12"/>
+      <c r="M12"/>
+      <c r="N12"/>
+      <c r="O12"/>
+      <c r="P12"/>
+      <c r="Q12"/>
+      <c r="R12"/>
+      <c r="S12"/>
+      <c r="T12"/>
+      <c r="U12"/>
+      <c r="V12"/>
+      <c r="W12"/>
+      <c r="X12"/>
+      <c r="Y12"/>
+      <c r="Z12"/>
+      <c r="AA12"/>
+      <c r="AB12"/>
+      <c r="AC12"/>
+      <c r="AD12"/>
+    </row>
+    <row r="13" s="1" customFormat="1" spans="2:30">
+      <c r="B13" t="s">
+        <v>317</v>
+      </c>
+      <c r="C13"/>
+      <c r="D13"/>
+      <c r="E13"/>
+      <c r="F13"/>
+      <c r="G13"/>
+      <c r="H13"/>
+      <c r="I13"/>
+      <c r="J13"/>
+      <c r="K13"/>
+      <c r="L13"/>
+      <c r="M13"/>
+      <c r="N13"/>
+      <c r="O13"/>
+      <c r="P13"/>
+      <c r="Q13"/>
+      <c r="R13"/>
+      <c r="S13"/>
+      <c r="T13"/>
+      <c r="U13"/>
+      <c r="V13"/>
+      <c r="W13"/>
+      <c r="X13"/>
+      <c r="Y13"/>
+      <c r="Z13"/>
+      <c r="AA13"/>
+      <c r="AB13"/>
+      <c r="AC13"/>
+      <c r="AD13"/>
+    </row>
+    <row r="14" s="1" customFormat="1" spans="1:30">
+      <c r="A14" s="1" t="s">
+        <v>318</v>
+      </c>
+      <c r="B14"/>
+      <c r="C14"/>
+      <c r="D14"/>
+      <c r="E14"/>
+      <c r="F14"/>
+      <c r="G14"/>
+      <c r="H14"/>
+      <c r="I14"/>
+      <c r="J14"/>
+      <c r="K14"/>
+      <c r="L14"/>
+      <c r="M14"/>
+      <c r="N14"/>
+      <c r="O14"/>
+      <c r="P14"/>
+      <c r="Q14"/>
+      <c r="R14"/>
+      <c r="S14"/>
+      <c r="T14"/>
+      <c r="U14"/>
+      <c r="V14"/>
+      <c r="W14"/>
+      <c r="X14"/>
+      <c r="Y14"/>
+      <c r="Z14"/>
+      <c r="AA14"/>
+      <c r="AB14"/>
+      <c r="AC14"/>
+      <c r="AD14"/>
+    </row>
+    <row r="15" s="1" customFormat="1" spans="1:30">
+      <c r="A15" s="1" t="s">
+        <v>319</v>
+      </c>
+      <c r="B15"/>
+      <c r="C15"/>
+      <c r="D15"/>
+      <c r="E15"/>
+      <c r="F15"/>
+      <c r="G15"/>
+      <c r="H15"/>
+      <c r="I15"/>
+      <c r="J15"/>
+      <c r="K15"/>
+      <c r="L15"/>
+      <c r="M15"/>
+      <c r="N15"/>
+      <c r="O15"/>
+      <c r="P15"/>
+      <c r="Q15"/>
+      <c r="R15"/>
+      <c r="S15"/>
+      <c r="T15"/>
+      <c r="U15"/>
+      <c r="V15"/>
+      <c r="W15"/>
+      <c r="X15"/>
+      <c r="Y15"/>
+      <c r="Z15"/>
+      <c r="AA15"/>
+      <c r="AB15"/>
+      <c r="AC15"/>
+      <c r="AD15"/>
+    </row>
+    <row r="16" s="1" customFormat="1" spans="2:30">
+      <c r="B16" t="s">
+        <v>320</v>
+      </c>
+      <c r="C16"/>
+      <c r="D16"/>
+      <c r="E16"/>
+      <c r="F16"/>
+      <c r="G16"/>
+      <c r="H16"/>
+      <c r="I16"/>
+      <c r="J16"/>
+      <c r="K16"/>
+      <c r="L16"/>
+      <c r="M16"/>
+      <c r="N16"/>
+      <c r="O16"/>
+      <c r="P16"/>
+      <c r="Q16"/>
+      <c r="R16"/>
+      <c r="S16"/>
+      <c r="T16"/>
+      <c r="U16"/>
+      <c r="V16"/>
+      <c r="W16"/>
+      <c r="X16"/>
+      <c r="Y16"/>
+      <c r="Z16"/>
+      <c r="AA16"/>
+      <c r="AB16"/>
+      <c r="AC16"/>
+      <c r="AD16"/>
+    </row>
+    <row r="17" s="1" customFormat="1" spans="1:30">
+      <c r="A17" s="1" t="s">
+        <v>321</v>
+      </c>
+      <c r="B17"/>
+      <c r="C17"/>
+      <c r="D17"/>
+      <c r="E17"/>
+      <c r="F17"/>
+      <c r="G17"/>
+      <c r="H17"/>
+      <c r="I17"/>
+      <c r="J17"/>
+      <c r="K17"/>
+      <c r="L17"/>
+      <c r="M17"/>
+      <c r="N17"/>
+      <c r="O17"/>
+      <c r="P17"/>
+      <c r="Q17"/>
+      <c r="R17"/>
+      <c r="S17"/>
+      <c r="T17"/>
+      <c r="U17"/>
+      <c r="V17"/>
+      <c r="W17"/>
+      <c r="X17"/>
+      <c r="Y17"/>
+      <c r="Z17"/>
+      <c r="AA17"/>
+      <c r="AB17"/>
+      <c r="AC17"/>
+      <c r="AD17"/>
+    </row>
+    <row r="18" s="1" customFormat="1" spans="2:30">
+      <c r="B18" t="s">
+        <v>322</v>
+      </c>
+      <c r="C18"/>
+      <c r="D18"/>
+      <c r="E18"/>
+      <c r="F18"/>
+      <c r="G18"/>
+      <c r="H18"/>
+      <c r="I18"/>
+      <c r="J18"/>
+      <c r="K18"/>
+      <c r="L18"/>
+      <c r="M18"/>
+      <c r="N18"/>
+      <c r="O18"/>
+      <c r="P18"/>
+      <c r="Q18"/>
+      <c r="R18"/>
+      <c r="S18"/>
+      <c r="T18"/>
+      <c r="U18"/>
+      <c r="V18"/>
+      <c r="W18"/>
+      <c r="X18"/>
+      <c r="Y18"/>
+      <c r="Z18"/>
+      <c r="AA18"/>
+      <c r="AB18"/>
+      <c r="AC18"/>
+      <c r="AD18"/>
+    </row>
+    <row r="19" s="1" customFormat="1" spans="2:30">
+      <c r="B19" t="s">
+        <v>323</v>
+      </c>
+      <c r="C19"/>
+      <c r="D19"/>
+      <c r="E19"/>
+      <c r="F19"/>
+      <c r="G19"/>
+      <c r="H19"/>
+      <c r="I19"/>
+      <c r="J19"/>
+      <c r="K19"/>
+      <c r="L19"/>
+      <c r="M19"/>
+      <c r="N19"/>
+      <c r="O19"/>
+      <c r="P19"/>
+      <c r="Q19"/>
+      <c r="R19"/>
+      <c r="S19"/>
+      <c r="T19"/>
+      <c r="U19"/>
+      <c r="V19"/>
+      <c r="W19"/>
+      <c r="X19"/>
+      <c r="Y19"/>
+      <c r="Z19"/>
+      <c r="AA19"/>
+      <c r="AB19"/>
+      <c r="AC19"/>
+      <c r="AD19"/>
+    </row>
+    <row r="20" s="1" customFormat="1" spans="1:30">
+      <c r="A20" s="1" t="s">
+        <v>324</v>
+      </c>
+      <c r="B20"/>
+      <c r="C20"/>
+      <c r="D20"/>
+      <c r="E20"/>
+      <c r="F20"/>
+      <c r="G20"/>
+      <c r="H20"/>
+      <c r="I20"/>
+      <c r="J20"/>
+      <c r="K20"/>
+      <c r="L20"/>
+      <c r="M20"/>
+      <c r="N20"/>
+      <c r="O20"/>
+      <c r="P20"/>
+      <c r="Q20"/>
+      <c r="R20"/>
+      <c r="S20"/>
+      <c r="T20"/>
+      <c r="U20"/>
+      <c r="V20"/>
+      <c r="W20"/>
+      <c r="X20"/>
+      <c r="Y20"/>
+      <c r="Z20"/>
+      <c r="AA20"/>
+      <c r="AB20"/>
+      <c r="AC20"/>
+      <c r="AD20"/>
+    </row>
+    <row r="21" s="1" customFormat="1" spans="2:30">
+      <c r="B21" t="s">
+        <v>325</v>
+      </c>
+      <c r="C21"/>
+      <c r="D21"/>
+      <c r="E21"/>
+      <c r="F21"/>
+      <c r="G21"/>
+      <c r="H21"/>
+      <c r="I21"/>
+      <c r="J21"/>
+      <c r="K21"/>
+      <c r="L21"/>
+      <c r="M21"/>
+      <c r="N21"/>
+      <c r="O21"/>
+      <c r="P21"/>
+      <c r="Q21"/>
+      <c r="R21"/>
+      <c r="S21"/>
+      <c r="T21"/>
+      <c r="U21"/>
+      <c r="V21"/>
+      <c r="W21"/>
+      <c r="X21"/>
+      <c r="Y21"/>
+      <c r="Z21"/>
+      <c r="AA21"/>
+      <c r="AB21"/>
+      <c r="AC21"/>
+      <c r="AD21"/>
+    </row>
+    <row r="22" s="1" customFormat="1" spans="2:30">
+      <c r="B22"/>
+      <c r="C22"/>
+      <c r="D22"/>
+      <c r="E22"/>
+      <c r="F22"/>
+      <c r="G22"/>
+      <c r="H22"/>
+      <c r="I22"/>
+      <c r="J22"/>
+      <c r="K22"/>
+      <c r="L22"/>
+      <c r="M22"/>
+      <c r="N22"/>
+      <c r="O22"/>
+      <c r="P22"/>
+      <c r="Q22"/>
+      <c r="R22"/>
+      <c r="S22"/>
+      <c r="T22"/>
+      <c r="U22"/>
+      <c r="V22"/>
+      <c r="W22"/>
+      <c r="X22"/>
+      <c r="Y22"/>
+      <c r="Z22"/>
+      <c r="AA22"/>
+      <c r="AB22"/>
+      <c r="AC22"/>
+      <c r="AD22"/>
+    </row>
+    <row r="23" s="1" customFormat="1" spans="2:30">
+      <c r="B23"/>
+      <c r="C23"/>
+      <c r="D23"/>
+      <c r="E23"/>
+      <c r="F23"/>
+      <c r="G23"/>
+      <c r="H23"/>
+      <c r="I23"/>
+      <c r="J23"/>
+      <c r="K23"/>
+      <c r="L23"/>
+      <c r="M23"/>
+      <c r="N23"/>
+      <c r="O23"/>
+      <c r="P23"/>
+      <c r="Q23"/>
+      <c r="R23"/>
+      <c r="S23"/>
+      <c r="T23"/>
+      <c r="U23"/>
+      <c r="V23"/>
+      <c r="W23"/>
+      <c r="X23"/>
+      <c r="Y23"/>
+      <c r="Z23"/>
+      <c r="AA23"/>
+      <c r="AB23"/>
+      <c r="AC23"/>
+      <c r="AD23"/>
+    </row>
+    <row r="24" s="1" customFormat="1" spans="2:30">
+      <c r="B24"/>
+      <c r="C24"/>
+      <c r="D24"/>
+      <c r="E24"/>
+      <c r="F24"/>
+      <c r="G24"/>
+      <c r="H24"/>
+      <c r="I24"/>
+      <c r="J24"/>
+      <c r="K24"/>
+      <c r="L24"/>
+      <c r="M24"/>
+      <c r="N24"/>
+      <c r="O24"/>
+      <c r="P24"/>
+      <c r="Q24"/>
+      <c r="R24"/>
+      <c r="S24"/>
+      <c r="T24"/>
+      <c r="U24"/>
+      <c r="V24"/>
+      <c r="W24"/>
+      <c r="X24"/>
+      <c r="Y24"/>
+      <c r="Z24"/>
+      <c r="AA24"/>
+      <c r="AB24"/>
+      <c r="AC24"/>
+      <c r="AD24"/>
+    </row>
+    <row r="25" s="1" customFormat="1" spans="2:30">
+      <c r="B25"/>
+      <c r="C25"/>
+      <c r="D25"/>
+      <c r="E25"/>
+      <c r="F25"/>
+      <c r="G25"/>
+      <c r="H25"/>
+      <c r="I25"/>
+      <c r="J25"/>
+      <c r="K25"/>
+      <c r="L25"/>
+      <c r="M25"/>
+      <c r="N25"/>
+      <c r="O25"/>
+      <c r="P25"/>
       <c r="Q25"/>
       <c r="R25"/>
       <c r="S25"/>
@@ -4627,10 +5395,22 @@
       <c r="AC25"/>
       <c r="AD25"/>
     </row>
-    <row r="26" s="1" customFormat="1" spans="4:30">
-      <c r="D26" s="1" t="s">
-        <v>68</v>
-      </c>
+    <row r="26" s="1" customFormat="1" spans="2:30">
+      <c r="B26"/>
+      <c r="C26"/>
+      <c r="D26"/>
+      <c r="E26"/>
+      <c r="F26"/>
+      <c r="G26"/>
+      <c r="H26"/>
+      <c r="I26"/>
+      <c r="J26"/>
+      <c r="K26"/>
+      <c r="L26"/>
+      <c r="M26"/>
+      <c r="N26"/>
+      <c r="O26"/>
+      <c r="P26"/>
       <c r="Q26"/>
       <c r="R26"/>
       <c r="S26"/>
@@ -4646,10 +5426,22 @@
       <c r="AC26"/>
       <c r="AD26"/>
     </row>
-    <row r="27" s="1" customFormat="1" spans="3:30">
-      <c r="C27" s="1" t="s">
-        <v>69</v>
-      </c>
+    <row r="27" s="1" customFormat="1" spans="2:30">
+      <c r="B27"/>
+      <c r="C27"/>
+      <c r="D27"/>
+      <c r="E27"/>
+      <c r="F27"/>
+      <c r="G27"/>
+      <c r="H27"/>
+      <c r="I27"/>
+      <c r="J27"/>
+      <c r="K27"/>
+      <c r="L27"/>
+      <c r="M27"/>
+      <c r="N27"/>
+      <c r="O27"/>
+      <c r="P27"/>
       <c r="Q27"/>
       <c r="R27"/>
       <c r="S27"/>
@@ -4668,9 +5460,7 @@
     <row r="28" s="1" customFormat="1" spans="2:30">
       <c r="B28"/>
       <c r="C28"/>
-      <c r="D28" t="s">
-        <v>70</v>
-      </c>
+      <c r="D28"/>
       <c r="E28"/>
       <c r="F28"/>
       <c r="G28"/>
@@ -4698,10 +5488,17 @@
       <c r="AC28"/>
       <c r="AD28"/>
     </row>
-    <row r="29" s="1" customFormat="1" spans="4:30">
-      <c r="D29" s="1" t="s">
-        <v>71</v>
-      </c>
+    <row r="29" s="1" customFormat="1" spans="2:30">
+      <c r="B29"/>
+      <c r="C29"/>
+      <c r="D29"/>
+      <c r="E29"/>
+      <c r="F29"/>
+      <c r="G29"/>
+      <c r="H29"/>
+      <c r="I29"/>
+      <c r="J29"/>
+      <c r="K29"/>
       <c r="L29"/>
       <c r="M29"/>
       <c r="N29"/>
@@ -4725,9 +5522,7 @@
     <row r="30" s="1" customFormat="1" spans="2:30">
       <c r="B30"/>
       <c r="C30"/>
-      <c r="D30" s="1" t="s">
-        <v>72</v>
-      </c>
+      <c r="D30"/>
       <c r="E30"/>
       <c r="F30"/>
       <c r="G30"/>
@@ -4757,9 +5552,7 @@
     </row>
     <row r="31" s="1" customFormat="1" spans="2:30">
       <c r="B31"/>
-      <c r="C31" t="s">
-        <v>73</v>
-      </c>
+      <c r="C31"/>
       <c r="D31"/>
       <c r="E31"/>
       <c r="F31"/>
@@ -4788,6 +5581,363 @@
       <c r="AC31"/>
       <c r="AD31"/>
     </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:AE86"/>
+  <sheetViews>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="K7" sqref="K7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="4.875" defaultRowHeight="13.5"/>
+  <cols>
+    <col min="1" max="16384" width="4.875" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" s="1" customFormat="1" ht="22.5" spans="9:31">
+      <c r="I1" s="2"/>
+      <c r="J1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="V1" s="3"/>
+      <c r="W1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="X1" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="Y1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="Z1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="AA1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="AE1" s="3"/>
+    </row>
+    <row r="2" spans="23:27">
+      <c r="W2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="X2" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="Y2" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="Z2" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="AA2" s="4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" s="1" customFormat="1" spans="1:1">
+      <c r="A3" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="4" spans="2:2">
+      <c r="B4" s="1" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="5" s="1" customFormat="1" spans="2:31">
+      <c r="B5" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="V5" s="3"/>
+      <c r="X5" s="3"/>
+      <c r="AE5" s="3"/>
+    </row>
+    <row r="6" s="1" customFormat="1" spans="3:27">
+      <c r="C6" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="X6" s="3"/>
+      <c r="AA6" s="4"/>
+    </row>
+    <row r="7" spans="3:3">
+      <c r="C7" s="1" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="8" spans="3:3">
+      <c r="C8" s="1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="9" spans="3:3">
+      <c r="C9" s="1" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="10" spans="2:2">
+      <c r="B10" s="1" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="11" spans="3:3">
+      <c r="C11" s="1" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="12" spans="3:3">
+      <c r="C12" s="1" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="13" spans="3:3">
+      <c r="C13" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="14" s="1" customFormat="1" spans="3:5">
+      <c r="C14" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="E14" s="3"/>
+    </row>
+    <row r="15" s="1" customFormat="1" spans="4:5">
+      <c r="D15" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="E15" s="3"/>
+    </row>
+    <row r="16" spans="4:4">
+      <c r="D16" s="1" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="17" s="1" customFormat="1" spans="4:4">
+      <c r="D17" s="1" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="18" s="1" customFormat="1" spans="3:3">
+      <c r="C18" s="1" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="19" spans="4:4">
+      <c r="D19" s="1" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="20" spans="3:3">
+      <c r="C20" s="1" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="21" s="1" customFormat="1" spans="4:4">
+      <c r="D21" s="1" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="22" spans="3:3">
+      <c r="C22" s="1" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="23" s="1" customFormat="1" spans="2:2">
+      <c r="B23" s="1" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="24" s="1" customFormat="1" spans="3:3">
+      <c r="C24" s="1" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="25" s="1" customFormat="1" spans="3:30">
+      <c r="C25" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="Q25"/>
+      <c r="R25"/>
+      <c r="S25"/>
+      <c r="T25"/>
+      <c r="U25"/>
+      <c r="V25"/>
+      <c r="W25"/>
+      <c r="X25"/>
+      <c r="Y25"/>
+      <c r="Z25"/>
+      <c r="AA25"/>
+      <c r="AB25"/>
+      <c r="AC25"/>
+      <c r="AD25"/>
+    </row>
+    <row r="26" s="1" customFormat="1" spans="4:30">
+      <c r="D26" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="Q26"/>
+      <c r="R26"/>
+      <c r="S26"/>
+      <c r="T26"/>
+      <c r="U26"/>
+      <c r="V26"/>
+      <c r="W26"/>
+      <c r="X26"/>
+      <c r="Y26"/>
+      <c r="Z26"/>
+      <c r="AA26"/>
+      <c r="AB26"/>
+      <c r="AC26"/>
+      <c r="AD26"/>
+    </row>
+    <row r="27" s="1" customFormat="1" spans="3:30">
+      <c r="C27" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="Q27"/>
+      <c r="R27"/>
+      <c r="S27"/>
+      <c r="T27"/>
+      <c r="U27"/>
+      <c r="V27"/>
+      <c r="W27"/>
+      <c r="X27"/>
+      <c r="Y27"/>
+      <c r="Z27"/>
+      <c r="AA27"/>
+      <c r="AB27"/>
+      <c r="AC27"/>
+      <c r="AD27"/>
+    </row>
+    <row r="28" s="1" customFormat="1" spans="2:30">
+      <c r="B28"/>
+      <c r="C28"/>
+      <c r="D28" t="s">
+        <v>70</v>
+      </c>
+      <c r="E28"/>
+      <c r="F28"/>
+      <c r="G28"/>
+      <c r="H28"/>
+      <c r="I28"/>
+      <c r="J28"/>
+      <c r="K28"/>
+      <c r="L28"/>
+      <c r="M28"/>
+      <c r="N28"/>
+      <c r="O28"/>
+      <c r="P28"/>
+      <c r="Q28"/>
+      <c r="R28"/>
+      <c r="S28"/>
+      <c r="T28"/>
+      <c r="U28"/>
+      <c r="V28"/>
+      <c r="W28"/>
+      <c r="X28"/>
+      <c r="Y28"/>
+      <c r="Z28"/>
+      <c r="AA28"/>
+      <c r="AB28"/>
+      <c r="AC28"/>
+      <c r="AD28"/>
+    </row>
+    <row r="29" s="1" customFormat="1" spans="4:30">
+      <c r="D29" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="L29"/>
+      <c r="M29"/>
+      <c r="N29"/>
+      <c r="O29"/>
+      <c r="P29"/>
+      <c r="Q29"/>
+      <c r="R29"/>
+      <c r="S29"/>
+      <c r="T29"/>
+      <c r="U29"/>
+      <c r="V29"/>
+      <c r="W29"/>
+      <c r="X29"/>
+      <c r="Y29"/>
+      <c r="Z29"/>
+      <c r="AA29"/>
+      <c r="AB29"/>
+      <c r="AC29"/>
+      <c r="AD29"/>
+    </row>
+    <row r="30" s="1" customFormat="1" spans="2:30">
+      <c r="B30"/>
+      <c r="C30"/>
+      <c r="D30" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="E30"/>
+      <c r="F30"/>
+      <c r="G30"/>
+      <c r="H30"/>
+      <c r="I30"/>
+      <c r="J30"/>
+      <c r="K30"/>
+      <c r="L30"/>
+      <c r="M30"/>
+      <c r="N30"/>
+      <c r="O30"/>
+      <c r="P30"/>
+      <c r="Q30"/>
+      <c r="R30"/>
+      <c r="S30"/>
+      <c r="T30"/>
+      <c r="U30"/>
+      <c r="V30"/>
+      <c r="W30"/>
+      <c r="X30"/>
+      <c r="Y30"/>
+      <c r="Z30"/>
+      <c r="AA30"/>
+      <c r="AB30"/>
+      <c r="AC30"/>
+      <c r="AD30"/>
+    </row>
+    <row r="31" s="1" customFormat="1" spans="2:30">
+      <c r="B31"/>
+      <c r="C31" t="s">
+        <v>73</v>
+      </c>
+      <c r="D31"/>
+      <c r="E31"/>
+      <c r="F31"/>
+      <c r="G31"/>
+      <c r="H31"/>
+      <c r="I31"/>
+      <c r="J31"/>
+      <c r="K31"/>
+      <c r="L31"/>
+      <c r="M31"/>
+      <c r="N31"/>
+      <c r="O31"/>
+      <c r="P31"/>
+      <c r="Q31"/>
+      <c r="R31"/>
+      <c r="S31"/>
+      <c r="T31"/>
+      <c r="U31"/>
+      <c r="V31"/>
+      <c r="W31"/>
+      <c r="X31"/>
+      <c r="Y31"/>
+      <c r="Z31"/>
+      <c r="AA31"/>
+      <c r="AB31"/>
+      <c r="AC31"/>
+      <c r="AD31"/>
+    </row>
     <row r="32" s="1" customFormat="1" spans="2:30">
       <c r="B32"/>
       <c r="C32"/>
@@ -5110,7 +6260,7 @@
     <row r="42" s="1" customFormat="1" spans="2:30">
       <c r="B42"/>
       <c r="C42"/>
-      <c r="D42" s="2"/>
+      <c r="D42" s="3"/>
       <c r="E42"/>
       <c r="F42"/>
       <c r="G42"/>
@@ -5141,7 +6291,7 @@
     <row r="43" s="1" customFormat="1" spans="2:30">
       <c r="B43"/>
       <c r="C43"/>
-      <c r="D43" s="2"/>
+      <c r="D43" s="3"/>
       <c r="E43"/>
       <c r="F43"/>
       <c r="G43"/>
@@ -5468,7 +6618,7 @@
       <c r="R53"/>
       <c r="S53"/>
       <c r="T53"/>
-      <c r="V53" s="2"/>
+      <c r="V53" s="3"/>
       <c r="AB53"/>
       <c r="AC53"/>
       <c r="AD53"/>
@@ -5493,7 +6643,7 @@
       <c r="R54"/>
       <c r="S54"/>
       <c r="T54"/>
-      <c r="V54" s="2"/>
+      <c r="V54" s="3"/>
       <c r="Y54" s="4"/>
       <c r="AB54"/>
       <c r="AC54"/>
@@ -6512,15 +7662,15 @@
   </cols>
   <sheetData>
     <row r="1" s="1" customFormat="1" ht="22.5" spans="9:31">
-      <c r="I1" s="3"/>
-      <c r="J1" s="3" t="s">
+      <c r="I1" s="2"/>
+      <c r="J1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="V1" s="2"/>
+      <c r="V1" s="3"/>
       <c r="W1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="X1" s="2" t="s">
+      <c r="X1" s="3" t="s">
         <v>2</v>
       </c>
       <c r="Y1" s="1" t="s">
@@ -6532,13 +7682,13 @@
       <c r="AA1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="AE1" s="2"/>
+      <c r="AE1" s="3"/>
     </row>
     <row r="2" s="1" customFormat="1" spans="23:27">
       <c r="W2" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="X2" s="2" t="s">
+      <c r="X2" s="3" t="s">
         <v>7</v>
       </c>
       <c r="Y2" s="1" t="s">
@@ -6565,15 +7715,15 @@
       <c r="B5" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="V5" s="2"/>
-      <c r="X5" s="2"/>
-      <c r="AE5" s="2"/>
+      <c r="V5" s="3"/>
+      <c r="X5" s="3"/>
+      <c r="AE5" s="3"/>
     </row>
     <row r="6" s="1" customFormat="1" spans="2:27">
       <c r="B6" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="X6" s="2"/>
+      <c r="X6" s="3"/>
       <c r="AA6" s="4"/>
     </row>
     <row r="7" s="1" customFormat="1" spans="3:3">
@@ -6615,13 +7765,13 @@
       <c r="C14" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="E14" s="2"/>
+      <c r="E14" s="3"/>
     </row>
     <row r="15" s="1" customFormat="1" spans="4:5">
       <c r="D15" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="E15" s="2"/>
+      <c r="E15" s="3"/>
     </row>
     <row r="16" s="1" customFormat="1" spans="3:3">
       <c r="C16" s="1" t="s">
@@ -6990,7 +8140,7 @@
     <row r="37" s="1" customFormat="1" spans="2:30">
       <c r="B37"/>
       <c r="C37"/>
-      <c r="D37" s="2" t="s">
+      <c r="D37" s="3" t="s">
         <v>109</v>
       </c>
       <c r="E37"/>
@@ -7135,7 +8285,7 @@
       <c r="C42" t="s">
         <v>114</v>
       </c>
-      <c r="D42" s="2"/>
+      <c r="D42" s="3"/>
       <c r="E42"/>
       <c r="F42"/>
       <c r="G42"/>
@@ -7166,7 +8316,7 @@
     <row r="43" s="1" customFormat="1" spans="2:30">
       <c r="B43"/>
       <c r="C43"/>
-      <c r="D43" s="2" t="s">
+      <c r="D43" s="3" t="s">
         <v>115</v>
       </c>
       <c r="E43"/>
@@ -7503,7 +8653,7 @@
       <c r="R53"/>
       <c r="S53"/>
       <c r="T53"/>
-      <c r="V53" s="2"/>
+      <c r="V53" s="3"/>
       <c r="AB53"/>
       <c r="AC53"/>
       <c r="AD53"/>
@@ -7528,7 +8678,7 @@
       <c r="R54"/>
       <c r="S54"/>
       <c r="T54"/>
-      <c r="V54" s="2"/>
+      <c r="V54" s="3"/>
       <c r="Y54" s="4"/>
       <c r="AB54"/>
       <c r="AC54"/>
@@ -8394,7 +9544,7 @@
       <c r="R81" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="S81" s="2" t="s">
+      <c r="S81" s="3" t="s">
         <v>2</v>
       </c>
       <c r="T81" s="1" t="s">
@@ -8434,7 +9584,7 @@
       <c r="R82" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="S82" s="2" t="s">
+      <c r="S82" s="3" t="s">
         <v>7</v>
       </c>
       <c r="T82" s="1" t="s">
@@ -8600,15 +9750,15 @@
   </cols>
   <sheetData>
     <row r="1" s="1" customFormat="1" ht="22.5" spans="9:31">
-      <c r="I1" s="3"/>
-      <c r="J1" s="3" t="s">
+      <c r="I1" s="2"/>
+      <c r="J1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="V1" s="2"/>
+      <c r="V1" s="3"/>
       <c r="W1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="X1" s="2" t="s">
+      <c r="X1" s="3" t="s">
         <v>2</v>
       </c>
       <c r="Y1" s="1" t="s">
@@ -8620,13 +9770,13 @@
       <c r="AA1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="AE1" s="2"/>
+      <c r="AE1" s="3"/>
     </row>
     <row r="2" s="1" customFormat="1" spans="23:27">
       <c r="W2" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="X2" s="2" t="s">
+      <c r="X2" s="3" t="s">
         <v>7</v>
       </c>
       <c r="Y2" s="1" t="s">
@@ -8653,15 +9803,15 @@
       <c r="B5" s="1" t="s">
         <v>141</v>
       </c>
-      <c r="V5" s="2"/>
-      <c r="X5" s="2"/>
-      <c r="AE5" s="2"/>
+      <c r="V5" s="3"/>
+      <c r="X5" s="3"/>
+      <c r="AE5" s="3"/>
     </row>
     <row r="6" s="1" customFormat="1" spans="2:27">
       <c r="B6" s="1" t="s">
         <v>142</v>
       </c>
-      <c r="X6" s="2"/>
+      <c r="X6" s="3"/>
       <c r="AA6" s="4"/>
     </row>
     <row r="7" s="1" customFormat="1" spans="3:3">
@@ -8711,7 +9861,7 @@
       <c r="O13" s="6"/>
     </row>
     <row r="14" s="1" customFormat="1" spans="5:15">
-      <c r="E14" s="2"/>
+      <c r="E14" s="3"/>
       <c r="J14" s="6">
         <v>1</v>
       </c>
@@ -8728,7 +9878,7 @@
       <c r="O14" s="6"/>
     </row>
     <row r="15" s="1" customFormat="1" spans="5:15">
-      <c r="E15" s="2"/>
+      <c r="E15" s="3"/>
       <c r="J15" s="6">
         <v>0</v>
       </c>
@@ -9167,7 +10317,7 @@
     <row r="37" s="1" customFormat="1" spans="2:30">
       <c r="B37"/>
       <c r="C37"/>
-      <c r="D37" s="2"/>
+      <c r="D37" s="3"/>
       <c r="E37"/>
       <c r="F37"/>
       <c r="G37"/>
@@ -9305,7 +10455,7 @@
       <c r="C42" t="s">
         <v>166</v>
       </c>
-      <c r="D42" s="2"/>
+      <c r="D42" s="3"/>
       <c r="E42"/>
       <c r="F42"/>
       <c r="G42"/>
@@ -9336,7 +10486,7 @@
     <row r="43" s="1" customFormat="1" spans="2:30">
       <c r="B43"/>
       <c r="C43"/>
-      <c r="D43" s="2" t="s">
+      <c r="D43" s="3" t="s">
         <v>167</v>
       </c>
       <c r="E43"/>
@@ -9427,7 +10577,7 @@
       <c r="X45" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="Y45" s="2" t="s">
+      <c r="Y45" s="3" t="s">
         <v>2</v>
       </c>
       <c r="Z45" s="1" t="s">
@@ -9468,7 +10618,7 @@
       <c r="X46" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="Y46" s="2" t="s">
+      <c r="Y46" s="3" t="s">
         <v>7</v>
       </c>
       <c r="Z46" s="1" t="s">
@@ -9733,7 +10883,7 @@
       <c r="R53"/>
       <c r="S53"/>
       <c r="T53"/>
-      <c r="V53" s="2"/>
+      <c r="V53" s="3"/>
       <c r="AB53"/>
       <c r="AC53"/>
       <c r="AD53"/>
@@ -9768,7 +10918,7 @@
       <c r="R54"/>
       <c r="S54"/>
       <c r="T54"/>
-      <c r="V54" s="2"/>
+      <c r="V54" s="3"/>
       <c r="Y54" s="4"/>
       <c r="AB54"/>
       <c r="AC54"/>
@@ -10467,7 +11617,7 @@
       <c r="Y75" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="Z75" s="2" t="s">
+      <c r="Z75" s="3" t="s">
         <v>2</v>
       </c>
       <c r="AA75" s="1" t="s">
@@ -10509,7 +11659,7 @@
       <c r="Y76" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="Z76" s="2" t="s">
+      <c r="Z76" s="3" t="s">
         <v>7</v>
       </c>
       <c r="AA76" s="1" t="s">
@@ -10671,7 +11821,7 @@
       <c r="O81"/>
       <c r="P81"/>
       <c r="Q81"/>
-      <c r="S81" s="2"/>
+      <c r="S81" s="3"/>
       <c r="X81"/>
       <c r="Y81"/>
       <c r="Z81"/>
@@ -10696,7 +11846,7 @@
       <c r="O82"/>
       <c r="P82"/>
       <c r="Q82"/>
-      <c r="S82" s="2"/>
+      <c r="S82" s="3"/>
       <c r="V82" s="4"/>
       <c r="X82"/>
       <c r="Y82"/>
@@ -10958,15 +12108,15 @@
   </cols>
   <sheetData>
     <row r="1" s="1" customFormat="1" ht="22.5" spans="9:31">
-      <c r="I1" s="3"/>
-      <c r="J1" s="3" t="s">
+      <c r="I1" s="2"/>
+      <c r="J1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="V1" s="2"/>
+      <c r="V1" s="3"/>
       <c r="W1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="X1" s="2" t="s">
+      <c r="X1" s="3" t="s">
         <v>2</v>
       </c>
       <c r="Y1" s="1" t="s">
@@ -10978,13 +12128,13 @@
       <c r="AA1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="AE1" s="2"/>
+      <c r="AE1" s="3"/>
     </row>
     <row r="2" s="1" customFormat="1" spans="23:27">
       <c r="W2" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="X2" s="2" t="s">
+      <c r="X2" s="3" t="s">
         <v>7</v>
       </c>
       <c r="Y2" s="1" t="s">
@@ -11008,19 +12158,19 @@
       </c>
     </row>
     <row r="5" s="1" customFormat="1" spans="22:31">
-      <c r="V5" s="2"/>
-      <c r="X5" s="2"/>
-      <c r="AE5" s="2"/>
+      <c r="V5" s="3"/>
+      <c r="X5" s="3"/>
+      <c r="AE5" s="3"/>
     </row>
     <row r="6" s="1" customFormat="1" spans="24:27">
-      <c r="X6" s="2"/>
+      <c r="X6" s="3"/>
       <c r="AA6" s="4"/>
     </row>
     <row r="14" s="1" customFormat="1" spans="5:5">
-      <c r="E14" s="2"/>
+      <c r="E14" s="3"/>
     </row>
     <row r="15" s="1" customFormat="1" spans="5:5">
-      <c r="E15" s="2"/>
+      <c r="E15" s="3"/>
     </row>
     <row r="25" s="1" customFormat="1" spans="17:30">
       <c r="Q25"/>
@@ -11338,7 +12488,7 @@
     <row r="37" s="1" customFormat="1" spans="2:30">
       <c r="B37"/>
       <c r="C37"/>
-      <c r="D37" s="2"/>
+      <c r="D37" s="3"/>
       <c r="E37"/>
       <c r="F37"/>
       <c r="G37"/>
@@ -11471,7 +12621,7 @@
     <row r="42" s="1" customFormat="1" spans="2:30">
       <c r="B42"/>
       <c r="C42"/>
-      <c r="D42" s="2"/>
+      <c r="D42" s="3"/>
       <c r="E42"/>
       <c r="F42"/>
       <c r="G42"/>
@@ -11502,7 +12652,7 @@
     <row r="43" s="1" customFormat="1" spans="2:30">
       <c r="B43"/>
       <c r="C43"/>
-      <c r="D43" s="2"/>
+      <c r="D43" s="3"/>
       <c r="E43"/>
       <c r="F43"/>
       <c r="G43"/>
@@ -11829,7 +12979,7 @@
       <c r="R53"/>
       <c r="S53"/>
       <c r="T53"/>
-      <c r="V53" s="2"/>
+      <c r="V53" s="3"/>
       <c r="AB53"/>
       <c r="AC53"/>
       <c r="AD53"/>
@@ -11854,7 +13004,7 @@
       <c r="R54"/>
       <c r="S54"/>
       <c r="T54"/>
-      <c r="V54" s="2"/>
+      <c r="V54" s="3"/>
       <c r="Y54" s="4"/>
       <c r="AB54"/>
       <c r="AC54"/>
@@ -12676,7 +13826,7 @@
       <c r="O81"/>
       <c r="P81"/>
       <c r="Q81"/>
-      <c r="S81" s="2"/>
+      <c r="S81" s="3"/>
       <c r="X81"/>
       <c r="Y81"/>
       <c r="Z81"/>
@@ -12702,7 +13852,7 @@
       <c r="O82"/>
       <c r="P82"/>
       <c r="Q82"/>
-      <c r="S82" s="2"/>
+      <c r="S82" s="3"/>
       <c r="V82" s="4"/>
       <c r="X82"/>
       <c r="Y82"/>
@@ -12857,15 +14007,15 @@
   </cols>
   <sheetData>
     <row r="1" s="1" customFormat="1" ht="22.5" spans="9:31">
-      <c r="I1" s="3"/>
-      <c r="J1" s="3" t="s">
+      <c r="I1" s="2"/>
+      <c r="J1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="V1" s="2"/>
+      <c r="V1" s="3"/>
       <c r="W1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="X1" s="2" t="s">
+      <c r="X1" s="3" t="s">
         <v>2</v>
       </c>
       <c r="Y1" s="1" t="s">
@@ -12877,13 +14027,13 @@
       <c r="AA1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="AE1" s="2"/>
+      <c r="AE1" s="3"/>
     </row>
     <row r="2" s="1" customFormat="1" spans="23:27">
       <c r="W2" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="X2" s="2" t="s">
+      <c r="X2" s="3" t="s">
         <v>7</v>
       </c>
       <c r="Y2" s="1" t="s">
@@ -12907,19 +14057,19 @@
       </c>
     </row>
     <row r="5" s="1" customFormat="1" spans="22:31">
-      <c r="V5" s="2"/>
-      <c r="X5" s="2"/>
-      <c r="AE5" s="2"/>
+      <c r="V5" s="3"/>
+      <c r="X5" s="3"/>
+      <c r="AE5" s="3"/>
     </row>
     <row r="6" s="1" customFormat="1" spans="24:27">
-      <c r="X6" s="2"/>
+      <c r="X6" s="3"/>
       <c r="AA6" s="4"/>
     </row>
     <row r="14" s="1" customFormat="1" spans="5:5">
-      <c r="E14" s="2"/>
+      <c r="E14" s="3"/>
     </row>
     <row r="15" s="1" customFormat="1" spans="5:5">
-      <c r="E15" s="2"/>
+      <c r="E15" s="3"/>
     </row>
     <row r="25" s="1" customFormat="1" spans="17:30">
       <c r="Q25"/>
@@ -13237,7 +14387,7 @@
     <row r="37" s="1" customFormat="1" spans="2:30">
       <c r="B37"/>
       <c r="C37"/>
-      <c r="D37" s="2"/>
+      <c r="D37" s="3"/>
       <c r="E37"/>
       <c r="F37"/>
       <c r="G37"/>
@@ -13370,7 +14520,7 @@
     <row r="42" s="1" customFormat="1" spans="2:30">
       <c r="B42"/>
       <c r="C42"/>
-      <c r="D42" s="2"/>
+      <c r="D42" s="3"/>
       <c r="E42"/>
       <c r="F42"/>
       <c r="G42"/>
@@ -13401,7 +14551,7 @@
     <row r="43" s="1" customFormat="1" spans="2:30">
       <c r="B43"/>
       <c r="C43"/>
-      <c r="D43" s="2"/>
+      <c r="D43" s="3"/>
       <c r="E43"/>
       <c r="F43"/>
       <c r="G43"/>
@@ -13728,7 +14878,7 @@
       <c r="R53"/>
       <c r="S53"/>
       <c r="T53"/>
-      <c r="V53" s="2"/>
+      <c r="V53" s="3"/>
       <c r="AB53"/>
       <c r="AC53"/>
       <c r="AD53"/>
@@ -13753,7 +14903,7 @@
       <c r="R54"/>
       <c r="S54"/>
       <c r="T54"/>
-      <c r="V54" s="2"/>
+      <c r="V54" s="3"/>
       <c r="Y54" s="4"/>
       <c r="AB54"/>
       <c r="AC54"/>
@@ -14575,7 +15725,7 @@
       <c r="O81"/>
       <c r="P81"/>
       <c r="Q81"/>
-      <c r="S81" s="2"/>
+      <c r="S81" s="3"/>
       <c r="X81"/>
       <c r="Y81"/>
       <c r="Z81"/>
@@ -14601,7 +15751,7 @@
       <c r="O82"/>
       <c r="P82"/>
       <c r="Q82"/>
-      <c r="S82" s="2"/>
+      <c r="S82" s="3"/>
       <c r="V82" s="4"/>
       <c r="X82"/>
       <c r="Y82"/>
@@ -14744,10 +15894,10 @@
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:AE86"/>
+  <dimension ref="A1:AE90"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A51" workbookViewId="0">
-      <selection activeCell="G68" sqref="G68"/>
+    <sheetView showGridLines="0" topLeftCell="A57" workbookViewId="0">
+      <selection activeCell="C77" sqref="C77"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="4.875" defaultRowHeight="13.5"/>
@@ -14756,15 +15906,15 @@
   </cols>
   <sheetData>
     <row r="1" s="1" customFormat="1" ht="22.5" spans="9:31">
-      <c r="I1" s="3"/>
-      <c r="J1" s="3" t="s">
+      <c r="I1" s="2"/>
+      <c r="J1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="V1" s="2"/>
+      <c r="V1" s="3"/>
       <c r="W1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="X1" s="2" t="s">
+      <c r="X1" s="3" t="s">
         <v>2</v>
       </c>
       <c r="Y1" s="1" t="s">
@@ -14776,13 +15926,13 @@
       <c r="AA1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="AE1" s="2"/>
+      <c r="AE1" s="3"/>
     </row>
     <row r="2" s="1" customFormat="1" spans="23:27">
       <c r="W2" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="X2" s="2" t="s">
+      <c r="X2" s="3" t="s">
         <v>7</v>
       </c>
       <c r="Y2" s="1" t="s">
@@ -14809,15 +15959,15 @@
       <c r="B5" s="1" t="s">
         <v>219</v>
       </c>
-      <c r="V5" s="2"/>
-      <c r="X5" s="2"/>
-      <c r="AE5" s="2"/>
+      <c r="V5" s="3"/>
+      <c r="X5" s="3"/>
+      <c r="AE5" s="3"/>
     </row>
     <row r="6" s="1" customFormat="1" spans="3:27">
       <c r="C6" s="1" t="s">
         <v>220</v>
       </c>
-      <c r="X6" s="2"/>
+      <c r="X6" s="3"/>
       <c r="AA6" s="4"/>
     </row>
     <row r="7" spans="3:3">
@@ -14859,10 +16009,10 @@
       <c r="D14" s="1" t="s">
         <v>228</v>
       </c>
-      <c r="E14" s="2"/>
+      <c r="E14" s="3"/>
     </row>
     <row r="15" s="1" customFormat="1" spans="5:5">
-      <c r="E15" s="2"/>
+      <c r="E15" s="3"/>
     </row>
     <row r="24" spans="4:4">
       <c r="D24" s="1" t="s">
@@ -15207,7 +16357,7 @@
     <row r="37" s="1" customFormat="1" spans="2:30">
       <c r="B37"/>
       <c r="C37"/>
-      <c r="D37" s="2"/>
+      <c r="D37" s="3"/>
       <c r="E37"/>
       <c r="F37"/>
       <c r="G37"/>
@@ -15340,7 +16490,7 @@
     <row r="42" s="1" customFormat="1" spans="2:30">
       <c r="B42"/>
       <c r="C42"/>
-      <c r="D42" s="2"/>
+      <c r="D42" s="3"/>
       <c r="E42"/>
       <c r="F42"/>
       <c r="G42"/>
@@ -15371,7 +16521,7 @@
     <row r="43" s="1" customFormat="1" spans="2:30">
       <c r="B43"/>
       <c r="C43"/>
-      <c r="D43" s="2"/>
+      <c r="D43" s="3"/>
       <c r="E43"/>
       <c r="F43"/>
       <c r="G43"/>
@@ -15705,7 +16855,7 @@
       <c r="R53"/>
       <c r="S53"/>
       <c r="T53"/>
-      <c r="V53" s="2"/>
+      <c r="V53" s="3"/>
       <c r="AB53"/>
       <c r="AC53"/>
       <c r="AD53"/>
@@ -15713,7 +16863,7 @@
     <row r="54" s="1" customFormat="1" spans="2:30">
       <c r="B54"/>
       <c r="C54"/>
-      <c r="D54" s="2" t="s">
+      <c r="D54" s="3" t="s">
         <v>244</v>
       </c>
       <c r="E54"/>
@@ -15732,7 +16882,7 @@
       <c r="R54"/>
       <c r="S54"/>
       <c r="T54"/>
-      <c r="V54" s="2"/>
+      <c r="V54" s="3"/>
       <c r="Y54" s="4"/>
       <c r="AB54"/>
       <c r="AC54"/>
@@ -15805,7 +16955,7 @@
     <row r="57" s="1" customFormat="1" spans="2:30">
       <c r="B57"/>
       <c r="C57"/>
-      <c r="D57" s="2" t="s">
+      <c r="D57" s="3" t="s">
         <v>247</v>
       </c>
       <c r="E57"/>
@@ -15971,6 +17121,2014 @@
       <c r="D62" t="s">
         <v>252</v>
       </c>
+      <c r="E62"/>
+      <c r="F62"/>
+      <c r="G62"/>
+      <c r="H62"/>
+      <c r="I62"/>
+      <c r="J62"/>
+      <c r="K62"/>
+      <c r="L62"/>
+      <c r="M62"/>
+      <c r="N62"/>
+      <c r="O62"/>
+      <c r="P62"/>
+      <c r="Q62"/>
+      <c r="R62"/>
+      <c r="S62"/>
+      <c r="T62"/>
+      <c r="U62"/>
+      <c r="V62"/>
+      <c r="W62"/>
+      <c r="X62"/>
+      <c r="Y62"/>
+      <c r="Z62"/>
+      <c r="AA62"/>
+      <c r="AB62"/>
+      <c r="AC62"/>
+      <c r="AD62"/>
+    </row>
+    <row r="63" s="1" customFormat="1" spans="2:30">
+      <c r="B63" t="s">
+        <v>253</v>
+      </c>
+      <c r="C63"/>
+      <c r="D63"/>
+      <c r="E63"/>
+      <c r="F63"/>
+      <c r="G63"/>
+      <c r="H63"/>
+      <c r="I63"/>
+      <c r="J63"/>
+      <c r="K63"/>
+      <c r="L63"/>
+      <c r="M63"/>
+      <c r="N63"/>
+      <c r="O63"/>
+      <c r="P63"/>
+      <c r="Q63"/>
+      <c r="R63"/>
+      <c r="S63"/>
+      <c r="T63"/>
+      <c r="U63"/>
+      <c r="V63"/>
+      <c r="W63"/>
+      <c r="X63"/>
+      <c r="Y63"/>
+      <c r="Z63"/>
+      <c r="AA63"/>
+      <c r="AB63"/>
+      <c r="AC63"/>
+      <c r="AD63"/>
+    </row>
+    <row r="64" s="1" customFormat="1" spans="2:30">
+      <c r="B64"/>
+      <c r="C64" t="s">
+        <v>254</v>
+      </c>
+      <c r="D64"/>
+      <c r="E64"/>
+      <c r="F64"/>
+      <c r="G64"/>
+      <c r="H64"/>
+      <c r="I64"/>
+      <c r="J64"/>
+      <c r="K64"/>
+      <c r="L64"/>
+      <c r="M64"/>
+      <c r="N64"/>
+      <c r="O64"/>
+      <c r="P64"/>
+      <c r="Q64"/>
+      <c r="R64"/>
+      <c r="S64"/>
+      <c r="T64"/>
+      <c r="U64"/>
+      <c r="V64"/>
+      <c r="W64"/>
+      <c r="X64"/>
+      <c r="Y64"/>
+      <c r="Z64"/>
+      <c r="AA64"/>
+      <c r="AB64"/>
+      <c r="AC64"/>
+      <c r="AD64"/>
+    </row>
+    <row r="65" s="1" customFormat="1" spans="2:30">
+      <c r="B65"/>
+      <c r="C65" t="s">
+        <v>255</v>
+      </c>
+      <c r="E65"/>
+      <c r="F65"/>
+      <c r="G65"/>
+      <c r="H65"/>
+      <c r="I65"/>
+      <c r="J65"/>
+      <c r="K65"/>
+      <c r="L65"/>
+      <c r="M65"/>
+      <c r="N65"/>
+      <c r="O65"/>
+      <c r="P65"/>
+      <c r="Q65"/>
+      <c r="R65"/>
+      <c r="S65"/>
+      <c r="T65"/>
+      <c r="U65"/>
+      <c r="V65"/>
+      <c r="W65"/>
+      <c r="X65"/>
+      <c r="Y65"/>
+      <c r="Z65"/>
+      <c r="AA65"/>
+      <c r="AB65"/>
+      <c r="AC65"/>
+      <c r="AD65"/>
+    </row>
+    <row r="66" s="1" customFormat="1" spans="2:30">
+      <c r="B66"/>
+      <c r="C66" t="s">
+        <v>256</v>
+      </c>
+      <c r="E66"/>
+      <c r="F66"/>
+      <c r="G66"/>
+      <c r="H66"/>
+      <c r="I66"/>
+      <c r="J66"/>
+      <c r="K66"/>
+      <c r="L66"/>
+      <c r="M66"/>
+      <c r="N66"/>
+      <c r="O66"/>
+      <c r="P66"/>
+      <c r="Q66"/>
+      <c r="R66"/>
+      <c r="S66"/>
+      <c r="T66"/>
+      <c r="U66"/>
+      <c r="V66"/>
+      <c r="W66"/>
+      <c r="X66"/>
+      <c r="Y66"/>
+      <c r="Z66"/>
+      <c r="AA66"/>
+      <c r="AB66"/>
+      <c r="AC66"/>
+      <c r="AD66"/>
+    </row>
+    <row r="67" s="1" customFormat="1" spans="2:30">
+      <c r="B67"/>
+      <c r="C67" t="s">
+        <v>257</v>
+      </c>
+      <c r="D67"/>
+      <c r="E67"/>
+      <c r="F67"/>
+      <c r="G67"/>
+      <c r="H67"/>
+      <c r="I67"/>
+      <c r="J67"/>
+      <c r="K67"/>
+      <c r="L67"/>
+      <c r="M67"/>
+      <c r="N67"/>
+      <c r="O67"/>
+      <c r="P67"/>
+      <c r="Q67"/>
+      <c r="R67"/>
+      <c r="S67"/>
+      <c r="T67"/>
+      <c r="U67"/>
+      <c r="V67"/>
+      <c r="W67"/>
+      <c r="X67"/>
+      <c r="Y67"/>
+      <c r="Z67"/>
+      <c r="AA67"/>
+      <c r="AB67"/>
+      <c r="AC67"/>
+      <c r="AD67"/>
+    </row>
+    <row r="68" s="1" customFormat="1" spans="2:30">
+      <c r="B68"/>
+      <c r="C68"/>
+      <c r="D68" t="s">
+        <v>258</v>
+      </c>
+      <c r="E68"/>
+      <c r="F68"/>
+      <c r="G68"/>
+      <c r="H68"/>
+      <c r="I68"/>
+      <c r="J68"/>
+      <c r="K68"/>
+      <c r="L68"/>
+      <c r="M68"/>
+      <c r="N68"/>
+      <c r="O68"/>
+      <c r="P68"/>
+      <c r="Q68"/>
+      <c r="R68"/>
+      <c r="S68"/>
+      <c r="T68"/>
+      <c r="U68"/>
+      <c r="V68"/>
+      <c r="W68"/>
+      <c r="X68"/>
+      <c r="Y68"/>
+      <c r="Z68"/>
+      <c r="AA68"/>
+      <c r="AB68"/>
+      <c r="AC68"/>
+      <c r="AD68"/>
+    </row>
+    <row r="69" s="1" customFormat="1" spans="2:30">
+      <c r="B69"/>
+      <c r="C69"/>
+      <c r="D69" s="1" t="s">
+        <v>259</v>
+      </c>
+      <c r="E69"/>
+      <c r="F69"/>
+      <c r="G69"/>
+      <c r="H69"/>
+      <c r="I69"/>
+      <c r="J69"/>
+      <c r="K69"/>
+      <c r="L69"/>
+      <c r="M69"/>
+      <c r="N69"/>
+      <c r="O69"/>
+      <c r="P69"/>
+      <c r="Q69"/>
+      <c r="R69"/>
+      <c r="S69"/>
+      <c r="T69"/>
+      <c r="U69"/>
+      <c r="V69"/>
+      <c r="W69"/>
+      <c r="X69"/>
+      <c r="Y69"/>
+      <c r="Z69"/>
+      <c r="AA69"/>
+      <c r="AB69"/>
+      <c r="AC69"/>
+      <c r="AD69"/>
+    </row>
+    <row r="70" s="1" customFormat="1" spans="2:30">
+      <c r="B70"/>
+      <c r="C70"/>
+      <c r="D70" s="1" t="s">
+        <v>260</v>
+      </c>
+      <c r="E70"/>
+      <c r="F70"/>
+      <c r="G70"/>
+      <c r="H70"/>
+      <c r="I70"/>
+      <c r="J70"/>
+      <c r="K70"/>
+      <c r="L70"/>
+      <c r="M70"/>
+      <c r="N70"/>
+      <c r="O70"/>
+      <c r="P70"/>
+      <c r="Q70"/>
+      <c r="R70"/>
+      <c r="S70"/>
+      <c r="T70"/>
+      <c r="U70"/>
+      <c r="V70"/>
+      <c r="W70"/>
+      <c r="X70"/>
+      <c r="Y70"/>
+      <c r="Z70"/>
+      <c r="AA70"/>
+      <c r="AB70"/>
+      <c r="AC70"/>
+      <c r="AD70"/>
+    </row>
+    <row r="71" s="1" customFormat="1" spans="2:30">
+      <c r="B71"/>
+      <c r="C71" t="s">
+        <v>261</v>
+      </c>
+      <c r="E71"/>
+      <c r="F71"/>
+      <c r="G71"/>
+      <c r="H71"/>
+      <c r="I71"/>
+      <c r="J71"/>
+      <c r="K71"/>
+      <c r="L71"/>
+      <c r="M71"/>
+      <c r="N71"/>
+      <c r="O71"/>
+      <c r="P71"/>
+      <c r="Q71"/>
+      <c r="R71"/>
+      <c r="S71"/>
+      <c r="T71"/>
+      <c r="U71"/>
+      <c r="V71"/>
+      <c r="W71"/>
+      <c r="X71"/>
+      <c r="Y71"/>
+      <c r="Z71"/>
+      <c r="AA71"/>
+      <c r="AB71"/>
+      <c r="AC71"/>
+      <c r="AD71"/>
+    </row>
+    <row r="72" s="1" customFormat="1" spans="2:30">
+      <c r="B72"/>
+      <c r="C72"/>
+      <c r="D72" s="1" t="s">
+        <v>262</v>
+      </c>
+      <c r="E72"/>
+      <c r="F72"/>
+      <c r="G72"/>
+      <c r="H72"/>
+      <c r="I72"/>
+      <c r="J72"/>
+      <c r="K72"/>
+      <c r="L72"/>
+      <c r="M72"/>
+      <c r="N72"/>
+      <c r="O72"/>
+      <c r="P72"/>
+      <c r="Q72"/>
+      <c r="R72"/>
+      <c r="S72"/>
+      <c r="T72"/>
+      <c r="U72"/>
+      <c r="V72"/>
+      <c r="W72"/>
+      <c r="X72"/>
+      <c r="Y72"/>
+      <c r="Z72"/>
+      <c r="AA72"/>
+      <c r="AB72"/>
+      <c r="AC72"/>
+      <c r="AD72"/>
+    </row>
+    <row r="73" s="1" customFormat="1" spans="2:30">
+      <c r="B73"/>
+      <c r="C73" t="s">
+        <v>263</v>
+      </c>
+      <c r="D73"/>
+      <c r="E73"/>
+      <c r="F73"/>
+      <c r="G73"/>
+      <c r="H73"/>
+      <c r="I73"/>
+      <c r="J73"/>
+      <c r="K73"/>
+      <c r="L73"/>
+      <c r="M73"/>
+      <c r="N73"/>
+      <c r="O73"/>
+      <c r="P73"/>
+      <c r="Q73"/>
+      <c r="R73"/>
+      <c r="S73"/>
+      <c r="T73"/>
+      <c r="U73"/>
+      <c r="V73"/>
+      <c r="W73"/>
+      <c r="X73"/>
+      <c r="Y73"/>
+      <c r="Z73"/>
+      <c r="AA73"/>
+      <c r="AB73"/>
+      <c r="AC73"/>
+      <c r="AD73"/>
+    </row>
+    <row r="74" s="1" customFormat="1" spans="2:30">
+      <c r="B74"/>
+      <c r="C74"/>
+      <c r="D74" t="s">
+        <v>264</v>
+      </c>
+      <c r="E74"/>
+      <c r="F74"/>
+      <c r="G74"/>
+      <c r="H74"/>
+      <c r="I74"/>
+      <c r="J74"/>
+      <c r="K74"/>
+      <c r="L74"/>
+      <c r="M74"/>
+      <c r="N74"/>
+      <c r="O74"/>
+      <c r="P74"/>
+      <c r="Q74"/>
+      <c r="R74"/>
+      <c r="S74"/>
+      <c r="T74"/>
+      <c r="U74"/>
+      <c r="V74"/>
+      <c r="W74"/>
+      <c r="X74"/>
+      <c r="Y74"/>
+      <c r="Z74"/>
+      <c r="AA74"/>
+      <c r="AB74"/>
+      <c r="AC74"/>
+      <c r="AD74"/>
+    </row>
+    <row r="75" s="1" customFormat="1" spans="2:30">
+      <c r="B75"/>
+      <c r="C75" t="s">
+        <v>265</v>
+      </c>
+      <c r="D75"/>
+      <c r="E75"/>
+      <c r="F75"/>
+      <c r="G75"/>
+      <c r="H75"/>
+      <c r="I75"/>
+      <c r="J75"/>
+      <c r="K75"/>
+      <c r="L75"/>
+      <c r="M75"/>
+      <c r="N75"/>
+      <c r="O75"/>
+      <c r="P75"/>
+      <c r="Q75"/>
+      <c r="R75"/>
+      <c r="S75"/>
+      <c r="T75"/>
+      <c r="U75"/>
+      <c r="V75"/>
+      <c r="W75"/>
+      <c r="X75"/>
+      <c r="Y75"/>
+      <c r="Z75"/>
+      <c r="AA75"/>
+      <c r="AB75"/>
+      <c r="AC75"/>
+      <c r="AD75"/>
+    </row>
+    <row r="76" s="1" customFormat="1" spans="2:30">
+      <c r="B76"/>
+      <c r="C76"/>
+      <c r="D76" t="s">
+        <v>266</v>
+      </c>
+      <c r="E76"/>
+      <c r="F76"/>
+      <c r="G76"/>
+      <c r="H76"/>
+      <c r="I76"/>
+      <c r="J76"/>
+      <c r="K76"/>
+      <c r="L76"/>
+      <c r="M76"/>
+      <c r="N76"/>
+      <c r="O76"/>
+      <c r="P76"/>
+      <c r="Q76"/>
+      <c r="R76"/>
+      <c r="S76"/>
+      <c r="T76"/>
+      <c r="U76"/>
+      <c r="V76"/>
+      <c r="W76"/>
+      <c r="X76"/>
+      <c r="Y76"/>
+      <c r="Z76"/>
+      <c r="AA76"/>
+      <c r="AB76"/>
+      <c r="AC76"/>
+      <c r="AD76"/>
+    </row>
+    <row r="77" s="1" customFormat="1" spans="2:30">
+      <c r="B77"/>
+      <c r="C77"/>
+      <c r="D77"/>
+      <c r="E77"/>
+      <c r="F77"/>
+      <c r="G77"/>
+      <c r="H77"/>
+      <c r="I77"/>
+      <c r="J77"/>
+      <c r="K77"/>
+      <c r="L77"/>
+      <c r="M77"/>
+      <c r="N77"/>
+      <c r="O77"/>
+      <c r="P77"/>
+      <c r="Q77"/>
+      <c r="R77"/>
+      <c r="S77"/>
+      <c r="T77"/>
+      <c r="U77"/>
+      <c r="V77"/>
+      <c r="W77"/>
+      <c r="X77"/>
+      <c r="Y77"/>
+      <c r="Z77"/>
+      <c r="AA77"/>
+      <c r="AB77"/>
+      <c r="AC77"/>
+      <c r="AD77"/>
+    </row>
+    <row r="78" s="1" customFormat="1" spans="2:30">
+      <c r="B78"/>
+      <c r="C78"/>
+      <c r="D78"/>
+      <c r="E78"/>
+      <c r="F78"/>
+      <c r="G78"/>
+      <c r="H78"/>
+      <c r="I78"/>
+      <c r="J78"/>
+      <c r="K78"/>
+      <c r="L78"/>
+      <c r="M78"/>
+      <c r="N78"/>
+      <c r="O78"/>
+      <c r="P78"/>
+      <c r="Q78"/>
+      <c r="R78"/>
+      <c r="S78"/>
+      <c r="T78"/>
+      <c r="U78"/>
+      <c r="V78"/>
+      <c r="W78"/>
+      <c r="X78"/>
+      <c r="Y78"/>
+      <c r="Z78"/>
+      <c r="AA78"/>
+      <c r="AB78"/>
+      <c r="AC78"/>
+      <c r="AD78"/>
+    </row>
+    <row r="79" s="1" customFormat="1" spans="2:30">
+      <c r="B79"/>
+      <c r="C79"/>
+      <c r="D79"/>
+      <c r="E79"/>
+      <c r="F79"/>
+      <c r="G79"/>
+      <c r="H79"/>
+      <c r="I79"/>
+      <c r="J79"/>
+      <c r="K79"/>
+      <c r="L79"/>
+      <c r="M79"/>
+      <c r="N79"/>
+      <c r="O79"/>
+      <c r="P79"/>
+      <c r="Q79"/>
+      <c r="R79"/>
+      <c r="S79"/>
+      <c r="T79"/>
+      <c r="U79"/>
+      <c r="V79"/>
+      <c r="W79"/>
+      <c r="X79"/>
+      <c r="Y79"/>
+      <c r="Z79"/>
+      <c r="AA79"/>
+      <c r="AB79"/>
+      <c r="AC79"/>
+      <c r="AD79"/>
+    </row>
+    <row r="80" s="1" customFormat="1" spans="2:30">
+      <c r="B80"/>
+      <c r="C80"/>
+      <c r="D80"/>
+      <c r="E80"/>
+      <c r="F80"/>
+      <c r="G80"/>
+      <c r="H80"/>
+      <c r="I80"/>
+      <c r="J80"/>
+      <c r="K80"/>
+      <c r="L80"/>
+      <c r="M80"/>
+      <c r="N80"/>
+      <c r="O80"/>
+      <c r="P80"/>
+      <c r="Q80"/>
+      <c r="R80"/>
+      <c r="S80"/>
+      <c r="T80"/>
+      <c r="U80"/>
+      <c r="V80"/>
+      <c r="W80"/>
+      <c r="X80"/>
+      <c r="Y80"/>
+      <c r="Z80"/>
+      <c r="AA80"/>
+      <c r="AB80"/>
+      <c r="AC80"/>
+      <c r="AD80"/>
+    </row>
+    <row r="81" s="1" customFormat="1" spans="2:30">
+      <c r="B81"/>
+      <c r="C81"/>
+      <c r="D81"/>
+      <c r="E81"/>
+      <c r="F81"/>
+      <c r="G81"/>
+      <c r="H81"/>
+      <c r="I81"/>
+      <c r="J81"/>
+      <c r="K81"/>
+      <c r="L81"/>
+      <c r="M81"/>
+      <c r="N81"/>
+      <c r="O81"/>
+      <c r="P81"/>
+      <c r="Q81"/>
+      <c r="S81" s="3"/>
+      <c r="X81"/>
+      <c r="Y81"/>
+      <c r="Z81"/>
+      <c r="AA81"/>
+      <c r="AB81"/>
+      <c r="AC81"/>
+      <c r="AD81"/>
+    </row>
+    <row r="82" s="1" customFormat="1" spans="2:30">
+      <c r="B82"/>
+      <c r="C82"/>
+      <c r="D82"/>
+      <c r="E82"/>
+      <c r="F82"/>
+      <c r="G82"/>
+      <c r="H82"/>
+      <c r="I82"/>
+      <c r="J82"/>
+      <c r="K82"/>
+      <c r="L82"/>
+      <c r="M82"/>
+      <c r="N82"/>
+      <c r="O82"/>
+      <c r="P82"/>
+      <c r="Q82"/>
+      <c r="S82" s="3"/>
+      <c r="V82" s="4"/>
+      <c r="X82"/>
+      <c r="Y82"/>
+      <c r="Z82"/>
+      <c r="AA82"/>
+      <c r="AB82"/>
+      <c r="AC82"/>
+      <c r="AD82"/>
+    </row>
+    <row r="83" s="1" customFormat="1" spans="2:30">
+      <c r="B83"/>
+      <c r="C83"/>
+      <c r="D83"/>
+      <c r="E83"/>
+      <c r="F83"/>
+      <c r="G83"/>
+      <c r="H83"/>
+      <c r="I83"/>
+      <c r="J83"/>
+      <c r="K83"/>
+      <c r="L83"/>
+      <c r="M83"/>
+      <c r="N83"/>
+      <c r="O83"/>
+      <c r="P83"/>
+      <c r="Q83"/>
+      <c r="R83"/>
+      <c r="S83"/>
+      <c r="T83"/>
+      <c r="U83"/>
+      <c r="V83"/>
+      <c r="W83"/>
+      <c r="X83"/>
+      <c r="Y83"/>
+      <c r="Z83"/>
+      <c r="AA83"/>
+      <c r="AB83"/>
+      <c r="AC83"/>
+      <c r="AD83"/>
+    </row>
+    <row r="84" s="1" customFormat="1" spans="2:30">
+      <c r="B84"/>
+      <c r="C84"/>
+      <c r="D84"/>
+      <c r="E84"/>
+      <c r="F84"/>
+      <c r="G84"/>
+      <c r="H84"/>
+      <c r="I84"/>
+      <c r="J84"/>
+      <c r="K84"/>
+      <c r="L84"/>
+      <c r="M84"/>
+      <c r="N84"/>
+      <c r="O84"/>
+      <c r="P84"/>
+      <c r="Q84"/>
+      <c r="R84"/>
+      <c r="S84"/>
+      <c r="T84"/>
+      <c r="U84"/>
+      <c r="V84"/>
+      <c r="W84"/>
+      <c r="X84"/>
+      <c r="Y84"/>
+      <c r="Z84"/>
+      <c r="AA84"/>
+      <c r="AB84"/>
+      <c r="AC84"/>
+      <c r="AD84"/>
+    </row>
+    <row r="85" s="1" customFormat="1" spans="2:30">
+      <c r="B85"/>
+      <c r="C85"/>
+      <c r="D85"/>
+      <c r="E85"/>
+      <c r="F85"/>
+      <c r="G85"/>
+      <c r="H85"/>
+      <c r="I85"/>
+      <c r="J85"/>
+      <c r="K85"/>
+      <c r="L85"/>
+      <c r="M85"/>
+      <c r="N85"/>
+      <c r="O85"/>
+      <c r="P85"/>
+      <c r="Q85"/>
+      <c r="R85"/>
+      <c r="S85"/>
+      <c r="T85"/>
+      <c r="U85"/>
+      <c r="V85"/>
+      <c r="W85"/>
+      <c r="X85"/>
+      <c r="Y85"/>
+      <c r="Z85"/>
+      <c r="AA85"/>
+      <c r="AB85"/>
+      <c r="AC85"/>
+      <c r="AD85"/>
+    </row>
+    <row r="86" s="1" customFormat="1" spans="2:30">
+      <c r="B86"/>
+      <c r="C86"/>
+      <c r="D86"/>
+      <c r="E86"/>
+      <c r="F86"/>
+      <c r="G86"/>
+      <c r="H86"/>
+      <c r="I86"/>
+      <c r="J86"/>
+      <c r="K86"/>
+      <c r="L86"/>
+      <c r="M86"/>
+      <c r="N86"/>
+      <c r="O86"/>
+      <c r="P86"/>
+      <c r="Q86"/>
+      <c r="R86"/>
+      <c r="S86"/>
+      <c r="T86"/>
+      <c r="U86"/>
+      <c r="V86"/>
+      <c r="W86"/>
+      <c r="X86"/>
+      <c r="Y86"/>
+      <c r="Z86"/>
+      <c r="AA86"/>
+      <c r="AB86"/>
+      <c r="AC86"/>
+      <c r="AD86"/>
+    </row>
+    <row r="89" spans="21:25">
+      <c r="U89" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="V89" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="W89" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="X89" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="Y89" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="90" spans="21:25">
+      <c r="U90" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="V90" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="W90" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="X90" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="Y90" s="4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:AE86"/>
+  <sheetViews>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="C15" sqref="C15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="4.875" defaultRowHeight="13.5"/>
+  <cols>
+    <col min="1" max="1" width="4.875" style="1"/>
+    <col min="2" max="2" width="5.375" style="1"/>
+    <col min="3" max="16384" width="4.875" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" s="1" customFormat="1" ht="22.5" spans="9:31">
+      <c r="I1" s="2"/>
+      <c r="J1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="V1" s="3"/>
+      <c r="W1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="X1" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="Y1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="Z1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="AA1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="AE1" s="3"/>
+    </row>
+    <row r="2" s="1" customFormat="1" spans="23:27">
+      <c r="W2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="X2" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="Y2" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="Z2" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="AA2" s="4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" s="1" customFormat="1" spans="1:1">
+      <c r="A3" s="1" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="4" s="1" customFormat="1" spans="2:2">
+      <c r="B4" s="1" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="5" s="1" customFormat="1" spans="2:31">
+      <c r="B5" s="1">
+        <v>16.1</v>
+      </c>
+      <c r="V5" s="3"/>
+      <c r="X5" s="3"/>
+      <c r="AE5" s="3"/>
+    </row>
+    <row r="6" s="1" customFormat="1" spans="2:27">
+      <c r="B6" s="1">
+        <v>16.2</v>
+      </c>
+      <c r="X6" s="3"/>
+      <c r="AA6" s="4"/>
+    </row>
+    <row r="7" spans="2:2">
+      <c r="B7" s="1">
+        <v>16.3</v>
+      </c>
+    </row>
+    <row r="8" spans="2:2">
+      <c r="B8" s="1" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="9" spans="2:2">
+      <c r="B9" s="1" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="10" spans="3:3">
+      <c r="C10" s="1" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="11" spans="4:4">
+      <c r="D11" s="1" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="12" spans="3:3">
+      <c r="C12" s="1" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="13" spans="4:4">
+      <c r="D13" s="1" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="14" s="1" customFormat="1" spans="2:2">
+      <c r="B14" s="1" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="15" s="1" customFormat="1" spans="5:5">
+      <c r="E15" s="3"/>
+    </row>
+    <row r="25" s="1" customFormat="1" spans="17:30">
+      <c r="Q25"/>
+      <c r="R25"/>
+      <c r="S25"/>
+      <c r="T25"/>
+      <c r="U25"/>
+      <c r="V25"/>
+      <c r="W25"/>
+      <c r="X25"/>
+      <c r="Y25"/>
+      <c r="Z25"/>
+      <c r="AA25"/>
+      <c r="AB25"/>
+      <c r="AC25"/>
+      <c r="AD25"/>
+    </row>
+    <row r="26" s="1" customFormat="1" spans="17:30">
+      <c r="Q26"/>
+      <c r="R26"/>
+      <c r="S26"/>
+      <c r="T26"/>
+      <c r="U26"/>
+      <c r="V26"/>
+      <c r="W26"/>
+      <c r="X26"/>
+      <c r="Y26"/>
+      <c r="Z26"/>
+      <c r="AA26"/>
+      <c r="AB26"/>
+      <c r="AC26"/>
+      <c r="AD26"/>
+    </row>
+    <row r="27" s="1" customFormat="1" spans="17:30">
+      <c r="Q27"/>
+      <c r="R27"/>
+      <c r="S27"/>
+      <c r="T27"/>
+      <c r="U27"/>
+      <c r="V27"/>
+      <c r="W27"/>
+      <c r="X27"/>
+      <c r="Y27"/>
+      <c r="Z27"/>
+      <c r="AA27"/>
+      <c r="AB27"/>
+      <c r="AC27"/>
+      <c r="AD27"/>
+    </row>
+    <row r="28" s="1" customFormat="1" spans="2:30">
+      <c r="B28"/>
+      <c r="C28"/>
+      <c r="D28"/>
+      <c r="E28"/>
+      <c r="F28"/>
+      <c r="G28"/>
+      <c r="H28"/>
+      <c r="I28"/>
+      <c r="J28"/>
+      <c r="K28"/>
+      <c r="L28"/>
+      <c r="M28"/>
+      <c r="N28"/>
+      <c r="O28"/>
+      <c r="P28"/>
+      <c r="Q28"/>
+      <c r="R28"/>
+      <c r="S28"/>
+      <c r="T28"/>
+      <c r="U28"/>
+      <c r="V28"/>
+      <c r="W28"/>
+      <c r="X28"/>
+      <c r="Y28"/>
+      <c r="Z28"/>
+      <c r="AA28"/>
+      <c r="AB28"/>
+      <c r="AC28"/>
+      <c r="AD28"/>
+    </row>
+    <row r="29" s="1" customFormat="1" spans="12:30">
+      <c r="L29"/>
+      <c r="M29"/>
+      <c r="N29"/>
+      <c r="O29"/>
+      <c r="P29"/>
+      <c r="Q29"/>
+      <c r="R29"/>
+      <c r="S29"/>
+      <c r="T29"/>
+      <c r="U29"/>
+      <c r="V29"/>
+      <c r="W29"/>
+      <c r="X29"/>
+      <c r="Y29"/>
+      <c r="Z29"/>
+      <c r="AA29"/>
+      <c r="AB29"/>
+      <c r="AC29"/>
+      <c r="AD29"/>
+    </row>
+    <row r="30" s="1" customFormat="1" spans="2:30">
+      <c r="B30"/>
+      <c r="C30"/>
+      <c r="E30"/>
+      <c r="F30"/>
+      <c r="G30"/>
+      <c r="H30"/>
+      <c r="I30"/>
+      <c r="J30"/>
+      <c r="K30"/>
+      <c r="L30"/>
+      <c r="M30"/>
+      <c r="N30"/>
+      <c r="O30"/>
+      <c r="P30"/>
+      <c r="Q30"/>
+      <c r="R30"/>
+      <c r="S30"/>
+      <c r="T30"/>
+      <c r="U30"/>
+      <c r="V30"/>
+      <c r="W30"/>
+      <c r="X30"/>
+      <c r="Y30"/>
+      <c r="Z30"/>
+      <c r="AA30"/>
+      <c r="AB30"/>
+      <c r="AC30"/>
+      <c r="AD30"/>
+    </row>
+    <row r="31" s="1" customFormat="1" spans="2:30">
+      <c r="B31"/>
+      <c r="C31"/>
+      <c r="D31"/>
+      <c r="E31"/>
+      <c r="F31"/>
+      <c r="G31"/>
+      <c r="H31"/>
+      <c r="I31"/>
+      <c r="J31"/>
+      <c r="K31"/>
+      <c r="L31"/>
+      <c r="M31"/>
+      <c r="N31"/>
+      <c r="O31"/>
+      <c r="P31"/>
+      <c r="Q31"/>
+      <c r="R31"/>
+      <c r="S31"/>
+      <c r="T31"/>
+      <c r="U31"/>
+      <c r="V31"/>
+      <c r="W31"/>
+      <c r="X31"/>
+      <c r="Y31"/>
+      <c r="Z31"/>
+      <c r="AA31"/>
+      <c r="AB31"/>
+      <c r="AC31"/>
+      <c r="AD31"/>
+    </row>
+    <row r="32" s="1" customFormat="1" spans="2:30">
+      <c r="B32"/>
+      <c r="C32"/>
+      <c r="E32"/>
+      <c r="F32"/>
+      <c r="G32"/>
+      <c r="H32"/>
+      <c r="I32"/>
+      <c r="J32"/>
+      <c r="K32"/>
+      <c r="L32"/>
+      <c r="M32"/>
+      <c r="N32"/>
+      <c r="O32"/>
+      <c r="P32"/>
+      <c r="Q32"/>
+      <c r="R32"/>
+      <c r="S32"/>
+      <c r="T32"/>
+      <c r="U32"/>
+      <c r="V32"/>
+      <c r="W32"/>
+      <c r="X32"/>
+      <c r="Y32"/>
+      <c r="Z32"/>
+      <c r="AA32"/>
+      <c r="AB32"/>
+      <c r="AC32"/>
+      <c r="AD32"/>
+    </row>
+    <row r="33" s="1" customFormat="1" spans="2:30">
+      <c r="B33"/>
+      <c r="C33"/>
+      <c r="D33"/>
+      <c r="E33"/>
+      <c r="F33"/>
+      <c r="G33"/>
+      <c r="H33"/>
+      <c r="I33"/>
+      <c r="J33"/>
+      <c r="K33"/>
+      <c r="L33"/>
+      <c r="M33"/>
+      <c r="N33"/>
+      <c r="O33"/>
+      <c r="P33"/>
+      <c r="Q33"/>
+      <c r="R33"/>
+      <c r="S33"/>
+      <c r="T33"/>
+      <c r="U33"/>
+      <c r="V33"/>
+      <c r="W33"/>
+      <c r="X33"/>
+      <c r="Y33"/>
+      <c r="Z33"/>
+      <c r="AA33"/>
+      <c r="AB33"/>
+      <c r="AC33"/>
+      <c r="AD33"/>
+    </row>
+    <row r="34" s="1" customFormat="1" spans="2:30">
+      <c r="B34"/>
+      <c r="C34"/>
+      <c r="E34"/>
+      <c r="F34"/>
+      <c r="G34"/>
+      <c r="H34"/>
+      <c r="I34"/>
+      <c r="J34"/>
+      <c r="K34"/>
+      <c r="L34"/>
+      <c r="M34"/>
+      <c r="N34"/>
+      <c r="O34"/>
+      <c r="P34"/>
+      <c r="Q34"/>
+      <c r="R34"/>
+      <c r="S34"/>
+      <c r="T34"/>
+      <c r="U34"/>
+      <c r="V34"/>
+      <c r="W34"/>
+      <c r="X34"/>
+      <c r="Y34"/>
+      <c r="Z34"/>
+      <c r="AA34"/>
+      <c r="AB34"/>
+      <c r="AC34"/>
+      <c r="AD34"/>
+    </row>
+    <row r="35" s="1" customFormat="1" spans="2:30">
+      <c r="B35"/>
+      <c r="C35"/>
+      <c r="E35"/>
+      <c r="F35"/>
+      <c r="G35"/>
+      <c r="H35"/>
+      <c r="I35"/>
+      <c r="J35"/>
+      <c r="K35"/>
+      <c r="L35"/>
+      <c r="M35"/>
+      <c r="N35"/>
+      <c r="O35"/>
+      <c r="P35"/>
+      <c r="Q35"/>
+      <c r="R35"/>
+      <c r="S35"/>
+      <c r="T35"/>
+      <c r="U35"/>
+      <c r="V35"/>
+      <c r="W35"/>
+      <c r="X35"/>
+      <c r="Y35"/>
+      <c r="Z35"/>
+      <c r="AA35"/>
+      <c r="AB35"/>
+      <c r="AC35"/>
+      <c r="AD35"/>
+    </row>
+    <row r="36" s="1" customFormat="1" spans="2:30">
+      <c r="B36"/>
+      <c r="C36"/>
+      <c r="D36"/>
+      <c r="E36"/>
+      <c r="F36"/>
+      <c r="G36"/>
+      <c r="H36"/>
+      <c r="I36"/>
+      <c r="J36"/>
+      <c r="K36"/>
+      <c r="L36"/>
+      <c r="M36"/>
+      <c r="N36"/>
+      <c r="O36"/>
+      <c r="P36"/>
+      <c r="Q36"/>
+      <c r="R36"/>
+      <c r="S36"/>
+      <c r="T36"/>
+      <c r="U36"/>
+      <c r="V36"/>
+      <c r="W36"/>
+      <c r="X36"/>
+      <c r="Y36"/>
+      <c r="Z36"/>
+      <c r="AA36"/>
+      <c r="AB36"/>
+      <c r="AC36"/>
+      <c r="AD36"/>
+    </row>
+    <row r="37" s="1" customFormat="1" spans="2:30">
+      <c r="B37"/>
+      <c r="C37"/>
+      <c r="D37" s="3"/>
+      <c r="E37"/>
+      <c r="F37"/>
+      <c r="G37"/>
+      <c r="H37"/>
+      <c r="I37"/>
+      <c r="J37"/>
+      <c r="K37"/>
+      <c r="L37"/>
+      <c r="M37"/>
+      <c r="N37"/>
+      <c r="O37"/>
+      <c r="P37"/>
+      <c r="Q37"/>
+      <c r="Y37"/>
+      <c r="Z37"/>
+      <c r="AA37"/>
+      <c r="AB37"/>
+      <c r="AC37"/>
+      <c r="AD37"/>
+    </row>
+    <row r="38" s="1" customFormat="1" spans="2:30">
+      <c r="B38"/>
+      <c r="C38"/>
+      <c r="E38"/>
+      <c r="F38"/>
+      <c r="G38"/>
+      <c r="H38"/>
+      <c r="I38"/>
+      <c r="J38"/>
+      <c r="K38"/>
+      <c r="L38"/>
+      <c r="M38"/>
+      <c r="N38"/>
+      <c r="O38"/>
+      <c r="P38"/>
+      <c r="Q38"/>
+      <c r="Y38"/>
+      <c r="Z38"/>
+      <c r="AA38"/>
+      <c r="AB38"/>
+      <c r="AC38"/>
+      <c r="AD38"/>
+    </row>
+    <row r="39" s="1" customFormat="1" spans="2:30">
+      <c r="B39"/>
+      <c r="C39"/>
+      <c r="E39"/>
+      <c r="F39"/>
+      <c r="G39"/>
+      <c r="H39"/>
+      <c r="I39"/>
+      <c r="J39"/>
+      <c r="K39"/>
+      <c r="L39"/>
+      <c r="M39"/>
+      <c r="N39"/>
+      <c r="O39"/>
+      <c r="P39"/>
+      <c r="Q39"/>
+      <c r="R39"/>
+      <c r="S39"/>
+      <c r="T39"/>
+      <c r="U39"/>
+      <c r="V39"/>
+      <c r="W39"/>
+      <c r="X39"/>
+      <c r="Y39"/>
+      <c r="Z39"/>
+      <c r="AA39"/>
+      <c r="AB39"/>
+      <c r="AC39"/>
+      <c r="AD39"/>
+    </row>
+    <row r="40" s="1" customFormat="1" spans="2:30">
+      <c r="B40"/>
+      <c r="C40"/>
+      <c r="G40"/>
+      <c r="H40"/>
+      <c r="I40"/>
+      <c r="J40"/>
+      <c r="K40"/>
+      <c r="L40"/>
+      <c r="M40"/>
+      <c r="N40"/>
+      <c r="O40"/>
+      <c r="P40"/>
+      <c r="Q40"/>
+      <c r="R40"/>
+      <c r="S40"/>
+      <c r="T40"/>
+      <c r="U40"/>
+      <c r="V40"/>
+      <c r="W40"/>
+      <c r="X40"/>
+      <c r="Y40"/>
+      <c r="Z40"/>
+      <c r="AA40"/>
+      <c r="AB40"/>
+      <c r="AC40"/>
+      <c r="AD40"/>
+    </row>
+    <row r="41" s="1" customFormat="1" spans="2:30">
+      <c r="B41"/>
+      <c r="C41"/>
+      <c r="G41"/>
+      <c r="H41"/>
+      <c r="I41"/>
+      <c r="J41"/>
+      <c r="K41"/>
+      <c r="L41"/>
+      <c r="M41"/>
+      <c r="N41"/>
+      <c r="O41"/>
+      <c r="P41"/>
+      <c r="Q41"/>
+      <c r="R41"/>
+      <c r="S41"/>
+      <c r="T41"/>
+      <c r="U41"/>
+      <c r="V41"/>
+      <c r="W41"/>
+      <c r="X41"/>
+      <c r="Y41"/>
+      <c r="Z41"/>
+      <c r="AA41"/>
+      <c r="AB41"/>
+      <c r="AC41"/>
+      <c r="AD41"/>
+    </row>
+    <row r="42" s="1" customFormat="1" spans="2:30">
+      <c r="B42"/>
+      <c r="C42"/>
+      <c r="D42" s="3"/>
+      <c r="E42"/>
+      <c r="F42"/>
+      <c r="G42"/>
+      <c r="H42"/>
+      <c r="I42"/>
+      <c r="J42"/>
+      <c r="K42"/>
+      <c r="L42"/>
+      <c r="M42"/>
+      <c r="N42"/>
+      <c r="O42"/>
+      <c r="P42"/>
+      <c r="Q42"/>
+      <c r="R42"/>
+      <c r="S42"/>
+      <c r="T42"/>
+      <c r="U42"/>
+      <c r="V42"/>
+      <c r="W42"/>
+      <c r="X42"/>
+      <c r="Y42"/>
+      <c r="Z42"/>
+      <c r="AA42"/>
+      <c r="AB42"/>
+      <c r="AC42"/>
+      <c r="AD42"/>
+    </row>
+    <row r="43" s="1" customFormat="1" spans="2:30">
+      <c r="B43"/>
+      <c r="C43"/>
+      <c r="D43" s="3"/>
+      <c r="E43"/>
+      <c r="F43"/>
+      <c r="G43"/>
+      <c r="H43"/>
+      <c r="I43"/>
+      <c r="J43"/>
+      <c r="K43"/>
+      <c r="L43"/>
+      <c r="M43"/>
+      <c r="N43"/>
+      <c r="O43"/>
+      <c r="P43"/>
+      <c r="Q43"/>
+      <c r="R43"/>
+      <c r="S43"/>
+      <c r="T43"/>
+      <c r="U43"/>
+      <c r="V43"/>
+      <c r="W43"/>
+      <c r="X43"/>
+      <c r="Y43"/>
+      <c r="Z43"/>
+      <c r="AA43"/>
+      <c r="AB43"/>
+      <c r="AC43"/>
+      <c r="AD43"/>
+    </row>
+    <row r="44" s="1" customFormat="1" spans="2:30">
+      <c r="B44"/>
+      <c r="C44"/>
+      <c r="D44"/>
+      <c r="E44"/>
+      <c r="F44"/>
+      <c r="G44"/>
+      <c r="H44"/>
+      <c r="I44"/>
+      <c r="J44"/>
+      <c r="K44"/>
+      <c r="L44"/>
+      <c r="M44"/>
+      <c r="N44"/>
+      <c r="O44"/>
+      <c r="P44"/>
+      <c r="Q44"/>
+      <c r="R44"/>
+      <c r="S44"/>
+      <c r="T44"/>
+      <c r="U44"/>
+      <c r="V44"/>
+      <c r="W44"/>
+      <c r="X44"/>
+      <c r="Y44"/>
+      <c r="Z44"/>
+      <c r="AA44"/>
+      <c r="AB44"/>
+      <c r="AC44"/>
+      <c r="AD44"/>
+    </row>
+    <row r="45" s="1" customFormat="1" spans="2:30">
+      <c r="B45"/>
+      <c r="C45"/>
+      <c r="D45"/>
+      <c r="E45"/>
+      <c r="F45"/>
+      <c r="G45"/>
+      <c r="H45"/>
+      <c r="I45"/>
+      <c r="J45"/>
+      <c r="K45"/>
+      <c r="L45"/>
+      <c r="M45"/>
+      <c r="N45"/>
+      <c r="O45"/>
+      <c r="P45"/>
+      <c r="Q45"/>
+      <c r="R45"/>
+      <c r="S45"/>
+      <c r="T45"/>
+      <c r="U45"/>
+      <c r="V45"/>
+      <c r="W45"/>
+      <c r="X45"/>
+      <c r="Y45"/>
+      <c r="Z45"/>
+      <c r="AA45"/>
+      <c r="AB45"/>
+      <c r="AC45"/>
+      <c r="AD45"/>
+    </row>
+    <row r="46" s="1" customFormat="1" spans="2:30">
+      <c r="B46"/>
+      <c r="C46"/>
+      <c r="D46"/>
+      <c r="E46"/>
+      <c r="F46"/>
+      <c r="G46"/>
+      <c r="H46"/>
+      <c r="I46"/>
+      <c r="J46"/>
+      <c r="K46"/>
+      <c r="L46"/>
+      <c r="M46"/>
+      <c r="N46"/>
+      <c r="O46"/>
+      <c r="P46"/>
+      <c r="Q46"/>
+      <c r="R46"/>
+      <c r="S46"/>
+      <c r="T46"/>
+      <c r="U46"/>
+      <c r="V46"/>
+      <c r="W46"/>
+      <c r="X46"/>
+      <c r="Y46"/>
+      <c r="Z46"/>
+      <c r="AA46"/>
+      <c r="AB46"/>
+      <c r="AC46"/>
+      <c r="AD46"/>
+    </row>
+    <row r="47" s="1" customFormat="1" spans="2:30">
+      <c r="B47"/>
+      <c r="C47"/>
+      <c r="D47"/>
+      <c r="E47"/>
+      <c r="F47"/>
+      <c r="G47"/>
+      <c r="H47"/>
+      <c r="I47"/>
+      <c r="J47"/>
+      <c r="K47"/>
+      <c r="L47"/>
+      <c r="M47"/>
+      <c r="N47"/>
+      <c r="O47"/>
+      <c r="P47"/>
+      <c r="Q47"/>
+      <c r="R47"/>
+      <c r="S47"/>
+      <c r="T47"/>
+      <c r="U47"/>
+      <c r="V47"/>
+      <c r="W47"/>
+      <c r="X47"/>
+      <c r="Y47"/>
+      <c r="Z47"/>
+      <c r="AA47"/>
+      <c r="AB47"/>
+      <c r="AC47"/>
+      <c r="AD47"/>
+    </row>
+    <row r="48" s="1" customFormat="1" spans="2:30">
+      <c r="B48"/>
+      <c r="C48"/>
+      <c r="D48"/>
+      <c r="E48"/>
+      <c r="F48"/>
+      <c r="G48"/>
+      <c r="H48"/>
+      <c r="I48"/>
+      <c r="J48"/>
+      <c r="K48"/>
+      <c r="L48"/>
+      <c r="M48"/>
+      <c r="N48"/>
+      <c r="O48"/>
+      <c r="P48"/>
+      <c r="Q48"/>
+      <c r="R48"/>
+      <c r="S48"/>
+      <c r="T48"/>
+      <c r="U48"/>
+      <c r="V48"/>
+      <c r="W48"/>
+      <c r="X48"/>
+      <c r="Y48"/>
+      <c r="Z48"/>
+      <c r="AA48"/>
+      <c r="AB48"/>
+      <c r="AC48"/>
+      <c r="AD48"/>
+    </row>
+    <row r="49" s="1" customFormat="1" spans="2:30">
+      <c r="B49"/>
+      <c r="C49"/>
+      <c r="D49"/>
+      <c r="E49"/>
+      <c r="F49"/>
+      <c r="G49"/>
+      <c r="H49"/>
+      <c r="I49"/>
+      <c r="J49"/>
+      <c r="K49"/>
+      <c r="L49"/>
+      <c r="M49"/>
+      <c r="N49"/>
+      <c r="O49"/>
+      <c r="P49"/>
+      <c r="Q49"/>
+      <c r="R49"/>
+      <c r="S49"/>
+      <c r="T49"/>
+      <c r="U49"/>
+      <c r="V49"/>
+      <c r="W49"/>
+      <c r="X49"/>
+      <c r="Y49"/>
+      <c r="Z49"/>
+      <c r="AA49"/>
+      <c r="AB49"/>
+      <c r="AC49"/>
+      <c r="AD49"/>
+    </row>
+    <row r="50" s="1" customFormat="1" spans="2:30">
+      <c r="B50"/>
+      <c r="C50"/>
+      <c r="D50"/>
+      <c r="E50"/>
+      <c r="F50"/>
+      <c r="G50"/>
+      <c r="H50"/>
+      <c r="I50"/>
+      <c r="J50"/>
+      <c r="K50"/>
+      <c r="L50"/>
+      <c r="M50"/>
+      <c r="N50"/>
+      <c r="O50"/>
+      <c r="P50"/>
+      <c r="Q50"/>
+      <c r="R50"/>
+      <c r="S50"/>
+      <c r="T50"/>
+      <c r="U50"/>
+      <c r="V50"/>
+      <c r="W50"/>
+      <c r="X50"/>
+      <c r="Y50"/>
+      <c r="Z50"/>
+      <c r="AA50"/>
+      <c r="AB50"/>
+      <c r="AC50"/>
+      <c r="AD50"/>
+    </row>
+    <row r="51" s="1" customFormat="1" spans="2:30">
+      <c r="B51"/>
+      <c r="C51"/>
+      <c r="D51"/>
+      <c r="E51"/>
+      <c r="F51"/>
+      <c r="G51"/>
+      <c r="H51"/>
+      <c r="I51"/>
+      <c r="J51"/>
+      <c r="K51"/>
+      <c r="L51"/>
+      <c r="M51"/>
+      <c r="N51"/>
+      <c r="O51"/>
+      <c r="P51"/>
+      <c r="Q51"/>
+      <c r="R51"/>
+      <c r="S51"/>
+      <c r="T51"/>
+      <c r="U51"/>
+      <c r="V51"/>
+      <c r="W51"/>
+      <c r="X51"/>
+      <c r="Y51"/>
+      <c r="Z51"/>
+      <c r="AA51"/>
+      <c r="AB51"/>
+      <c r="AC51"/>
+      <c r="AD51"/>
+    </row>
+    <row r="52" s="1" customFormat="1" spans="2:30">
+      <c r="B52"/>
+      <c r="C52"/>
+      <c r="D52"/>
+      <c r="E52"/>
+      <c r="F52"/>
+      <c r="G52"/>
+      <c r="H52"/>
+      <c r="I52"/>
+      <c r="J52"/>
+      <c r="K52"/>
+      <c r="L52"/>
+      <c r="M52"/>
+      <c r="N52"/>
+      <c r="O52"/>
+      <c r="P52"/>
+      <c r="Q52"/>
+      <c r="R52"/>
+      <c r="S52"/>
+      <c r="T52"/>
+      <c r="U52"/>
+      <c r="V52"/>
+      <c r="W52"/>
+      <c r="X52"/>
+      <c r="Y52"/>
+      <c r="Z52"/>
+      <c r="AA52"/>
+      <c r="AB52"/>
+      <c r="AC52"/>
+      <c r="AD52"/>
+    </row>
+    <row r="53" s="1" customFormat="1" spans="2:30">
+      <c r="B53"/>
+      <c r="C53"/>
+      <c r="D53"/>
+      <c r="E53"/>
+      <c r="F53"/>
+      <c r="G53"/>
+      <c r="H53"/>
+      <c r="I53"/>
+      <c r="J53"/>
+      <c r="K53"/>
+      <c r="L53"/>
+      <c r="M53"/>
+      <c r="N53"/>
+      <c r="O53"/>
+      <c r="P53"/>
+      <c r="Q53"/>
+      <c r="R53"/>
+      <c r="S53"/>
+      <c r="T53"/>
+      <c r="V53" s="3"/>
+      <c r="AB53"/>
+      <c r="AC53"/>
+      <c r="AD53"/>
+    </row>
+    <row r="54" s="1" customFormat="1" spans="2:30">
+      <c r="B54"/>
+      <c r="C54"/>
+      <c r="D54"/>
+      <c r="E54"/>
+      <c r="F54"/>
+      <c r="G54"/>
+      <c r="H54"/>
+      <c r="I54"/>
+      <c r="J54"/>
+      <c r="K54"/>
+      <c r="L54"/>
+      <c r="M54"/>
+      <c r="N54"/>
+      <c r="O54"/>
+      <c r="P54"/>
+      <c r="Q54"/>
+      <c r="R54"/>
+      <c r="S54"/>
+      <c r="T54"/>
+      <c r="V54" s="3"/>
+      <c r="Y54" s="4"/>
+      <c r="AB54"/>
+      <c r="AC54"/>
+      <c r="AD54"/>
+    </row>
+    <row r="55" s="1" customFormat="1" spans="2:30">
+      <c r="B55"/>
+      <c r="C55"/>
+      <c r="D55"/>
+      <c r="E55"/>
+      <c r="F55"/>
+      <c r="G55"/>
+      <c r="H55"/>
+      <c r="I55"/>
+      <c r="J55"/>
+      <c r="K55"/>
+      <c r="L55"/>
+      <c r="M55"/>
+      <c r="N55"/>
+      <c r="O55"/>
+      <c r="P55"/>
+      <c r="Q55"/>
+      <c r="R55"/>
+      <c r="S55"/>
+      <c r="T55"/>
+      <c r="U55"/>
+      <c r="V55"/>
+      <c r="W55"/>
+      <c r="X55"/>
+      <c r="Y55"/>
+      <c r="Z55"/>
+      <c r="AA55"/>
+      <c r="AB55"/>
+      <c r="AC55"/>
+      <c r="AD55"/>
+    </row>
+    <row r="56" s="1" customFormat="1" spans="2:30">
+      <c r="B56"/>
+      <c r="C56"/>
+      <c r="D56"/>
+      <c r="E56"/>
+      <c r="F56"/>
+      <c r="G56"/>
+      <c r="H56"/>
+      <c r="I56"/>
+      <c r="J56"/>
+      <c r="K56"/>
+      <c r="L56"/>
+      <c r="M56"/>
+      <c r="N56"/>
+      <c r="O56"/>
+      <c r="P56"/>
+      <c r="Q56"/>
+      <c r="R56"/>
+      <c r="S56"/>
+      <c r="T56"/>
+      <c r="U56"/>
+      <c r="V56"/>
+      <c r="W56"/>
+      <c r="X56"/>
+      <c r="Y56"/>
+      <c r="Z56"/>
+      <c r="AA56"/>
+      <c r="AB56"/>
+      <c r="AC56"/>
+      <c r="AD56"/>
+    </row>
+    <row r="57" s="1" customFormat="1" spans="2:30">
+      <c r="B57"/>
+      <c r="C57"/>
+      <c r="D57"/>
+      <c r="E57"/>
+      <c r="F57"/>
+      <c r="G57"/>
+      <c r="H57"/>
+      <c r="I57"/>
+      <c r="J57"/>
+      <c r="K57"/>
+      <c r="L57"/>
+      <c r="M57"/>
+      <c r="N57"/>
+      <c r="O57"/>
+      <c r="P57"/>
+      <c r="Q57"/>
+      <c r="R57"/>
+      <c r="S57"/>
+      <c r="T57"/>
+      <c r="U57"/>
+      <c r="V57"/>
+      <c r="W57"/>
+      <c r="X57"/>
+      <c r="Y57"/>
+      <c r="Z57"/>
+      <c r="AA57"/>
+      <c r="AB57"/>
+      <c r="AC57"/>
+      <c r="AD57"/>
+    </row>
+    <row r="58" s="1" customFormat="1" spans="2:30">
+      <c r="B58"/>
+      <c r="C58"/>
+      <c r="E58"/>
+      <c r="F58"/>
+      <c r="G58"/>
+      <c r="H58"/>
+      <c r="I58"/>
+      <c r="J58"/>
+      <c r="K58"/>
+      <c r="L58"/>
+      <c r="M58"/>
+      <c r="N58"/>
+      <c r="O58"/>
+      <c r="P58"/>
+      <c r="Q58"/>
+      <c r="R58"/>
+      <c r="S58"/>
+      <c r="T58"/>
+      <c r="U58"/>
+      <c r="V58"/>
+      <c r="W58"/>
+      <c r="X58"/>
+      <c r="Y58"/>
+      <c r="Z58"/>
+      <c r="AA58"/>
+      <c r="AB58"/>
+      <c r="AC58"/>
+      <c r="AD58"/>
+    </row>
+    <row r="59" s="1" customFormat="1" spans="2:30">
+      <c r="B59"/>
+      <c r="C59"/>
+      <c r="E59"/>
+      <c r="F59"/>
+      <c r="G59"/>
+      <c r="H59"/>
+      <c r="I59"/>
+      <c r="J59"/>
+      <c r="K59"/>
+      <c r="L59"/>
+      <c r="M59"/>
+      <c r="N59"/>
+      <c r="O59"/>
+      <c r="P59"/>
+      <c r="Q59"/>
+      <c r="R59"/>
+      <c r="S59"/>
+      <c r="T59"/>
+      <c r="U59"/>
+      <c r="V59"/>
+      <c r="W59"/>
+      <c r="X59"/>
+      <c r="Y59"/>
+      <c r="Z59"/>
+      <c r="AA59"/>
+      <c r="AB59"/>
+      <c r="AC59"/>
+      <c r="AD59"/>
+    </row>
+    <row r="60" s="1" customFormat="1" spans="2:30">
+      <c r="B60"/>
+      <c r="C60"/>
+      <c r="E60"/>
+      <c r="F60"/>
+      <c r="G60"/>
+      <c r="H60"/>
+      <c r="I60"/>
+      <c r="J60"/>
+      <c r="K60"/>
+      <c r="L60"/>
+      <c r="M60"/>
+      <c r="N60"/>
+      <c r="O60"/>
+      <c r="P60"/>
+      <c r="Q60"/>
+      <c r="R60"/>
+      <c r="S60"/>
+      <c r="T60"/>
+      <c r="U60"/>
+      <c r="V60"/>
+      <c r="W60"/>
+      <c r="X60"/>
+      <c r="Y60"/>
+      <c r="Z60"/>
+      <c r="AA60"/>
+      <c r="AB60"/>
+      <c r="AC60"/>
+      <c r="AD60"/>
+    </row>
+    <row r="61" s="1" customFormat="1" spans="2:30">
+      <c r="B61"/>
+      <c r="C61"/>
+      <c r="D61"/>
+      <c r="E61"/>
+      <c r="F61"/>
+      <c r="G61"/>
+      <c r="H61"/>
+      <c r="I61"/>
+      <c r="J61"/>
+      <c r="K61"/>
+      <c r="L61"/>
+      <c r="M61"/>
+      <c r="N61"/>
+      <c r="O61"/>
+      <c r="P61"/>
+      <c r="Q61"/>
+      <c r="R61"/>
+      <c r="S61"/>
+      <c r="T61"/>
+      <c r="U61"/>
+      <c r="V61"/>
+      <c r="W61"/>
+      <c r="X61"/>
+      <c r="Y61"/>
+      <c r="Z61"/>
+      <c r="AA61"/>
+      <c r="AB61"/>
+      <c r="AC61"/>
+      <c r="AD61"/>
+    </row>
+    <row r="62" s="1" customFormat="1" spans="2:30">
+      <c r="B62"/>
+      <c r="C62"/>
+      <c r="D62"/>
       <c r="E62"/>
       <c r="F62"/>
       <c r="G62"/>
@@ -16569,7 +19727,7 @@
       <c r="O81"/>
       <c r="P81"/>
       <c r="Q81"/>
-      <c r="S81" s="2"/>
+      <c r="S81" s="3"/>
       <c r="X81"/>
       <c r="Y81"/>
       <c r="Z81"/>
@@ -16595,7 +19753,7 @@
       <c r="O82"/>
       <c r="P82"/>
       <c r="Q82"/>
-      <c r="S82" s="2"/>
+      <c r="S82" s="3"/>
       <c r="V82" s="4"/>
       <c r="X82"/>
       <c r="Y82"/>
@@ -16732,32 +19890,2049 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
-  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1"/>
+  <dimension ref="A1:AE65"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="A1" sqref="$A1:$XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="4.875" defaultRowHeight="13.5"/>
+  <cols>
+    <col min="1" max="16384" width="4.875" style="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:1">
-      <c r="A1" t="s">
-        <v>253</v>
-      </c>
+    <row r="1" s="1" customFormat="1" ht="22.5" spans="9:31">
+      <c r="I1" s="2"/>
+      <c r="J1" s="2" t="s">
+        <v>276</v>
+      </c>
+      <c r="V1" s="3"/>
+      <c r="W1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="X1" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="Y1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="Z1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="AA1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="AE1" s="3"/>
+    </row>
+    <row r="2" s="1" customFormat="1" spans="23:27">
+      <c r="W2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="X2" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="Y2" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="Z2" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="AA2" s="4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" s="1" customFormat="1" ht="22.5" spans="1:10">
+      <c r="A3" s="1" t="s">
+        <v>277</v>
+      </c>
+      <c r="I3" s="2"/>
+      <c r="J3" s="2"/>
+    </row>
+    <row r="4" s="1" customFormat="1" spans="2:30">
+      <c r="B4" t="s">
+        <v>278</v>
+      </c>
+      <c r="C4"/>
+      <c r="D4"/>
+      <c r="E4"/>
+      <c r="F4"/>
+      <c r="G4"/>
+      <c r="H4"/>
+      <c r="I4"/>
+      <c r="J4"/>
+      <c r="K4"/>
+      <c r="L4"/>
+      <c r="M4"/>
+      <c r="N4"/>
+      <c r="O4"/>
+      <c r="P4"/>
+      <c r="Q4"/>
+      <c r="R4"/>
+      <c r="S4"/>
+      <c r="T4"/>
+      <c r="U4"/>
+      <c r="V4"/>
+      <c r="W4"/>
+      <c r="X4"/>
+      <c r="Y4"/>
+      <c r="Z4"/>
+      <c r="AA4"/>
+      <c r="AB4"/>
+      <c r="AC4"/>
+      <c r="AD4"/>
+    </row>
+    <row r="5" s="1" customFormat="1" spans="2:30">
+      <c r="B5" t="s">
+        <v>279</v>
+      </c>
+      <c r="C5"/>
+      <c r="D5"/>
+      <c r="E5"/>
+      <c r="F5"/>
+      <c r="G5"/>
+      <c r="H5"/>
+      <c r="I5"/>
+      <c r="J5"/>
+      <c r="K5"/>
+      <c r="L5"/>
+      <c r="M5"/>
+      <c r="N5"/>
+      <c r="O5"/>
+      <c r="P5"/>
+      <c r="Q5"/>
+      <c r="R5"/>
+      <c r="S5"/>
+      <c r="T5"/>
+      <c r="U5"/>
+      <c r="V5"/>
+      <c r="W5"/>
+      <c r="X5"/>
+      <c r="Y5"/>
+      <c r="Z5"/>
+      <c r="AA5"/>
+      <c r="AB5"/>
+      <c r="AC5"/>
+      <c r="AD5"/>
+    </row>
+    <row r="6" s="1" customFormat="1" spans="2:30">
+      <c r="B6" t="s">
+        <v>280</v>
+      </c>
+      <c r="C6"/>
+      <c r="D6"/>
+      <c r="E6"/>
+      <c r="F6"/>
+      <c r="G6"/>
+      <c r="H6"/>
+      <c r="I6"/>
+      <c r="J6"/>
+      <c r="K6"/>
+      <c r="L6"/>
+      <c r="M6"/>
+      <c r="N6"/>
+      <c r="O6"/>
+      <c r="P6"/>
+      <c r="Q6"/>
+      <c r="R6"/>
+      <c r="S6"/>
+      <c r="T6"/>
+      <c r="U6"/>
+      <c r="V6"/>
+      <c r="W6"/>
+      <c r="X6"/>
+      <c r="Y6"/>
+      <c r="Z6"/>
+      <c r="AA6"/>
+      <c r="AB6"/>
+      <c r="AC6"/>
+      <c r="AD6"/>
+    </row>
+    <row r="7" s="1" customFormat="1" spans="2:30">
+      <c r="B7"/>
+      <c r="C7" t="s">
+        <v>281</v>
+      </c>
+      <c r="D7"/>
+      <c r="E7"/>
+      <c r="F7"/>
+      <c r="G7"/>
+      <c r="H7"/>
+      <c r="I7"/>
+      <c r="J7"/>
+      <c r="K7"/>
+      <c r="L7"/>
+      <c r="M7"/>
+      <c r="N7"/>
+      <c r="O7"/>
+      <c r="P7"/>
+      <c r="Q7"/>
+      <c r="R7"/>
+      <c r="S7"/>
+      <c r="T7"/>
+      <c r="U7"/>
+      <c r="V7"/>
+      <c r="W7"/>
+      <c r="X7"/>
+      <c r="Y7"/>
+      <c r="Z7"/>
+      <c r="AA7"/>
+      <c r="AB7"/>
+      <c r="AC7"/>
+      <c r="AD7"/>
+    </row>
+    <row r="8" s="1" customFormat="1" spans="2:30">
+      <c r="B8"/>
+      <c r="C8"/>
+      <c r="D8" t="s">
+        <v>282</v>
+      </c>
+      <c r="E8"/>
+      <c r="F8"/>
+      <c r="G8"/>
+      <c r="H8"/>
+      <c r="I8"/>
+      <c r="J8"/>
+      <c r="K8"/>
+      <c r="L8"/>
+      <c r="M8"/>
+      <c r="N8"/>
+      <c r="O8"/>
+      <c r="P8"/>
+      <c r="Q8"/>
+      <c r="R8"/>
+      <c r="S8"/>
+      <c r="T8"/>
+      <c r="U8"/>
+      <c r="V8"/>
+      <c r="W8"/>
+      <c r="X8"/>
+      <c r="Y8"/>
+      <c r="Z8"/>
+      <c r="AA8"/>
+      <c r="AB8"/>
+      <c r="AC8"/>
+      <c r="AD8"/>
+    </row>
+    <row r="9" s="1" customFormat="1" spans="2:30">
+      <c r="B9"/>
+      <c r="C9"/>
+      <c r="D9" t="s">
+        <v>283</v>
+      </c>
+      <c r="E9"/>
+      <c r="F9"/>
+      <c r="G9"/>
+      <c r="H9"/>
+      <c r="I9"/>
+      <c r="J9"/>
+      <c r="K9"/>
+      <c r="L9"/>
+      <c r="M9"/>
+      <c r="N9"/>
+      <c r="O9"/>
+      <c r="P9"/>
+      <c r="Q9"/>
+      <c r="R9"/>
+      <c r="S9"/>
+      <c r="T9"/>
+      <c r="U9"/>
+      <c r="V9"/>
+      <c r="W9"/>
+      <c r="X9"/>
+      <c r="Y9"/>
+      <c r="Z9"/>
+      <c r="AA9"/>
+      <c r="AB9"/>
+      <c r="AC9"/>
+      <c r="AD9"/>
+    </row>
+    <row r="10" s="1" customFormat="1" spans="2:30">
+      <c r="B10"/>
+      <c r="C10"/>
+      <c r="D10" t="s">
+        <v>284</v>
+      </c>
+      <c r="E10"/>
+      <c r="F10"/>
+      <c r="G10"/>
+      <c r="H10"/>
+      <c r="I10"/>
+      <c r="J10"/>
+      <c r="K10"/>
+      <c r="L10"/>
+      <c r="M10"/>
+      <c r="N10"/>
+      <c r="O10"/>
+      <c r="P10"/>
+      <c r="Q10"/>
+      <c r="R10"/>
+      <c r="S10"/>
+      <c r="T10"/>
+      <c r="U10"/>
+      <c r="V10"/>
+      <c r="W10"/>
+      <c r="X10"/>
+      <c r="Y10"/>
+      <c r="Z10"/>
+      <c r="AA10"/>
+      <c r="AB10"/>
+      <c r="AC10"/>
+      <c r="AD10"/>
+    </row>
+    <row r="11" s="1" customFormat="1" spans="2:30">
+      <c r="B11"/>
+      <c r="C11"/>
+      <c r="D11" t="s">
+        <v>285</v>
+      </c>
+      <c r="E11"/>
+      <c r="F11"/>
+      <c r="G11"/>
+      <c r="H11"/>
+      <c r="I11"/>
+      <c r="J11"/>
+      <c r="K11"/>
+      <c r="L11"/>
+      <c r="M11"/>
+      <c r="N11"/>
+      <c r="O11"/>
+      <c r="P11"/>
+      <c r="Q11"/>
+      <c r="R11"/>
+      <c r="S11"/>
+      <c r="T11"/>
+      <c r="U11"/>
+      <c r="V11"/>
+      <c r="W11"/>
+      <c r="X11"/>
+      <c r="Y11"/>
+      <c r="Z11"/>
+      <c r="AA11"/>
+      <c r="AB11"/>
+      <c r="AC11"/>
+      <c r="AD11"/>
+    </row>
+    <row r="12" s="1" customFormat="1" spans="2:30">
+      <c r="B12"/>
+      <c r="C12" t="s">
+        <v>286</v>
+      </c>
+      <c r="D12"/>
+      <c r="E12"/>
+      <c r="F12"/>
+      <c r="G12"/>
+      <c r="H12"/>
+      <c r="I12"/>
+      <c r="J12"/>
+      <c r="K12"/>
+      <c r="L12"/>
+      <c r="M12"/>
+      <c r="N12"/>
+      <c r="O12"/>
+      <c r="P12"/>
+      <c r="Q12"/>
+      <c r="R12"/>
+      <c r="S12"/>
+      <c r="T12"/>
+      <c r="U12"/>
+      <c r="V12"/>
+      <c r="W12"/>
+      <c r="X12"/>
+      <c r="Y12"/>
+      <c r="Z12"/>
+      <c r="AA12"/>
+      <c r="AB12"/>
+      <c r="AC12"/>
+      <c r="AD12"/>
+    </row>
+    <row r="13" s="1" customFormat="1" spans="2:30">
+      <c r="B13"/>
+      <c r="C13"/>
+      <c r="D13" t="s">
+        <v>287</v>
+      </c>
+      <c r="E13"/>
+      <c r="F13"/>
+      <c r="G13"/>
+      <c r="H13"/>
+      <c r="I13"/>
+      <c r="J13"/>
+      <c r="K13"/>
+      <c r="L13"/>
+      <c r="M13"/>
+      <c r="N13"/>
+      <c r="O13"/>
+      <c r="P13"/>
+      <c r="Q13"/>
+      <c r="R13"/>
+      <c r="S13"/>
+      <c r="T13"/>
+      <c r="U13"/>
+      <c r="V13"/>
+      <c r="W13"/>
+      <c r="X13"/>
+      <c r="Y13"/>
+      <c r="Z13"/>
+      <c r="AA13"/>
+      <c r="AB13"/>
+      <c r="AC13"/>
+      <c r="AD13"/>
+    </row>
+    <row r="14" s="1" customFormat="1" spans="2:30">
+      <c r="B14"/>
+      <c r="C14"/>
+      <c r="D14" s="1" t="s">
+        <v>288</v>
+      </c>
+      <c r="E14"/>
+      <c r="F14"/>
+      <c r="G14"/>
+      <c r="H14"/>
+      <c r="I14"/>
+      <c r="J14"/>
+      <c r="K14"/>
+      <c r="L14"/>
+      <c r="M14"/>
+      <c r="N14"/>
+      <c r="O14"/>
+      <c r="P14"/>
+      <c r="Q14"/>
+      <c r="R14"/>
+      <c r="S14"/>
+      <c r="T14"/>
+      <c r="U14"/>
+      <c r="V14"/>
+      <c r="W14"/>
+      <c r="X14"/>
+      <c r="Y14"/>
+      <c r="Z14"/>
+      <c r="AA14"/>
+      <c r="AB14"/>
+      <c r="AC14"/>
+      <c r="AD14"/>
+    </row>
+    <row r="15" s="1" customFormat="1" spans="2:30">
+      <c r="B15"/>
+      <c r="C15"/>
+      <c r="E15" t="s">
+        <v>289</v>
+      </c>
+      <c r="F15"/>
+      <c r="G15"/>
+      <c r="H15"/>
+      <c r="I15"/>
+      <c r="J15"/>
+      <c r="K15"/>
+      <c r="L15"/>
+      <c r="M15"/>
+      <c r="N15"/>
+      <c r="O15"/>
+      <c r="P15"/>
+      <c r="Q15"/>
+      <c r="R15"/>
+      <c r="S15"/>
+      <c r="T15"/>
+      <c r="U15"/>
+      <c r="V15"/>
+      <c r="W15"/>
+      <c r="X15"/>
+      <c r="Y15"/>
+      <c r="Z15"/>
+      <c r="AA15"/>
+      <c r="AB15"/>
+      <c r="AC15"/>
+      <c r="AD15"/>
+    </row>
+    <row r="16" s="1" customFormat="1" spans="2:30">
+      <c r="B16"/>
+      <c r="C16"/>
+      <c r="D16" s="1" t="s">
+        <v>290</v>
+      </c>
+      <c r="E16"/>
+      <c r="F16"/>
+      <c r="G16"/>
+      <c r="H16"/>
+      <c r="I16"/>
+      <c r="J16"/>
+      <c r="K16"/>
+      <c r="L16"/>
+      <c r="M16"/>
+      <c r="N16"/>
+      <c r="O16"/>
+      <c r="P16"/>
+      <c r="Q16"/>
+      <c r="R16"/>
+      <c r="S16"/>
+      <c r="T16"/>
+      <c r="U16"/>
+      <c r="V16"/>
+      <c r="W16"/>
+      <c r="X16"/>
+      <c r="Y16"/>
+      <c r="Z16"/>
+      <c r="AA16"/>
+      <c r="AB16"/>
+      <c r="AC16"/>
+      <c r="AD16"/>
+    </row>
+    <row r="17" s="1" customFormat="1" spans="2:30">
+      <c r="B17"/>
+      <c r="C17"/>
+      <c r="D17"/>
+      <c r="E17" t="s">
+        <v>291</v>
+      </c>
+      <c r="F17"/>
+      <c r="G17"/>
+      <c r="H17"/>
+      <c r="I17"/>
+      <c r="J17"/>
+      <c r="K17"/>
+      <c r="L17"/>
+      <c r="M17"/>
+      <c r="N17"/>
+      <c r="O17"/>
+      <c r="P17"/>
+      <c r="Q17"/>
+      <c r="R17"/>
+      <c r="S17"/>
+      <c r="T17"/>
+      <c r="U17"/>
+      <c r="V17"/>
+      <c r="W17"/>
+      <c r="X17"/>
+      <c r="Y17"/>
+      <c r="Z17"/>
+      <c r="AA17"/>
+      <c r="AB17"/>
+      <c r="AC17"/>
+      <c r="AD17"/>
+    </row>
+    <row r="18" s="1" customFormat="1" spans="2:30">
+      <c r="B18"/>
+      <c r="C18" t="s">
+        <v>292</v>
+      </c>
+      <c r="D18"/>
+      <c r="E18"/>
+      <c r="F18"/>
+      <c r="G18"/>
+      <c r="H18"/>
+      <c r="I18"/>
+      <c r="J18"/>
+      <c r="K18"/>
+      <c r="L18"/>
+      <c r="M18"/>
+      <c r="N18"/>
+      <c r="O18"/>
+      <c r="P18"/>
+      <c r="Q18"/>
+      <c r="R18"/>
+      <c r="S18"/>
+      <c r="T18"/>
+      <c r="U18"/>
+      <c r="V18"/>
+      <c r="W18"/>
+      <c r="X18"/>
+      <c r="Y18"/>
+      <c r="Z18"/>
+      <c r="AA18"/>
+      <c r="AB18"/>
+      <c r="AC18"/>
+      <c r="AD18"/>
+    </row>
+    <row r="19" s="1" customFormat="1" spans="2:30">
+      <c r="B19"/>
+      <c r="C19"/>
+      <c r="D19" t="s">
+        <v>293</v>
+      </c>
+      <c r="E19"/>
+      <c r="F19"/>
+      <c r="G19"/>
+      <c r="H19"/>
+      <c r="I19"/>
+      <c r="J19"/>
+      <c r="K19"/>
+      <c r="L19"/>
+      <c r="M19"/>
+      <c r="N19"/>
+      <c r="O19"/>
+      <c r="P19"/>
+      <c r="Q19"/>
+      <c r="R19"/>
+      <c r="S19"/>
+      <c r="T19"/>
+      <c r="U19"/>
+      <c r="V19"/>
+      <c r="W19"/>
+      <c r="X19"/>
+      <c r="Y19"/>
+      <c r="Z19"/>
+      <c r="AA19"/>
+      <c r="AB19"/>
+      <c r="AC19"/>
+      <c r="AD19"/>
+    </row>
+    <row r="20" s="1" customFormat="1" spans="2:30">
+      <c r="B20"/>
+      <c r="C20"/>
+      <c r="E20" t="s">
+        <v>294</v>
+      </c>
+      <c r="F20"/>
+      <c r="G20"/>
+      <c r="H20"/>
+      <c r="I20"/>
+      <c r="J20"/>
+      <c r="K20"/>
+      <c r="L20"/>
+      <c r="M20"/>
+      <c r="N20"/>
+      <c r="O20"/>
+      <c r="P20"/>
+      <c r="Q20"/>
+      <c r="R20"/>
+      <c r="S20"/>
+      <c r="T20"/>
+      <c r="U20"/>
+      <c r="V20"/>
+      <c r="W20"/>
+      <c r="X20"/>
+      <c r="Y20"/>
+      <c r="Z20"/>
+      <c r="AA20"/>
+      <c r="AB20"/>
+      <c r="AC20"/>
+      <c r="AD20"/>
+    </row>
+    <row r="21" s="1" customFormat="1" spans="2:30">
+      <c r="B21"/>
+      <c r="C21"/>
+      <c r="D21" t="s">
+        <v>295</v>
+      </c>
+      <c r="E21"/>
+      <c r="F21"/>
+      <c r="G21"/>
+      <c r="H21"/>
+      <c r="I21"/>
+      <c r="J21"/>
+      <c r="K21"/>
+      <c r="L21"/>
+      <c r="M21"/>
+      <c r="N21"/>
+      <c r="O21"/>
+      <c r="P21"/>
+      <c r="Q21"/>
+      <c r="R21"/>
+      <c r="S21"/>
+      <c r="T21"/>
+      <c r="U21"/>
+      <c r="V21"/>
+      <c r="W21"/>
+      <c r="X21"/>
+      <c r="Y21"/>
+      <c r="Z21"/>
+      <c r="AA21"/>
+      <c r="AB21"/>
+      <c r="AC21"/>
+      <c r="AD21"/>
+    </row>
+    <row r="22" s="1" customFormat="1" spans="2:30">
+      <c r="B22"/>
+      <c r="C22"/>
+      <c r="D22"/>
+      <c r="E22" t="s">
+        <v>296</v>
+      </c>
+      <c r="F22"/>
+      <c r="G22"/>
+      <c r="H22"/>
+      <c r="I22"/>
+      <c r="J22"/>
+      <c r="K22"/>
+      <c r="L22"/>
+      <c r="M22"/>
+      <c r="N22"/>
+      <c r="O22"/>
+      <c r="P22"/>
+      <c r="Q22"/>
+      <c r="R22"/>
+      <c r="S22"/>
+      <c r="T22"/>
+      <c r="U22"/>
+      <c r="V22"/>
+      <c r="W22"/>
+      <c r="X22"/>
+      <c r="Y22"/>
+      <c r="Z22"/>
+      <c r="AA22"/>
+      <c r="AB22"/>
+      <c r="AC22"/>
+      <c r="AD22"/>
+    </row>
+    <row r="23" s="1" customFormat="1" spans="2:30">
+      <c r="B23"/>
+      <c r="C23"/>
+      <c r="D23"/>
+      <c r="E23" s="1" t="s">
+        <v>297</v>
+      </c>
+      <c r="F23"/>
+      <c r="G23"/>
+      <c r="H23"/>
+      <c r="I23"/>
+      <c r="J23"/>
+      <c r="K23"/>
+      <c r="L23"/>
+      <c r="M23"/>
+      <c r="N23"/>
+      <c r="O23"/>
+      <c r="P23"/>
+      <c r="Q23"/>
+      <c r="R23"/>
+      <c r="S23"/>
+      <c r="T23"/>
+      <c r="U23"/>
+      <c r="V23"/>
+      <c r="W23"/>
+      <c r="X23"/>
+      <c r="Y23"/>
+      <c r="Z23"/>
+      <c r="AA23"/>
+      <c r="AB23"/>
+      <c r="AC23"/>
+      <c r="AD23"/>
+    </row>
+    <row r="24" s="1" customFormat="1" spans="2:30">
+      <c r="B24"/>
+      <c r="C24"/>
+      <c r="D24"/>
+      <c r="F24" t="s">
+        <v>298</v>
+      </c>
+      <c r="G24"/>
+      <c r="H24"/>
+      <c r="I24"/>
+      <c r="J24"/>
+      <c r="K24"/>
+      <c r="L24"/>
+      <c r="M24"/>
+      <c r="N24"/>
+      <c r="O24"/>
+      <c r="P24"/>
+      <c r="Q24"/>
+      <c r="R24"/>
+      <c r="S24"/>
+      <c r="T24"/>
+      <c r="U24"/>
+      <c r="V24"/>
+      <c r="W24"/>
+      <c r="X24"/>
+      <c r="Y24"/>
+      <c r="Z24"/>
+      <c r="AA24"/>
+      <c r="AB24"/>
+      <c r="AC24"/>
+      <c r="AD24"/>
+    </row>
+    <row r="25" s="1" customFormat="1" spans="2:30">
+      <c r="B25"/>
+      <c r="C25"/>
+      <c r="D25"/>
+      <c r="E25" s="1" t="s">
+        <v>299</v>
+      </c>
+      <c r="G25"/>
+      <c r="H25"/>
+      <c r="I25"/>
+      <c r="J25"/>
+      <c r="K25"/>
+      <c r="L25"/>
+      <c r="M25"/>
+      <c r="N25"/>
+      <c r="O25"/>
+      <c r="P25"/>
+      <c r="Q25"/>
+      <c r="R25"/>
+      <c r="S25"/>
+      <c r="T25"/>
+      <c r="U25"/>
+      <c r="V25"/>
+      <c r="W25"/>
+      <c r="X25"/>
+      <c r="Y25"/>
+      <c r="Z25"/>
+      <c r="AA25"/>
+      <c r="AB25"/>
+      <c r="AC25"/>
+      <c r="AD25"/>
+    </row>
+    <row r="26" s="1" customFormat="1" spans="2:30">
+      <c r="B26"/>
+      <c r="C26"/>
+      <c r="D26"/>
+      <c r="F26" t="s">
+        <v>300</v>
+      </c>
+      <c r="G26"/>
+      <c r="H26"/>
+      <c r="I26"/>
+      <c r="J26"/>
+      <c r="K26"/>
+      <c r="L26"/>
+      <c r="M26"/>
+      <c r="N26"/>
+      <c r="O26"/>
+      <c r="P26"/>
+      <c r="Q26"/>
+      <c r="R26"/>
+      <c r="S26"/>
+      <c r="T26"/>
+      <c r="U26"/>
+      <c r="V26"/>
+      <c r="W26"/>
+      <c r="X26"/>
+      <c r="Y26"/>
+      <c r="Z26"/>
+      <c r="AA26"/>
+      <c r="AB26"/>
+      <c r="AC26"/>
+      <c r="AD26"/>
+    </row>
+    <row r="27" s="1" customFormat="1" spans="2:30">
+      <c r="B27"/>
+      <c r="C27"/>
+      <c r="D27"/>
+      <c r="E27"/>
+      <c r="F27" t="s">
+        <v>301</v>
+      </c>
+      <c r="G27"/>
+      <c r="H27"/>
+      <c r="I27"/>
+      <c r="J27"/>
+      <c r="K27"/>
+      <c r="L27"/>
+      <c r="M27"/>
+      <c r="N27"/>
+      <c r="O27"/>
+      <c r="P27"/>
+      <c r="Q27"/>
+      <c r="R27"/>
+      <c r="S27"/>
+      <c r="T27"/>
+      <c r="U27"/>
+      <c r="V27"/>
+      <c r="W27"/>
+      <c r="X27"/>
+      <c r="Y27"/>
+      <c r="Z27"/>
+      <c r="AA27"/>
+      <c r="AB27"/>
+      <c r="AC27"/>
+      <c r="AD27"/>
+    </row>
+    <row r="28" s="1" customFormat="1" spans="2:30">
+      <c r="B28"/>
+      <c r="C28"/>
+      <c r="D28"/>
+      <c r="E28" s="3" t="s">
+        <v>302</v>
+      </c>
+      <c r="F28"/>
+      <c r="G28"/>
+      <c r="H28"/>
+      <c r="I28"/>
+      <c r="J28"/>
+      <c r="K28"/>
+      <c r="L28"/>
+      <c r="M28"/>
+      <c r="N28"/>
+      <c r="O28"/>
+      <c r="P28"/>
+      <c r="Q28"/>
+      <c r="R28"/>
+      <c r="S28"/>
+      <c r="T28"/>
+      <c r="U28"/>
+      <c r="V28"/>
+      <c r="W28"/>
+      <c r="X28"/>
+      <c r="Y28"/>
+      <c r="Z28"/>
+      <c r="AA28"/>
+      <c r="AB28"/>
+      <c r="AC28"/>
+      <c r="AD28"/>
+    </row>
+    <row r="29" s="1" customFormat="1" spans="2:30">
+      <c r="B29"/>
+      <c r="C29" t="s">
+        <v>303</v>
+      </c>
+      <c r="D29"/>
+      <c r="E29"/>
+      <c r="F29"/>
+      <c r="G29"/>
+      <c r="H29"/>
+      <c r="I29"/>
+      <c r="J29"/>
+      <c r="K29"/>
+      <c r="L29"/>
+      <c r="M29"/>
+      <c r="N29"/>
+      <c r="O29"/>
+      <c r="P29"/>
+      <c r="Q29"/>
+      <c r="R29"/>
+      <c r="S29"/>
+      <c r="T29"/>
+      <c r="U29"/>
+      <c r="V29"/>
+      <c r="W29"/>
+      <c r="X29"/>
+      <c r="Y29"/>
+      <c r="Z29"/>
+      <c r="AA29"/>
+      <c r="AB29"/>
+      <c r="AC29"/>
+      <c r="AD29"/>
+    </row>
+    <row r="30" s="1" customFormat="1" spans="2:30">
+      <c r="B30"/>
+      <c r="C30"/>
+      <c r="D30" t="s">
+        <v>304</v>
+      </c>
+      <c r="E30"/>
+      <c r="F30"/>
+      <c r="G30"/>
+      <c r="H30"/>
+      <c r="I30"/>
+      <c r="J30"/>
+      <c r="K30"/>
+      <c r="L30"/>
+      <c r="M30"/>
+      <c r="N30"/>
+      <c r="O30"/>
+      <c r="P30"/>
+      <c r="Q30"/>
+      <c r="R30"/>
+      <c r="S30"/>
+      <c r="T30"/>
+      <c r="U30"/>
+      <c r="V30"/>
+      <c r="W30"/>
+      <c r="X30"/>
+      <c r="Y30"/>
+      <c r="Z30"/>
+      <c r="AA30"/>
+      <c r="AB30"/>
+      <c r="AC30"/>
+      <c r="AD30"/>
+    </row>
+    <row r="31" s="1" customFormat="1" spans="2:30">
+      <c r="B31"/>
+      <c r="C31"/>
+      <c r="D31"/>
+      <c r="E31" t="s">
+        <v>305</v>
+      </c>
+      <c r="F31"/>
+      <c r="G31"/>
+      <c r="H31"/>
+      <c r="I31"/>
+      <c r="J31"/>
+      <c r="K31"/>
+      <c r="L31"/>
+      <c r="M31"/>
+      <c r="N31"/>
+      <c r="O31"/>
+      <c r="P31"/>
+      <c r="Q31"/>
+      <c r="R31"/>
+      <c r="S31"/>
+      <c r="T31"/>
+      <c r="U31"/>
+      <c r="V31"/>
+      <c r="W31"/>
+      <c r="X31"/>
+      <c r="Y31"/>
+      <c r="Z31"/>
+      <c r="AA31"/>
+      <c r="AB31"/>
+      <c r="AC31"/>
+      <c r="AD31"/>
+    </row>
+    <row r="32" s="1" customFormat="1" spans="2:30">
+      <c r="B32"/>
+      <c r="C32"/>
+      <c r="D32" t="s">
+        <v>306</v>
+      </c>
+      <c r="E32"/>
+      <c r="F32"/>
+      <c r="G32"/>
+      <c r="H32"/>
+      <c r="I32"/>
+      <c r="J32"/>
+      <c r="K32"/>
+      <c r="L32"/>
+      <c r="M32"/>
+      <c r="N32"/>
+      <c r="O32"/>
+      <c r="P32"/>
+      <c r="Q32"/>
+      <c r="R32"/>
+      <c r="S32"/>
+      <c r="T32"/>
+      <c r="U32"/>
+      <c r="V32"/>
+      <c r="W32"/>
+      <c r="X32"/>
+      <c r="Y32"/>
+      <c r="Z32"/>
+      <c r="AA32"/>
+      <c r="AB32"/>
+      <c r="AC32"/>
+      <c r="AD32"/>
+    </row>
+    <row r="33" s="1" customFormat="1" spans="2:30">
+      <c r="B33"/>
+      <c r="C33"/>
+      <c r="D33"/>
+      <c r="E33" t="s">
+        <v>307</v>
+      </c>
+      <c r="F33"/>
+      <c r="G33"/>
+      <c r="H33"/>
+      <c r="I33"/>
+      <c r="J33"/>
+      <c r="K33"/>
+      <c r="L33"/>
+      <c r="M33"/>
+      <c r="N33"/>
+      <c r="O33"/>
+      <c r="P33"/>
+      <c r="Q33"/>
+      <c r="R33"/>
+      <c r="S33"/>
+      <c r="T33"/>
+      <c r="U33"/>
+      <c r="V33"/>
+      <c r="W33"/>
+      <c r="X33"/>
+      <c r="Y33"/>
+      <c r="Z33"/>
+      <c r="AA33"/>
+      <c r="AB33"/>
+      <c r="AC33"/>
+      <c r="AD33"/>
+    </row>
+    <row r="34" s="1" customFormat="1" spans="2:30">
+      <c r="B34"/>
+      <c r="C34"/>
+      <c r="D34"/>
+      <c r="E34"/>
+      <c r="F34"/>
+      <c r="G34"/>
+      <c r="H34"/>
+      <c r="I34"/>
+      <c r="J34"/>
+      <c r="K34"/>
+      <c r="L34"/>
+      <c r="M34"/>
+      <c r="N34"/>
+      <c r="O34"/>
+      <c r="P34"/>
+      <c r="Q34"/>
+      <c r="R34"/>
+      <c r="S34"/>
+      <c r="T34"/>
+      <c r="U34"/>
+      <c r="V34"/>
+      <c r="W34"/>
+      <c r="X34"/>
+      <c r="Y34"/>
+      <c r="Z34"/>
+      <c r="AA34"/>
+      <c r="AB34"/>
+      <c r="AC34"/>
+      <c r="AD34"/>
+    </row>
+    <row r="35" s="1" customFormat="1" spans="2:30">
+      <c r="B35"/>
+      <c r="C35"/>
+      <c r="D35"/>
+      <c r="E35"/>
+      <c r="F35"/>
+      <c r="G35"/>
+      <c r="H35"/>
+      <c r="I35"/>
+      <c r="J35"/>
+      <c r="K35"/>
+      <c r="L35"/>
+      <c r="M35"/>
+      <c r="N35"/>
+      <c r="O35"/>
+      <c r="P35"/>
+      <c r="Q35"/>
+      <c r="R35"/>
+      <c r="S35"/>
+      <c r="T35"/>
+      <c r="U35"/>
+      <c r="V35"/>
+      <c r="W35"/>
+      <c r="X35"/>
+      <c r="Y35"/>
+      <c r="Z35"/>
+      <c r="AA35"/>
+      <c r="AB35"/>
+      <c r="AC35"/>
+      <c r="AD35"/>
+    </row>
+    <row r="36" s="1" customFormat="1" spans="2:30">
+      <c r="B36"/>
+      <c r="C36"/>
+      <c r="D36"/>
+      <c r="E36"/>
+      <c r="F36"/>
+      <c r="G36"/>
+      <c r="H36"/>
+      <c r="I36"/>
+      <c r="J36"/>
+      <c r="K36"/>
+      <c r="L36"/>
+      <c r="M36"/>
+      <c r="N36"/>
+      <c r="O36"/>
+      <c r="P36"/>
+      <c r="Q36"/>
+      <c r="R36"/>
+      <c r="S36"/>
+      <c r="T36"/>
+      <c r="U36"/>
+      <c r="V36"/>
+      <c r="W36"/>
+      <c r="X36"/>
+      <c r="Y36"/>
+      <c r="Z36"/>
+      <c r="AA36"/>
+      <c r="AB36"/>
+      <c r="AC36"/>
+      <c r="AD36"/>
+    </row>
+    <row r="37" s="1" customFormat="1" spans="2:30">
+      <c r="B37"/>
+      <c r="C37"/>
+      <c r="D37"/>
+      <c r="E37"/>
+      <c r="F37"/>
+      <c r="G37"/>
+      <c r="H37"/>
+      <c r="I37"/>
+      <c r="J37"/>
+      <c r="K37"/>
+      <c r="L37"/>
+      <c r="M37"/>
+      <c r="N37"/>
+      <c r="O37"/>
+      <c r="P37"/>
+      <c r="Q37"/>
+      <c r="R37"/>
+      <c r="S37"/>
+      <c r="T37"/>
+      <c r="U37"/>
+      <c r="V37"/>
+      <c r="W37"/>
+      <c r="X37"/>
+      <c r="Y37"/>
+      <c r="Z37"/>
+      <c r="AA37"/>
+      <c r="AB37"/>
+      <c r="AC37"/>
+      <c r="AD37"/>
+    </row>
+    <row r="38" s="1" customFormat="1" spans="2:30">
+      <c r="B38"/>
+      <c r="C38"/>
+      <c r="D38"/>
+      <c r="E38"/>
+      <c r="F38"/>
+      <c r="G38"/>
+      <c r="H38"/>
+      <c r="I38"/>
+      <c r="J38"/>
+      <c r="K38"/>
+      <c r="L38"/>
+      <c r="M38"/>
+      <c r="N38"/>
+      <c r="O38"/>
+      <c r="P38"/>
+      <c r="Q38"/>
+      <c r="R38"/>
+      <c r="S38"/>
+      <c r="T38"/>
+      <c r="U38"/>
+      <c r="V38"/>
+      <c r="W38"/>
+      <c r="X38"/>
+      <c r="Y38"/>
+      <c r="Z38"/>
+      <c r="AA38"/>
+      <c r="AB38"/>
+      <c r="AC38"/>
+      <c r="AD38"/>
+    </row>
+    <row r="39" s="1" customFormat="1" spans="2:30">
+      <c r="B39"/>
+      <c r="C39"/>
+      <c r="D39"/>
+      <c r="E39"/>
+      <c r="F39"/>
+      <c r="G39"/>
+      <c r="H39"/>
+      <c r="I39"/>
+      <c r="J39"/>
+      <c r="K39"/>
+      <c r="L39"/>
+      <c r="M39"/>
+      <c r="N39"/>
+      <c r="O39"/>
+      <c r="P39"/>
+      <c r="Q39"/>
+      <c r="R39"/>
+      <c r="S39"/>
+      <c r="T39"/>
+      <c r="U39"/>
+      <c r="V39"/>
+      <c r="W39"/>
+      <c r="X39"/>
+      <c r="Y39"/>
+      <c r="Z39"/>
+      <c r="AA39"/>
+      <c r="AB39"/>
+      <c r="AC39"/>
+      <c r="AD39"/>
+    </row>
+    <row r="40" s="1" customFormat="1" spans="2:30">
+      <c r="B40"/>
+      <c r="C40"/>
+      <c r="D40"/>
+      <c r="E40"/>
+      <c r="F40"/>
+      <c r="G40"/>
+      <c r="H40"/>
+      <c r="I40"/>
+      <c r="J40"/>
+      <c r="K40"/>
+      <c r="L40"/>
+      <c r="M40"/>
+      <c r="N40"/>
+      <c r="O40"/>
+      <c r="P40"/>
+      <c r="Q40"/>
+      <c r="R40"/>
+      <c r="S40"/>
+      <c r="T40"/>
+      <c r="U40"/>
+      <c r="V40"/>
+      <c r="W40"/>
+      <c r="X40"/>
+      <c r="Y40"/>
+      <c r="Z40"/>
+      <c r="AA40"/>
+      <c r="AB40"/>
+      <c r="AC40"/>
+      <c r="AD40"/>
+    </row>
+    <row r="41" s="1" customFormat="1" spans="2:30">
+      <c r="B41"/>
+      <c r="C41"/>
+      <c r="D41"/>
+      <c r="E41"/>
+      <c r="F41"/>
+      <c r="G41"/>
+      <c r="H41"/>
+      <c r="I41"/>
+      <c r="J41"/>
+      <c r="K41"/>
+      <c r="L41"/>
+      <c r="M41"/>
+      <c r="N41"/>
+      <c r="O41"/>
+      <c r="P41"/>
+      <c r="Q41"/>
+      <c r="R41"/>
+      <c r="S41"/>
+      <c r="T41"/>
+      <c r="U41"/>
+      <c r="V41"/>
+      <c r="W41"/>
+      <c r="X41"/>
+      <c r="Y41"/>
+      <c r="Z41"/>
+      <c r="AA41"/>
+      <c r="AB41"/>
+      <c r="AC41"/>
+      <c r="AD41"/>
+    </row>
+    <row r="42" s="1" customFormat="1" spans="2:30">
+      <c r="B42"/>
+      <c r="C42"/>
+      <c r="D42"/>
+      <c r="E42"/>
+      <c r="F42"/>
+      <c r="G42"/>
+      <c r="H42"/>
+      <c r="I42"/>
+      <c r="J42"/>
+      <c r="K42"/>
+      <c r="L42"/>
+      <c r="M42"/>
+      <c r="N42"/>
+      <c r="O42"/>
+      <c r="P42"/>
+      <c r="Q42"/>
+      <c r="R42"/>
+      <c r="S42"/>
+      <c r="T42"/>
+      <c r="U42"/>
+      <c r="V42"/>
+      <c r="W42"/>
+      <c r="X42"/>
+      <c r="Y42"/>
+      <c r="Z42"/>
+      <c r="AA42"/>
+      <c r="AB42"/>
+      <c r="AC42"/>
+      <c r="AD42"/>
+    </row>
+    <row r="43" s="1" customFormat="1" spans="2:30">
+      <c r="B43"/>
+      <c r="C43"/>
+      <c r="D43"/>
+      <c r="E43"/>
+      <c r="F43"/>
+      <c r="G43"/>
+      <c r="H43"/>
+      <c r="I43"/>
+      <c r="J43"/>
+      <c r="K43"/>
+      <c r="L43"/>
+      <c r="M43"/>
+      <c r="N43"/>
+      <c r="O43"/>
+      <c r="P43"/>
+      <c r="Q43"/>
+      <c r="R43"/>
+      <c r="S43"/>
+      <c r="T43"/>
+      <c r="U43"/>
+      <c r="V43"/>
+      <c r="W43"/>
+      <c r="X43"/>
+      <c r="Y43"/>
+      <c r="Z43"/>
+      <c r="AA43"/>
+      <c r="AB43"/>
+      <c r="AC43"/>
+      <c r="AD43"/>
+    </row>
+    <row r="44" s="1" customFormat="1" spans="2:30">
+      <c r="B44"/>
+      <c r="C44"/>
+      <c r="D44"/>
+      <c r="E44"/>
+      <c r="F44"/>
+      <c r="G44"/>
+      <c r="H44"/>
+      <c r="I44"/>
+      <c r="J44"/>
+      <c r="K44"/>
+      <c r="L44"/>
+      <c r="M44"/>
+      <c r="N44"/>
+      <c r="O44"/>
+      <c r="P44"/>
+      <c r="Q44"/>
+      <c r="R44"/>
+      <c r="S44"/>
+      <c r="T44"/>
+      <c r="U44"/>
+      <c r="V44"/>
+      <c r="W44"/>
+      <c r="X44"/>
+      <c r="Y44"/>
+      <c r="Z44"/>
+      <c r="AA44"/>
+      <c r="AB44"/>
+      <c r="AC44"/>
+      <c r="AD44"/>
+    </row>
+    <row r="45" s="1" customFormat="1" spans="2:30">
+      <c r="B45"/>
+      <c r="C45"/>
+      <c r="D45"/>
+      <c r="E45"/>
+      <c r="F45"/>
+      <c r="G45"/>
+      <c r="H45"/>
+      <c r="I45"/>
+      <c r="J45"/>
+      <c r="K45"/>
+      <c r="L45"/>
+      <c r="M45"/>
+      <c r="N45"/>
+      <c r="O45"/>
+      <c r="P45"/>
+      <c r="Q45"/>
+      <c r="R45"/>
+      <c r="S45"/>
+      <c r="T45"/>
+      <c r="U45"/>
+      <c r="V45"/>
+      <c r="W45"/>
+      <c r="X45"/>
+      <c r="Y45"/>
+      <c r="Z45"/>
+      <c r="AA45"/>
+      <c r="AB45"/>
+      <c r="AC45"/>
+      <c r="AD45"/>
+    </row>
+    <row r="46" s="1" customFormat="1" spans="2:30">
+      <c r="B46"/>
+      <c r="C46"/>
+      <c r="D46"/>
+      <c r="E46"/>
+      <c r="F46"/>
+      <c r="G46"/>
+      <c r="H46"/>
+      <c r="I46"/>
+      <c r="J46"/>
+      <c r="K46"/>
+      <c r="L46"/>
+      <c r="M46"/>
+      <c r="N46"/>
+      <c r="O46"/>
+      <c r="P46"/>
+      <c r="Q46"/>
+      <c r="R46"/>
+      <c r="S46"/>
+      <c r="T46"/>
+      <c r="U46"/>
+      <c r="V46"/>
+      <c r="W46"/>
+      <c r="X46"/>
+      <c r="Y46"/>
+      <c r="Z46"/>
+      <c r="AA46"/>
+      <c r="AB46"/>
+      <c r="AC46"/>
+      <c r="AD46"/>
+    </row>
+    <row r="47" s="1" customFormat="1" spans="2:30">
+      <c r="B47"/>
+      <c r="C47"/>
+      <c r="D47"/>
+      <c r="E47"/>
+      <c r="F47"/>
+      <c r="G47"/>
+      <c r="H47"/>
+      <c r="I47"/>
+      <c r="J47"/>
+      <c r="K47"/>
+      <c r="L47"/>
+      <c r="M47"/>
+      <c r="N47"/>
+      <c r="O47"/>
+      <c r="P47"/>
+      <c r="Q47"/>
+      <c r="R47"/>
+      <c r="S47"/>
+      <c r="T47"/>
+      <c r="U47"/>
+      <c r="V47"/>
+      <c r="W47"/>
+      <c r="X47"/>
+      <c r="Y47"/>
+      <c r="Z47"/>
+      <c r="AA47"/>
+      <c r="AB47"/>
+      <c r="AC47"/>
+      <c r="AD47"/>
+    </row>
+    <row r="48" s="1" customFormat="1" spans="2:30">
+      <c r="B48"/>
+      <c r="C48"/>
+      <c r="D48"/>
+      <c r="E48"/>
+      <c r="F48"/>
+      <c r="G48"/>
+      <c r="H48"/>
+      <c r="I48"/>
+      <c r="J48"/>
+      <c r="K48"/>
+      <c r="L48"/>
+      <c r="M48"/>
+      <c r="N48"/>
+      <c r="O48"/>
+      <c r="P48"/>
+      <c r="Q48"/>
+      <c r="R48"/>
+      <c r="S48"/>
+      <c r="T48"/>
+      <c r="U48"/>
+      <c r="V48"/>
+      <c r="W48"/>
+      <c r="X48"/>
+      <c r="Y48"/>
+      <c r="Z48"/>
+      <c r="AA48"/>
+      <c r="AB48"/>
+      <c r="AC48"/>
+      <c r="AD48"/>
+    </row>
+    <row r="49" s="1" customFormat="1" spans="2:30">
+      <c r="B49"/>
+      <c r="C49"/>
+      <c r="D49"/>
+      <c r="E49"/>
+      <c r="F49"/>
+      <c r="G49"/>
+      <c r="H49"/>
+      <c r="I49"/>
+      <c r="J49"/>
+      <c r="K49"/>
+      <c r="L49"/>
+      <c r="M49"/>
+      <c r="N49"/>
+      <c r="O49"/>
+      <c r="P49"/>
+      <c r="Q49"/>
+      <c r="R49"/>
+      <c r="S49"/>
+      <c r="T49"/>
+      <c r="U49"/>
+      <c r="V49"/>
+      <c r="W49"/>
+      <c r="X49"/>
+      <c r="Y49"/>
+      <c r="Z49"/>
+      <c r="AA49"/>
+      <c r="AB49"/>
+      <c r="AC49"/>
+      <c r="AD49"/>
+    </row>
+    <row r="50" s="1" customFormat="1" spans="2:30">
+      <c r="B50"/>
+      <c r="C50"/>
+      <c r="D50"/>
+      <c r="E50"/>
+      <c r="F50"/>
+      <c r="G50"/>
+      <c r="H50"/>
+      <c r="I50"/>
+      <c r="J50"/>
+      <c r="K50"/>
+      <c r="L50"/>
+      <c r="M50"/>
+      <c r="N50"/>
+      <c r="O50"/>
+      <c r="P50"/>
+      <c r="Q50"/>
+      <c r="R50"/>
+      <c r="S50"/>
+      <c r="T50"/>
+      <c r="U50"/>
+      <c r="V50"/>
+      <c r="W50"/>
+      <c r="X50"/>
+      <c r="Y50"/>
+      <c r="Z50"/>
+      <c r="AA50"/>
+      <c r="AB50"/>
+      <c r="AC50"/>
+      <c r="AD50"/>
+    </row>
+    <row r="51" s="1" customFormat="1" spans="2:30">
+      <c r="B51"/>
+      <c r="C51"/>
+      <c r="D51"/>
+      <c r="E51"/>
+      <c r="F51"/>
+      <c r="G51"/>
+      <c r="H51"/>
+      <c r="I51"/>
+      <c r="J51"/>
+      <c r="K51"/>
+      <c r="L51"/>
+      <c r="M51"/>
+      <c r="N51"/>
+      <c r="O51"/>
+      <c r="P51"/>
+      <c r="Q51"/>
+      <c r="R51"/>
+      <c r="S51"/>
+      <c r="T51"/>
+      <c r="U51"/>
+      <c r="V51"/>
+      <c r="W51"/>
+      <c r="X51"/>
+      <c r="Y51"/>
+      <c r="Z51"/>
+      <c r="AA51"/>
+      <c r="AB51"/>
+      <c r="AC51"/>
+      <c r="AD51"/>
+    </row>
+    <row r="52" s="1" customFormat="1" spans="2:30">
+      <c r="B52"/>
+      <c r="C52"/>
+      <c r="D52"/>
+      <c r="E52"/>
+      <c r="F52"/>
+      <c r="G52"/>
+      <c r="H52"/>
+      <c r="I52"/>
+      <c r="J52"/>
+      <c r="K52"/>
+      <c r="L52"/>
+      <c r="M52"/>
+      <c r="N52"/>
+      <c r="O52"/>
+      <c r="P52"/>
+      <c r="Q52"/>
+      <c r="R52"/>
+      <c r="S52"/>
+      <c r="T52"/>
+      <c r="U52"/>
+      <c r="V52"/>
+      <c r="W52"/>
+      <c r="X52"/>
+      <c r="Y52"/>
+      <c r="Z52"/>
+      <c r="AA52"/>
+      <c r="AB52"/>
+      <c r="AC52"/>
+      <c r="AD52"/>
+    </row>
+    <row r="53" s="1" customFormat="1" spans="2:30">
+      <c r="B53"/>
+      <c r="C53"/>
+      <c r="D53"/>
+      <c r="E53"/>
+      <c r="F53"/>
+      <c r="G53"/>
+      <c r="H53"/>
+      <c r="I53"/>
+      <c r="J53"/>
+      <c r="K53"/>
+      <c r="L53"/>
+      <c r="M53"/>
+      <c r="N53"/>
+      <c r="O53"/>
+      <c r="P53"/>
+      <c r="Q53"/>
+      <c r="R53"/>
+      <c r="S53"/>
+      <c r="T53"/>
+      <c r="U53"/>
+      <c r="V53"/>
+      <c r="W53"/>
+      <c r="X53"/>
+      <c r="Y53"/>
+      <c r="Z53"/>
+      <c r="AA53"/>
+      <c r="AB53"/>
+      <c r="AC53"/>
+      <c r="AD53"/>
+    </row>
+    <row r="54" s="1" customFormat="1" spans="2:30">
+      <c r="B54"/>
+      <c r="C54"/>
+      <c r="D54"/>
+      <c r="E54"/>
+      <c r="F54"/>
+      <c r="G54"/>
+      <c r="H54"/>
+      <c r="I54"/>
+      <c r="J54"/>
+      <c r="K54"/>
+      <c r="L54"/>
+      <c r="M54"/>
+      <c r="N54"/>
+      <c r="O54"/>
+      <c r="P54"/>
+      <c r="Q54"/>
+      <c r="R54"/>
+      <c r="S54"/>
+      <c r="T54"/>
+      <c r="U54"/>
+      <c r="V54"/>
+      <c r="W54"/>
+      <c r="X54"/>
+      <c r="Y54"/>
+      <c r="Z54"/>
+      <c r="AA54"/>
+      <c r="AB54"/>
+      <c r="AC54"/>
+      <c r="AD54"/>
+    </row>
+    <row r="55" s="1" customFormat="1" spans="2:30">
+      <c r="B55"/>
+      <c r="C55"/>
+      <c r="D55"/>
+      <c r="E55"/>
+      <c r="F55"/>
+      <c r="G55"/>
+      <c r="H55"/>
+      <c r="I55"/>
+      <c r="J55"/>
+      <c r="K55"/>
+      <c r="L55"/>
+      <c r="M55"/>
+      <c r="N55"/>
+      <c r="O55"/>
+      <c r="P55"/>
+      <c r="Q55"/>
+      <c r="R55"/>
+      <c r="S55"/>
+      <c r="T55"/>
+      <c r="U55"/>
+      <c r="V55"/>
+      <c r="W55"/>
+      <c r="X55"/>
+      <c r="Y55"/>
+      <c r="Z55"/>
+      <c r="AA55"/>
+      <c r="AB55"/>
+      <c r="AC55"/>
+      <c r="AD55"/>
+    </row>
+    <row r="56" s="1" customFormat="1" spans="2:30">
+      <c r="B56"/>
+      <c r="C56"/>
+      <c r="D56"/>
+      <c r="E56"/>
+      <c r="F56"/>
+      <c r="G56"/>
+      <c r="H56"/>
+      <c r="I56"/>
+      <c r="J56"/>
+      <c r="K56"/>
+      <c r="L56"/>
+      <c r="M56"/>
+      <c r="N56"/>
+      <c r="O56"/>
+      <c r="P56"/>
+      <c r="Q56"/>
+      <c r="R56"/>
+      <c r="S56"/>
+      <c r="T56"/>
+      <c r="U56"/>
+      <c r="V56"/>
+      <c r="W56"/>
+      <c r="X56"/>
+      <c r="Y56"/>
+      <c r="Z56"/>
+      <c r="AA56"/>
+      <c r="AB56"/>
+      <c r="AC56"/>
+      <c r="AD56"/>
+    </row>
+    <row r="57" s="1" customFormat="1" spans="2:30">
+      <c r="B57"/>
+      <c r="C57"/>
+      <c r="D57"/>
+      <c r="E57"/>
+      <c r="F57"/>
+      <c r="G57"/>
+      <c r="H57"/>
+      <c r="I57"/>
+      <c r="J57"/>
+      <c r="K57"/>
+      <c r="L57"/>
+      <c r="M57"/>
+      <c r="N57"/>
+      <c r="O57"/>
+      <c r="P57"/>
+      <c r="Q57"/>
+      <c r="R57"/>
+      <c r="S57"/>
+      <c r="T57"/>
+      <c r="U57"/>
+      <c r="V57"/>
+      <c r="W57"/>
+      <c r="X57"/>
+      <c r="Y57"/>
+      <c r="Z57"/>
+      <c r="AA57"/>
+      <c r="AB57"/>
+      <c r="AC57"/>
+      <c r="AD57"/>
+    </row>
+    <row r="58" s="1" customFormat="1" spans="2:30">
+      <c r="B58"/>
+      <c r="C58"/>
+      <c r="D58"/>
+      <c r="E58"/>
+      <c r="F58"/>
+      <c r="G58"/>
+      <c r="H58"/>
+      <c r="I58"/>
+      <c r="J58"/>
+      <c r="K58"/>
+      <c r="L58"/>
+      <c r="M58"/>
+      <c r="N58"/>
+      <c r="O58"/>
+      <c r="P58"/>
+      <c r="Q58"/>
+      <c r="R58"/>
+      <c r="S58"/>
+      <c r="T58"/>
+      <c r="U58"/>
+      <c r="V58"/>
+      <c r="W58"/>
+      <c r="X58"/>
+      <c r="Y58"/>
+      <c r="Z58"/>
+      <c r="AA58"/>
+      <c r="AB58"/>
+      <c r="AC58"/>
+      <c r="AD58"/>
+    </row>
+    <row r="59" s="1" customFormat="1" spans="2:30">
+      <c r="B59"/>
+      <c r="C59"/>
+      <c r="D59"/>
+      <c r="E59"/>
+      <c r="F59"/>
+      <c r="G59"/>
+      <c r="H59"/>
+      <c r="I59"/>
+      <c r="J59"/>
+      <c r="K59"/>
+      <c r="L59"/>
+      <c r="M59"/>
+      <c r="N59"/>
+      <c r="O59"/>
+      <c r="P59"/>
+      <c r="Q59"/>
+      <c r="R59"/>
+      <c r="S59"/>
+      <c r="T59"/>
+      <c r="U59"/>
+      <c r="V59"/>
+      <c r="W59"/>
+      <c r="X59"/>
+      <c r="Y59"/>
+      <c r="Z59"/>
+      <c r="AA59"/>
+      <c r="AB59"/>
+      <c r="AC59"/>
+      <c r="AD59"/>
+    </row>
+    <row r="60" s="1" customFormat="1" spans="2:30">
+      <c r="B60"/>
+      <c r="C60"/>
+      <c r="D60"/>
+      <c r="E60"/>
+      <c r="F60"/>
+      <c r="G60"/>
+      <c r="H60"/>
+      <c r="I60"/>
+      <c r="J60"/>
+      <c r="K60"/>
+      <c r="L60"/>
+      <c r="M60"/>
+      <c r="N60"/>
+      <c r="O60"/>
+      <c r="P60"/>
+      <c r="Q60"/>
+      <c r="R60"/>
+      <c r="S60"/>
+      <c r="T60"/>
+      <c r="U60"/>
+      <c r="V60"/>
+      <c r="W60"/>
+      <c r="X60"/>
+      <c r="Y60"/>
+      <c r="Z60"/>
+      <c r="AA60"/>
+      <c r="AB60"/>
+      <c r="AC60"/>
+      <c r="AD60"/>
+    </row>
+    <row r="61" s="1" customFormat="1" spans="2:30">
+      <c r="B61"/>
+      <c r="C61"/>
+      <c r="D61"/>
+      <c r="E61"/>
+      <c r="F61"/>
+      <c r="G61"/>
+      <c r="H61"/>
+      <c r="I61"/>
+      <c r="J61"/>
+      <c r="K61"/>
+      <c r="L61"/>
+      <c r="M61"/>
+      <c r="N61"/>
+      <c r="O61"/>
+      <c r="P61"/>
+      <c r="Q61"/>
+      <c r="R61"/>
+      <c r="S61"/>
+      <c r="T61"/>
+      <c r="U61"/>
+      <c r="V61"/>
+      <c r="W61"/>
+      <c r="X61"/>
+      <c r="Y61"/>
+      <c r="Z61"/>
+      <c r="AA61"/>
+      <c r="AB61"/>
+      <c r="AC61"/>
+      <c r="AD61"/>
+    </row>
+    <row r="62" s="1" customFormat="1" spans="2:30">
+      <c r="B62"/>
+      <c r="C62"/>
+      <c r="D62"/>
+      <c r="E62"/>
+      <c r="F62"/>
+      <c r="G62"/>
+      <c r="H62"/>
+      <c r="I62"/>
+      <c r="J62"/>
+      <c r="K62"/>
+      <c r="L62"/>
+      <c r="M62"/>
+      <c r="N62"/>
+      <c r="O62"/>
+      <c r="P62"/>
+      <c r="Q62"/>
+      <c r="R62"/>
+      <c r="S62"/>
+      <c r="T62"/>
+      <c r="U62"/>
+      <c r="V62"/>
+      <c r="W62"/>
+      <c r="X62"/>
+      <c r="Y62"/>
+      <c r="Z62"/>
+      <c r="AA62"/>
+      <c r="AB62"/>
+      <c r="AC62"/>
+      <c r="AD62"/>
+    </row>
+    <row r="63" s="1" customFormat="1" spans="2:30">
+      <c r="B63"/>
+      <c r="C63"/>
+      <c r="D63"/>
+      <c r="E63"/>
+      <c r="F63"/>
+      <c r="G63"/>
+      <c r="H63"/>
+      <c r="I63"/>
+      <c r="J63"/>
+      <c r="K63"/>
+      <c r="L63"/>
+      <c r="M63"/>
+      <c r="N63"/>
+      <c r="O63"/>
+      <c r="P63"/>
+      <c r="Q63"/>
+      <c r="R63"/>
+      <c r="S63"/>
+      <c r="T63"/>
+      <c r="U63"/>
+      <c r="V63"/>
+      <c r="W63"/>
+      <c r="X63"/>
+      <c r="Y63"/>
+      <c r="Z63"/>
+      <c r="AA63"/>
+      <c r="AB63"/>
+      <c r="AC63"/>
+      <c r="AD63"/>
+    </row>
+    <row r="64" s="1" customFormat="1" spans="2:30">
+      <c r="B64"/>
+      <c r="C64"/>
+      <c r="D64"/>
+      <c r="E64"/>
+      <c r="F64"/>
+      <c r="G64"/>
+      <c r="H64"/>
+      <c r="I64"/>
+      <c r="J64"/>
+      <c r="K64"/>
+      <c r="L64"/>
+      <c r="M64"/>
+      <c r="N64"/>
+      <c r="O64"/>
+      <c r="P64"/>
+      <c r="Q64"/>
+      <c r="R64"/>
+      <c r="S64"/>
+      <c r="T64"/>
+      <c r="U64"/>
+      <c r="V64"/>
+      <c r="W64"/>
+      <c r="X64"/>
+      <c r="Y64"/>
+      <c r="Z64"/>
+      <c r="AA64"/>
+      <c r="AB64"/>
+      <c r="AC64"/>
+      <c r="AD64"/>
+    </row>
+    <row r="65" s="1" customFormat="1" spans="2:30">
+      <c r="B65"/>
+      <c r="C65"/>
+      <c r="D65"/>
+      <c r="E65"/>
+      <c r="F65"/>
+      <c r="G65"/>
+      <c r="H65"/>
+      <c r="I65"/>
+      <c r="J65"/>
+      <c r="K65"/>
+      <c r="L65"/>
+      <c r="M65"/>
+      <c r="N65"/>
+      <c r="O65"/>
+      <c r="P65"/>
+      <c r="Q65"/>
+      <c r="R65"/>
+      <c r="S65"/>
+      <c r="T65"/>
+      <c r="U65"/>
+      <c r="V65"/>
+      <c r="W65"/>
+      <c r="X65"/>
+      <c r="Y65"/>
+      <c r="Z65"/>
+      <c r="AA65"/>
+      <c r="AB65"/>
+      <c r="AC65"/>
+      <c r="AD65"/>
     </row>
   </sheetData>
-  <hyperlinks>
-    <hyperlink ref="A1" r:id="rId2" display="https://e.dangdang.com/pc/reader/index.html?id=1901087681"/>
-  </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
-  <drawing r:id="rId1"/>
 </worksheet>
 </file>